--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61C30A-B8CA-4288-855F-24D480D9047E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7F294-2488-4E5A-982B-B24980046BE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="351">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -1973,6 +1973,9 @@
   <si>
     <t>Unemployment $300 (round 2)</t>
   </si>
+  <si>
+    <t>add_state_purchases</t>
+  </si>
 </sst>
 </file>
 
@@ -1990,7 +1993,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,12 +2224,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -3241,6 +3238,32 @@
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3307,21 +3330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3343,44 +3351,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3872,11 +3869,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="L68" sqref="L68:R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3896,10 +3893,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="300" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="286"/>
+      <c r="B1" s="300"/>
       <c r="C1" s="280"/>
       <c r="D1" s="280"/>
       <c r="E1" s="35"/>
@@ -3909,75 +3906,75 @@
       <c r="AB1" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="AC1" s="288" t="s">
+      <c r="AC1" s="302" t="s">
         <v>247</v>
       </c>
-      <c r="AD1" s="288"/>
-      <c r="AE1" s="288"/>
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="302"/>
       <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="289" t="s">
+      <c r="AH1" s="303" t="s">
         <v>281</v>
       </c>
-      <c r="AI1" s="289"/>
-      <c r="AJ1" s="289"/>
-      <c r="AK1" s="289"/>
-      <c r="AL1" s="287" t="s">
+      <c r="AI1" s="303"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="301" t="s">
         <v>279</v>
       </c>
-      <c r="AM1" s="287"/>
-      <c r="AN1" s="287"/>
-      <c r="AO1" s="287"/>
+      <c r="AM1" s="301"/>
+      <c r="AN1" s="301"/>
+      <c r="AO1" s="301"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="F2" s="285" t="s">
+      <c r="F2" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="285"/>
-      <c r="H2" s="285"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285" t="s">
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="285"/>
-      <c r="L2" s="285"/>
-      <c r="M2" s="285"/>
-      <c r="N2" s="285" t="s">
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285" t="s">
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
+      <c r="R2" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="285"/>
-      <c r="T2" s="285"/>
-      <c r="U2" s="285"/>
-      <c r="V2" s="285" t="s">
+      <c r="S2" s="299"/>
+      <c r="T2" s="299"/>
+      <c r="U2" s="299"/>
+      <c r="V2" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="285"/>
-      <c r="X2" s="285"/>
-      <c r="Y2" s="285"/>
+      <c r="W2" s="299"/>
+      <c r="X2" s="299"/>
+      <c r="Y2" s="299"/>
       <c r="Z2" s="229"/>
       <c r="AA2" s="229"/>
       <c r="AB2" s="156"/>
-      <c r="AC2" s="285" t="s">
+      <c r="AC2" s="299" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="285"/>
-      <c r="AE2" s="285"/>
+      <c r="AD2" s="299"/>
+      <c r="AE2" s="299"/>
       <c r="AF2" s="156"/>
       <c r="AG2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="285" t="s">
+      <c r="AH2" s="299" t="s">
         <v>102</v>
       </c>
-      <c r="AI2" s="285"/>
-      <c r="AJ2" s="285"/>
+      <c r="AI2" s="299"/>
+      <c r="AJ2" s="299"/>
       <c r="AK2" s="230"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
@@ -4082,10 +4079,10 @@
       </c>
     </row>
     <row r="4" spans="1:42" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="298" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="284"/>
+      <c r="B4" s="298"/>
       <c r="C4" s="280"/>
       <c r="D4" s="280"/>
       <c r="F4" s="199"/>
@@ -6021,38 +6018,38 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="184"/>
     </row>
-    <row r="33" spans="1:40" s="327" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="336" t="s">
+    <row r="33" spans="1:40" s="287" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="296" t="s">
         <v>343</v>
       </c>
-      <c r="F33" s="328"/>
-      <c r="G33" s="328"/>
-      <c r="H33" s="328"/>
-      <c r="I33" s="328"/>
-      <c r="J33" s="328"/>
-      <c r="K33" s="328"/>
-      <c r="L33" s="328"/>
-      <c r="M33" s="329"/>
-      <c r="N33" s="330"/>
-      <c r="O33" s="330">
+      <c r="F33" s="288"/>
+      <c r="G33" s="288"/>
+      <c r="H33" s="288"/>
+      <c r="I33" s="288"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="288"/>
+      <c r="L33" s="288"/>
+      <c r="M33" s="289"/>
+      <c r="N33" s="290"/>
+      <c r="O33" s="290">
         <f>SUM(L32:P32)/2</f>
         <v>562800</v>
       </c>
-      <c r="P33" s="330"/>
-      <c r="Q33" s="330"/>
-      <c r="R33" s="330"/>
-      <c r="S33" s="330"/>
-      <c r="T33" s="330"/>
-      <c r="U33" s="330"/>
-      <c r="AC33" s="332"/>
-      <c r="AD33" s="332"/>
-      <c r="AE33" s="332"/>
-      <c r="AF33" s="331"/>
-      <c r="AH33" s="331"/>
-      <c r="AI33" s="331"/>
-      <c r="AJ33" s="331"/>
-      <c r="AK33" s="331"/>
-      <c r="AL33" s="333"/>
+      <c r="P33" s="290"/>
+      <c r="Q33" s="290"/>
+      <c r="R33" s="290"/>
+      <c r="S33" s="290"/>
+      <c r="T33" s="290"/>
+      <c r="U33" s="290"/>
+      <c r="AC33" s="292"/>
+      <c r="AD33" s="292"/>
+      <c r="AE33" s="292"/>
+      <c r="AF33" s="291"/>
+      <c r="AH33" s="291"/>
+      <c r="AI33" s="291"/>
+      <c r="AJ33" s="291"/>
+      <c r="AK33" s="291"/>
+      <c r="AL33" s="293"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="86" t="s">
@@ -6232,7 +6229,7 @@
         <v>108000</v>
       </c>
       <c r="Q36" s="87">
-        <f t="shared" ref="O36:Q36" si="26">Q37+Q38+Q39</f>
+        <f t="shared" ref="Q36" si="26">Q37+Q38+Q39</f>
         <v>0</v>
       </c>
       <c r="R36" s="87">
@@ -6381,44 +6378,44 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="184"/>
     </row>
-    <row r="39" spans="1:40" s="327" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="326" t="s">
+    <row r="39" spans="1:40" s="287" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="286" t="s">
         <v>349</v>
       </c>
-      <c r="F39" s="328"/>
-      <c r="G39" s="328"/>
-      <c r="H39" s="328"/>
-      <c r="I39" s="328"/>
-      <c r="J39" s="328"/>
-      <c r="K39" s="328"/>
-      <c r="L39" s="328"/>
-      <c r="M39" s="329"/>
-      <c r="N39" s="330"/>
-      <c r="O39" s="330">
+      <c r="F39" s="288"/>
+      <c r="G39" s="288"/>
+      <c r="H39" s="288"/>
+      <c r="I39" s="288"/>
+      <c r="J39" s="288"/>
+      <c r="K39" s="288"/>
+      <c r="L39" s="288"/>
+      <c r="M39" s="289"/>
+      <c r="N39" s="290"/>
+      <c r="O39" s="290">
         <v>720000</v>
       </c>
-      <c r="P39" s="330"/>
-      <c r="Q39" s="330"/>
-      <c r="R39" s="330"/>
-      <c r="S39" s="330"/>
-      <c r="T39" s="330"/>
-      <c r="U39" s="330"/>
-      <c r="V39" s="331"/>
-      <c r="W39" s="331"/>
-      <c r="X39" s="331"/>
-      <c r="Y39" s="331"/>
-      <c r="Z39" s="331"/>
-      <c r="AA39" s="331"/>
-      <c r="AB39" s="331"/>
-      <c r="AC39" s="332"/>
-      <c r="AD39" s="332"/>
-      <c r="AE39" s="332"/>
-      <c r="AF39" s="331"/>
-      <c r="AH39" s="331"/>
-      <c r="AI39" s="331"/>
-      <c r="AJ39" s="331"/>
-      <c r="AK39" s="331"/>
-      <c r="AL39" s="333"/>
+      <c r="P39" s="290"/>
+      <c r="Q39" s="290"/>
+      <c r="R39" s="290"/>
+      <c r="S39" s="290"/>
+      <c r="T39" s="290"/>
+      <c r="U39" s="290"/>
+      <c r="V39" s="291"/>
+      <c r="W39" s="291"/>
+      <c r="X39" s="291"/>
+      <c r="Y39" s="291"/>
+      <c r="Z39" s="291"/>
+      <c r="AA39" s="291"/>
+      <c r="AB39" s="291"/>
+      <c r="AC39" s="292"/>
+      <c r="AD39" s="292"/>
+      <c r="AE39" s="292"/>
+      <c r="AF39" s="291"/>
+      <c r="AH39" s="291"/>
+      <c r="AI39" s="291"/>
+      <c r="AJ39" s="291"/>
+      <c r="AK39" s="291"/>
+      <c r="AL39" s="293"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="117" t="s">
@@ -7146,7 +7143,7 @@
       <c r="AL50" s="243"/>
     </row>
     <row r="51" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="324" t="s">
+      <c r="A51" s="284" t="s">
         <v>338</v>
       </c>
       <c r="C51" t="s">
@@ -7270,8 +7267,8 @@
       <c r="AF52" s="44"/>
       <c r="AL52" s="243"/>
     </row>
-    <row r="53" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="325" t="s">
+    <row r="53" spans="1:38" s="187" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="285" t="s">
         <v>284</v>
       </c>
       <c r="B53" s="187" t="s">
@@ -7315,8 +7312,8 @@
       <c r="AF53" s="189"/>
       <c r="AL53" s="244"/>
     </row>
-    <row r="54" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="325" t="s">
+    <row r="54" spans="1:38" s="187" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="285" t="s">
         <v>285</v>
       </c>
       <c r="B54" s="187" t="s">
@@ -7360,8 +7357,8 @@
       <c r="AF54" s="189"/>
       <c r="AL54" s="244"/>
     </row>
-    <row r="55" spans="1:38" s="187" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="325" t="s">
+    <row r="55" spans="1:38" s="187" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="285" t="s">
         <v>286</v>
       </c>
       <c r="B55" s="187" t="s">
@@ -7440,44 +7437,44 @@
       <c r="AF56" s="189"/>
       <c r="AL56" s="244"/>
     </row>
-    <row r="57" spans="1:38" s="327" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="326" t="s">
+    <row r="57" spans="1:38" s="287" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="286" t="s">
         <v>339</v>
       </c>
-      <c r="F57" s="329"/>
-      <c r="G57" s="329"/>
-      <c r="H57" s="329"/>
-      <c r="I57" s="328"/>
-      <c r="J57" s="328"/>
-      <c r="K57" s="328"/>
-      <c r="L57" s="328"/>
-      <c r="M57" s="329"/>
-      <c r="N57" s="334"/>
-      <c r="O57" s="334">
+      <c r="F57" s="289"/>
+      <c r="G57" s="289"/>
+      <c r="H57" s="289"/>
+      <c r="I57" s="288"/>
+      <c r="J57" s="288"/>
+      <c r="K57" s="288"/>
+      <c r="L57" s="288"/>
+      <c r="M57" s="289"/>
+      <c r="N57" s="294"/>
+      <c r="O57" s="294">
         <v>400000</v>
       </c>
-      <c r="P57" s="334">
+      <c r="P57" s="294">
         <v>400000</v>
       </c>
-      <c r="Q57" s="334">
+      <c r="Q57" s="294">
         <v>400000</v>
       </c>
-      <c r="R57" s="334"/>
-      <c r="S57" s="334"/>
-      <c r="T57" s="334"/>
-      <c r="U57" s="334"/>
-      <c r="V57" s="334"/>
-      <c r="W57" s="331"/>
-      <c r="X57" s="331"/>
-      <c r="Y57" s="331"/>
-      <c r="Z57" s="331"/>
-      <c r="AA57" s="331"/>
-      <c r="AB57" s="331"/>
-      <c r="AC57" s="331"/>
-      <c r="AD57" s="331"/>
-      <c r="AE57" s="331"/>
-      <c r="AF57" s="331"/>
-      <c r="AL57" s="335"/>
+      <c r="R57" s="294"/>
+      <c r="S57" s="294"/>
+      <c r="T57" s="294"/>
+      <c r="U57" s="294"/>
+      <c r="V57" s="294"/>
+      <c r="W57" s="291"/>
+      <c r="X57" s="291"/>
+      <c r="Y57" s="291"/>
+      <c r="Z57" s="291"/>
+      <c r="AA57" s="291"/>
+      <c r="AB57" s="291"/>
+      <c r="AC57" s="291"/>
+      <c r="AD57" s="291"/>
+      <c r="AE57" s="291"/>
+      <c r="AF57" s="291"/>
+      <c r="AL57" s="295"/>
     </row>
     <row r="58" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="134"/>
@@ -7802,7 +7799,7 @@
         <v>50000</v>
       </c>
       <c r="V63" s="116">
-        <f t="shared" ref="O63:W63" si="43">SUM(V65:V71)</f>
+        <f t="shared" ref="V63:W63" si="43">SUM(V65:V71)</f>
         <v>50000</v>
       </c>
       <c r="W63" s="116">
@@ -8017,9 +8014,18 @@
       <c r="L68" s="204"/>
       <c r="M68" s="199"/>
       <c r="N68" s="116"/>
-      <c r="O68" s="116"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="116"/>
+      <c r="O68" s="116">
+        <f>SUM(O69:O71)</f>
+        <v>190660</v>
+      </c>
+      <c r="P68" s="116">
+        <f t="shared" ref="P68:Q68" si="44">SUM(P69:P71)</f>
+        <v>190660</v>
+      </c>
+      <c r="Q68" s="116">
+        <f t="shared" si="44"/>
+        <v>190660</v>
+      </c>
       <c r="R68" s="116"/>
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
@@ -8037,122 +8043,122 @@
       <c r="AF68" s="44"/>
       <c r="AL68" s="243"/>
     </row>
-    <row r="69" spans="1:38" s="327" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="337" t="s">
+    <row r="69" spans="1:38" s="287" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="297" t="s">
         <v>346</v>
       </c>
-      <c r="F69" s="329"/>
-      <c r="G69" s="329"/>
-      <c r="H69" s="329"/>
-      <c r="I69" s="328"/>
-      <c r="J69" s="328"/>
-      <c r="K69" s="328"/>
-      <c r="L69" s="328"/>
-      <c r="M69" s="329"/>
-      <c r="N69" s="334"/>
-      <c r="O69" s="334">
+      <c r="F69" s="289"/>
+      <c r="G69" s="289"/>
+      <c r="H69" s="289"/>
+      <c r="I69" s="288"/>
+      <c r="J69" s="288"/>
+      <c r="K69" s="288"/>
+      <c r="L69" s="288"/>
+      <c r="M69" s="289"/>
+      <c r="N69" s="294"/>
+      <c r="O69" s="294">
         <v>60000</v>
       </c>
-      <c r="P69" s="334">
+      <c r="P69" s="294">
         <v>60000</v>
       </c>
-      <c r="Q69" s="334">
+      <c r="Q69" s="294">
         <v>60000</v>
       </c>
-      <c r="R69" s="334"/>
-      <c r="S69" s="331"/>
-      <c r="T69" s="331"/>
-      <c r="U69" s="331"/>
-      <c r="V69" s="331"/>
-      <c r="W69" s="331"/>
-      <c r="X69" s="331"/>
-      <c r="Y69" s="331"/>
-      <c r="Z69" s="331"/>
-      <c r="AA69" s="331"/>
-      <c r="AB69" s="331"/>
-      <c r="AC69" s="331"/>
-      <c r="AD69" s="331"/>
-      <c r="AE69" s="331"/>
-      <c r="AF69" s="331"/>
-      <c r="AL69" s="335"/>
-    </row>
-    <row r="70" spans="1:38" s="327" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="337" t="s">
+      <c r="R69" s="294"/>
+      <c r="S69" s="291"/>
+      <c r="T69" s="291"/>
+      <c r="U69" s="291"/>
+      <c r="V69" s="291"/>
+      <c r="W69" s="291"/>
+      <c r="X69" s="291"/>
+      <c r="Y69" s="291"/>
+      <c r="Z69" s="291"/>
+      <c r="AA69" s="291"/>
+      <c r="AB69" s="291"/>
+      <c r="AC69" s="291"/>
+      <c r="AD69" s="291"/>
+      <c r="AE69" s="291"/>
+      <c r="AF69" s="291"/>
+      <c r="AL69" s="295"/>
+    </row>
+    <row r="70" spans="1:38" s="287" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="297" t="s">
         <v>347</v>
       </c>
-      <c r="F70" s="329"/>
-      <c r="G70" s="329"/>
-      <c r="H70" s="329"/>
-      <c r="I70" s="328"/>
-      <c r="J70" s="328"/>
-      <c r="K70" s="328"/>
-      <c r="L70" s="328"/>
-      <c r="M70" s="329"/>
-      <c r="N70" s="334"/>
-      <c r="O70" s="334">
+      <c r="F70" s="289"/>
+      <c r="G70" s="289"/>
+      <c r="H70" s="289"/>
+      <c r="I70" s="288"/>
+      <c r="J70" s="288"/>
+      <c r="K70" s="288"/>
+      <c r="L70" s="288"/>
+      <c r="M70" s="289"/>
+      <c r="N70" s="294"/>
+      <c r="O70" s="294">
         <v>109330</v>
       </c>
-      <c r="P70" s="334">
+      <c r="P70" s="294">
         <v>109330</v>
       </c>
-      <c r="Q70" s="334">
+      <c r="Q70" s="294">
         <v>109330</v>
       </c>
-      <c r="R70" s="334"/>
-      <c r="S70" s="331"/>
-      <c r="T70" s="331"/>
-      <c r="U70" s="331"/>
-      <c r="V70" s="331"/>
-      <c r="W70" s="331"/>
-      <c r="X70" s="331"/>
-      <c r="Y70" s="331"/>
-      <c r="Z70" s="331"/>
-      <c r="AA70" s="331"/>
-      <c r="AB70" s="331"/>
-      <c r="AC70" s="331"/>
-      <c r="AD70" s="331"/>
-      <c r="AE70" s="331"/>
-      <c r="AF70" s="331"/>
-      <c r="AL70" s="335"/>
-    </row>
-    <row r="71" spans="1:38" s="327" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="337" t="s">
+      <c r="R70" s="294"/>
+      <c r="S70" s="291"/>
+      <c r="T70" s="291"/>
+      <c r="U70" s="291"/>
+      <c r="V70" s="291"/>
+      <c r="W70" s="291"/>
+      <c r="X70" s="291"/>
+      <c r="Y70" s="291"/>
+      <c r="Z70" s="291"/>
+      <c r="AA70" s="291"/>
+      <c r="AB70" s="291"/>
+      <c r="AC70" s="291"/>
+      <c r="AD70" s="291"/>
+      <c r="AE70" s="291"/>
+      <c r="AF70" s="291"/>
+      <c r="AL70" s="295"/>
+    </row>
+    <row r="71" spans="1:38" s="287" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="297" t="s">
         <v>348</v>
       </c>
-      <c r="F71" s="329"/>
-      <c r="G71" s="329"/>
-      <c r="H71" s="329"/>
-      <c r="I71" s="328"/>
-      <c r="J71" s="328"/>
-      <c r="K71" s="328"/>
-      <c r="L71" s="328"/>
-      <c r="M71" s="329"/>
-      <c r="N71" s="334"/>
-      <c r="O71" s="334">
+      <c r="F71" s="289"/>
+      <c r="G71" s="289"/>
+      <c r="H71" s="289"/>
+      <c r="I71" s="288"/>
+      <c r="J71" s="288"/>
+      <c r="K71" s="288"/>
+      <c r="L71" s="288"/>
+      <c r="M71" s="289"/>
+      <c r="N71" s="294"/>
+      <c r="O71" s="294">
         <v>21330</v>
       </c>
-      <c r="P71" s="334">
+      <c r="P71" s="294">
         <v>21330</v>
       </c>
-      <c r="Q71" s="334">
+      <c r="Q71" s="294">
         <v>21330</v>
       </c>
-      <c r="R71" s="334"/>
-      <c r="S71" s="331"/>
-      <c r="T71" s="331"/>
-      <c r="U71" s="331"/>
-      <c r="V71" s="331"/>
-      <c r="W71" s="331"/>
-      <c r="X71" s="331"/>
-      <c r="Y71" s="331"/>
-      <c r="Z71" s="331"/>
-      <c r="AA71" s="331"/>
-      <c r="AB71" s="331"/>
-      <c r="AC71" s="331"/>
-      <c r="AD71" s="331"/>
-      <c r="AE71" s="331"/>
-      <c r="AF71" s="331"/>
-      <c r="AL71" s="335"/>
+      <c r="R71" s="294"/>
+      <c r="S71" s="291"/>
+      <c r="T71" s="291"/>
+      <c r="U71" s="291"/>
+      <c r="V71" s="291"/>
+      <c r="W71" s="291"/>
+      <c r="X71" s="291"/>
+      <c r="Y71" s="291"/>
+      <c r="Z71" s="291"/>
+      <c r="AA71" s="291"/>
+      <c r="AB71" s="291"/>
+      <c r="AC71" s="291"/>
+      <c r="AD71" s="291"/>
+      <c r="AE71" s="291"/>
+      <c r="AF71" s="291"/>
+      <c r="AL71" s="295"/>
     </row>
     <row r="72" spans="1:38" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="145" t="s">
@@ -8174,47 +8180,47 @@
         <v>279250</v>
       </c>
       <c r="M72" s="199">
-        <f t="shared" ref="M72:W72" si="44">M61+M63</f>
+        <f t="shared" ref="M72:W72" si="45">M61+M63</f>
         <v>286950.6143673578</v>
       </c>
       <c r="N72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>298372.88477706735</v>
       </c>
       <c r="O72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>472800.99544764287</v>
       </c>
       <c r="P72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>445682.43392207247</v>
       </c>
       <c r="Q72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>446714.97613497748</v>
       </c>
       <c r="R72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>251544.37969325102</v>
       </c>
       <c r="S72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>247240.80684971521</v>
       </c>
       <c r="T72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>248958.57178194768</v>
       </c>
       <c r="U72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>250866.80125051294</v>
       </c>
       <c r="V72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>252622.47677399646</v>
       </c>
       <c r="W72" s="144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>254572.45802602731</v>
       </c>
       <c r="X72" s="44"/>
@@ -8416,43 +8422,43 @@
         <v>7.4875799399045651E-3</v>
       </c>
       <c r="O76" s="188">
-        <f t="shared" ref="O76:V76" si="45">O75/N75-1</f>
+        <f t="shared" ref="O76:V76" si="46">O75/N75-1</f>
         <v>4.0136860113193507E-3</v>
       </c>
       <c r="P76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.5874565829953085E-3</v>
       </c>
       <c r="Q76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5.3493378563544969E-3</v>
       </c>
       <c r="R76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>7.6751629251576858E-3</v>
       </c>
       <c r="S76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8.675407388979206E-3</v>
       </c>
       <c r="T76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8.7089733593581631E-3</v>
       </c>
       <c r="U76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9.5910894990571816E-3</v>
       </c>
       <c r="V76" s="188">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8.7404962520107876E-3</v>
       </c>
       <c r="W76" s="188">
-        <f t="shared" ref="W76" si="46">W75/V75-1</f>
+        <f t="shared" ref="W76" si="47">W75/V75-1</f>
         <v>9.6237163965073869E-3</v>
       </c>
       <c r="X76" s="188">
-        <f t="shared" ref="X76" si="47">X75/W75-1</f>
+        <f t="shared" ref="X76" si="48">X75/W75-1</f>
         <v>8.7455736250123817E-3</v>
       </c>
       <c r="Y76" s="188">
@@ -8460,7 +8466,7 @@
         <v>9.6201658414407643E-3</v>
       </c>
       <c r="Z76" s="188">
-        <f t="shared" ref="Z76" si="48">Z75/Y75-1</f>
+        <f t="shared" ref="Z76" si="49">Z75/Y75-1</f>
         <v>3.1021950970274714E-2</v>
       </c>
       <c r="AA76" s="188"/>
@@ -8510,27 +8516,27 @@
         <v>486072</v>
       </c>
       <c r="N77" s="116">
-        <f t="shared" ref="N77:S77" si="49">N84*0.74</f>
+        <f t="shared" ref="N77:S77" si="50">N84*0.74</f>
         <v>520762.48586017155</v>
       </c>
       <c r="O77" s="116">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>530153.75073570432</v>
       </c>
       <c r="P77" s="116">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>535444.10571143136</v>
       </c>
       <c r="Q77" s="116">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>535444.10571143136</v>
       </c>
       <c r="R77" s="116">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>535444.10571143136</v>
       </c>
       <c r="S77" s="116">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>535444.10571143136</v>
       </c>
       <c r="T77" s="116">
@@ -8591,35 +8597,35 @@
       <c r="B78" s="141"/>
       <c r="E78" s="141"/>
       <c r="F78" s="203">
-        <f>F44+F41+F32+F36</f>
+        <f t="shared" ref="F78:M78" si="51">F44+F41+F32+F36</f>
         <v>1440187</v>
       </c>
       <c r="G78" s="203">
-        <f>G44+G41+G32+G36</f>
+        <f t="shared" si="51"/>
         <v>1503410</v>
       </c>
       <c r="H78" s="203">
-        <f>H44+H41+H32+H36</f>
+        <f t="shared" si="51"/>
         <v>1508652</v>
       </c>
       <c r="I78" s="203">
-        <f>I44+I41+I32+I36</f>
+        <f t="shared" si="51"/>
         <v>1513957</v>
       </c>
       <c r="J78" s="203">
-        <f>J44+J41+J32+J36</f>
+        <f t="shared" si="51"/>
         <v>1521941</v>
       </c>
       <c r="K78" s="203">
-        <f>K44+K41+K32+K36</f>
+        <f t="shared" si="51"/>
         <v>1574462</v>
       </c>
       <c r="L78" s="203">
-        <f>L44+L41+L32+L36</f>
+        <f t="shared" si="51"/>
         <v>3713565.333333333</v>
       </c>
       <c r="M78" s="199">
-        <f>M44+M41+M32+M36</f>
+        <f t="shared" si="51"/>
         <v>2508714</v>
       </c>
       <c r="N78" s="142">
@@ -8631,31 +8637,31 @@
         <v>3170742.7957109897</v>
       </c>
       <c r="P78" s="142">
-        <f t="shared" ref="P78:V78" si="50">P44+P41+P32+P36+P33</f>
+        <f t="shared" ref="P78:V78" si="52">P44+P41+P32+P36+P33</f>
         <v>1799230.9611612814</v>
       </c>
       <c r="Q78" s="142">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1662989.228952572</v>
       </c>
       <c r="R78" s="142">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1659289.0673868605</v>
       </c>
       <c r="S78" s="142">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1668953.4033976633</v>
       </c>
       <c r="T78" s="142">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1693987.704448628</v>
       </c>
       <c r="U78" s="142">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1719397.5200153573</v>
       </c>
       <c r="V78" s="142">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1736591.4952155109</v>
       </c>
       <c r="AL78" s="243"/>
@@ -8673,47 +8679,47 @@
       <c r="J79" s="199"/>
       <c r="K79" s="199"/>
       <c r="L79" s="205">
-        <f>L77+L31</f>
+        <f t="shared" ref="L79:V79" si="53">L77+L31</f>
         <v>1336698</v>
       </c>
       <c r="M79" s="199">
-        <f>M77+M31</f>
+        <f t="shared" si="53"/>
         <v>1328805</v>
       </c>
       <c r="N79" s="143">
-        <f>N77+N31</f>
+        <f t="shared" si="53"/>
         <v>1373815.6728590003</v>
       </c>
       <c r="O79" s="143">
-        <f>O77+O31</f>
+        <f t="shared" si="53"/>
         <v>1393653.5067068823</v>
       </c>
       <c r="P79" s="143">
-        <f>P77+P31</f>
+        <f t="shared" si="53"/>
         <v>1409518.3603139264</v>
       </c>
       <c r="Q79" s="143">
-        <f>Q77+Q31</f>
+        <f t="shared" si="53"/>
         <v>1420222.3552427585</v>
       </c>
       <c r="R79" s="143">
-        <f>R77+R31</f>
+        <f t="shared" si="53"/>
         <v>1449154.204832383</v>
       </c>
       <c r="S79" s="143">
-        <f>S77+S31</f>
+        <f t="shared" si="53"/>
         <v>1479032.1128509077</v>
       </c>
       <c r="T79" s="143">
-        <f>T77+T31</f>
+        <f t="shared" si="53"/>
         <v>1466472.6280325653</v>
       </c>
       <c r="U79" s="143">
-        <f>U77+U31</f>
+        <f t="shared" si="53"/>
         <v>1498336.4715432189</v>
       </c>
       <c r="V79" s="143">
-        <f>V77+V31</f>
+        <f t="shared" si="53"/>
         <v>1508477.1168994233</v>
       </c>
       <c r="AL79" s="243"/>
@@ -8766,39 +8772,39 @@
         <v>835999</v>
       </c>
       <c r="N81" s="133">
-        <f t="shared" ref="N81:U81" si="51">N82+N84</f>
+        <f t="shared" ref="N81:U81" si="54">N82+N84</f>
         <v>846655.9390002318</v>
       </c>
       <c r="O81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>859704.14460568153</v>
       </c>
       <c r="P81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>867211.47334407107</v>
       </c>
       <c r="Q81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>867929.66513166018</v>
       </c>
       <c r="R81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>869012.33925145073</v>
       </c>
       <c r="S81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>870466.73148570256</v>
       </c>
       <c r="T81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>872014.07451017783</v>
       </c>
       <c r="U81" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>873408.51802630571</v>
       </c>
       <c r="V81" s="133">
-        <f t="shared" ref="V81" si="52">V82+V84</f>
+        <f t="shared" ref="V81" si="55">V82+V84</f>
         <v>874637.8300734181</v>
       </c>
       <c r="AL81" s="243"/>
@@ -8808,27 +8814,27 @@
         <v>231</v>
       </c>
       <c r="F82" s="205">
-        <f t="shared" ref="F82:K82" si="53">F81-F84</f>
+        <f t="shared" ref="F82:K82" si="56">F81-F84</f>
         <v>139025</v>
       </c>
       <c r="G82" s="205">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>139342</v>
       </c>
       <c r="H82" s="205">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>140228</v>
       </c>
       <c r="I82" s="205">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>141105</v>
       </c>
       <c r="J82" s="205">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>141335</v>
       </c>
       <c r="K82" s="205">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>142991</v>
       </c>
       <c r="L82" s="205">
@@ -8844,35 +8850,35 @@
         <v>142922.84999999998</v>
       </c>
       <c r="O82" s="133">
-        <f t="shared" ref="O82:V82" si="54">N82*(1+O93)</f>
+        <f t="shared" ref="O82:V82" si="57">N82*(1+O93)</f>
         <v>143280.15712499997</v>
       </c>
       <c r="P82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>143638.35751781246</v>
       </c>
       <c r="Q82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>144356.54930540151</v>
       </c>
       <c r="R82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>145439.22342519203</v>
       </c>
       <c r="S82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>146893.61565944395</v>
       </c>
       <c r="T82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>148440.9586839191</v>
       </c>
       <c r="U82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>149835.40220004701</v>
       </c>
       <c r="V82" s="133">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>151064.71424715937</v>
       </c>
       <c r="AL82" s="243"/>
@@ -8941,23 +8947,23 @@
         <v>723573.11582625867</v>
       </c>
       <c r="R84" s="135">
-        <f t="shared" ref="R84:V84" si="55">Q84*(1+R85)</f>
+        <f t="shared" ref="R84:V84" si="58">Q84*(1+R85)</f>
         <v>723573.11582625867</v>
       </c>
       <c r="S84" s="135">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>723573.11582625867</v>
       </c>
       <c r="T84" s="135">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>723573.11582625867</v>
       </c>
       <c r="U84" s="135">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>723573.11582625867</v>
       </c>
       <c r="V84" s="135">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>723573.11582625867</v>
       </c>
       <c r="AC84" s="45">
@@ -9033,23 +9039,23 @@
         <v>0.66058231423538405</v>
       </c>
       <c r="G86" s="210">
-        <f t="shared" ref="G86:I86" si="56">G77/G84</f>
+        <f t="shared" ref="G86:I86" si="59">G77/G84</f>
         <v>0.6749214177505789</v>
       </c>
       <c r="H86" s="210">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I86" s="210">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J86" s="210">
-        <f t="shared" ref="J86" si="57">J77/J84</f>
+        <f t="shared" ref="J86" si="60">J77/J84</f>
         <v>0.66395699382859508</v>
       </c>
       <c r="K86" s="210">
-        <f t="shared" ref="K86" si="58">K77/K84</f>
+        <f t="shared" ref="K86" si="61">K77/K84</f>
         <v>0.67846773573296415</v>
       </c>
       <c r="L86" s="211"/>
@@ -9103,35 +9109,35 @@
         <v>2031.6535672371635</v>
       </c>
       <c r="O87" s="35">
-        <f t="shared" ref="O87:V87" si="59">N87*(1+O89)</f>
+        <f t="shared" ref="O87:V87" si="62">N87*(1+O89)</f>
         <v>2057.2848967789942</v>
       </c>
       <c r="P87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2079.7387887743166</v>
       </c>
       <c r="Q87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2094.5668306580201</v>
       </c>
       <c r="R87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2104.8405453917289</v>
       </c>
       <c r="S87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2115.0083455405543</v>
       </c>
       <c r="T87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2122.4223664824062</v>
       </c>
       <c r="U87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2126.9766936324008</v>
       </c>
       <c r="V87" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>2128.6713269905381</v>
       </c>
       <c r="AL87" s="243"/>
@@ -9145,27 +9151,27 @@
       <c r="D88" s="35"/>
       <c r="F88" s="202"/>
       <c r="G88" s="202">
-        <f t="shared" ref="G88:L88" si="60">(G87/F87)-1</f>
+        <f t="shared" ref="G88:L88" si="63">(G87/F87)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H88" s="202">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I88" s="202">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J88" s="202">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K88" s="202">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L88" s="202">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M88" s="199">
@@ -9325,31 +9331,31 @@
         <v>2341.3399454812497</v>
       </c>
       <c r="P91">
-        <f t="shared" ref="P91:V91" si="61">O91*(1+P93)</f>
+        <f t="shared" ref="P91:V91" si="64">O91*(1+P93)</f>
         <v>2347.1932953449527</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>2358.9292618216773</v>
       </c>
       <c r="R91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>2376.6212312853399</v>
       </c>
       <c r="S91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>2400.3874435981934</v>
       </c>
       <c r="T91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>2425.6725640591153</v>
       </c>
       <c r="U91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>2448.4591548302242</v>
       </c>
       <c r="V91">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>2468.5473335363272</v>
       </c>
       <c r="W91"/>
@@ -9370,11 +9376,11 @@
       <c r="I92" s="202"/>
       <c r="J92" s="202"/>
       <c r="K92" s="202">
-        <f t="shared" ref="K92" si="62">(K90/J90)-1</f>
+        <f t="shared" ref="K92" si="65">(K90/J90)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L92" s="202">
-        <f t="shared" ref="L92" si="63">(L90/K90)-1</f>
+        <f t="shared" ref="L92" si="66">(L90/K90)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M92" s="202">
@@ -9467,83 +9473,83 @@
         <v>164</v>
       </c>
       <c r="F95" s="203">
-        <f>F81+F40-F77</f>
+        <f t="shared" ref="F95:Y95" si="67">F81+F40-F77</f>
         <v>339220</v>
       </c>
       <c r="G95" s="203">
-        <f>G81+G40-G77</f>
+        <f t="shared" si="67"/>
         <v>334185</v>
       </c>
       <c r="H95" s="203">
-        <f>H81+H40-H77</f>
+        <f t="shared" si="67"/>
         <v>335532</v>
       </c>
       <c r="I95" s="203">
-        <f>I81+I40-I77</f>
+        <f t="shared" si="67"/>
         <v>344546</v>
       </c>
       <c r="J95" s="203">
-        <f>J81+J40-J77</f>
+        <f t="shared" si="67"/>
         <v>349558</v>
       </c>
       <c r="K95" s="203">
-        <f>K81+K40-K77</f>
+        <f t="shared" si="67"/>
         <v>343658</v>
       </c>
       <c r="L95" s="203">
-        <f>L81+L40-L77</f>
+        <f t="shared" si="67"/>
         <v>577118</v>
       </c>
       <c r="M95" s="199">
-        <f>M81+M40-M77</f>
+        <f t="shared" si="67"/>
         <v>489927</v>
       </c>
       <c r="N95" s="223">
-        <f>N81+N40-N77</f>
+        <f t="shared" si="67"/>
         <v>405893.45314006024</v>
       </c>
       <c r="O95" s="223">
-        <f>O81+O40-O77</f>
+        <f t="shared" si="67"/>
         <v>389550.39386997721</v>
       </c>
       <c r="P95" s="223">
-        <f>P81+P40-P77</f>
+        <f t="shared" si="67"/>
         <v>375767.36763263971</v>
       </c>
       <c r="Q95" s="223">
-        <f>Q81+Q40-Q77</f>
+        <f t="shared" si="67"/>
         <v>376485.55942022882</v>
       </c>
       <c r="R95" s="223">
-        <f>R81+R40-R77</f>
+        <f t="shared" si="67"/>
         <v>377568.23354001937</v>
       </c>
       <c r="S95" s="223">
-        <f>S81+S40-S77</f>
+        <f t="shared" si="67"/>
         <v>379022.6257742712</v>
       </c>
       <c r="T95" s="223">
-        <f>T81+T40-T77</f>
+        <f t="shared" si="67"/>
         <v>423984.35574832192</v>
       </c>
       <c r="U95" s="223">
-        <f>U81+U40-U77</f>
+        <f t="shared" si="67"/>
         <v>425378.7992644498</v>
       </c>
       <c r="V95" s="223">
-        <f>V81+V40-V77</f>
+        <f t="shared" si="67"/>
         <v>426608.11131156218</v>
       </c>
       <c r="W95" s="223">
-        <f>W81+W40-W77</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X95" s="223">
-        <f>X81+X40-X77</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y95" s="223">
-        <f>Y81+Y40-Y77</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AL95" s="243"/>
@@ -9565,55 +9571,55 @@
         <v>156183</v>
       </c>
       <c r="M96" s="199">
-        <f t="shared" ref="M96:U96" si="64">M84-M77</f>
+        <f t="shared" ref="M96:U96" si="68">M84-M77</f>
         <v>205195</v>
       </c>
       <c r="N96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>182970.60314006027</v>
       </c>
       <c r="O96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>186270.23674497718</v>
       </c>
       <c r="P96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>188129.01011482731</v>
       </c>
       <c r="Q96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>188129.01011482731</v>
       </c>
       <c r="R96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>188129.01011482731</v>
       </c>
       <c r="S96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>188129.01011482731</v>
       </c>
       <c r="T96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>231543.39706440276</v>
       </c>
       <c r="U96" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>231543.39706440276</v>
       </c>
       <c r="V96" s="142">
-        <f t="shared" ref="V96:Y96" si="65">V84-V77</f>
+        <f t="shared" ref="V96:Y96" si="69">V84-V77</f>
         <v>231543.39706440276</v>
       </c>
       <c r="W96" s="142">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="X96" s="142">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Y96" s="142">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AL96" s="243"/>
@@ -9629,27 +9635,27 @@
         <v>139025</v>
       </c>
       <c r="G97" s="203">
-        <f t="shared" ref="G97:V97" si="66">G95-(G84-G77)</f>
+        <f t="shared" ref="G97:V97" si="70">G95-(G84-G77)</f>
         <v>139342</v>
       </c>
       <c r="H97" s="203">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>140228</v>
       </c>
       <c r="I97" s="203">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>141105</v>
       </c>
       <c r="J97" s="203">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>141335</v>
       </c>
       <c r="K97" s="203">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>142991</v>
       </c>
       <c r="L97" s="203">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>420935</v>
       </c>
       <c r="M97" s="199">
@@ -9657,51 +9663,51 @@
         <v>284732</v>
       </c>
       <c r="N97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>222922.84999999998</v>
       </c>
       <c r="O97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>203280.15712500003</v>
       </c>
       <c r="P97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>187638.3575178124</v>
       </c>
       <c r="Q97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>188356.54930540151</v>
       </c>
       <c r="R97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>189439.22342519206</v>
       </c>
       <c r="S97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>190893.61565944389</v>
       </c>
       <c r="T97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>192440.95868391916</v>
       </c>
       <c r="U97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>193835.40220004704</v>
       </c>
       <c r="V97" s="143">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>195064.71424715943</v>
       </c>
       <c r="W97" s="143">
-        <f t="shared" ref="W97:Y97" si="67">W95-(W84-W77)</f>
+        <f t="shared" ref="W97:Y97" si="71">W95-(W84-W77)</f>
         <v>0</v>
       </c>
       <c r="X97" s="143">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Y97" s="143">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AL97" s="267"/>
@@ -9949,50 +9955,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="313" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="300"/>
-      <c r="O5" s="300"/>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="314"/>
+      <c r="Q5" s="314"/>
+      <c r="R5" s="314"/>
+      <c r="S5" s="314"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="301" t="s">
+      <c r="A6" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="301"/>
-      <c r="O6" s="301"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
+      <c r="B6" s="315"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="315"/>
+      <c r="P6" s="315"/>
+      <c r="Q6" s="315"/>
+      <c r="R6" s="315"/>
+      <c r="S6" s="315"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -10033,8 +10039,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="302"/>
-      <c r="S8" s="303"/>
+      <c r="R8" s="316"/>
+      <c r="S8" s="317"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -10299,10 +10305,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="300" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="286"/>
+      <c r="B1" s="300"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -10310,18 +10316,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="304" t="s">
+      <c r="Z1" s="318" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="304"/>
-      <c r="AB1" s="304"/>
-      <c r="AC1" s="285"/>
-      <c r="AD1" s="285"/>
-      <c r="AE1" s="285"/>
-      <c r="AF1" s="285"/>
+      <c r="AA1" s="318"/>
+      <c r="AB1" s="318"/>
+      <c r="AC1" s="299"/>
+      <c r="AD1" s="299"/>
+      <c r="AE1" s="299"/>
+      <c r="AF1" s="299"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="305" t="s">
+      <c r="A2" s="319" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="107"/>
@@ -10330,45 +10336,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="305"/>
+      <c r="A3" s="319"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="305"/>
+      <c r="A4" s="319"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="305"/>
+      <c r="A5" s="319"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="309" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="295" t="s">
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="297"/>
-      <c r="K7" s="295" t="s">
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="311"/>
+      <c r="K7" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="297"/>
+      <c r="L7" s="310"/>
+      <c r="M7" s="310"/>
+      <c r="N7" s="311"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -12249,88 +12255,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="311" t="s">
+      <c r="A2" s="320" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="320" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="320"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="312"/>
-      <c r="B4" s="312"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="312"/>
-      <c r="E4" s="312"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="312"/>
-      <c r="H4" s="312"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="312"/>
-      <c r="K4" s="317" t="s">
+      <c r="A4" s="321"/>
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="326" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="317"/>
-      <c r="M4" s="317"/>
-      <c r="N4" s="317"/>
+      <c r="L4" s="326"/>
+      <c r="M4" s="326"/>
+      <c r="N4" s="326"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="313" t="s">
+      <c r="C5" s="322" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="315"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="323"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="324"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="316" t="s">
+      <c r="L5" s="325" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="307">
+      <c r="C6" s="328">
         <v>2020</v>
       </c>
-      <c r="D6" s="308"/>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="308"/>
-      <c r="H6" s="308"/>
-      <c r="I6" s="308"/>
-      <c r="J6" s="309"/>
+      <c r="D6" s="329"/>
+      <c r="E6" s="329"/>
+      <c r="F6" s="329"/>
+      <c r="G6" s="329"/>
+      <c r="H6" s="329"/>
+      <c r="I6" s="329"/>
+      <c r="J6" s="330"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -12767,24 +12773,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="285" t="s">
+      <c r="K22" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="285"/>
-      <c r="M22" s="285"/>
-      <c r="N22" s="285"/>
-      <c r="O22" s="285" t="s">
+      <c r="L22" s="299"/>
+      <c r="M22" s="299"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="285"/>
-      <c r="Q22" s="285"/>
-      <c r="R22" s="285"/>
-      <c r="S22" s="285" t="s">
+      <c r="P22" s="299"/>
+      <c r="Q22" s="299"/>
+      <c r="R22" s="299"/>
+      <c r="S22" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="285"/>
-      <c r="U22" s="285"/>
-      <c r="V22" s="285"/>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -12801,12 +12807,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="310" t="s">
+      <c r="K23" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="310"/>
-      <c r="M23" s="310"/>
-      <c r="N23" s="310"/>
+      <c r="L23" s="331"/>
+      <c r="M23" s="331"/>
+      <c r="N23" s="331"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -12975,7 +12981,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="306" t="s">
+      <c r="I28" s="327" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -13026,7 +13032,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="306"/>
+      <c r="I29" s="327"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -13075,7 +13081,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="306"/>
+      <c r="I30" s="327"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -13124,7 +13130,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="306"/>
+      <c r="I31" s="327"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -13186,7 +13192,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="306" t="s">
+      <c r="I33" s="327" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -13234,7 +13240,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="306"/>
+      <c r="I34" s="327"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -13413,12 +13419,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -13426,6 +13426,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13533,30 +13539,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="319" t="s">
+      <c r="E6" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="319"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="335"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="335"/>
+      <c r="J6" s="335"/>
+      <c r="K6" s="335"/>
+      <c r="L6" s="335"/>
+      <c r="M6" s="335"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="335"/>
+      <c r="R6" s="335"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="318" t="s">
+      <c r="A7" s="332" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="318"/>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -13574,11 +13580,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="332" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="318"/>
-      <c r="D8" s="318"/>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -13624,11 +13630,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="318" t="s">
+      <c r="B9" s="332" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="318"/>
-      <c r="D9" s="318"/>
+      <c r="C9" s="332"/>
+      <c r="D9" s="332"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -13674,11 +13680,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="318" t="s">
+      <c r="B10" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="318"/>
-      <c r="D10" s="318"/>
+      <c r="C10" s="332"/>
+      <c r="D10" s="332"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -13724,11 +13730,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="318" t="s">
+      <c r="B11" s="332" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="318"/>
-      <c r="D11" s="318"/>
+      <c r="C11" s="332"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -13823,10 +13829,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="318" t="s">
+      <c r="C13" s="332" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="318"/>
+      <c r="D13" s="332"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -13977,11 +13983,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="318" t="s">
+      <c r="B19" s="332" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="318"/>
-      <c r="D19" s="318"/>
+      <c r="C19" s="332"/>
+      <c r="D19" s="332"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -14040,11 +14046,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="318" t="s">
+      <c r="B20" s="332" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="318"/>
-      <c r="D20" s="318"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="332"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -14104,11 +14110,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="318" t="s">
+      <c r="B21" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="318"/>
-      <c r="D21" s="318"/>
+      <c r="C21" s="332"/>
+      <c r="D21" s="332"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -14167,11 +14173,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="318" t="s">
+      <c r="B22" s="332" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="318"/>
-      <c r="D22" s="318"/>
+      <c r="C22" s="332"/>
+      <c r="D22" s="332"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -14284,21 +14290,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="320" t="s">
+      <c r="H27" s="333" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="320"/>
-      <c r="J27" s="320"/>
-      <c r="K27" s="320"/>
-      <c r="L27" s="320"/>
-      <c r="M27" s="320"/>
-      <c r="N27" s="320"/>
-      <c r="O27" s="320"/>
-      <c r="P27" s="320"/>
-      <c r="Q27" s="320"/>
-      <c r="R27" s="320"/>
-      <c r="S27" s="320"/>
-      <c r="T27" s="320"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="333"/>
+      <c r="K27" s="333"/>
+      <c r="L27" s="333"/>
+      <c r="M27" s="333"/>
+      <c r="N27" s="333"/>
+      <c r="O27" s="333"/>
+      <c r="P27" s="333"/>
+      <c r="Q27" s="333"/>
+      <c r="R27" s="333"/>
+      <c r="S27" s="333"/>
+      <c r="T27" s="333"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -14614,21 +14620,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="321" t="s">
+      <c r="F37" s="334" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="321"/>
-      <c r="H37" s="321"/>
-      <c r="I37" s="321"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="321"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="321"/>
-      <c r="N37" s="321"/>
-      <c r="O37" s="321"/>
-      <c r="P37" s="321"/>
-      <c r="Q37" s="321"/>
-      <c r="R37" s="321"/>
+      <c r="G37" s="334"/>
+      <c r="H37" s="334"/>
+      <c r="I37" s="334"/>
+      <c r="J37" s="334"/>
+      <c r="K37" s="334"/>
+      <c r="L37" s="334"/>
+      <c r="M37" s="334"/>
+      <c r="N37" s="334"/>
+      <c r="O37" s="334"/>
+      <c r="P37" s="334"/>
+      <c r="Q37" s="334"/>
+      <c r="R37" s="334"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -14944,21 +14950,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="320" t="s">
+      <c r="F48" s="333" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="320"/>
-      <c r="H48" s="320"/>
-      <c r="I48" s="320"/>
-      <c r="J48" s="320"/>
-      <c r="K48" s="320"/>
-      <c r="L48" s="320"/>
-      <c r="M48" s="320"/>
-      <c r="N48" s="320"/>
-      <c r="O48" s="320"/>
-      <c r="P48" s="320"/>
-      <c r="Q48" s="320"/>
-      <c r="R48" s="320"/>
+      <c r="G48" s="333"/>
+      <c r="H48" s="333"/>
+      <c r="I48" s="333"/>
+      <c r="J48" s="333"/>
+      <c r="K48" s="333"/>
+      <c r="L48" s="333"/>
+      <c r="M48" s="333"/>
+      <c r="N48" s="333"/>
+      <c r="O48" s="333"/>
+      <c r="P48" s="333"/>
+      <c r="Q48" s="333"/>
+      <c r="R48" s="333"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -15270,6 +15276,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -15278,12 +15290,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15322,50 +15328,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="299" t="s">
+      <c r="A5" s="313" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
-      <c r="I5" s="300"/>
-      <c r="J5" s="300"/>
-      <c r="K5" s="300"/>
-      <c r="L5" s="300"/>
-      <c r="M5" s="300"/>
-      <c r="N5" s="300"/>
-      <c r="O5" s="300"/>
-      <c r="P5" s="300"/>
-      <c r="Q5" s="300"/>
-      <c r="R5" s="300"/>
-      <c r="S5" s="300"/>
+      <c r="B5" s="314"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="314"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="314"/>
+      <c r="G5" s="314"/>
+      <c r="H5" s="314"/>
+      <c r="I5" s="314"/>
+      <c r="J5" s="314"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314"/>
+      <c r="P5" s="314"/>
+      <c r="Q5" s="314"/>
+      <c r="R5" s="314"/>
+      <c r="S5" s="314"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="301" t="s">
+      <c r="A6" s="315" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="301"/>
-      <c r="O6" s="301"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
+      <c r="B6" s="315"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="315"/>
+      <c r="P6" s="315"/>
+      <c r="Q6" s="315"/>
+      <c r="R6" s="315"/>
+      <c r="S6" s="315"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -15405,10 +15411,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="302" t="s">
+      <c r="R8" s="316" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="303"/>
+      <c r="S8" s="317"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -18279,10 +18285,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="322" t="s">
+      <c r="D75" s="336" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="323"/>
+      <c r="E75" s="337"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -18980,23 +18986,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="304" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="291"/>
+      <c r="B1" s="305"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="298" t="s">
+      <c r="J1" s="312" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="285"/>
-      <c r="W1" s="285"/>
-      <c r="X1" s="285"/>
-      <c r="Y1" s="285"/>
+      <c r="V1" s="299"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="299"/>
+      <c r="Y1" s="299"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="306" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -19004,68 +19010,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="298"/>
+      <c r="J2" s="312"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="293"/>
+      <c r="A3" s="307"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="298"/>
+      <c r="J3" s="312"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="293"/>
+      <c r="A4" s="307"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="294"/>
+      <c r="A5" s="308"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="309" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="295" t="s">
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="297"/>
-      <c r="K7" s="295" t="s">
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="311"/>
+      <c r="K7" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="295" t="s">
+      <c r="L7" s="310"/>
+      <c r="M7" s="310"/>
+      <c r="N7" s="310"/>
+      <c r="O7" s="309" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="296"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="295" t="s">
+      <c r="P7" s="310"/>
+      <c r="Q7" s="310"/>
+      <c r="R7" s="310"/>
+      <c r="S7" s="309" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="295" t="s">
+      <c r="T7" s="310"/>
+      <c r="U7" s="310"/>
+      <c r="V7" s="310"/>
+      <c r="W7" s="309" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="296"/>
+      <c r="X7" s="310"/>
+      <c r="Y7" s="310"/>
+      <c r="Z7" s="310"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -23234,10 +23240,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23246,7 +23253,7 @@
     <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -23286,8 +23293,11 @@
       <c r="M1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="190">
         <v>44012</v>
       </c>
@@ -23328,8 +23338,12 @@
         <f t="array" ref="M2:M12">TRANSPOSE(main!L40:V40)/1000</f>
         <v>277.60000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <f t="array" ref="N2:N16">TRANSPOSE(main!L68:Z68/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="190">
         <v>44104</v>
       </c>
@@ -23379,8 +23393,11 @@
       <c r="M3">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="190">
         <v>44196</v>
       </c>
@@ -23418,8 +23435,11 @@
       <c r="M4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="190">
         <v>44286</v>
       </c>
@@ -23456,8 +23476,11 @@
       <c r="M5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>190.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="190">
         <v>44377</v>
       </c>
@@ -23494,8 +23517,11 @@
       <c r="M6">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>190.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="190">
         <v>44469</v>
       </c>
@@ -23532,8 +23558,11 @@
       <c r="M7">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>190.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="190">
         <v>44561</v>
       </c>
@@ -23570,8 +23599,11 @@
       <c r="M8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="190">
         <v>44651</v>
       </c>
@@ -23608,8 +23640,11 @@
       <c r="M9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="190">
         <v>44742</v>
       </c>
@@ -23646,8 +23681,11 @@
       <c r="M10">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="190">
         <v>44834</v>
       </c>
@@ -23684,8 +23722,11 @@
       <c r="M11">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="190">
         <v>44926</v>
       </c>
@@ -23719,8 +23760,11 @@
       <c r="M12">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="190">
         <v>45016</v>
       </c>
@@ -23748,8 +23792,11 @@
       <c r="I13">
         <v>-2.8700840526758213</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="190">
         <v>45107</v>
       </c>
@@ -23777,8 +23824,11 @@
       <c r="I14">
         <v>-3.0081206958325879</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="190">
         <v>45199</v>
       </c>
@@ -23806,8 +23856,11 @@
       <c r="I15">
         <v>-3.1545408316389967</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="190">
         <v>45291</v>
       </c>
@@ -23834,6 +23887,9 @@
       </c>
       <c r="I16">
         <v>-3.1755686603398772</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -24088,36 +24144,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="285" t="s">
+      <c r="D1" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285" t="s">
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285" t="s">
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-      <c r="P1" s="285" t="s">
+      <c r="M1" s="299"/>
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="285"/>
-      <c r="S1" s="285"/>
-      <c r="T1" s="285" t="s">
+      <c r="Q1" s="299"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="299"/>
+      <c r="T1" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="285"/>
-      <c r="V1" s="285"/>
-      <c r="W1" s="285"/>
+      <c r="U1" s="299"/>
+      <c r="V1" s="299"/>
+      <c r="W1" s="299"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="199" t="s">
@@ -24527,22 +24583,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="304" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="291"/>
+      <c r="B1" s="305"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="298" t="s">
+      <c r="J1" s="312" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="285"/>
-      <c r="W1" s="285"/>
-      <c r="X1" s="285"/>
-      <c r="Y1" s="285"/>
+      <c r="V1" s="299"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="299"/>
+      <c r="Y1" s="299"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="306" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -24551,20 +24607,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="298"/>
+      <c r="J2" s="312"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="293"/>
+      <c r="A3" s="307"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="298"/>
+      <c r="J3" s="312"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="293"/>
+      <c r="A4" s="307"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -24574,7 +24630,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="294"/>
+      <c r="A5" s="308"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -24589,42 +24645,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="295" t="s">
+      <c r="C7" s="309" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="295" t="s">
+      <c r="D7" s="310"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="309" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="296"/>
-      <c r="I7" s="296"/>
-      <c r="J7" s="297"/>
-      <c r="K7" s="295" t="s">
+      <c r="H7" s="310"/>
+      <c r="I7" s="310"/>
+      <c r="J7" s="311"/>
+      <c r="K7" s="309" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="296"/>
-      <c r="M7" s="296"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="295" t="s">
+      <c r="L7" s="310"/>
+      <c r="M7" s="310"/>
+      <c r="N7" s="310"/>
+      <c r="O7" s="309" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="296"/>
-      <c r="Q7" s="296"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="295" t="s">
+      <c r="P7" s="310"/>
+      <c r="Q7" s="310"/>
+      <c r="R7" s="310"/>
+      <c r="S7" s="309" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="296"/>
-      <c r="U7" s="296"/>
-      <c r="V7" s="296"/>
-      <c r="W7" s="295" t="s">
+      <c r="T7" s="310"/>
+      <c r="U7" s="310"/>
+      <c r="V7" s="310"/>
+      <c r="W7" s="309" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="296"/>
+      <c r="X7" s="310"/>
+      <c r="Y7" s="310"/>
+      <c r="Z7" s="310"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -27434,7 +27490,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29073,7 +29129,7 @@
   <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -29694,12 +29750,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29920,15 +29973,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29953,18 +30018,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8A293-D629-4E7C-998B-AD63E75DD1E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C556D7-54AA-428E-8B90-881666DB8C42}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -2047,9 +2047,6 @@
     <t>gsubl</t>
   </si>
   <si>
-    <t>second estimate</t>
-  </si>
-  <si>
     <t>PPP (round 1)</t>
   </si>
   <si>
@@ -2156,6 +2153,9 @@
   </si>
   <si>
     <t>Business Meals Deductions</t>
+  </si>
+  <si>
+    <t>third estimate</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2175,7 @@
     <numFmt numFmtId="172" formatCode="0.0000"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2406,12 +2406,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2934,7 +2928,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3424,9 +3418,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3434,7 +3425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
@@ -3465,6 +3455,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="16" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="17" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="27" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3531,6 +3558,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3552,67 +3594,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="17" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="27" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4144,10 +4137,10 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P80" sqref="P80"/>
+      <selection pane="bottomRight" activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4169,89 +4162,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="315" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
       <c r="E1" s="35"/>
       <c r="M1" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="AC1" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" s="304" t="s">
+      <c r="AD1" s="317" t="s">
         <v>247</v>
       </c>
-      <c r="AE1" s="304"/>
-      <c r="AF1" s="304"/>
+      <c r="AE1" s="317"/>
+      <c r="AF1" s="317"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="305" t="s">
+      <c r="AI1" s="318" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="305"/>
-      <c r="AK1" s="305"/>
-      <c r="AL1" s="305"/>
-      <c r="AM1" s="303" t="s">
+      <c r="AJ1" s="318"/>
+      <c r="AK1" s="318"/>
+      <c r="AL1" s="318"/>
+      <c r="AM1" s="316" t="s">
         <v>279</v>
       </c>
-      <c r="AN1" s="303"/>
-      <c r="AO1" s="303"/>
-      <c r="AP1" s="303"/>
+      <c r="AN1" s="316"/>
+      <c r="AO1" s="316"/>
+      <c r="AP1" s="316"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="F2" s="301" t="s">
+      <c r="F2" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301" t="s">
+      <c r="G2" s="314"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301" t="s">
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
+      <c r="N2" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
-      <c r="R2" s="301" t="s">
+      <c r="O2" s="314"/>
+      <c r="P2" s="314"/>
+      <c r="Q2" s="314"/>
+      <c r="R2" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="301"/>
-      <c r="T2" s="301"/>
-      <c r="U2" s="301"/>
-      <c r="V2" s="301" t="s">
+      <c r="S2" s="314"/>
+      <c r="T2" s="314"/>
+      <c r="U2" s="314"/>
+      <c r="V2" s="314" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="301"/>
-      <c r="X2" s="301"/>
-      <c r="Y2" s="301"/>
+      <c r="W2" s="314"/>
+      <c r="X2" s="314"/>
+      <c r="Y2" s="314"/>
       <c r="Z2" s="229"/>
-      <c r="AA2" s="298"/>
+      <c r="AA2" s="296"/>
       <c r="AB2" s="229"/>
       <c r="AC2" s="156"/>
-      <c r="AD2" s="301" t="s">
+      <c r="AD2" s="314" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="301"/>
-      <c r="AF2" s="301"/>
+      <c r="AE2" s="314"/>
+      <c r="AF2" s="314"/>
       <c r="AG2" s="156"/>
       <c r="AH2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="301" t="s">
+      <c r="AI2" s="314" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="301"/>
-      <c r="AK2" s="301"/>
+      <c r="AJ2" s="314"/>
+      <c r="AK2" s="314"/>
       <c r="AL2" s="230"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
@@ -4359,12 +4352,12 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="313" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="300"/>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
       <c r="F4" s="199"/>
       <c r="G4" s="199"/>
       <c r="H4" s="199"/>
@@ -4417,7 +4410,7 @@
       </c>
       <c r="M5" s="199">
         <f>VLOOKUP(C5,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>21157.1</v>
+        <v>21170.3</v>
       </c>
       <c r="N5">
         <v>21585.442357487202</v>
@@ -4470,8 +4463,8 @@
       <c r="A6" s="170" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
       <c r="F6" s="201"/>
       <c r="G6" s="202">
         <f>G5/F5-1</f>
@@ -4499,11 +4492,11 @@
       </c>
       <c r="M6" s="202">
         <f t="shared" si="0"/>
-        <v>8.3862275295720767E-2</v>
+        <v>8.4538501339644911E-2</v>
       </c>
       <c r="N6" s="198">
         <f>N5/M5-1</f>
-        <v>2.0245797273123589E-2</v>
+        <v>1.9609658695776799E-2</v>
       </c>
       <c r="O6" s="198">
         <f t="shared" si="0"/>
@@ -4587,7 +4580,7 @@
       </c>
       <c r="M7" s="199">
         <f>VLOOKUP(C7,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>18583.5</v>
+        <v>18596.5</v>
       </c>
       <c r="N7">
         <v>18942.381551882499</v>
@@ -4739,43 +4732,43 @@
       </c>
       <c r="M11" s="199">
         <f t="shared" si="1"/>
-        <v>3261.5</v>
+        <v>3262.3</v>
       </c>
       <c r="N11" s="168">
         <f t="shared" si="1"/>
-        <v>3387.1048000000001</v>
+        <v>3387.9246000000003</v>
       </c>
       <c r="O11" s="168">
         <f t="shared" si="1"/>
-        <v>3521.5368584000003</v>
+        <v>3522.3746648000006</v>
       </c>
       <c r="P11" s="168">
         <f t="shared" si="1"/>
-        <v>3554.9076107392002</v>
+        <v>3555.7521195904001</v>
       </c>
       <c r="Q11" s="168">
         <f t="shared" si="1"/>
-        <v>3588.753267395994</v>
+        <v>3589.6045323180033</v>
       </c>
       <c r="R11" s="168">
         <f t="shared" si="1"/>
-        <v>3652.1603363688446</v>
+        <v>3653.0294515032065</v>
       </c>
       <c r="S11" s="168">
         <f t="shared" si="1"/>
-        <v>3694.164025044206</v>
+        <v>3695.0418313299106</v>
       </c>
       <c r="T11" s="168">
         <f t="shared" si="1"/>
-        <v>3736.8070340187869</v>
+        <v>3737.6936183673488</v>
       </c>
       <c r="U11" s="168">
         <f t="shared" si="1"/>
-        <v>3780.1045278320798</v>
+        <v>3780.9999780241274</v>
       </c>
       <c r="V11" s="168">
         <f t="shared" si="1"/>
-        <v>3855.7066183887214</v>
+        <v>3856.6199775846098</v>
       </c>
       <c r="W11" s="169"/>
       <c r="AD11" s="146"/>
@@ -4815,43 +4808,43 @@
       </c>
       <c r="M12" s="199">
         <f>VLOOKUP(C12,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>1687.2</v>
+        <v>1687.4</v>
       </c>
       <c r="N12" s="169">
         <f>M12*(1+N13)</f>
-        <v>1788.4320000000002</v>
+        <v>1788.6440000000002</v>
       </c>
       <c r="O12" s="169">
         <f t="shared" ref="O12:U12" si="2">N12*(1+O13)</f>
-        <v>1899.3147840000004</v>
+        <v>1899.5399280000004</v>
       </c>
       <c r="P12" s="169">
         <f t="shared" si="2"/>
-        <v>1914.5093022720005</v>
+        <v>1914.7362474240003</v>
       </c>
       <c r="Q12" s="169">
         <f t="shared" si="2"/>
-        <v>1929.8253766901764</v>
+        <v>1930.0541374033924</v>
       </c>
       <c r="R12" s="169">
         <f t="shared" si="2"/>
-        <v>1949.1236304570782</v>
+        <v>1949.3546787774262</v>
       </c>
       <c r="S12" s="169">
         <f t="shared" si="2"/>
-        <v>1968.614866761649</v>
+        <v>1968.8482255652004</v>
       </c>
       <c r="T12" s="169">
         <f t="shared" si="2"/>
-        <v>1988.3010154292654</v>
+        <v>1988.5367078208524</v>
       </c>
       <c r="U12" s="169">
         <f t="shared" si="2"/>
-        <v>2008.184025583558</v>
+        <v>2008.4220748990608</v>
       </c>
       <c r="V12" s="169">
         <f t="shared" ref="O12:V14" si="3">U12*(1+V13)</f>
-        <v>2048.3477060952291</v>
+        <v>2048.5905163970419</v>
       </c>
       <c r="W12" s="169"/>
       <c r="X12" s="44"/>
@@ -4865,15 +4858,15 @@
       </c>
       <c r="AD12" s="181">
         <f>AVERAGE(J12,K12,L12,M12)</f>
-        <v>1695.825</v>
+        <v>1695.875</v>
       </c>
       <c r="AE12" s="45">
         <f>AVERAGE(N12:Q12)</f>
-        <v>1883.0203657405443</v>
+        <v>1883.2435782068483</v>
       </c>
       <c r="AF12" s="45">
         <f>AVERAGE(R12:U12)</f>
-        <v>1978.5558845578876</v>
+        <v>1978.7904217656351</v>
       </c>
       <c r="AG12" s="3">
         <f>AVERAGE(F12:I12)</f>
@@ -4900,8 +4893,8 @@
       <c r="A13" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="281"/>
-      <c r="D13" s="281"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="280"/>
       <c r="F13" s="201"/>
       <c r="G13" s="201"/>
       <c r="H13" s="201"/>
@@ -5069,8 +5062,8 @@
       <c r="A15" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="281"/>
-      <c r="D15" s="281"/>
+      <c r="C15" s="280"/>
+      <c r="D15" s="280"/>
       <c r="F15" s="201"/>
       <c r="G15" s="201"/>
       <c r="H15" s="201"/>
@@ -5157,43 +5150,43 @@
       </c>
       <c r="M16" s="199">
         <f>VLOOKUP(C16,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>1429.6</v>
+        <v>1430.2</v>
       </c>
       <c r="N16" s="169">
         <f>M16*(1+N17)</f>
-        <v>1448.1847999999998</v>
+        <v>1448.7926</v>
       </c>
       <c r="O16" s="169">
         <f t="shared" ref="O16:V16" si="4">N16*(1+O17)</f>
-        <v>1459.7702783999998</v>
+        <v>1460.3829407999999</v>
       </c>
       <c r="P16" s="169">
         <f t="shared" si="4"/>
-        <v>1471.4484406271999</v>
+        <v>1472.0660043263999</v>
       </c>
       <c r="Q16" s="169">
         <f t="shared" si="4"/>
-        <v>1483.2200281522175</v>
+        <v>1483.8425323610111</v>
       </c>
       <c r="R16" s="169">
         <f t="shared" si="4"/>
-        <v>1520.3005288560228</v>
+        <v>1520.9385956700362</v>
       </c>
       <c r="S16" s="169">
         <f t="shared" si="4"/>
-        <v>1535.503534144583</v>
+        <v>1536.1479816267365</v>
       </c>
       <c r="T16" s="169">
         <f t="shared" si="4"/>
-        <v>1550.858569486029</v>
+        <v>1551.5094614430038</v>
       </c>
       <c r="U16" s="169">
         <f t="shared" si="4"/>
-        <v>1566.3671551808893</v>
+        <v>1567.024556057434</v>
       </c>
       <c r="V16" s="169">
         <f t="shared" si="4"/>
-        <v>1597.6944982845071</v>
+        <v>1598.3650471785827</v>
       </c>
       <c r="W16" s="169"/>
       <c r="X16" s="44"/>
@@ -5207,15 +5200,15 @@
       </c>
       <c r="AD16" s="181">
         <f>AVERAGE(J16,K16,L16,M16)</f>
-        <v>1410.9210000000003</v>
+        <v>1411.0710000000001</v>
       </c>
       <c r="AE16" s="45">
         <f>AVERAGE(N16:Q16)</f>
-        <v>1465.655886794854</v>
+        <v>1466.2710193718526</v>
       </c>
       <c r="AF16" s="45">
         <f>AVERAGE(R16:U16)</f>
-        <v>1543.257446916881</v>
+        <v>1543.9051486993026</v>
       </c>
       <c r="AG16" s="3">
         <f>AVERAGE(F16:I16)</f>
@@ -5242,8 +5235,8 @@
       <c r="A17" s="219" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="281"/>
-      <c r="D17" s="281"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="280"/>
       <c r="F17" s="201"/>
       <c r="G17" s="201"/>
       <c r="H17" s="201"/>
@@ -5330,43 +5323,43 @@
       </c>
       <c r="M18" s="199">
         <f>VLOOKUP(C18,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>205.3</v>
+        <v>207</v>
       </c>
       <c r="N18" s="169">
         <f>M18*(1+N19)</f>
-        <v>210.4325</v>
+        <v>212.17499999999998</v>
       </c>
       <c r="O18" s="169">
         <f t="shared" ref="O18" si="5">N18*(1+O19)</f>
-        <v>213.58898749999997</v>
+        <v>215.35762499999996</v>
       </c>
       <c r="P18" s="169">
         <f t="shared" ref="P18" si="6">O18*(1+P19)</f>
-        <v>216.79282231249996</v>
+        <v>218.58798937499992</v>
       </c>
       <c r="Q18" s="169">
         <f t="shared" ref="Q18" si="7">P18*(1+Q19)</f>
-        <v>220.04471464718745</v>
+        <v>221.8668092156249</v>
       </c>
       <c r="R18" s="169">
         <f t="shared" ref="R18" si="8">Q18*(1+R19)</f>
-        <v>233.24739752601872</v>
+        <v>235.1788177685624</v>
       </c>
       <c r="S18" s="169">
         <f t="shared" ref="S18" si="9">R18*(1+S19)</f>
-        <v>247.24224137757986</v>
+        <v>249.28954683467614</v>
       </c>
       <c r="T18" s="169">
         <f t="shared" ref="T18" si="10">S18*(1+T19)</f>
-        <v>262.07677586023465</v>
+        <v>264.2469196447567</v>
       </c>
       <c r="U18" s="169">
         <f t="shared" ref="U18:V18" si="11">T18*(1+U19)</f>
-        <v>277.80138241184875</v>
+        <v>280.10173482344214</v>
       </c>
       <c r="V18" s="169">
         <f t="shared" si="11"/>
-        <v>294.46946535655968</v>
+        <v>296.90783891284866</v>
       </c>
       <c r="W18" s="169"/>
       <c r="X18" s="44"/>
@@ -5380,15 +5373,15 @@
       </c>
       <c r="AD18" s="181">
         <f>AVERAGE(J18,K18,L18,M18)</f>
-        <v>196.75</v>
+        <v>197.17500000000001</v>
       </c>
       <c r="AE18" s="45">
         <f>AVERAGE(N18:Q18)</f>
-        <v>215.21475611492184</v>
+        <v>216.99685589765619</v>
       </c>
       <c r="AF18" s="45">
         <f>AVERAGE(R18:U18)</f>
-        <v>255.09194929392049</v>
+        <v>257.20425476785931</v>
       </c>
       <c r="AG18" s="33">
         <f>AVERAGE(F18:I18)</f>
@@ -5414,8 +5407,8 @@
       <c r="A19" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="281"/>
-      <c r="D19" s="281"/>
+      <c r="C19" s="280"/>
+      <c r="D19" s="280"/>
       <c r="F19" s="201"/>
       <c r="G19" s="201"/>
       <c r="H19" s="201"/>
@@ -5470,8 +5463,8 @@
     </row>
     <row r="20" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="170"/>
-      <c r="C20" s="281"/>
-      <c r="D20" s="281"/>
+      <c r="C20" s="280"/>
+      <c r="D20" s="280"/>
       <c r="F20" s="201"/>
       <c r="G20" s="201"/>
       <c r="H20" s="201"/>
@@ -5510,8 +5503,8 @@
       <c r="A21" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="280"/>
       <c r="F21" s="201"/>
       <c r="G21" s="201"/>
       <c r="H21" s="201"/>
@@ -5580,43 +5573,43 @@
       </c>
       <c r="M22" s="199">
         <f t="shared" si="12"/>
-        <v>1836.9459999999999</v>
+        <v>1871.3489999999999</v>
       </c>
       <c r="N22" s="102">
         <f t="shared" si="12"/>
-        <v>1874.1364363176749</v>
+        <v>1908.0455151906833</v>
       </c>
       <c r="O22" s="102">
         <f t="shared" si="12"/>
-        <v>1905.2188269788135</v>
+        <v>1939.6902849913897</v>
       </c>
       <c r="P22" s="102">
         <f t="shared" si="12"/>
-        <v>1935.514553250054</v>
+        <v>1970.5341571455765</v>
       </c>
       <c r="Q22" s="102">
         <f t="shared" si="12"/>
-        <v>1967.8958548805504</v>
+        <v>2003.5013393393667</v>
       </c>
       <c r="R22" s="102">
         <f t="shared" si="12"/>
-        <v>1989.584009164711</v>
+        <v>2025.581901198547</v>
       </c>
       <c r="S22" s="102">
         <f t="shared" si="12"/>
-        <v>2009.433564119</v>
+        <v>2045.7905976280756</v>
       </c>
       <c r="T22" s="102">
         <f t="shared" si="12"/>
-        <v>2029.0818793456349</v>
+        <v>2065.7944132643024</v>
       </c>
       <c r="U22" s="102">
         <f t="shared" si="12"/>
-        <v>2049.6266260863458</v>
+        <v>2086.7108797070355</v>
       </c>
       <c r="V22" s="102">
         <f t="shared" ref="V22" si="13">SUM(V23:V25)</f>
-        <v>2070.4732324185206</v>
+        <v>2107.9346673397031</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.35">
@@ -5650,43 +5643,43 @@
       </c>
       <c r="M23" s="199">
         <f>VLOOKUP(C23,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>499.4</v>
+        <v>506.6</v>
       </c>
       <c r="N23" s="102">
         <f>M23*(1+N$6)</f>
-        <v>509.51075115819788</v>
+        <v>516.53425309528052</v>
       </c>
       <c r="O23" s="102">
         <f t="shared" ref="O23:V23" si="14">N23*(1+O$6)</f>
-        <v>517.96094288738993</v>
+        <v>525.10092899648225</v>
       </c>
       <c r="P23" s="102">
         <f t="shared" si="14"/>
-        <v>526.19726866934411</v>
+        <v>533.45079085191969</v>
       </c>
       <c r="Q23" s="102">
         <f t="shared" si="14"/>
-        <v>535.00058789281059</v>
+        <v>542.37546203798604</v>
       </c>
       <c r="R23" s="102">
         <f t="shared" si="14"/>
-        <v>540.89682232186294</v>
+        <v>548.35297485780791</v>
       </c>
       <c r="S23" s="102">
         <f t="shared" si="14"/>
-        <v>546.29320726958156</v>
+        <v>553.82374787299591</v>
       </c>
       <c r="T23" s="102">
         <f t="shared" si="14"/>
-        <v>551.63488232381917</v>
+        <v>559.2390568299636</v>
       </c>
       <c r="U23" s="102">
         <f t="shared" si="14"/>
-        <v>557.22026508537613</v>
+        <v>564.90143295536211</v>
       </c>
       <c r="V23" s="102">
         <f t="shared" si="14"/>
-        <v>562.88771268714993</v>
+        <v>570.64700516808648</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.35">
@@ -5720,43 +5713,43 @@
       </c>
       <c r="M24" s="199">
         <f>VLOOKUP(C24,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>1317.3</v>
+        <v>1344.5</v>
       </c>
       <c r="N24" s="102">
         <f>M24*(1+N$6)</f>
-        <v>1343.9697887478856</v>
+        <v>1370.8651861164719</v>
       </c>
       <c r="O24" s="102">
         <f t="shared" ref="O24:V24" si="15">N24*(1+O$6)</f>
-        <v>1366.2594114248272</v>
+        <v>1393.6008666319983</v>
       </c>
       <c r="P24" s="102">
         <f t="shared" si="15"/>
-        <v>1387.984905923362</v>
+        <v>1415.7611296889183</v>
       </c>
       <c r="Q24" s="102">
         <f t="shared" si="15"/>
-        <v>1411.2059960576678</v>
+        <v>1439.4469181012084</v>
       </c>
       <c r="R24" s="102">
         <f t="shared" si="15"/>
-        <v>1426.7588787436721</v>
+        <v>1455.3110436169025</v>
       </c>
       <c r="S24" s="102">
         <f t="shared" si="15"/>
-        <v>1440.9932758034033</v>
+        <v>1469.8302980956239</v>
       </c>
       <c r="T24" s="102">
         <f t="shared" si="15"/>
-        <v>1455.0833610035379</v>
+        <v>1484.202352759349</v>
       </c>
       <c r="U24" s="102">
         <f t="shared" si="15"/>
-        <v>1469.8162899418617</v>
+        <v>1499.2301156898629</v>
       </c>
       <c r="V24" s="102">
         <f t="shared" si="15"/>
-        <v>1484.7656866695681</v>
+        <v>1514.4786783428592</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.35">
@@ -5790,43 +5783,43 @@
       </c>
       <c r="M25" s="199">
         <f>VLOOKUP(C25,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>20.245999999999999</v>
+        <v>20.248999999999999</v>
       </c>
       <c r="N25" s="102">
         <f>M25*(1+N$6)</f>
-        <v>20.655896411591659</v>
+        <v>20.646075978930782</v>
       </c>
       <c r="O25" s="102">
         <f t="shared" ref="O25:V25" si="16">N25*(1+O$6)</f>
-        <v>20.998472666596108</v>
+        <v>20.988489362909135</v>
       </c>
       <c r="P25" s="102">
         <f t="shared" si="16"/>
-        <v>21.332378657347899</v>
+        <v>21.322236604738496</v>
       </c>
       <c r="Q25" s="102">
         <f t="shared" si="16"/>
-        <v>21.689270930071771</v>
+        <v>21.678959200172084</v>
       </c>
       <c r="R25" s="102">
         <f t="shared" si="16"/>
-        <v>21.928308099175883</v>
+        <v>21.917882723836858</v>
       </c>
       <c r="S25" s="102">
         <f t="shared" si="16"/>
-        <v>22.147081046015114</v>
+        <v>22.136551659455773</v>
       </c>
       <c r="T25" s="102">
         <f t="shared" si="16"/>
-        <v>22.363636018278019</v>
+        <v>22.353003674989999</v>
       </c>
       <c r="U25" s="102">
         <f t="shared" si="16"/>
-        <v>22.590071059107977</v>
+        <v>22.579331061810361</v>
       </c>
       <c r="V25" s="102">
         <f t="shared" si="16"/>
-        <v>22.819833061802235</v>
+        <v>22.808983828757569</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.35">
@@ -5860,43 +5853,43 @@
       </c>
       <c r="M26" s="199">
         <f>VLOOKUP(C26,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>79.099999999999994</v>
+        <v>90.2</v>
       </c>
       <c r="N26" s="102">
         <f>M26*(1+N6)</f>
-        <v>80.701442564304074</v>
+        <v>91.968791214359072</v>
       </c>
       <c r="O26" s="102">
         <f t="shared" ref="O26:V26" si="17">N26*(1+O6)</f>
-        <v>82.039869007594206</v>
+        <v>93.494085660250093</v>
       </c>
       <c r="P26" s="102">
         <f t="shared" si="17"/>
-        <v>83.344421208940986</v>
+        <v>94.980776420930042</v>
       </c>
       <c r="Q26" s="102">
         <f t="shared" si="17"/>
-        <v>84.738779540090761</v>
+        <v>96.569811835425071</v>
       </c>
       <c r="R26" s="102">
         <f t="shared" si="17"/>
-        <v>85.672684512734008</v>
+        <v>97.634106459088585</v>
       </c>
       <c r="S26" s="102">
         <f t="shared" si="17"/>
-        <v>86.527418291998217</v>
+        <v>98.608176190572919</v>
       </c>
       <c r="T26" s="102">
         <f t="shared" si="17"/>
-        <v>87.373486567509218</v>
+        <v>99.572370560723897</v>
       </c>
       <c r="U26" s="102">
         <f t="shared" si="17"/>
-        <v>88.258155723374557</v>
+        <v>100.58055517681342</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" si="17"/>
-        <v>89.155823134868967</v>
+        <v>101.60355283490213</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
@@ -5945,8 +5938,8 @@
     <row r="28" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="196"/>
       <c r="B28" s="197"/>
-      <c r="C28" s="281"/>
-      <c r="D28" s="281"/>
+      <c r="C28" s="280"/>
+      <c r="D28" s="280"/>
       <c r="F28" s="201"/>
       <c r="G28" s="201"/>
       <c r="H28" s="201"/>
@@ -6047,39 +6040,39 @@
       </c>
       <c r="M30" s="199">
         <f>VLOOKUP(C30,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>3488125</v>
+        <v>3494888</v>
       </c>
       <c r="N30" s="44">
         <f>N31+N36+N46</f>
-        <v>2847845.8319988288</v>
+        <v>2848130.6794988289</v>
       </c>
       <c r="O30" s="44">
         <f t="shared" ref="O30:U30" si="19">O31+O36+O46</f>
-        <v>3232064.9561336781</v>
+        <v>3232347.6672774283</v>
       </c>
       <c r="P30" s="44">
         <f t="shared" si="19"/>
-        <v>2658305.2157637766</v>
+        <v>2658585.8065739484</v>
       </c>
       <c r="Q30" s="44">
         <f t="shared" si="19"/>
-        <v>2548767.4784838995</v>
+        <v>2549045.9648629948</v>
       </c>
       <c r="R30" s="44">
         <f t="shared" si="19"/>
-        <v>2601999.1665078122</v>
+        <v>2602281.8301825942</v>
       </c>
       <c r="S30" s="44">
         <f t="shared" si="19"/>
-        <v>2656541.4105371395</v>
+        <v>2656828.3141670432</v>
       </c>
       <c r="T30" s="44">
         <f t="shared" si="19"/>
-        <v>2712430.6137193376</v>
+        <v>2712721.8209036896</v>
       </c>
       <c r="U30" s="44">
         <f t="shared" si="19"/>
-        <v>2769704.2727967203</v>
+        <v>2769999.8480888377</v>
       </c>
       <c r="V30" s="3"/>
       <c r="W30" s="44"/>
@@ -6243,7 +6236,7 @@
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
         <v>283</v>
@@ -6312,116 +6305,116 @@
       <c r="AL32" s="3"/>
       <c r="AM32" s="184"/>
     </row>
-    <row r="33" spans="1:41" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="296" t="s">
-        <v>343</v>
-      </c>
-      <c r="F33" s="288"/>
-      <c r="G33" s="288"/>
-      <c r="H33" s="288"/>
-      <c r="I33" s="288"/>
-      <c r="J33" s="288"/>
-      <c r="K33" s="288"/>
-      <c r="L33" s="288"/>
-      <c r="M33" s="289"/>
-      <c r="N33" s="290"/>
-      <c r="O33" s="290">
+    <row r="33" spans="1:41" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="294" t="s">
+        <v>342</v>
+      </c>
+      <c r="F33" s="286"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="286"/>
+      <c r="I33" s="286"/>
+      <c r="J33" s="286"/>
+      <c r="K33" s="286"/>
+      <c r="L33" s="286"/>
+      <c r="M33" s="287"/>
+      <c r="N33" s="288"/>
+      <c r="O33" s="288">
         <f>'Stimulus Round 2'!C4*4</f>
         <v>664000</v>
       </c>
-      <c r="P33" s="290"/>
-      <c r="Q33" s="290"/>
-      <c r="R33" s="290"/>
-      <c r="S33" s="290"/>
-      <c r="T33" s="290"/>
-      <c r="U33" s="290"/>
-      <c r="AD33" s="292"/>
-      <c r="AE33" s="292"/>
-      <c r="AF33" s="292"/>
-      <c r="AG33" s="291"/>
-      <c r="AI33" s="291"/>
-      <c r="AJ33" s="291"/>
-      <c r="AK33" s="291"/>
-      <c r="AL33" s="291"/>
-      <c r="AM33" s="293"/>
-    </row>
-    <row r="34" spans="1:41" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="296" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="288"/>
-      <c r="G34" s="288"/>
-      <c r="H34" s="288"/>
-      <c r="I34" s="288"/>
-      <c r="J34" s="288"/>
-      <c r="K34" s="288"/>
-      <c r="L34" s="288"/>
-      <c r="M34" s="289"/>
-      <c r="N34" s="290"/>
-      <c r="O34" s="290">
+      <c r="P33" s="288"/>
+      <c r="Q33" s="288"/>
+      <c r="R33" s="288"/>
+      <c r="S33" s="288"/>
+      <c r="T33" s="288"/>
+      <c r="U33" s="288"/>
+      <c r="AD33" s="290"/>
+      <c r="AE33" s="290"/>
+      <c r="AF33" s="290"/>
+      <c r="AG33" s="289"/>
+      <c r="AI33" s="289"/>
+      <c r="AJ33" s="289"/>
+      <c r="AK33" s="289"/>
+      <c r="AL33" s="289"/>
+      <c r="AM33" s="291"/>
+    </row>
+    <row r="34" spans="1:41" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="294" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="286"/>
+      <c r="G34" s="286"/>
+      <c r="H34" s="286"/>
+      <c r="I34" s="286"/>
+      <c r="J34" s="286"/>
+      <c r="K34" s="286"/>
+      <c r="L34" s="286"/>
+      <c r="M34" s="287"/>
+      <c r="N34" s="288"/>
+      <c r="O34" s="288">
         <f>'Stimulus Round 2'!$C$15*4/2</f>
         <v>52000</v>
       </c>
-      <c r="P34" s="290">
+      <c r="P34" s="288">
         <f>'Stimulus Round 2'!$C$15*4/2</f>
         <v>52000</v>
       </c>
-      <c r="Q34" s="290"/>
-      <c r="R34" s="290"/>
-      <c r="S34" s="290"/>
-      <c r="T34" s="290"/>
-      <c r="U34" s="290"/>
-      <c r="AD34" s="292"/>
-      <c r="AE34" s="292"/>
-      <c r="AF34" s="292"/>
-      <c r="AG34" s="291"/>
-      <c r="AI34" s="291"/>
-      <c r="AJ34" s="291"/>
-      <c r="AK34" s="291"/>
-      <c r="AL34" s="291"/>
-      <c r="AM34" s="293"/>
-    </row>
-    <row r="35" spans="1:41" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="296" t="s">
-        <v>354</v>
-      </c>
-      <c r="F35" s="288"/>
-      <c r="G35" s="288"/>
-      <c r="H35" s="288"/>
-      <c r="I35" s="288"/>
-      <c r="J35" s="288"/>
-      <c r="K35" s="288"/>
-      <c r="L35" s="288"/>
-      <c r="M35" s="289"/>
-      <c r="N35" s="290"/>
-      <c r="O35" s="290">
+      <c r="Q34" s="288"/>
+      <c r="R34" s="288"/>
+      <c r="S34" s="288"/>
+      <c r="T34" s="288"/>
+      <c r="U34" s="288"/>
+      <c r="AD34" s="290"/>
+      <c r="AE34" s="290"/>
+      <c r="AF34" s="290"/>
+      <c r="AG34" s="289"/>
+      <c r="AI34" s="289"/>
+      <c r="AJ34" s="289"/>
+      <c r="AK34" s="289"/>
+      <c r="AL34" s="289"/>
+      <c r="AM34" s="291"/>
+    </row>
+    <row r="35" spans="1:41" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="294" t="s">
+        <v>353</v>
+      </c>
+      <c r="F35" s="286"/>
+      <c r="G35" s="286"/>
+      <c r="H35" s="286"/>
+      <c r="I35" s="286"/>
+      <c r="J35" s="286"/>
+      <c r="K35" s="286"/>
+      <c r="L35" s="286"/>
+      <c r="M35" s="287"/>
+      <c r="N35" s="288"/>
+      <c r="O35" s="288">
         <f>'Stimulus Round 2'!$C$19*4/4</f>
         <v>5000</v>
       </c>
-      <c r="P35" s="290">
+      <c r="P35" s="288">
         <f>'Stimulus Round 2'!$C$19*4/4</f>
         <v>5000</v>
       </c>
-      <c r="Q35" s="290">
+      <c r="Q35" s="288">
         <f>'Stimulus Round 2'!$C$19*4/4</f>
         <v>5000</v>
       </c>
-      <c r="R35" s="290">
+      <c r="R35" s="288">
         <f>'Stimulus Round 2'!$C$19*4/4</f>
         <v>5000</v>
       </c>
-      <c r="S35" s="290"/>
-      <c r="T35" s="290"/>
-      <c r="U35" s="290"/>
-      <c r="AD35" s="292"/>
-      <c r="AE35" s="292"/>
-      <c r="AF35" s="292"/>
-      <c r="AG35" s="291"/>
-      <c r="AI35" s="291"/>
-      <c r="AJ35" s="291"/>
-      <c r="AK35" s="291"/>
-      <c r="AL35" s="291"/>
-      <c r="AM35" s="293"/>
+      <c r="S35" s="288"/>
+      <c r="T35" s="288"/>
+      <c r="U35" s="288"/>
+      <c r="AD35" s="290"/>
+      <c r="AE35" s="290"/>
+      <c r="AF35" s="290"/>
+      <c r="AG35" s="289"/>
+      <c r="AI35" s="289"/>
+      <c r="AJ35" s="289"/>
+      <c r="AK35" s="289"/>
+      <c r="AL35" s="289"/>
+      <c r="AM35" s="291"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="86" t="s">
@@ -6450,7 +6443,7 @@
       </c>
       <c r="M36" s="199">
         <f>M37+M40</f>
-        <v>874878</v>
+        <v>881354</v>
       </c>
       <c r="N36" s="87">
         <f>N38+N42</f>
@@ -6500,7 +6493,7 @@
       </c>
       <c r="AD36" s="45">
         <f>AVERAGE(J36:M36)/1000</f>
-        <v>514.68875000000003</v>
+        <v>516.30775000000006</v>
       </c>
       <c r="AE36" s="45">
         <f t="shared" ref="AE36:AE46" si="21">AVERAGE(N36:Q36)/1000</f>
@@ -6545,7 +6538,7 @@
       <c r="L37" s="204"/>
       <c r="M37" s="199">
         <f>VLOOKUP(C37,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>768678</v>
+        <v>775154</v>
       </c>
       <c r="N37" s="87"/>
       <c r="O37" s="87"/>
@@ -6632,7 +6625,7 @@
       <c r="AM38" s="184"/>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A39" s="282" t="s">
+      <c r="A39" s="281" t="s">
         <v>138</v>
       </c>
       <c r="F39" s="204"/>
@@ -6713,7 +6706,7 @@
       <c r="AM39" s="184"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A40" s="282" t="s">
+      <c r="A40" s="281" t="s">
         <v>162</v>
       </c>
       <c r="F40" s="204"/>
@@ -6755,46 +6748,46 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="184"/>
     </row>
-    <row r="41" spans="1:41" s="287" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="286" t="s">
-        <v>348</v>
-      </c>
-      <c r="F41" s="288"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="288"/>
-      <c r="I41" s="288"/>
-      <c r="J41" s="288"/>
-      <c r="K41" s="288"/>
-      <c r="L41" s="288"/>
-      <c r="M41" s="289"/>
-      <c r="N41" s="290"/>
-      <c r="O41" s="290">
+    <row r="41" spans="1:41" s="285" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="284" t="s">
+        <v>347</v>
+      </c>
+      <c r="F41" s="286"/>
+      <c r="G41" s="286"/>
+      <c r="H41" s="286"/>
+      <c r="I41" s="286"/>
+      <c r="J41" s="286"/>
+      <c r="K41" s="286"/>
+      <c r="L41" s="286"/>
+      <c r="M41" s="287"/>
+      <c r="N41" s="288"/>
+      <c r="O41" s="288">
         <f>'Stimulus Round 2'!$C$3*4</f>
         <v>480000</v>
       </c>
-      <c r="P41" s="290"/>
-      <c r="Q41" s="290"/>
-      <c r="R41" s="290"/>
-      <c r="S41" s="290"/>
-      <c r="T41" s="290"/>
-      <c r="U41" s="290"/>
-      <c r="V41" s="291"/>
-      <c r="W41" s="291"/>
-      <c r="X41" s="291"/>
-      <c r="Y41" s="291"/>
-      <c r="Z41" s="291"/>
-      <c r="AA41" s="291"/>
-      <c r="AB41" s="291"/>
-      <c r="AC41" s="291"/>
-      <c r="AD41" s="292"/>
-      <c r="AE41" s="292"/>
-      <c r="AF41" s="292"/>
-      <c r="AG41" s="291"/>
-      <c r="AI41" s="291"/>
-      <c r="AJ41" s="291"/>
-      <c r="AK41" s="291"/>
-      <c r="AL41" s="291"/>
-      <c r="AM41" s="293"/>
+      <c r="P41" s="288"/>
+      <c r="Q41" s="288"/>
+      <c r="R41" s="288"/>
+      <c r="S41" s="288"/>
+      <c r="T41" s="288"/>
+      <c r="U41" s="288"/>
+      <c r="V41" s="289"/>
+      <c r="W41" s="289"/>
+      <c r="X41" s="289"/>
+      <c r="Y41" s="289"/>
+      <c r="Z41" s="289"/>
+      <c r="AA41" s="289"/>
+      <c r="AB41" s="289"/>
+      <c r="AC41" s="289"/>
+      <c r="AD41" s="290"/>
+      <c r="AE41" s="290"/>
+      <c r="AF41" s="290"/>
+      <c r="AG41" s="289"/>
+      <c r="AI41" s="289"/>
+      <c r="AJ41" s="289"/>
+      <c r="AK41" s="289"/>
+      <c r="AL41" s="289"/>
+      <c r="AM41" s="291"/>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="117" t="s">
@@ -7109,43 +7102,43 @@
       </c>
       <c r="M46" s="204">
         <f>M30-M32-M36-M31-M43</f>
-        <v>1669514</v>
+        <v>1669801</v>
       </c>
       <c r="N46" s="88">
         <f>M46*(1+N48)</f>
-        <v>1656992.645</v>
+        <v>1657277.4925000002</v>
       </c>
       <c r="O46" s="88">
         <f t="shared" ref="O46:Q46" si="27">N46*(1+O48)</f>
-        <v>1644565.2001625001</v>
+        <v>1644847.9113062501</v>
       </c>
       <c r="P46" s="88">
         <f t="shared" si="27"/>
-        <v>1632230.9611612814</v>
+        <v>1632511.5519714532</v>
       </c>
       <c r="Q46" s="88">
         <f t="shared" si="27"/>
-        <v>1619989.228952572</v>
+        <v>1620267.7153316673</v>
       </c>
       <c r="R46" s="88">
         <f>Q46*(1+R48)</f>
-        <v>1644289.0673868605</v>
+        <v>1644571.7310616423</v>
       </c>
       <c r="S46" s="88">
         <f t="shared" ref="S46:U46" si="28">R46*(1+S48)</f>
-        <v>1668953.4033976633</v>
+        <v>1669240.3070275667</v>
       </c>
       <c r="T46" s="88">
         <f t="shared" si="28"/>
-        <v>1693987.704448628</v>
+        <v>1694278.91163298</v>
       </c>
       <c r="U46" s="88">
         <f t="shared" si="28"/>
-        <v>1719397.5200153573</v>
+        <v>1719693.0953074745</v>
       </c>
       <c r="V46" s="88">
         <f>U46*(1+V48)</f>
-        <v>1736591.4952155109</v>
+        <v>1736890.0262605492</v>
       </c>
       <c r="W46" s="44"/>
       <c r="X46" s="3"/>
@@ -7155,19 +7148,19 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3">
         <f>AD30-AD32-AD36-AD31-AD43</f>
-        <v>-1671.75325</v>
+        <v>-1673.3722500000001</v>
       </c>
       <c r="AD46" s="45">
         <f>AVERAGE(J46:M46)/1000</f>
-        <v>1596.6622500000001</v>
+        <v>1596.7339999999999</v>
       </c>
       <c r="AE46" s="45">
         <f t="shared" si="21"/>
-        <v>1638.4445088190882</v>
+        <v>1638.7261677773427</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" si="22"/>
-        <v>1681.6569238121272</v>
+        <v>1681.9460112574161</v>
       </c>
       <c r="AG46" s="3"/>
       <c r="AI46" s="3">
@@ -7186,19 +7179,19 @@
       <c r="AM46" s="184"/>
       <c r="AN46">
         <f>AJ46/AI46*AD46</f>
-        <v>1671.0682458472502</v>
+        <v>1671.143339466229</v>
       </c>
       <c r="AO46">
         <f>AK46/AI46*AD46</f>
-        <v>1711.6524753198171</v>
+        <v>1711.7293926923571</v>
       </c>
     </row>
     <row r="47" spans="1:41" s="171" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="170" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="281"/>
-      <c r="D47" s="281"/>
+      <c r="C47" s="280"/>
+      <c r="D47" s="280"/>
       <c r="F47" s="234"/>
       <c r="G47" s="236">
         <f>G46/F46-1</f>
@@ -7293,7 +7286,7 @@
       <c r="W48" s="176"/>
       <c r="AD48" s="189">
         <f>AD31+AD32+AD36+AD43</f>
-        <v>1671.7532500000002</v>
+        <v>1673.3722500000001</v>
       </c>
       <c r="AI48" s="189">
         <f>AI31+AI32+AI36+AI43</f>
@@ -7380,7 +7373,7 @@
       </c>
       <c r="M50" s="204">
         <f>VLOOKUP(C50,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>1213308</v>
+        <v>1213480</v>
       </c>
       <c r="N50" s="144">
         <f t="shared" ref="N50:Z50" si="30">N51+AVERAGE($H$50:$K$50)</f>
@@ -7511,7 +7504,7 @@
     </row>
     <row r="52" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="227" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F52" s="199"/>
       <c r="G52" s="199"/>
@@ -7544,8 +7537,8 @@
       <c r="AM52" s="243"/>
     </row>
     <row r="53" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="284" t="s">
-        <v>338</v>
+      <c r="A53" s="282" t="s">
+        <v>337</v>
       </c>
       <c r="C53" t="s">
         <v>311</v>
@@ -7671,7 +7664,7 @@
       <c r="AM54" s="243"/>
     </row>
     <row r="55" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="285" t="s">
+      <c r="A55" s="283" t="s">
         <v>284</v>
       </c>
       <c r="B55" s="187" t="s">
@@ -7717,7 +7710,7 @@
       <c r="AM55" s="244"/>
     </row>
     <row r="56" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="285" t="s">
+      <c r="A56" s="283" t="s">
         <v>285</v>
       </c>
       <c r="B56" s="187" t="s">
@@ -7763,7 +7756,7 @@
       <c r="AM56" s="244"/>
     </row>
     <row r="57" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="285" t="s">
+      <c r="A57" s="283" t="s">
         <v>286</v>
       </c>
       <c r="B57" s="187" t="s">
@@ -7810,7 +7803,7 @@
     </row>
     <row r="58" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="227" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C58"/>
       <c r="D58"/>
@@ -7844,195 +7837,195 @@
       <c r="AG58" s="189"/>
       <c r="AM58" s="244"/>
     </row>
-    <row r="59" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="286" t="s">
-        <v>339</v>
-      </c>
-      <c r="F59" s="289"/>
-      <c r="G59" s="289"/>
-      <c r="H59" s="289"/>
-      <c r="I59" s="288"/>
-      <c r="J59" s="288"/>
-      <c r="K59" s="288"/>
-      <c r="L59" s="288"/>
-      <c r="M59" s="289"/>
-      <c r="N59" s="294"/>
-      <c r="O59" s="294">
+    <row r="59" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="284" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59" s="287"/>
+      <c r="G59" s="287"/>
+      <c r="H59" s="287"/>
+      <c r="I59" s="286"/>
+      <c r="J59" s="286"/>
+      <c r="K59" s="286"/>
+      <c r="L59" s="286"/>
+      <c r="M59" s="287"/>
+      <c r="N59" s="292"/>
+      <c r="O59" s="292">
         <f>'Stimulus Round 2'!$C$2*4/3</f>
         <v>433333.33333333331</v>
       </c>
-      <c r="P59" s="294">
+      <c r="P59" s="292">
         <f>'Stimulus Round 2'!$C$2*4/3</f>
         <v>433333.33333333331</v>
       </c>
-      <c r="Q59" s="294">
+      <c r="Q59" s="292">
         <f>'Stimulus Round 2'!$C$2*4/3</f>
         <v>433333.33333333331</v>
       </c>
-      <c r="R59" s="294"/>
-      <c r="S59" s="294"/>
-      <c r="T59" s="294"/>
-      <c r="U59" s="294"/>
-      <c r="V59" s="294"/>
-      <c r="W59" s="291"/>
-      <c r="X59" s="291"/>
-      <c r="Y59" s="291"/>
-      <c r="Z59" s="291"/>
-      <c r="AA59" s="291"/>
-      <c r="AB59" s="291"/>
-      <c r="AC59" s="291"/>
-      <c r="AD59" s="291"/>
-      <c r="AE59" s="291"/>
-      <c r="AF59" s="291"/>
-      <c r="AG59" s="291"/>
-      <c r="AM59" s="295"/>
-    </row>
-    <row r="60" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="286" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" s="289"/>
-      <c r="G60" s="289"/>
-      <c r="H60" s="289"/>
-      <c r="I60" s="288"/>
-      <c r="J60" s="288"/>
-      <c r="K60" s="288"/>
-      <c r="L60" s="288"/>
-      <c r="M60" s="289"/>
-      <c r="N60" s="294"/>
-      <c r="O60" s="294">
+      <c r="R59" s="292"/>
+      <c r="S59" s="292"/>
+      <c r="T59" s="292"/>
+      <c r="U59" s="292"/>
+      <c r="V59" s="292"/>
+      <c r="W59" s="289"/>
+      <c r="X59" s="289"/>
+      <c r="Y59" s="289"/>
+      <c r="Z59" s="289"/>
+      <c r="AA59" s="289"/>
+      <c r="AB59" s="289"/>
+      <c r="AC59" s="289"/>
+      <c r="AD59" s="289"/>
+      <c r="AE59" s="289"/>
+      <c r="AF59" s="289"/>
+      <c r="AG59" s="289"/>
+      <c r="AM59" s="293"/>
+    </row>
+    <row r="60" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="284" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="287"/>
+      <c r="G60" s="287"/>
+      <c r="H60" s="287"/>
+      <c r="I60" s="286"/>
+      <c r="J60" s="286"/>
+      <c r="K60" s="286"/>
+      <c r="L60" s="286"/>
+      <c r="M60" s="287"/>
+      <c r="N60" s="292"/>
+      <c r="O60" s="292">
         <f>'Stimulus Round 2'!$C$12*4/3</f>
         <v>21333.333333333332</v>
       </c>
-      <c r="P60" s="294">
+      <c r="P60" s="292">
         <f>'Stimulus Round 2'!$C$12*4/3</f>
         <v>21333.333333333332</v>
       </c>
-      <c r="Q60" s="294">
+      <c r="Q60" s="292">
         <f>'Stimulus Round 2'!$C$12*4/3</f>
         <v>21333.333333333332</v>
       </c>
-      <c r="R60" s="294"/>
-      <c r="S60" s="294"/>
-      <c r="T60" s="294"/>
-      <c r="U60" s="294"/>
-      <c r="V60" s="294"/>
-      <c r="W60" s="291"/>
-      <c r="X60" s="291"/>
-      <c r="Y60" s="291"/>
-      <c r="Z60" s="291"/>
-      <c r="AA60" s="291"/>
-      <c r="AB60" s="291"/>
-      <c r="AC60" s="291"/>
-      <c r="AD60" s="291"/>
-      <c r="AE60" s="291"/>
-      <c r="AF60" s="291"/>
-      <c r="AG60" s="291"/>
-      <c r="AM60" s="295"/>
-    </row>
-    <row r="61" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="286" t="s">
+      <c r="R60" s="292"/>
+      <c r="S60" s="292"/>
+      <c r="T60" s="292"/>
+      <c r="U60" s="292"/>
+      <c r="V60" s="292"/>
+      <c r="W60" s="289"/>
+      <c r="X60" s="289"/>
+      <c r="Y60" s="289"/>
+      <c r="Z60" s="289"/>
+      <c r="AA60" s="289"/>
+      <c r="AB60" s="289"/>
+      <c r="AC60" s="289"/>
+      <c r="AD60" s="289"/>
+      <c r="AE60" s="289"/>
+      <c r="AF60" s="289"/>
+      <c r="AG60" s="289"/>
+      <c r="AM60" s="293"/>
+    </row>
+    <row r="61" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="284" t="s">
         <v>285</v>
       </c>
-      <c r="F61" s="289"/>
-      <c r="G61" s="289"/>
-      <c r="H61" s="289"/>
-      <c r="I61" s="288"/>
-      <c r="J61" s="288"/>
-      <c r="K61" s="288"/>
-      <c r="L61" s="288"/>
-      <c r="M61" s="289"/>
-      <c r="N61" s="294"/>
-      <c r="O61" s="294">
+      <c r="F61" s="287"/>
+      <c r="G61" s="287"/>
+      <c r="H61" s="287"/>
+      <c r="I61" s="286"/>
+      <c r="J61" s="286"/>
+      <c r="K61" s="286"/>
+      <c r="L61" s="286"/>
+      <c r="M61" s="287"/>
+      <c r="N61" s="292"/>
+      <c r="O61" s="292">
         <f>'Stimulus Round 2'!$C$18*4/4</f>
         <v>20000</v>
       </c>
-      <c r="P61" s="294">
+      <c r="P61" s="292">
         <f>'Stimulus Round 2'!$C$18*4/4</f>
         <v>20000</v>
       </c>
-      <c r="Q61" s="294">
+      <c r="Q61" s="292">
         <f>'Stimulus Round 2'!$C$18*4/4</f>
         <v>20000</v>
       </c>
-      <c r="R61" s="294">
+      <c r="R61" s="292">
         <f>'Stimulus Round 2'!$C$18*4/4</f>
         <v>20000</v>
       </c>
-      <c r="S61" s="294"/>
-      <c r="T61" s="294"/>
-      <c r="U61" s="294"/>
-      <c r="V61" s="294"/>
-      <c r="W61" s="291"/>
-      <c r="X61" s="291"/>
-      <c r="Y61" s="291"/>
-      <c r="Z61" s="291"/>
-      <c r="AA61" s="291"/>
-      <c r="AB61" s="291"/>
-      <c r="AC61" s="291"/>
-      <c r="AD61" s="291"/>
-      <c r="AE61" s="291"/>
-      <c r="AF61" s="291"/>
-      <c r="AG61" s="291"/>
-      <c r="AM61" s="295"/>
-    </row>
-    <row r="62" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="286" t="s">
-        <v>355</v>
-      </c>
-      <c r="F62" s="289"/>
-      <c r="G62" s="289"/>
-      <c r="H62" s="289"/>
-      <c r="I62" s="288"/>
-      <c r="J62" s="288"/>
-      <c r="K62" s="288"/>
-      <c r="L62" s="288"/>
-      <c r="M62" s="289"/>
-      <c r="N62" s="294"/>
-      <c r="O62" s="294">
+      <c r="S61" s="292"/>
+      <c r="T61" s="292"/>
+      <c r="U61" s="292"/>
+      <c r="V61" s="292"/>
+      <c r="W61" s="289"/>
+      <c r="X61" s="289"/>
+      <c r="Y61" s="289"/>
+      <c r="Z61" s="289"/>
+      <c r="AA61" s="289"/>
+      <c r="AB61" s="289"/>
+      <c r="AC61" s="289"/>
+      <c r="AD61" s="289"/>
+      <c r="AE61" s="289"/>
+      <c r="AF61" s="289"/>
+      <c r="AG61" s="289"/>
+      <c r="AM61" s="293"/>
+    </row>
+    <row r="62" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="284" t="s">
+        <v>354</v>
+      </c>
+      <c r="F62" s="287"/>
+      <c r="G62" s="287"/>
+      <c r="H62" s="287"/>
+      <c r="I62" s="286"/>
+      <c r="J62" s="286"/>
+      <c r="K62" s="286"/>
+      <c r="L62" s="286"/>
+      <c r="M62" s="287"/>
+      <c r="N62" s="292"/>
+      <c r="O62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="P62" s="294">
+      <c r="P62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="Q62" s="294">
+      <c r="Q62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="R62" s="294">
+      <c r="R62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="S62" s="294">
+      <c r="S62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="T62" s="294">
+      <c r="T62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="U62" s="294">
+      <c r="U62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="V62" s="294">
+      <c r="V62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
         <v>2500</v>
       </c>
-      <c r="W62" s="291"/>
-      <c r="X62" s="291"/>
-      <c r="Y62" s="291"/>
-      <c r="Z62" s="291"/>
-      <c r="AA62" s="291"/>
-      <c r="AB62" s="291"/>
-      <c r="AC62" s="291"/>
-      <c r="AD62" s="291"/>
-      <c r="AE62" s="291"/>
-      <c r="AF62" s="291"/>
-      <c r="AG62" s="291"/>
-      <c r="AM62" s="295"/>
+      <c r="W62" s="289"/>
+      <c r="X62" s="289"/>
+      <c r="Y62" s="289"/>
+      <c r="Z62" s="289"/>
+      <c r="AA62" s="289"/>
+      <c r="AB62" s="289"/>
+      <c r="AC62" s="289"/>
+      <c r="AD62" s="289"/>
+      <c r="AE62" s="289"/>
+      <c r="AF62" s="289"/>
+      <c r="AG62" s="289"/>
+      <c r="AM62" s="293"/>
     </row>
     <row r="63" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="134"/>
@@ -8146,35 +8139,35 @@
         <v>229</v>
       </c>
       <c r="F65" s="205">
-        <f>F64-F87</f>
+        <f t="shared" ref="F65:M65" si="33">F64-F87</f>
         <v>196851</v>
       </c>
       <c r="G65" s="205">
-        <f>G64-G87</f>
+        <f t="shared" si="33"/>
         <v>189684</v>
       </c>
       <c r="H65" s="205">
-        <f>H64-H87</f>
+        <f t="shared" si="33"/>
         <v>192875</v>
       </c>
       <c r="I65" s="205">
-        <f>I64-I87</f>
+        <f t="shared" si="33"/>
         <v>191507</v>
       </c>
       <c r="J65" s="205">
-        <f>J64-J87</f>
+        <f t="shared" si="33"/>
         <v>203997</v>
       </c>
       <c r="K65" s="205">
-        <f>K64-K87</f>
+        <f t="shared" si="33"/>
         <v>204376</v>
       </c>
       <c r="L65" s="205">
-        <f>L64-L87</f>
+        <f t="shared" si="33"/>
         <v>884250</v>
       </c>
       <c r="M65" s="199">
-        <f>M64-M87</f>
+        <f t="shared" si="33"/>
         <v>242100</v>
       </c>
       <c r="N65" s="116"/>
@@ -8213,60 +8206,60 @@
         <f>L65-L67</f>
         <v>192250</v>
       </c>
-      <c r="M66" s="299">
+      <c r="M66" s="297">
         <f>L66*(1+M82)</f>
-        <v>189950.61436735778</v>
+        <v>189980.38194444444</v>
       </c>
       <c r="N66" s="116">
         <f>M66*(1+N82)</f>
         <v>191372.88477706735</v>
       </c>
       <c r="O66" s="116">
-        <f t="shared" ref="O66:R66" si="33">N66*(1+O82)</f>
+        <f t="shared" ref="O66:R66" si="34">N66*(1+O82)</f>
         <v>192140.9954476429</v>
       </c>
       <c r="P66" s="116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>193022.43392207247</v>
       </c>
       <c r="Q66" s="116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>194054.97613497748</v>
       </c>
       <c r="R66" s="116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>195544.37969325102</v>
       </c>
       <c r="S66" s="116">
-        <f t="shared" ref="S66" si="34">R66*(1+S82)</f>
+        <f t="shared" ref="S66" si="35">R66*(1+S82)</f>
         <v>197240.80684971521</v>
       </c>
       <c r="T66" s="116">
-        <f t="shared" ref="T66" si="35">S66*(1+T82)</f>
+        <f t="shared" ref="T66" si="36">S66*(1+T82)</f>
         <v>198958.57178194768</v>
       </c>
       <c r="U66" s="116">
-        <f t="shared" ref="U66" si="36">T66*(1+U82)</f>
+        <f t="shared" ref="U66" si="37">T66*(1+U82)</f>
         <v>200866.80125051294</v>
       </c>
       <c r="V66" s="116">
-        <f t="shared" ref="V66:X66" si="37">U66*(1+V82)</f>
+        <f t="shared" ref="V66:X66" si="38">U66*(1+V82)</f>
         <v>202622.47677399646</v>
       </c>
       <c r="W66" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>204572.45802602731</v>
       </c>
       <c r="X66" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>206361.5615193437</v>
       </c>
       <c r="Y66" s="116">
-        <f t="shared" ref="Y66" si="38">X66*(1+Y82)</f>
+        <f t="shared" ref="Y66" si="39">X66*(1+Y82)</f>
         <v>208346.79396445845</v>
       </c>
       <c r="Z66" s="116">
-        <f t="shared" ref="Z66" si="39">Y66*(1+Z82)</f>
+        <f t="shared" ref="Z66" si="40">Y66*(1+Z82)</f>
         <v>214810.11799163782</v>
       </c>
       <c r="AA66" s="44"/>
@@ -8347,47 +8340,47 @@
         <v>149000</v>
       </c>
       <c r="P68" s="116">
-        <f t="shared" ref="P68:Z68" si="40">SUM(P70:P72)+P73</f>
+        <f t="shared" ref="P68:Z68" si="41">SUM(P70:P72)+P73</f>
         <v>121000</v>
       </c>
       <c r="Q68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>121000</v>
       </c>
       <c r="R68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>115000</v>
       </c>
       <c r="S68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="T68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="U68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="V68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="W68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="X68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="Y68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="Z68" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="AA68" s="116"/>
@@ -8401,7 +8394,7 @@
     </row>
     <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="227" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F69" s="199"/>
       <c r="G69" s="199"/>
@@ -8589,7 +8582,7 @@
     </row>
     <row r="73" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="228" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F73" s="199"/>
       <c r="G73" s="199"/>
@@ -8605,47 +8598,47 @@
         <v>59000</v>
       </c>
       <c r="P73" s="116">
-        <f t="shared" ref="P73:Z73" si="41">SUM(P74:P77)</f>
+        <f t="shared" ref="P73:Z73" si="42">SUM(P74:P77)</f>
         <v>59000</v>
       </c>
       <c r="Q73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="R73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="S73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="T73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="U73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="V73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="W73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="X73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="Y73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="Z73" s="116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>59000</v>
       </c>
       <c r="AA73" s="116"/>
@@ -8657,285 +8650,285 @@
       <c r="AG73" s="44"/>
       <c r="AM73" s="243"/>
     </row>
-    <row r="74" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="297" t="s">
-        <v>346</v>
-      </c>
-      <c r="F74" s="289"/>
-      <c r="G74" s="289"/>
-      <c r="H74" s="289"/>
-      <c r="I74" s="288"/>
-      <c r="J74" s="288"/>
-      <c r="K74" s="288"/>
-      <c r="L74" s="288"/>
-      <c r="M74" s="289"/>
-      <c r="N74" s="294"/>
-      <c r="O74" s="294">
+    <row r="74" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="295" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" s="287"/>
+      <c r="G74" s="287"/>
+      <c r="H74" s="287"/>
+      <c r="I74" s="286"/>
+      <c r="J74" s="286"/>
+      <c r="K74" s="286"/>
+      <c r="L74" s="286"/>
+      <c r="M74" s="287"/>
+      <c r="N74" s="292"/>
+      <c r="O74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="P74" s="294">
+      <c r="P74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="Q74" s="294">
+      <c r="Q74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="R74" s="294">
+      <c r="R74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="S74" s="294">
+      <c r="S74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="T74" s="294">
+      <c r="T74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="U74" s="294">
+      <c r="U74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="V74" s="294">
+      <c r="V74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="W74" s="294">
+      <c r="W74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="X74" s="294">
+      <c r="X74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="Y74" s="294">
+      <c r="Y74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="Z74" s="294">
+      <c r="Z74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
         <v>9666.6666666666661</v>
       </c>
-      <c r="AA74" s="291"/>
-      <c r="AB74" s="291"/>
-      <c r="AC74" s="291"/>
-      <c r="AD74" s="291"/>
-      <c r="AE74" s="291"/>
-      <c r="AF74" s="291"/>
-      <c r="AG74" s="291"/>
-      <c r="AM74" s="295"/>
-    </row>
-    <row r="75" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="297" t="s">
-        <v>347</v>
-      </c>
-      <c r="F75" s="289"/>
-      <c r="G75" s="289"/>
-      <c r="H75" s="289"/>
-      <c r="I75" s="288"/>
-      <c r="J75" s="288"/>
-      <c r="K75" s="288"/>
-      <c r="L75" s="288"/>
-      <c r="M75" s="289"/>
-      <c r="N75" s="294"/>
-      <c r="O75" s="294">
+      <c r="AA74" s="289"/>
+      <c r="AB74" s="289"/>
+      <c r="AC74" s="289"/>
+      <c r="AD74" s="289"/>
+      <c r="AE74" s="289"/>
+      <c r="AF74" s="289"/>
+      <c r="AG74" s="289"/>
+      <c r="AM74" s="293"/>
+    </row>
+    <row r="75" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="295" t="s">
+        <v>346</v>
+      </c>
+      <c r="F75" s="287"/>
+      <c r="G75" s="287"/>
+      <c r="H75" s="287"/>
+      <c r="I75" s="286"/>
+      <c r="J75" s="286"/>
+      <c r="K75" s="286"/>
+      <c r="L75" s="286"/>
+      <c r="M75" s="287"/>
+      <c r="N75" s="292"/>
+      <c r="O75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="P75" s="294">
+      <c r="P75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="Q75" s="294">
+      <c r="Q75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="R75" s="294">
+      <c r="R75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="S75" s="294">
+      <c r="S75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="T75" s="294">
+      <c r="T75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="U75" s="294">
+      <c r="U75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="V75" s="294">
+      <c r="V75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="W75" s="294">
+      <c r="W75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="X75" s="294">
+      <c r="X75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="Y75" s="294">
+      <c r="Y75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="Z75" s="294">
+      <c r="Z75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
         <v>27333.333333333332</v>
       </c>
-      <c r="AA75" s="291"/>
-      <c r="AB75" s="291"/>
-      <c r="AC75" s="291"/>
-      <c r="AD75" s="291"/>
-      <c r="AE75" s="291"/>
-      <c r="AF75" s="291"/>
-      <c r="AG75" s="291"/>
-      <c r="AM75" s="295"/>
-    </row>
-    <row r="76" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="297" t="s">
-        <v>351</v>
-      </c>
-      <c r="F76" s="289"/>
-      <c r="G76" s="289"/>
-      <c r="H76" s="289"/>
-      <c r="I76" s="288"/>
-      <c r="J76" s="288"/>
-      <c r="K76" s="288"/>
-      <c r="L76" s="288"/>
-      <c r="M76" s="289"/>
-      <c r="N76" s="294"/>
-      <c r="O76" s="294">
+      <c r="AA75" s="289"/>
+      <c r="AB75" s="289"/>
+      <c r="AC75" s="289"/>
+      <c r="AD75" s="289"/>
+      <c r="AE75" s="289"/>
+      <c r="AF75" s="289"/>
+      <c r="AG75" s="289"/>
+      <c r="AM75" s="293"/>
+    </row>
+    <row r="76" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="295" t="s">
+        <v>350</v>
+      </c>
+      <c r="F76" s="287"/>
+      <c r="G76" s="287"/>
+      <c r="H76" s="287"/>
+      <c r="I76" s="286"/>
+      <c r="J76" s="286"/>
+      <c r="K76" s="286"/>
+      <c r="L76" s="286"/>
+      <c r="M76" s="287"/>
+      <c r="N76" s="292"/>
+      <c r="O76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="P76" s="294">
+      <c r="P76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="Q76" s="294">
+      <c r="Q76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="R76" s="294">
+      <c r="R76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="S76" s="294">
+      <c r="S76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="T76" s="294">
+      <c r="T76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="U76" s="294">
+      <c r="U76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="V76" s="294">
+      <c r="V76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="W76" s="294">
+      <c r="W76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="X76" s="294">
+      <c r="X76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="Y76" s="294">
+      <c r="Y76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="Z76" s="294">
+      <c r="Z76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
         <v>4000</v>
       </c>
-      <c r="AA76" s="291"/>
-      <c r="AB76" s="291"/>
-      <c r="AC76" s="291"/>
-      <c r="AD76" s="291"/>
-      <c r="AE76" s="291"/>
-      <c r="AF76" s="291"/>
-      <c r="AG76" s="291"/>
-      <c r="AM76" s="295"/>
-    </row>
-    <row r="77" spans="1:39" s="287" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="297" t="s">
-        <v>353</v>
-      </c>
-      <c r="F77" s="289"/>
-      <c r="G77" s="289"/>
-      <c r="H77" s="289"/>
-      <c r="I77" s="288"/>
-      <c r="J77" s="288"/>
-      <c r="K77" s="288"/>
-      <c r="L77" s="288"/>
-      <c r="M77" s="289"/>
-      <c r="N77" s="294"/>
-      <c r="O77" s="294">
+      <c r="AA76" s="289"/>
+      <c r="AB76" s="289"/>
+      <c r="AC76" s="289"/>
+      <c r="AD76" s="289"/>
+      <c r="AE76" s="289"/>
+      <c r="AF76" s="289"/>
+      <c r="AG76" s="289"/>
+      <c r="AM76" s="293"/>
+    </row>
+    <row r="77" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="295" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" s="287"/>
+      <c r="G77" s="287"/>
+      <c r="H77" s="287"/>
+      <c r="I77" s="286"/>
+      <c r="J77" s="286"/>
+      <c r="K77" s="286"/>
+      <c r="L77" s="286"/>
+      <c r="M77" s="287"/>
+      <c r="N77" s="292"/>
+      <c r="O77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="P77" s="294">
+      <c r="P77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="Q77" s="294">
+      <c r="Q77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="R77" s="294">
+      <c r="R77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="S77" s="294">
+      <c r="S77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="T77" s="294">
+      <c r="T77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="U77" s="294">
+      <c r="U77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="V77" s="294">
+      <c r="V77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="W77" s="294">
+      <c r="W77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="X77" s="294">
+      <c r="X77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="Y77" s="294">
+      <c r="Y77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="Z77" s="294">
+      <c r="Z77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
         <v>18000</v>
       </c>
-      <c r="AA77" s="291"/>
-      <c r="AB77" s="291"/>
-      <c r="AC77" s="291"/>
-      <c r="AD77" s="291"/>
-      <c r="AE77" s="291"/>
-      <c r="AF77" s="291"/>
-      <c r="AG77" s="291"/>
-      <c r="AM77" s="295"/>
+      <c r="AA77" s="289"/>
+      <c r="AB77" s="289"/>
+      <c r="AC77" s="289"/>
+      <c r="AD77" s="289"/>
+      <c r="AE77" s="289"/>
+      <c r="AF77" s="289"/>
+      <c r="AG77" s="289"/>
+      <c r="AM77" s="293"/>
     </row>
     <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="145" t="s">
@@ -8957,59 +8950,59 @@
         <v>279250</v>
       </c>
       <c r="M78" s="199">
-        <f t="shared" ref="M78:Z78" si="42">M66+M68</f>
-        <v>286950.6143673578</v>
+        <f t="shared" ref="M78:Z78" si="43">M66+M68</f>
+        <v>286980.38194444444</v>
       </c>
       <c r="N78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>298372.88477706735</v>
       </c>
       <c r="O78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>341140.99544764287</v>
       </c>
       <c r="P78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>314022.43392207247</v>
       </c>
       <c r="Q78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>315054.97613497748</v>
       </c>
       <c r="R78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>310544.37969325099</v>
       </c>
       <c r="S78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>306240.80684971518</v>
       </c>
       <c r="T78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>307958.57178194768</v>
       </c>
       <c r="U78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>309866.80125051294</v>
       </c>
       <c r="V78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>311622.47677399649</v>
       </c>
       <c r="W78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>313572.45802602731</v>
       </c>
       <c r="X78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>265361.5615193437</v>
       </c>
       <c r="Y78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>267346.79396445845</v>
       </c>
       <c r="Z78" s="144">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>273810.11799163779</v>
       </c>
       <c r="AA78" s="44"/>
@@ -9086,7 +9079,7 @@
       </c>
       <c r="M80" s="199">
         <f>VLOOKUP(C80,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
-        <v>1335.3219999999999</v>
+        <v>1335.133</v>
       </c>
       <c r="N80" s="116"/>
       <c r="O80" s="116"/>
@@ -9140,7 +9133,7 @@
       </c>
       <c r="M81" s="199">
         <f>VLOOKUP(C81,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
-        <v>1486.8019999999999</v>
+        <v>1487.0350000000001</v>
       </c>
       <c r="N81">
         <v>1497.93454882981</v>
@@ -9205,50 +9198,50 @@
       <c r="L82" s="209"/>
       <c r="M82" s="202">
         <f>M81/L81-1</f>
-        <v>-1.1960393407761893E-2</v>
+        <v>-1.1805555555555514E-2</v>
       </c>
       <c r="N82" s="188">
         <f>N81/M81-1</f>
-        <v>7.4875799399045651E-3</v>
+        <v>7.3297190918908406E-3</v>
       </c>
       <c r="O82" s="188">
-        <f t="shared" ref="O82:V82" si="43">O81/N81-1</f>
+        <f t="shared" ref="O82:V82" si="44">O81/N81-1</f>
         <v>4.0136860113193507E-3</v>
       </c>
       <c r="P82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.5874565829953085E-3</v>
       </c>
       <c r="Q82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5.3493378563544969E-3</v>
       </c>
       <c r="R82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7.6751629251576858E-3</v>
       </c>
       <c r="S82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8.675407388979206E-3</v>
       </c>
       <c r="T82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8.7089733593581631E-3</v>
       </c>
       <c r="U82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>9.5910894990571816E-3</v>
       </c>
       <c r="V82" s="188">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8.7404962520107876E-3</v>
       </c>
       <c r="W82" s="188">
-        <f t="shared" ref="W82" si="44">W81/V81-1</f>
+        <f t="shared" ref="W82" si="45">W81/V81-1</f>
         <v>9.6237163965073869E-3</v>
       </c>
       <c r="X82" s="188">
-        <f t="shared" ref="X82" si="45">X81/W81-1</f>
+        <f t="shared" ref="X82" si="46">X81/W81-1</f>
         <v>8.7455736250123817E-3</v>
       </c>
       <c r="Y82" s="188">
@@ -9256,7 +9249,7 @@
         <v>9.6201658414407643E-3</v>
       </c>
       <c r="Z82" s="188">
-        <f t="shared" ref="Z82" si="46">Z81/Y81-1</f>
+        <f t="shared" ref="Z82" si="47">Z81/Y81-1</f>
         <v>3.1021950970274714E-2</v>
       </c>
       <c r="AA82" s="188"/>
@@ -9272,7 +9265,7 @@
     </row>
     <row r="83" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F83" s="209"/>
       <c r="G83" s="209"/>
@@ -9288,15 +9281,15 @@
         <v>71400</v>
       </c>
       <c r="P83" s="102">
-        <f t="shared" ref="P83:R83" si="47">SUM(P84:P86)</f>
+        <f t="shared" ref="P83:R83" si="48">SUM(P84:P86)</f>
         <v>71400</v>
       </c>
       <c r="Q83" s="102">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>30600</v>
       </c>
       <c r="R83" s="102">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>30600</v>
       </c>
       <c r="S83" s="188"/>
@@ -9318,149 +9311,149 @@
       <c r="AL83" s="189"/>
       <c r="AM83" s="247"/>
     </row>
-    <row r="84" spans="1:39" s="341" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="340" t="s">
-        <v>356</v>
-      </c>
-      <c r="F84" s="342"/>
-      <c r="G84" s="342"/>
-      <c r="H84" s="342"/>
-      <c r="I84" s="342"/>
-      <c r="J84" s="342"/>
-      <c r="K84" s="342"/>
-      <c r="L84" s="342"/>
-      <c r="M84" s="343"/>
-      <c r="N84" s="344"/>
-      <c r="O84" s="294">
+    <row r="84" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="299" t="s">
+        <v>355</v>
+      </c>
+      <c r="F84" s="301"/>
+      <c r="G84" s="301"/>
+      <c r="H84" s="301"/>
+      <c r="I84" s="301"/>
+      <c r="J84" s="301"/>
+      <c r="K84" s="301"/>
+      <c r="L84" s="301"/>
+      <c r="M84" s="302"/>
+      <c r="N84" s="303"/>
+      <c r="O84" s="292">
         <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
         <v>30799.999999999996</v>
       </c>
-      <c r="P84" s="294">
+      <c r="P84" s="292">
         <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
         <v>30799.999999999996</v>
       </c>
-      <c r="Q84" s="294">
+      <c r="Q84" s="292">
         <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
         <v>13200</v>
       </c>
-      <c r="R84" s="294">
+      <c r="R84" s="292">
         <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
         <v>13200</v>
       </c>
-      <c r="S84" s="344"/>
-      <c r="T84" s="344"/>
-      <c r="U84" s="344"/>
-      <c r="V84" s="344"/>
-      <c r="W84" s="344"/>
-      <c r="X84" s="344"/>
-      <c r="Y84" s="344"/>
-      <c r="Z84" s="344"/>
-      <c r="AA84" s="344"/>
-      <c r="AB84" s="344"/>
-      <c r="AE84" s="345"/>
-      <c r="AF84" s="345"/>
-      <c r="AG84" s="345"/>
-      <c r="AI84" s="345"/>
-      <c r="AJ84" s="345"/>
-      <c r="AK84" s="345"/>
-      <c r="AL84" s="345"/>
-      <c r="AM84" s="346"/>
-    </row>
-    <row r="85" spans="1:39" s="341" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="340" t="s">
-        <v>357</v>
-      </c>
-      <c r="F85" s="342"/>
-      <c r="G85" s="342"/>
-      <c r="H85" s="342"/>
-      <c r="I85" s="342"/>
-      <c r="J85" s="342"/>
-      <c r="K85" s="342"/>
-      <c r="L85" s="342"/>
-      <c r="M85" s="343"/>
-      <c r="N85" s="344"/>
-      <c r="O85" s="294">
+      <c r="S84" s="303"/>
+      <c r="T84" s="303"/>
+      <c r="U84" s="303"/>
+      <c r="V84" s="303"/>
+      <c r="W84" s="303"/>
+      <c r="X84" s="303"/>
+      <c r="Y84" s="303"/>
+      <c r="Z84" s="303"/>
+      <c r="AA84" s="303"/>
+      <c r="AB84" s="303"/>
+      <c r="AE84" s="304"/>
+      <c r="AF84" s="304"/>
+      <c r="AG84" s="304"/>
+      <c r="AI84" s="304"/>
+      <c r="AJ84" s="304"/>
+      <c r="AK84" s="304"/>
+      <c r="AL84" s="304"/>
+      <c r="AM84" s="305"/>
+    </row>
+    <row r="85" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="299" t="s">
+        <v>356</v>
+      </c>
+      <c r="F85" s="301"/>
+      <c r="G85" s="301"/>
+      <c r="H85" s="301"/>
+      <c r="I85" s="301"/>
+      <c r="J85" s="301"/>
+      <c r="K85" s="301"/>
+      <c r="L85" s="301"/>
+      <c r="M85" s="302"/>
+      <c r="N85" s="303"/>
+      <c r="O85" s="292">
         <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
         <v>28000</v>
       </c>
-      <c r="P85" s="294">
+      <c r="P85" s="292">
         <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
         <v>28000</v>
       </c>
-      <c r="Q85" s="294">
+      <c r="Q85" s="292">
         <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
         <v>12000</v>
       </c>
-      <c r="R85" s="294">
+      <c r="R85" s="292">
         <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
         <v>12000</v>
       </c>
-      <c r="S85" s="344"/>
-      <c r="T85" s="344"/>
-      <c r="U85" s="344"/>
-      <c r="V85" s="344"/>
-      <c r="W85" s="344"/>
-      <c r="X85" s="344"/>
-      <c r="Y85" s="344"/>
-      <c r="Z85" s="344"/>
-      <c r="AA85" s="344"/>
-      <c r="AB85" s="344"/>
-      <c r="AE85" s="345"/>
-      <c r="AF85" s="345"/>
-      <c r="AG85" s="345"/>
-      <c r="AI85" s="345"/>
-      <c r="AJ85" s="345"/>
-      <c r="AK85" s="345"/>
-      <c r="AL85" s="345"/>
-      <c r="AM85" s="346"/>
-    </row>
-    <row r="86" spans="1:39" s="341" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="340" t="s">
-        <v>358</v>
-      </c>
-      <c r="F86" s="342"/>
-      <c r="G86" s="342"/>
-      <c r="H86" s="342"/>
-      <c r="I86" s="342"/>
-      <c r="J86" s="342"/>
-      <c r="K86" s="342"/>
-      <c r="L86" s="342"/>
-      <c r="M86" s="343"/>
-      <c r="N86" s="344"/>
-      <c r="O86" s="294">
+      <c r="S85" s="303"/>
+      <c r="T85" s="303"/>
+      <c r="U85" s="303"/>
+      <c r="V85" s="303"/>
+      <c r="W85" s="303"/>
+      <c r="X85" s="303"/>
+      <c r="Y85" s="303"/>
+      <c r="Z85" s="303"/>
+      <c r="AA85" s="303"/>
+      <c r="AB85" s="303"/>
+      <c r="AE85" s="304"/>
+      <c r="AF85" s="304"/>
+      <c r="AG85" s="304"/>
+      <c r="AI85" s="304"/>
+      <c r="AJ85" s="304"/>
+      <c r="AK85" s="304"/>
+      <c r="AL85" s="304"/>
+      <c r="AM85" s="305"/>
+    </row>
+    <row r="86" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="299" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="301"/>
+      <c r="G86" s="301"/>
+      <c r="H86" s="301"/>
+      <c r="I86" s="301"/>
+      <c r="J86" s="301"/>
+      <c r="K86" s="301"/>
+      <c r="L86" s="301"/>
+      <c r="M86" s="302"/>
+      <c r="N86" s="303"/>
+      <c r="O86" s="292">
         <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
         <v>12600</v>
       </c>
-      <c r="P86" s="294">
+      <c r="P86" s="292">
         <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
         <v>12600</v>
       </c>
-      <c r="Q86" s="294">
+      <c r="Q86" s="292">
         <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
         <v>5400</v>
       </c>
-      <c r="R86" s="294">
+      <c r="R86" s="292">
         <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
         <v>5400</v>
       </c>
-      <c r="S86" s="344"/>
-      <c r="T86" s="344"/>
-      <c r="U86" s="344"/>
-      <c r="V86" s="344"/>
-      <c r="W86" s="344"/>
-      <c r="X86" s="344"/>
-      <c r="Y86" s="344"/>
-      <c r="Z86" s="344"/>
-      <c r="AA86" s="344"/>
-      <c r="AB86" s="344"/>
-      <c r="AE86" s="345"/>
-      <c r="AF86" s="345"/>
-      <c r="AG86" s="345"/>
-      <c r="AI86" s="345"/>
-      <c r="AJ86" s="345"/>
-      <c r="AK86" s="345"/>
-      <c r="AL86" s="345"/>
-      <c r="AM86" s="346"/>
+      <c r="S86" s="303"/>
+      <c r="T86" s="303"/>
+      <c r="U86" s="303"/>
+      <c r="V86" s="303"/>
+      <c r="W86" s="303"/>
+      <c r="X86" s="303"/>
+      <c r="Y86" s="303"/>
+      <c r="Z86" s="303"/>
+      <c r="AA86" s="303"/>
+      <c r="AB86" s="303"/>
+      <c r="AE86" s="304"/>
+      <c r="AF86" s="304"/>
+      <c r="AG86" s="304"/>
+      <c r="AI86" s="304"/>
+      <c r="AJ86" s="304"/>
+      <c r="AK86" s="304"/>
+      <c r="AL86" s="304"/>
+      <c r="AM86" s="305"/>
     </row>
     <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
@@ -9499,40 +9492,40 @@
         <v>486072</v>
       </c>
       <c r="N87" s="116">
-        <f t="shared" ref="N87:S87" si="48">N94*0.74</f>
-        <v>520762.48586017155</v>
+        <f t="shared" ref="N87:S87" si="49">N94*0.74</f>
+        <v>515064.18485195568</v>
       </c>
       <c r="O87" s="116">
-        <f t="shared" si="48"/>
-        <v>530153.75073570432</v>
+        <f t="shared" si="49"/>
+        <v>524352.6883812669</v>
       </c>
       <c r="P87" s="116">
-        <f t="shared" si="48"/>
-        <v>535444.10571143136</v>
+        <f t="shared" si="49"/>
+        <v>529585.15509524208</v>
       </c>
       <c r="Q87" s="116">
-        <f t="shared" si="48"/>
-        <v>535444.10571143136</v>
+        <f t="shared" si="49"/>
+        <v>529585.15509524208</v>
       </c>
       <c r="R87" s="116">
-        <f t="shared" si="48"/>
-        <v>535444.10571143136</v>
+        <f t="shared" si="49"/>
+        <v>529585.15509524208</v>
       </c>
       <c r="S87" s="116">
-        <f t="shared" si="48"/>
-        <v>535444.10571143136</v>
+        <f t="shared" si="49"/>
+        <v>529585.15509524208</v>
       </c>
       <c r="T87" s="116">
         <f>T94*0.68</f>
-        <v>492029.71876185591</v>
+        <v>486645.81819562789</v>
       </c>
       <c r="U87" s="116">
         <f>U94*0.68</f>
-        <v>492029.71876185591</v>
+        <v>486645.81819562789</v>
       </c>
       <c r="V87" s="116">
         <f>V94*0.68</f>
-        <v>492029.71876185591</v>
+        <v>486645.81819562789</v>
       </c>
       <c r="W87" s="116"/>
       <c r="X87" s="116"/>
@@ -9550,11 +9543,11 @@
       </c>
       <c r="AE87" s="45">
         <f>AVERAGE(N87:Q87)</f>
-        <v>530451.11200468463</v>
+        <v>524646.7958559267</v>
       </c>
       <c r="AF87" s="45">
         <f>AVERAGE(R87:U87)</f>
-        <v>513736.91223664366</v>
+        <v>508115.48664543498</v>
       </c>
       <c r="AH87" s="35">
         <v>409.42</v>
@@ -9581,87 +9574,87 @@
       <c r="B88" s="141"/>
       <c r="E88" s="141"/>
       <c r="F88" s="203">
-        <f>F46+F43+F32+F38</f>
+        <f t="shared" ref="F88:M88" si="50">F46+F43+F32+F38</f>
         <v>1440187</v>
       </c>
       <c r="G88" s="203">
-        <f>G46+G43+G32+G38</f>
+        <f t="shared" si="50"/>
         <v>1503410</v>
       </c>
       <c r="H88" s="203">
-        <f>H46+H43+H32+H38</f>
+        <f t="shared" si="50"/>
         <v>1508652</v>
       </c>
       <c r="I88" s="203">
-        <f>I46+I43+I32+I38</f>
+        <f t="shared" si="50"/>
         <v>1513957</v>
       </c>
       <c r="J88" s="203">
-        <f>J46+J43+J32+J38</f>
+        <f t="shared" si="50"/>
         <v>1521941</v>
       </c>
       <c r="K88" s="203">
-        <f>K46+K43+K32+K38</f>
+        <f t="shared" si="50"/>
         <v>1574462</v>
       </c>
       <c r="L88" s="203">
-        <f>L46+L43+L32+L38</f>
+        <f t="shared" si="50"/>
         <v>3713565.333333333</v>
       </c>
       <c r="M88" s="199">
-        <f>M46+M43+M32+M38</f>
-        <v>2508714</v>
+        <f t="shared" si="50"/>
+        <v>2509001</v>
       </c>
       <c r="N88" s="142">
         <f>N46+N43+N32+N38+N33+N34</f>
-        <v>1966597.486653418</v>
+        <v>1966882.3341534182</v>
       </c>
       <c r="O88" s="142">
-        <f>O46+O43+O32+O38+O33+O34+O35</f>
-        <v>3088942.7957109897</v>
+        <f t="shared" ref="O88:Z88" si="51">O46+O43+O32+O38+O33+O34+O35</f>
+        <v>3089225.50685474</v>
       </c>
       <c r="P88" s="142">
-        <f>P46+P43+P32+P38+P33+P34+P35</f>
-        <v>1856230.9611612814</v>
+        <f t="shared" si="51"/>
+        <v>1856511.5519714532</v>
       </c>
       <c r="Q88" s="142">
-        <f>Q46+Q43+Q32+Q38+Q33+Q34+Q35</f>
-        <v>1667989.228952572</v>
+        <f t="shared" si="51"/>
+        <v>1668267.7153316673</v>
       </c>
       <c r="R88" s="142">
-        <f>R46+R43+R32+R38+R33+R34+R35</f>
-        <v>1664289.0673868605</v>
+        <f t="shared" si="51"/>
+        <v>1664571.7310616423</v>
       </c>
       <c r="S88" s="142">
-        <f>S46+S43+S32+S38+S33+S34+S35</f>
-        <v>1668953.4033976633</v>
+        <f t="shared" si="51"/>
+        <v>1669240.3070275667</v>
       </c>
       <c r="T88" s="142">
-        <f>T46+T43+T32+T38+T33+T34+T35</f>
-        <v>1693987.704448628</v>
+        <f t="shared" si="51"/>
+        <v>1694278.91163298</v>
       </c>
       <c r="U88" s="142">
-        <f>U46+U43+U32+U38+U33+U34+U35</f>
-        <v>1719397.5200153573</v>
+        <f t="shared" si="51"/>
+        <v>1719693.0953074745</v>
       </c>
       <c r="V88" s="142">
-        <f>V46+V43+V32+V38+V33+V34+V35</f>
-        <v>1736591.4952155109</v>
+        <f t="shared" si="51"/>
+        <v>1736890.0262605492</v>
       </c>
       <c r="W88" s="142">
-        <f>W46+W43+W32+W38+W33+W34+W35</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X88" s="142">
-        <f>X46+X43+X32+X38+X33+X34+X35</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y88" s="142">
-        <f>Y46+Y43+Y32+Y38+Y33+Y34+Y35</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z88" s="142">
-        <f>Z46+Z43+Z32+Z38+Z33+Z34+Z35</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AM88" s="243"/>
@@ -9679,63 +9672,63 @@
       <c r="J89" s="199"/>
       <c r="K89" s="199"/>
       <c r="L89" s="205">
-        <f>L87+L31</f>
+        <f t="shared" ref="L89:Z89" si="52">L87+L31</f>
         <v>1336698</v>
       </c>
       <c r="M89" s="199">
-        <f>M87+M31</f>
+        <f t="shared" si="52"/>
         <v>1328805</v>
       </c>
       <c r="N89" s="143">
-        <f>N87+N31</f>
-        <v>1373815.6728590003</v>
+        <f t="shared" si="52"/>
+        <v>1368117.3718507844</v>
       </c>
       <c r="O89" s="143">
-        <f>O87+O31</f>
-        <v>1393653.5067068823</v>
+        <f t="shared" si="52"/>
+        <v>1387852.444352445</v>
       </c>
       <c r="P89" s="143">
-        <f>P87+P31</f>
-        <v>1409518.3603139264</v>
+        <f t="shared" si="52"/>
+        <v>1403659.4096977371</v>
       </c>
       <c r="Q89" s="143">
-        <f>Q87+Q31</f>
-        <v>1420222.3552427585</v>
+        <f t="shared" si="52"/>
+        <v>1414363.4046265692</v>
       </c>
       <c r="R89" s="143">
-        <f>R87+R31</f>
-        <v>1449154.204832383</v>
+        <f t="shared" si="52"/>
+        <v>1443295.2542161937</v>
       </c>
       <c r="S89" s="143">
-        <f>S87+S31</f>
-        <v>1479032.1128509077</v>
+        <f t="shared" si="52"/>
+        <v>1473173.1622347184</v>
       </c>
       <c r="T89" s="143">
-        <f>T87+T31</f>
-        <v>1466472.6280325653</v>
+        <f t="shared" si="52"/>
+        <v>1461088.7274663374</v>
       </c>
       <c r="U89" s="143">
-        <f>U87+U31</f>
-        <v>1498336.4715432189</v>
+        <f t="shared" si="52"/>
+        <v>1492952.570976991</v>
       </c>
       <c r="V89" s="143">
-        <f>V87+V31</f>
-        <v>1508477.1168994233</v>
+        <f t="shared" si="52"/>
+        <v>1503093.2163331951</v>
       </c>
       <c r="W89" s="143">
-        <f>W87+W31</f>
+        <f t="shared" si="52"/>
         <v>1026690.2317062188</v>
       </c>
       <c r="X89" s="143">
-        <f>X87+X31</f>
+        <f t="shared" si="52"/>
         <v>1037036.2832472979</v>
       </c>
       <c r="Y89" s="143">
-        <f>Y87+Y31</f>
+        <f t="shared" si="52"/>
         <v>1047486.5928977706</v>
       </c>
       <c r="Z89" s="143">
-        <f>Z87+Z31</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AM89" s="243"/>
@@ -9785,43 +9778,43 @@
       </c>
       <c r="M91" s="199">
         <f>VLOOKUP(C91,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>835999</v>
+        <v>828480</v>
       </c>
       <c r="N91" s="133">
-        <f t="shared" ref="N91:U91" si="49">N92+N94</f>
-        <v>846655.9390002318</v>
+        <f t="shared" ref="N91:U91" si="53">N92+N94</f>
+        <v>838999.96973237256</v>
       </c>
       <c r="O91" s="133">
-        <f t="shared" si="49"/>
-        <v>859704.14460568153</v>
+        <f t="shared" si="53"/>
+        <v>851909.41974748904</v>
       </c>
       <c r="P91" s="133">
-        <f t="shared" si="49"/>
-        <v>867211.47334407107</v>
+        <f t="shared" si="53"/>
+        <v>859338.63247661723</v>
       </c>
       <c r="Q91" s="133">
-        <f t="shared" si="49"/>
-        <v>867929.66513166018</v>
+        <f t="shared" si="53"/>
+        <v>860057.04756403249</v>
       </c>
       <c r="R91" s="133">
-        <f t="shared" si="49"/>
-        <v>869012.33925145073</v>
+        <f t="shared" si="53"/>
+        <v>861140.05830831092</v>
       </c>
       <c r="S91" s="133">
-        <f t="shared" si="49"/>
-        <v>870466.73148570256</v>
+        <f t="shared" si="53"/>
+        <v>862594.90274145827</v>
       </c>
       <c r="T91" s="133">
-        <f t="shared" si="49"/>
-        <v>872014.07451017783</v>
+        <f t="shared" si="53"/>
+        <v>864142.72686504154</v>
       </c>
       <c r="U91" s="133">
-        <f t="shared" si="49"/>
-        <v>873408.51802630571</v>
+        <f t="shared" si="53"/>
+        <v>865537.60394083988</v>
       </c>
       <c r="V91" s="133">
-        <f t="shared" ref="V91" si="50">V92+V94</f>
-        <v>874637.8300734181</v>
+        <f t="shared" ref="V91" si="54">V92+V94</f>
+        <v>866767.29820503015</v>
       </c>
       <c r="AM91" s="243"/>
     </row>
@@ -9830,27 +9823,27 @@
         <v>231</v>
       </c>
       <c r="F92" s="205">
-        <f t="shared" ref="F92:K92" si="51">F91-F94</f>
+        <f t="shared" ref="F92:K92" si="55">F91-F94</f>
         <v>139025</v>
       </c>
       <c r="G92" s="205">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>139342</v>
       </c>
       <c r="H92" s="205">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>140228</v>
       </c>
       <c r="I92" s="205">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>141105</v>
       </c>
       <c r="J92" s="205">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>141335</v>
       </c>
       <c r="K92" s="205">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>142991</v>
       </c>
       <c r="L92" s="205">
@@ -9859,43 +9852,43 @@
       </c>
       <c r="M92" s="199">
         <f>M91-M94</f>
-        <v>144732</v>
+        <v>144777</v>
       </c>
       <c r="N92" s="133">
         <f>M92*(1+N103-0.015)</f>
-        <v>142922.84999999998</v>
+        <v>142967.28749999998</v>
       </c>
       <c r="O92" s="133">
-        <f t="shared" ref="O92:V92" si="52">N92*(1+O103)</f>
-        <v>143280.15712499997</v>
+        <f t="shared" ref="O92:V92" si="56">N92*(1+O103)</f>
+        <v>143324.70571874996</v>
       </c>
       <c r="P92" s="133">
-        <f t="shared" si="52"/>
-        <v>143638.35751781246</v>
+        <f t="shared" si="56"/>
+        <v>143683.01748304683</v>
       </c>
       <c r="Q92" s="133">
-        <f t="shared" si="52"/>
-        <v>144356.54930540151</v>
+        <f t="shared" si="56"/>
+        <v>144401.43257046206</v>
       </c>
       <c r="R92" s="133">
-        <f t="shared" si="52"/>
-        <v>145439.22342519203</v>
+        <f t="shared" si="56"/>
+        <v>145484.44331474052</v>
       </c>
       <c r="S92" s="133">
-        <f t="shared" si="52"/>
-        <v>146893.61565944395</v>
+        <f t="shared" si="56"/>
+        <v>146939.28774788792</v>
       </c>
       <c r="T92" s="133">
-        <f t="shared" si="52"/>
-        <v>148440.9586839191</v>
+        <f t="shared" si="56"/>
+        <v>148487.1118714711</v>
       </c>
       <c r="U92" s="133">
-        <f t="shared" si="52"/>
-        <v>149835.40220004701</v>
+        <f t="shared" si="56"/>
+        <v>149881.98894726948</v>
       </c>
       <c r="V92" s="133">
-        <f t="shared" si="52"/>
-        <v>151064.71424715937</v>
+        <f t="shared" si="56"/>
+        <v>151111.68321145975</v>
       </c>
       <c r="AM92" s="243"/>
     </row>
@@ -9944,55 +9937,55 @@
       </c>
       <c r="M94" s="199">
         <f>VLOOKUP(C94,'Haver NA'!$A$1:$I$34,9,0)</f>
-        <v>691267</v>
+        <v>683703</v>
       </c>
       <c r="N94" s="135">
         <f>M94*(($AJ$94/$AI$94)^0.18)</f>
-        <v>703733.08900023182</v>
+        <v>696032.68223237258</v>
       </c>
       <c r="O94" s="135">
         <f>N94*(($AJ$94/$AI$94)^0.18)</f>
-        <v>716423.98748068151</v>
+        <v>708584.71402873902</v>
       </c>
       <c r="P94" s="135">
         <f>O94*(($AJ$94/$AI$94)^0.1)</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="Q94" s="135">
         <f>P94*(1+Q95)</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="R94" s="135">
-        <f t="shared" ref="R94:V94" si="53">Q94*(1+R95)</f>
-        <v>723573.11582625867</v>
+        <f t="shared" ref="R94:V94" si="57">Q94*(1+R95)</f>
+        <v>715655.61499357037</v>
       </c>
       <c r="S94" s="135">
-        <f t="shared" si="53"/>
-        <v>723573.11582625867</v>
+        <f t="shared" si="57"/>
+        <v>715655.61499357037</v>
       </c>
       <c r="T94" s="135">
-        <f t="shared" si="53"/>
-        <v>723573.11582625867</v>
+        <f t="shared" si="57"/>
+        <v>715655.61499357037</v>
       </c>
       <c r="U94" s="135">
-        <f t="shared" si="53"/>
-        <v>723573.11582625867</v>
+        <f t="shared" si="57"/>
+        <v>715655.61499357037</v>
       </c>
       <c r="V94" s="135">
-        <f t="shared" si="53"/>
-        <v>723573.11582625867</v>
+        <f t="shared" si="57"/>
+        <v>715655.61499357037</v>
       </c>
       <c r="AD94" s="45">
         <f>AVERAGE(J94:M94)/1000</f>
-        <v>650.95450000000005</v>
+        <v>649.06349999999998</v>
       </c>
       <c r="AE94" s="45">
         <f>AVERAGE(N94:Q94)/1000</f>
-        <v>716.82582703335765</v>
+        <v>708.9821565620631</v>
       </c>
       <c r="AF94" s="45">
         <f>AVERAGE(R94:U94)/1000</f>
-        <v>723.57311582625869</v>
+        <v>715.65561499357034</v>
       </c>
       <c r="AH94" s="84"/>
       <c r="AI94" s="84">
@@ -10051,27 +10044,27 @@
         <v>223</v>
       </c>
       <c r="F96" s="210">
-        <f>F87/F94</f>
+        <f t="shared" ref="F96:K96" si="58">F87/F94</f>
         <v>0.66058231423538405</v>
       </c>
       <c r="G96" s="210">
-        <f>G87/G94</f>
+        <f t="shared" si="58"/>
         <v>0.6749214177505789</v>
       </c>
       <c r="H96" s="210">
-        <f>H87/H94</f>
+        <f t="shared" si="58"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I96" s="210">
-        <f>I87/I94</f>
+        <f t="shared" si="58"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J96" s="210">
-        <f>J87/J94</f>
+        <f t="shared" si="58"/>
         <v>0.66395699382859508</v>
       </c>
       <c r="K96" s="210">
-        <f>K87/K94</f>
+        <f t="shared" si="58"/>
         <v>0.67846773573296415</v>
       </c>
       <c r="L96" s="211"/>
@@ -10118,43 +10111,43 @@
       </c>
       <c r="M97" s="199">
         <f>VLOOKUP(C97,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
-        <v>1992.6769999999999</v>
+        <v>1993.0509999999999</v>
       </c>
       <c r="N97" s="35">
         <f>M97*(1+N99)</f>
-        <v>2031.6535672371635</v>
+        <v>2032.0348826405864</v>
       </c>
       <c r="O97" s="35">
-        <f t="shared" ref="O97:V97" si="54">N97*(1+O99)</f>
-        <v>2057.2848967789942</v>
+        <f t="shared" ref="O97:V97" si="59">N97*(1+O99)</f>
+        <v>2057.6710228553202</v>
       </c>
       <c r="P97" s="35">
-        <f t="shared" si="54"/>
-        <v>2079.7387887743166</v>
+        <f t="shared" si="59"/>
+        <v>2080.1291291591365</v>
       </c>
       <c r="Q97" s="35">
-        <f t="shared" si="54"/>
-        <v>2094.5668306580201</v>
+        <f t="shared" si="59"/>
+        <v>2094.9599540767508</v>
       </c>
       <c r="R97" s="35">
-        <f t="shared" si="54"/>
-        <v>2104.8405453917289</v>
+        <f t="shared" si="59"/>
+        <v>2105.235597055384</v>
       </c>
       <c r="S97" s="35">
-        <f t="shared" si="54"/>
-        <v>2115.0083455405543</v>
+        <f t="shared" si="59"/>
+        <v>2115.4053055703198</v>
       </c>
       <c r="T97" s="35">
-        <f t="shared" si="54"/>
-        <v>2122.4223664824062</v>
+        <f t="shared" si="59"/>
+        <v>2122.8207180291274</v>
       </c>
       <c r="U97" s="35">
-        <f t="shared" si="54"/>
-        <v>2126.9766936324008</v>
+        <f t="shared" si="59"/>
+        <v>2127.375899968109</v>
       </c>
       <c r="V97" s="35">
-        <f t="shared" si="54"/>
-        <v>2128.6713269905381</v>
+        <f t="shared" si="59"/>
+        <v>2129.0708513872651</v>
       </c>
       <c r="AM97" s="243"/>
     </row>
@@ -10167,32 +10160,32 @@
       <c r="D98" s="35"/>
       <c r="F98" s="202"/>
       <c r="G98" s="202">
-        <f t="shared" ref="G98:L98" si="55">(G97/F97)-1</f>
+        <f t="shared" ref="G98:L98" si="60">(G97/F97)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H98" s="202">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I98" s="202">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J98" s="202">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K98" s="202">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L98" s="202">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M98" s="199">
         <f>(M97/L97)-1</f>
-        <v>-1.0145049923004357E-2</v>
+        <v>-9.9592668024439668E-3</v>
       </c>
       <c r="N98" s="262"/>
       <c r="O98" s="262"/>
@@ -10289,7 +10282,7 @@
       </c>
       <c r="M100" s="199">
         <f>VLOOKUP(C100,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
-        <v>2329.6770000000001</v>
+        <v>2329.605</v>
       </c>
       <c r="N100">
         <v>2431.4160000000002</v>
@@ -10340,39 +10333,39 @@
       <c r="M101" s="199"/>
       <c r="N101">
         <f>M100*(1+N103)</f>
-        <v>2335.5011924999999</v>
+        <v>2335.4290124999998</v>
       </c>
       <c r="O101">
         <f>N101*(1+O103)</f>
-        <v>2341.3399454812497</v>
+        <v>2341.2675850312498</v>
       </c>
       <c r="P101">
-        <f t="shared" ref="P101:V101" si="56">O101*(1+P103)</f>
-        <v>2347.1932953449527</v>
+        <f t="shared" ref="P101:V101" si="61">O101*(1+P103)</f>
+        <v>2347.1207539938277</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="56"/>
-        <v>2358.9292618216773</v>
+        <f t="shared" si="61"/>
+        <v>2358.8563577637965</v>
       </c>
       <c r="R101">
-        <f t="shared" si="56"/>
-        <v>2376.6212312853399</v>
+        <f t="shared" si="61"/>
+        <v>2376.5477804470252</v>
       </c>
       <c r="S101">
-        <f t="shared" si="56"/>
-        <v>2400.3874435981934</v>
+        <f t="shared" si="61"/>
+        <v>2400.3132582514954</v>
       </c>
       <c r="T101">
-        <f t="shared" si="56"/>
-        <v>2425.6725640591153</v>
+        <f t="shared" si="61"/>
+        <v>2425.5975972613091</v>
       </c>
       <c r="U101">
-        <f t="shared" si="56"/>
-        <v>2448.4591548302242</v>
+        <f t="shared" si="61"/>
+        <v>2448.3834837997988</v>
       </c>
       <c r="V101">
-        <f t="shared" si="56"/>
-        <v>2468.5473335363272</v>
+        <f t="shared" si="61"/>
+        <v>2468.4710416692506</v>
       </c>
       <c r="W101"/>
       <c r="X101"/>
@@ -10392,16 +10385,16 @@
       <c r="I102" s="202"/>
       <c r="J102" s="202"/>
       <c r="K102" s="202">
-        <f t="shared" ref="K102" si="57">(K100/J100)-1</f>
+        <f t="shared" ref="K102" si="62">(K100/J100)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L102" s="202">
-        <f t="shared" ref="L102" si="58">(L100/K100)-1</f>
+        <f t="shared" ref="L102" si="63">(L100/K100)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M102" s="202">
         <f>(((M100/L100))^4)-1</f>
-        <v>-8.2382940014741335E-3</v>
+        <v>-8.3608921686818549E-3</v>
       </c>
       <c r="N102" s="262"/>
       <c r="O102" s="262"/>
@@ -10489,83 +10482,83 @@
         <v>164</v>
       </c>
       <c r="F105" s="203">
-        <f>F91+F42-F87</f>
+        <f t="shared" ref="F105:Y105" si="64">F91+F42-F87</f>
         <v>339220</v>
       </c>
       <c r="G105" s="203">
-        <f>G91+G42-G87</f>
+        <f t="shared" si="64"/>
         <v>334185</v>
       </c>
       <c r="H105" s="203">
-        <f>H91+H42-H87</f>
+        <f t="shared" si="64"/>
         <v>335532</v>
       </c>
       <c r="I105" s="203">
-        <f>I91+I42-I87</f>
+        <f t="shared" si="64"/>
         <v>344546</v>
       </c>
       <c r="J105" s="203">
-        <f>J91+J42-J87</f>
+        <f t="shared" si="64"/>
         <v>349558</v>
       </c>
       <c r="K105" s="203">
-        <f>K91+K42-K87</f>
+        <f t="shared" si="64"/>
         <v>343658</v>
       </c>
       <c r="L105" s="203">
-        <f>L91+L42-L87</f>
+        <f t="shared" si="64"/>
         <v>577118</v>
       </c>
       <c r="M105" s="199">
-        <f>M91+M42-M87</f>
-        <v>489927</v>
+        <f t="shared" si="64"/>
+        <v>482408</v>
       </c>
       <c r="N105" s="223">
-        <f>N91+N42-N87</f>
-        <v>405893.45314006024</v>
+        <f t="shared" si="64"/>
+        <v>403935.78488041688</v>
       </c>
       <c r="O105" s="223">
-        <f>O91+O42-O87</f>
-        <v>389550.39386997721</v>
+        <f t="shared" si="64"/>
+        <v>387556.73136622214</v>
       </c>
       <c r="P105" s="223">
-        <f>P91+P42-P87</f>
-        <v>375767.36763263971</v>
+        <f t="shared" si="64"/>
+        <v>373753.47738137515</v>
       </c>
       <c r="Q105" s="223">
-        <f>Q91+Q42-Q87</f>
-        <v>376485.55942022882</v>
+        <f t="shared" si="64"/>
+        <v>374471.89246879041</v>
       </c>
       <c r="R105" s="223">
-        <f>R91+R42-R87</f>
-        <v>377568.23354001937</v>
+        <f t="shared" si="64"/>
+        <v>375554.90321306884</v>
       </c>
       <c r="S105" s="223">
-        <f>S91+S42-S87</f>
-        <v>379022.6257742712</v>
+        <f t="shared" si="64"/>
+        <v>377009.74764621619</v>
       </c>
       <c r="T105" s="223">
-        <f>T91+T42-T87</f>
-        <v>423984.35574832192</v>
+        <f t="shared" si="64"/>
+        <v>421496.90866941365</v>
       </c>
       <c r="U105" s="223">
-        <f>U91+U42-U87</f>
-        <v>425378.7992644498</v>
+        <f t="shared" si="64"/>
+        <v>422891.78574521199</v>
       </c>
       <c r="V105" s="223">
-        <f>V91+V42-V87</f>
-        <v>426608.11131156218</v>
+        <f t="shared" si="64"/>
+        <v>424121.48000940226</v>
       </c>
       <c r="W105" s="223">
-        <f>W91+W42-W87</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="X105" s="223">
-        <f>X91+X42-X87</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="Y105" s="223">
-        <f>Y91+Y42-Y87</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AM105" s="243"/>
@@ -10583,59 +10576,59 @@
       <c r="J106" s="203"/>
       <c r="K106" s="203"/>
       <c r="L106" s="203">
-        <f>L94-L87</f>
+        <f t="shared" ref="L106:Y106" si="65">L94-L87</f>
         <v>156183</v>
       </c>
       <c r="M106" s="199">
-        <f>M94-M87</f>
-        <v>205195</v>
+        <f t="shared" si="65"/>
+        <v>197631</v>
       </c>
       <c r="N106" s="142">
-        <f>N94-N87</f>
-        <v>182970.60314006027</v>
+        <f t="shared" si="65"/>
+        <v>180968.4973804169</v>
       </c>
       <c r="O106" s="142">
-        <f>O94-O87</f>
-        <v>186270.23674497718</v>
+        <f t="shared" si="65"/>
+        <v>184232.02564747212</v>
       </c>
       <c r="P106" s="142">
-        <f>P94-P87</f>
-        <v>188129.01011482731</v>
+        <f t="shared" si="65"/>
+        <v>186070.45989832829</v>
       </c>
       <c r="Q106" s="142">
-        <f>Q94-Q87</f>
-        <v>188129.01011482731</v>
+        <f t="shared" si="65"/>
+        <v>186070.45989832829</v>
       </c>
       <c r="R106" s="142">
-        <f>R94-R87</f>
-        <v>188129.01011482731</v>
+        <f t="shared" si="65"/>
+        <v>186070.45989832829</v>
       </c>
       <c r="S106" s="142">
-        <f>S94-S87</f>
-        <v>188129.01011482731</v>
+        <f t="shared" si="65"/>
+        <v>186070.45989832829</v>
       </c>
       <c r="T106" s="142">
-        <f>T94-T87</f>
-        <v>231543.39706440276</v>
+        <f t="shared" si="65"/>
+        <v>229009.79679794249</v>
       </c>
       <c r="U106" s="142">
-        <f>U94-U87</f>
-        <v>231543.39706440276</v>
+        <f t="shared" si="65"/>
+        <v>229009.79679794249</v>
       </c>
       <c r="V106" s="142">
-        <f>V94-V87</f>
-        <v>231543.39706440276</v>
+        <f t="shared" si="65"/>
+        <v>229009.79679794249</v>
       </c>
       <c r="W106" s="142">
-        <f>W94-W87</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="X106" s="142">
-        <f>X94-X87</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y106" s="142">
-        <f>Y94-Y87</f>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AM106" s="243"/>
@@ -10647,83 +10640,83 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="F107" s="203">
-        <f>F105-(F94-F87)</f>
+        <f t="shared" ref="F107:Y107" si="66">F105-(F94-F87)</f>
         <v>139025</v>
       </c>
       <c r="G107" s="203">
-        <f>G105-(G94-G87)</f>
+        <f t="shared" si="66"/>
         <v>139342</v>
       </c>
       <c r="H107" s="203">
-        <f>H105-(H94-H87)</f>
+        <f t="shared" si="66"/>
         <v>140228</v>
       </c>
       <c r="I107" s="203">
-        <f>I105-(I94-I87)</f>
+        <f t="shared" si="66"/>
         <v>141105</v>
       </c>
       <c r="J107" s="203">
-        <f>J105-(J94-J87)</f>
+        <f t="shared" si="66"/>
         <v>141335</v>
       </c>
       <c r="K107" s="203">
-        <f>K105-(K94-K87)</f>
+        <f t="shared" si="66"/>
         <v>142991</v>
       </c>
       <c r="L107" s="203">
-        <f>L105-(L94-L87)</f>
+        <f t="shared" si="66"/>
         <v>420935</v>
       </c>
       <c r="M107" s="199">
-        <f>M105-(M94-M87)</f>
-        <v>284732</v>
+        <f t="shared" si="66"/>
+        <v>284777</v>
       </c>
       <c r="N107" s="143">
-        <f>N105-(N94-N87)</f>
-        <v>222922.84999999998</v>
+        <f t="shared" si="66"/>
+        <v>222967.28749999998</v>
       </c>
       <c r="O107" s="143">
-        <f>O105-(O94-O87)</f>
-        <v>203280.15712500003</v>
+        <f t="shared" si="66"/>
+        <v>203324.70571875002</v>
       </c>
       <c r="P107" s="143">
-        <f>P105-(P94-P87)</f>
-        <v>187638.3575178124</v>
+        <f t="shared" si="66"/>
+        <v>187683.01748304686</v>
       </c>
       <c r="Q107" s="143">
-        <f>Q105-(Q94-Q87)</f>
-        <v>188356.54930540151</v>
+        <f t="shared" si="66"/>
+        <v>188401.43257046212</v>
       </c>
       <c r="R107" s="143">
-        <f>R105-(R94-R87)</f>
-        <v>189439.22342519206</v>
+        <f t="shared" si="66"/>
+        <v>189484.44331474055</v>
       </c>
       <c r="S107" s="143">
-        <f>S105-(S94-S87)</f>
-        <v>190893.61565944389</v>
+        <f t="shared" si="66"/>
+        <v>190939.28774788789</v>
       </c>
       <c r="T107" s="143">
-        <f>T105-(T94-T87)</f>
-        <v>192440.95868391916</v>
+        <f t="shared" si="66"/>
+        <v>192487.11187147116</v>
       </c>
       <c r="U107" s="143">
-        <f>U105-(U94-U87)</f>
-        <v>193835.40220004704</v>
+        <f t="shared" si="66"/>
+        <v>193881.98894726951</v>
       </c>
       <c r="V107" s="143">
-        <f>V105-(V94-V87)</f>
-        <v>195064.71424715943</v>
+        <f t="shared" si="66"/>
+        <v>195111.68321145978</v>
       </c>
       <c r="W107" s="143">
-        <f>W105-(W94-W87)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="X107" s="143">
-        <f>X105-(X94-X87)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="Y107" s="143">
-        <f>Y105-(Y94-Y87)</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AM107" s="267"/>
@@ -12227,50 +12220,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="328" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="316"/>
-      <c r="G5" s="316"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="316"/>
-      <c r="N5" s="316"/>
-      <c r="O5" s="316"/>
-      <c r="P5" s="316"/>
-      <c r="Q5" s="316"/>
-      <c r="R5" s="316"/>
-      <c r="S5" s="316"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="329"/>
+      <c r="P5" s="329"/>
+      <c r="Q5" s="329"/>
+      <c r="R5" s="329"/>
+      <c r="S5" s="329"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="317" t="s">
+      <c r="A6" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="317"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="317"/>
-      <c r="O6" s="317"/>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="317"/>
-      <c r="R6" s="317"/>
-      <c r="S6" s="317"/>
+      <c r="B6" s="330"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="330"/>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="330"/>
+      <c r="R6" s="330"/>
+      <c r="S6" s="330"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12311,8 +12304,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="318"/>
-      <c r="S8" s="319"/>
+      <c r="R8" s="331"/>
+      <c r="S8" s="332"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -12577,10 +12570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="315" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="302"/>
+      <c r="B1" s="315"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -12588,18 +12581,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="320" t="s">
+      <c r="Z1" s="333" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="320"/>
-      <c r="AB1" s="320"/>
-      <c r="AC1" s="301"/>
-      <c r="AD1" s="301"/>
-      <c r="AE1" s="301"/>
-      <c r="AF1" s="301"/>
+      <c r="AA1" s="333"/>
+      <c r="AB1" s="333"/>
+      <c r="AC1" s="314"/>
+      <c r="AD1" s="314"/>
+      <c r="AE1" s="314"/>
+      <c r="AF1" s="314"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="334" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="107"/>
@@ -12608,45 +12601,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="321"/>
+      <c r="A3" s="334"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="321"/>
+      <c r="A4" s="334"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="321"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="324" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="311" t="s">
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="324" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="312"/>
-      <c r="I7" s="312"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="311" t="s">
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="312"/>
-      <c r="M7" s="312"/>
-      <c r="N7" s="313"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
+      <c r="N7" s="326"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -14156,7 +14149,7 @@
       </c>
       <c r="F70" s="102">
         <f>main!M50/1000</f>
-        <v>1213.308</v>
+        <v>1213.48</v>
       </c>
       <c r="G70" s="102">
         <f>main!N50/1000</f>
@@ -14224,7 +14217,7 @@
       <c r="E72" s="103"/>
       <c r="F72" s="103">
         <f>F70-F71</f>
-        <v>123.49370595403002</v>
+        <v>123.66570595403005</v>
       </c>
       <c r="G72" s="103">
         <f t="shared" ref="G72:K72" si="23">G70-G71</f>
@@ -14527,88 +14520,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="340" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="340"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="323"/>
-      <c r="B4" s="323"/>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="328" t="s">
+      <c r="A4" s="341"/>
+      <c r="B4" s="341"/>
+      <c r="C4" s="341"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="341"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="346" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="328"/>
-      <c r="M4" s="328"/>
-      <c r="N4" s="328"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="324" t="s">
+      <c r="C5" s="342" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="326"/>
+      <c r="D5" s="343"/>
+      <c r="E5" s="343"/>
+      <c r="F5" s="343"/>
+      <c r="G5" s="343"/>
+      <c r="H5" s="343"/>
+      <c r="I5" s="343"/>
+      <c r="J5" s="344"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="327" t="s">
+      <c r="L5" s="345" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="330">
+      <c r="C6" s="336">
         <v>2020</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="332"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="338"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15045,24 +15038,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="301" t="s">
+      <c r="K22" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="301"/>
-      <c r="M22" s="301"/>
-      <c r="N22" s="301"/>
-      <c r="O22" s="301" t="s">
+      <c r="L22" s="314"/>
+      <c r="M22" s="314"/>
+      <c r="N22" s="314"/>
+      <c r="O22" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="301"/>
-      <c r="Q22" s="301"/>
-      <c r="R22" s="301"/>
-      <c r="S22" s="301" t="s">
+      <c r="P22" s="314"/>
+      <c r="Q22" s="314"/>
+      <c r="R22" s="314"/>
+      <c r="S22" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="301"/>
-      <c r="U22" s="301"/>
-      <c r="V22" s="301"/>
+      <c r="T22" s="314"/>
+      <c r="U22" s="314"/>
+      <c r="V22" s="314"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15079,12 +15072,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="333" t="s">
+      <c r="K23" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+      <c r="N23" s="339"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15253,7 +15246,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="329" t="s">
+      <c r="I28" s="335" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15304,7 +15297,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="329"/>
+      <c r="I29" s="335"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15353,7 +15346,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="329"/>
+      <c r="I30" s="335"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15402,7 +15395,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="329"/>
+      <c r="I31" s="335"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15464,7 +15457,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="329" t="s">
+      <c r="I33" s="335" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15512,7 +15505,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="329"/>
+      <c r="I34" s="335"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15691,6 +15684,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -15698,12 +15697,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15811,30 +15804,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="337" t="s">
+      <c r="E6" s="348" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="337"/>
-      <c r="P6" s="337"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="337"/>
+      <c r="F6" s="348"/>
+      <c r="G6" s="348"/>
+      <c r="H6" s="348"/>
+      <c r="I6" s="348"/>
+      <c r="J6" s="348"/>
+      <c r="K6" s="348"/>
+      <c r="L6" s="348"/>
+      <c r="M6" s="348"/>
+      <c r="N6" s="348"/>
+      <c r="O6" s="348"/>
+      <c r="P6" s="348"/>
+      <c r="Q6" s="348"/>
+      <c r="R6" s="348"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="334" t="s">
+      <c r="A7" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="334"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
+      <c r="B7" s="347"/>
+      <c r="C7" s="347"/>
+      <c r="D7" s="347"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -15852,11 +15845,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="334" t="s">
+      <c r="B8" s="347" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="334"/>
-      <c r="D8" s="334"/>
+      <c r="C8" s="347"/>
+      <c r="D8" s="347"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -15902,11 +15895,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="334" t="s">
+      <c r="B9" s="347" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="334"/>
-      <c r="D9" s="334"/>
+      <c r="C9" s="347"/>
+      <c r="D9" s="347"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -15952,11 +15945,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="334" t="s">
+      <c r="B10" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
+      <c r="C10" s="347"/>
+      <c r="D10" s="347"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16002,11 +15995,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="334" t="s">
+      <c r="B11" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="334"/>
-      <c r="D11" s="334"/>
+      <c r="C11" s="347"/>
+      <c r="D11" s="347"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16101,10 +16094,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="334" t="s">
+      <c r="C13" s="347" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="334"/>
+      <c r="D13" s="347"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16255,11 +16248,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="347" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="334"/>
-      <c r="D19" s="334"/>
+      <c r="C19" s="347"/>
+      <c r="D19" s="347"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16318,11 +16311,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="334" t="s">
+      <c r="B20" s="347" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
+      <c r="C20" s="347"/>
+      <c r="D20" s="347"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16382,11 +16375,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="334" t="s">
+      <c r="B21" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="334"/>
-      <c r="D21" s="334"/>
+      <c r="C21" s="347"/>
+      <c r="D21" s="347"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -16445,11 +16438,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="334" t="s">
+      <c r="B22" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="334"/>
-      <c r="D22" s="334"/>
+      <c r="C22" s="347"/>
+      <c r="D22" s="347"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -16562,21 +16555,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="335" t="s">
+      <c r="H27" s="349" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="335"/>
-      <c r="J27" s="335"/>
-      <c r="K27" s="335"/>
-      <c r="L27" s="335"/>
-      <c r="M27" s="335"/>
-      <c r="N27" s="335"/>
-      <c r="O27" s="335"/>
-      <c r="P27" s="335"/>
-      <c r="Q27" s="335"/>
-      <c r="R27" s="335"/>
-      <c r="S27" s="335"/>
-      <c r="T27" s="335"/>
+      <c r="I27" s="349"/>
+      <c r="J27" s="349"/>
+      <c r="K27" s="349"/>
+      <c r="L27" s="349"/>
+      <c r="M27" s="349"/>
+      <c r="N27" s="349"/>
+      <c r="O27" s="349"/>
+      <c r="P27" s="349"/>
+      <c r="Q27" s="349"/>
+      <c r="R27" s="349"/>
+      <c r="S27" s="349"/>
+      <c r="T27" s="349"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -16892,21 +16885,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="336" t="s">
+      <c r="F37" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="336"/>
-      <c r="M37" s="336"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
+      <c r="G37" s="350"/>
+      <c r="H37" s="350"/>
+      <c r="I37" s="350"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="350"/>
+      <c r="L37" s="350"/>
+      <c r="M37" s="350"/>
+      <c r="N37" s="350"/>
+      <c r="O37" s="350"/>
+      <c r="P37" s="350"/>
+      <c r="Q37" s="350"/>
+      <c r="R37" s="350"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17222,21 +17215,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="335" t="s">
+      <c r="F48" s="349" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="335"/>
-      <c r="H48" s="335"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
-      <c r="K48" s="335"/>
-      <c r="L48" s="335"/>
-      <c r="M48" s="335"/>
-      <c r="N48" s="335"/>
-      <c r="O48" s="335"/>
-      <c r="P48" s="335"/>
-      <c r="Q48" s="335"/>
-      <c r="R48" s="335"/>
+      <c r="G48" s="349"/>
+      <c r="H48" s="349"/>
+      <c r="I48" s="349"/>
+      <c r="J48" s="349"/>
+      <c r="K48" s="349"/>
+      <c r="L48" s="349"/>
+      <c r="M48" s="349"/>
+      <c r="N48" s="349"/>
+      <c r="O48" s="349"/>
+      <c r="P48" s="349"/>
+      <c r="Q48" s="349"/>
+      <c r="R48" s="349"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -17548,12 +17541,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17562,6 +17549,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17600,50 +17593,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="328" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="316"/>
-      <c r="G5" s="316"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="316"/>
-      <c r="N5" s="316"/>
-      <c r="O5" s="316"/>
-      <c r="P5" s="316"/>
-      <c r="Q5" s="316"/>
-      <c r="R5" s="316"/>
-      <c r="S5" s="316"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="329"/>
+      <c r="D5" s="329"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="329"/>
+      <c r="G5" s="329"/>
+      <c r="H5" s="329"/>
+      <c r="I5" s="329"/>
+      <c r="J5" s="329"/>
+      <c r="K5" s="329"/>
+      <c r="L5" s="329"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="329"/>
+      <c r="O5" s="329"/>
+      <c r="P5" s="329"/>
+      <c r="Q5" s="329"/>
+      <c r="R5" s="329"/>
+      <c r="S5" s="329"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="317" t="s">
+      <c r="A6" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="317"/>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="317"/>
-      <c r="N6" s="317"/>
-      <c r="O6" s="317"/>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="317"/>
-      <c r="R6" s="317"/>
-      <c r="S6" s="317"/>
+      <c r="B6" s="330"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="330"/>
+      <c r="N6" s="330"/>
+      <c r="O6" s="330"/>
+      <c r="P6" s="330"/>
+      <c r="Q6" s="330"/>
+      <c r="R6" s="330"/>
+      <c r="S6" s="330"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -17683,10 +17676,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="318" t="s">
+      <c r="R8" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="319"/>
+      <c r="S8" s="332"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -20557,10 +20550,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="338" t="s">
+      <c r="D75" s="351" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="339"/>
+      <c r="E75" s="352"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -21248,248 +21241,248 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="97" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="347" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" s="347">
+      <c r="A2" s="306" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="306">
         <v>325</v>
       </c>
-      <c r="C2" s="348">
+      <c r="C2" s="307">
         <f>B2*1000</f>
         <v>325000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="347" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" s="347">
+      <c r="A3" s="306" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="306">
         <v>120</v>
       </c>
-      <c r="C3" s="348">
+      <c r="C3" s="307">
         <f t="shared" ref="C3:C20" si="0">B3*1000</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="347" t="s">
+      <c r="A4" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="347">
+      <c r="B4" s="306">
         <v>166</v>
       </c>
-      <c r="C4" s="348">
+      <c r="C4" s="307">
         <f t="shared" si="0"/>
         <v>166000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="347" t="s">
+      <c r="A5" s="306" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="347">
+      <c r="B5" s="306">
         <v>82</v>
       </c>
-      <c r="C5" s="348">
+      <c r="C5" s="307">
         <f t="shared" si="0"/>
         <v>82000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="347" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="347">
+      <c r="A6" s="306" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="306">
         <v>63</v>
       </c>
-      <c r="C6" s="348">
+      <c r="C6" s="307">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="349" t="s">
-        <v>356</v>
+      <c r="A7" s="308" t="s">
+        <v>355</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
-      <c r="C7" s="348">
+      <c r="C7" s="307">
         <f>B7*1000</f>
         <v>22000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="177" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="348">
+      <c r="C8" s="307">
         <f>B8*1000</f>
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="177" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="348">
+      <c r="C9" s="307">
         <f>B9*1000</f>
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="349" t="s">
+      <c r="A10" s="308" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="347">
+      <c r="B10" s="306">
         <f>B6-SUM(B7:B9)</f>
         <v>12</v>
       </c>
-      <c r="C10" s="348">
+      <c r="C10" s="307">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="350" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="347">
+      <c r="A11" s="309" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="306">
         <v>45</v>
       </c>
-      <c r="C11" s="348">
+      <c r="C11" s="307">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="349" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" s="347">
+      <c r="A12" s="308" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="306">
         <v>16</v>
       </c>
-      <c r="C12" s="348">
+      <c r="C12" s="307">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="349" t="s">
+      <c r="A13" s="308" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="347">
+      <c r="B13" s="306">
         <f>B11-B12</f>
         <v>29</v>
       </c>
-      <c r="C13" s="348">
+      <c r="C13" s="307">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="350" t="s">
-        <v>369</v>
-      </c>
-      <c r="B14" s="347">
+      <c r="A14" s="309" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="306">
         <v>80</v>
       </c>
-      <c r="C14" s="348">
+      <c r="C14" s="307">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="349" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="347">
+      <c r="A15" s="308" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="306">
         <v>26</v>
       </c>
-      <c r="C15" s="348">
+      <c r="C15" s="307">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="349" t="s">
+      <c r="A16" s="308" t="s">
         <v>58</v>
       </c>
       <c r="B16">
         <f>B14-B15</f>
         <v>54</v>
       </c>
-      <c r="C16" s="348">
+      <c r="C16" s="307">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="350" t="s">
-        <v>370</v>
+      <c r="A17" s="309" t="s">
+        <v>369</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="348">
+      <c r="C17" s="307">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="349" t="s">
-        <v>371</v>
+      <c r="A18" s="308" t="s">
+        <v>370</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" s="348">
+      <c r="C18" s="307">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="349" t="s">
-        <v>372</v>
+      <c r="A19" s="308" t="s">
+        <v>371</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="348">
+      <c r="C19" s="307">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="351" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" s="352">
+      <c r="A20" s="310" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="311">
         <v>5</v>
       </c>
-      <c r="C20" s="353">
+      <c r="C20" s="312">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="350" t="s">
+      <c r="A21" s="309" t="s">
         <v>34</v>
       </c>
       <c r="B21">
@@ -21530,23 +21523,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="319" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="307"/>
+      <c r="B1" s="320"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="314" t="s">
+      <c r="J1" s="327" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
+      <c r="V1" s="314"/>
+      <c r="W1" s="314"/>
+      <c r="X1" s="314"/>
+      <c r="Y1" s="314"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="321" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -21554,68 +21547,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="314"/>
+      <c r="J2" s="327"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="309"/>
+      <c r="A3" s="322"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="314"/>
+      <c r="J3" s="327"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="309"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="310"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="324" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="311" t="s">
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="324" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="312"/>
-      <c r="I7" s="312"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="311" t="s">
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="312"/>
-      <c r="M7" s="312"/>
-      <c r="N7" s="312"/>
-      <c r="O7" s="311" t="s">
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
+      <c r="N7" s="325"/>
+      <c r="O7" s="324" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="312"/>
-      <c r="R7" s="312"/>
-      <c r="S7" s="311" t="s">
+      <c r="P7" s="325"/>
+      <c r="Q7" s="325"/>
+      <c r="R7" s="325"/>
+      <c r="S7" s="324" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="312"/>
-      <c r="U7" s="312"/>
-      <c r="V7" s="312"/>
-      <c r="W7" s="311" t="s">
+      <c r="T7" s="325"/>
+      <c r="U7" s="325"/>
+      <c r="V7" s="325"/>
+      <c r="W7" s="324" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="312"/>
-      <c r="Y7" s="312"/>
-      <c r="Z7" s="312"/>
+      <c r="X7" s="325"/>
+      <c r="Y7" s="325"/>
+      <c r="Z7" s="325"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -22617,95 +22610,95 @@
       </c>
       <c r="E24" s="104">
         <f>main!M106/1000</f>
-        <v>205.19499999999999</v>
+        <v>197.631</v>
       </c>
       <c r="F24" s="104">
         <f>main!N106/1000</f>
-        <v>182.97060314006026</v>
+        <v>180.96849738041689</v>
       </c>
       <c r="G24" s="149">
         <f>main!O106/1000</f>
-        <v>186.27023674497718</v>
+        <v>184.23202564747211</v>
       </c>
       <c r="H24" s="104">
         <f>main!P106/1000</f>
-        <v>188.12901011482731</v>
+        <v>186.07045989832829</v>
       </c>
       <c r="I24" s="104">
         <f>main!Q106/1000</f>
-        <v>188.12901011482731</v>
+        <v>186.07045989832829</v>
       </c>
       <c r="J24" s="104">
         <f>main!R106/1000</f>
-        <v>188.12901011482731</v>
+        <v>186.07045989832829</v>
       </c>
       <c r="K24" s="149">
         <f>main!S106/1000</f>
-        <v>188.12901011482731</v>
+        <v>186.07045989832829</v>
       </c>
       <c r="L24" s="104">
         <f>main!T106/1000</f>
-        <v>231.54339706440277</v>
+        <v>229.0097967979425</v>
       </c>
       <c r="M24" s="232">
         <f>main!U106/1000</f>
-        <v>231.54339706440277</v>
+        <v>229.0097967979425</v>
       </c>
       <c r="N24" s="104">
         <f>M24*(1+N26)</f>
-        <v>229.16775203348308</v>
+        <v>226.66014661273928</v>
       </c>
       <c r="O24" s="149">
         <f t="shared" ref="O24:AA24" si="0">N24*(1+O26)</f>
-        <v>226.81542267562489</v>
+        <v>224.33355697522481</v>
       </c>
       <c r="P24" s="104">
         <f t="shared" si="0"/>
-        <v>224.46309331776644</v>
+        <v>222.00696733771008</v>
       </c>
       <c r="Q24" s="104">
         <f t="shared" si="0"/>
-        <v>222.1107639599081</v>
+        <v>219.68037770019546</v>
       </c>
       <c r="R24" s="104">
         <f t="shared" si="0"/>
-        <v>219.75843460204968</v>
+        <v>217.35378806268074</v>
       </c>
       <c r="S24" s="149">
         <f t="shared" si="0"/>
-        <v>222.2347811351913</v>
+        <v>219.80303785147223</v>
       </c>
       <c r="T24" s="104">
         <f t="shared" si="0"/>
-        <v>224.71112766833286</v>
+        <v>222.25228764026366</v>
       </c>
       <c r="U24" s="104">
         <f t="shared" si="0"/>
-        <v>227.1874742014746</v>
+        <v>224.70153742905526</v>
       </c>
       <c r="V24" s="104">
         <f t="shared" si="0"/>
-        <v>229.66382073461634</v>
+        <v>227.15078721784687</v>
       </c>
       <c r="W24" s="149">
         <f t="shared" si="0"/>
-        <v>232.80077800449556</v>
+        <v>230.2534191911484</v>
       </c>
       <c r="X24" s="104">
         <f t="shared" si="0"/>
-        <v>235.93773527437466</v>
+        <v>233.35605116444981</v>
       </c>
       <c r="Y24" s="104">
         <f t="shared" si="0"/>
-        <v>239.07469254425391</v>
+        <v>236.45868313775139</v>
       </c>
       <c r="Z24" s="104">
         <f t="shared" si="0"/>
-        <v>242.21164981413298</v>
+        <v>239.56131511105278</v>
       </c>
       <c r="AA24" s="149">
         <f t="shared" si="0"/>
-        <v>245.47595506973281</v>
+        <v>242.78990159958667</v>
       </c>
       <c r="AB24" s="95"/>
     </row>
@@ -22891,91 +22884,91 @@
       <c r="E27" s="225"/>
       <c r="F27" s="225">
         <f t="shared" ref="F27" si="16">F24-F25</f>
-        <v>-22.257396859939746</v>
+        <v>-24.259502619583117</v>
       </c>
       <c r="G27" s="150">
         <f t="shared" ref="G27" si="17">G24-G25</f>
-        <v>-26.789650629444708</v>
+        <v>-28.827861726949777</v>
       </c>
       <c r="H27" s="225">
         <f t="shared" ref="H27" si="18">H24-H25</f>
-        <v>-32.762764634016577</v>
+        <v>-34.821314850515591</v>
       </c>
       <c r="I27" s="225">
         <f t="shared" ref="I27" si="19">I24-I25</f>
-        <v>-40.594652008438686</v>
+        <v>-42.653202224937701</v>
       </c>
       <c r="J27" s="225">
         <f t="shared" ref="J27" si="20">J24-J25</f>
-        <v>-48.426539382860597</v>
+        <v>-50.485089599359611</v>
       </c>
       <c r="K27" s="150">
         <f t="shared" ref="K27:AA27" si="21">K24-K25</f>
-        <v>-46.071944194504397</v>
+        <v>-48.130494411003411</v>
       </c>
       <c r="L27" s="225">
         <f t="shared" si="21"/>
-        <v>-0.30296205657262476</v>
+        <v>-2.8365623230328936</v>
       </c>
       <c r="M27" s="249">
         <f t="shared" si="21"/>
-        <v>2.0516331317836602</v>
+        <v>-0.48196713467660857</v>
       </c>
       <c r="N27" s="225">
         <f t="shared" si="21"/>
-        <v>2.0305832892202886</v>
+        <v>-0.47702213152351192</v>
       </c>
       <c r="O27" s="150">
         <f t="shared" si="21"/>
-        <v>2.0097400394941758</v>
+        <v>-0.47212566090590258</v>
       </c>
       <c r="P27" s="225">
         <f t="shared" si="21"/>
-        <v>1.9888967897680345</v>
+        <v>-0.46722919028832166</v>
       </c>
       <c r="Q27" s="225">
         <f t="shared" si="21"/>
-        <v>1.9680535400418933</v>
+        <v>-0.46233271967074074</v>
       </c>
       <c r="R27" s="225">
         <f t="shared" si="21"/>
-        <v>1.9472102903157804</v>
+        <v>-0.45743624905315983</v>
       </c>
       <c r="S27" s="150">
         <f t="shared" si="21"/>
-        <v>1.9691524171809078</v>
+        <v>-0.46259086653816439</v>
       </c>
       <c r="T27" s="225">
         <f t="shared" si="21"/>
-        <v>1.9910945440460637</v>
+        <v>-0.46774548402314053</v>
       </c>
       <c r="U27" s="225">
         <f t="shared" si="21"/>
-        <v>2.0130366709111911</v>
+        <v>-0.4729001015081451</v>
       </c>
       <c r="V27" s="225">
         <f t="shared" si="21"/>
-        <v>2.0349787977763469</v>
+        <v>-0.47805471899312124</v>
       </c>
       <c r="W27" s="150">
         <f t="shared" si="21"/>
-        <v>2.0627743883631524</v>
+        <v>-0.484584424984007</v>
       </c>
       <c r="X27" s="225">
         <f t="shared" si="21"/>
-        <v>2.0905699789499579</v>
+        <v>-0.49111413097489276</v>
       </c>
       <c r="Y27" s="225">
         <f t="shared" si="21"/>
-        <v>2.1183655695367065</v>
+        <v>-0.49764383696580694</v>
       </c>
       <c r="Z27" s="225">
         <f t="shared" si="21"/>
-        <v>2.1461611601234836</v>
+        <v>-0.50417354295672112</v>
       </c>
       <c r="AA27" s="150">
         <f t="shared" si="21"/>
-        <v>2.1750851411117083</v>
+        <v>-0.51096832903442646</v>
       </c>
       <c r="AB27" s="254"/>
     </row>
@@ -23063,91 +23056,91 @@
       </c>
       <c r="F31" s="104">
         <f>main!M107/1000</f>
-        <v>284.73200000000003</v>
+        <v>284.77699999999999</v>
       </c>
       <c r="G31" s="104">
         <f>main!N107/1000</f>
-        <v>222.92284999999998</v>
+        <v>222.96728749999997</v>
       </c>
       <c r="H31" s="104">
         <f>main!O107/1000</f>
-        <v>203.28015712500002</v>
+        <v>203.32470571875001</v>
       </c>
       <c r="I31" s="104">
         <f>main!P107/1000</f>
-        <v>187.63835751781241</v>
+        <v>187.68301748304685</v>
       </c>
       <c r="J31" s="104">
         <f>main!Q107/1000</f>
-        <v>188.3565493054015</v>
+        <v>188.40143257046211</v>
       </c>
       <c r="K31" s="104">
         <f>main!R107/1000</f>
-        <v>189.43922342519207</v>
+        <v>189.48444331474056</v>
       </c>
       <c r="L31" s="104">
         <f>main!S107/1000</f>
-        <v>190.8936156594439</v>
+        <v>190.9392877478879</v>
       </c>
       <c r="M31" s="104">
         <f>L31*(1 + M33)</f>
-        <v>196.6039455094818</v>
+        <v>196.65098381800107</v>
       </c>
       <c r="N31" s="104">
         <f t="shared" ref="N31:AA31" si="22">M31*(1 + N33)</f>
-        <v>201.92945643912574</v>
+        <v>201.97776889819923</v>
       </c>
       <c r="O31" s="104">
         <f t="shared" si="22"/>
-        <v>206.82154024469929</v>
+        <v>206.87102315509182</v>
       </c>
       <c r="P31" s="104">
         <f t="shared" si="22"/>
-        <v>242.80935879117246</v>
+        <v>242.86745193625453</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" si="22"/>
-        <v>248.2396911085703</v>
+        <v>248.29908348315789</v>
       </c>
       <c r="R31" s="104">
         <f t="shared" si="22"/>
-        <v>253.63657746143045</v>
+        <v>253.69726106343799</v>
       </c>
       <c r="S31" s="104">
         <f t="shared" si="22"/>
-        <v>255.33471782645819</v>
+        <v>255.39580771558369</v>
       </c>
       <c r="T31" s="104">
         <f t="shared" si="22"/>
-        <v>257.23353397871472</v>
+        <v>257.29507816747167</v>
       </c>
       <c r="U31" s="104">
         <f t="shared" si="22"/>
-        <v>259.31630293592781</v>
+        <v>259.37834543578697</v>
       </c>
       <c r="V31" s="104">
         <f t="shared" si="22"/>
-        <v>261.666639609443</v>
+        <v>261.72924443708905</v>
       </c>
       <c r="W31" s="104">
         <f t="shared" si="22"/>
-        <v>263.5565443671378</v>
+        <v>263.61960136232727</v>
       </c>
       <c r="X31" s="104">
         <f t="shared" si="22"/>
-        <v>265.41300316029486</v>
+        <v>265.47650432094213</v>
       </c>
       <c r="Y31" s="104">
         <f t="shared" si="22"/>
-        <v>267.40324581160064</v>
+        <v>267.46722314604807</v>
       </c>
       <c r="Z31" s="104">
         <f t="shared" si="22"/>
-        <v>269.54399530332751</v>
+        <v>269.60848482096026</v>
       </c>
       <c r="AA31" s="104">
         <f t="shared" si="22"/>
-        <v>271.72009853733562</v>
+        <v>271.78510869668298</v>
       </c>
       <c r="AB31" s="95"/>
     </row>
@@ -23336,91 +23329,91 @@
       <c r="E34" s="225"/>
       <c r="F34" s="225">
         <f t="shared" ref="F34" si="39">F31-F32</f>
-        <v>-591.10500000000002</v>
+        <v>-591.06000000000017</v>
       </c>
       <c r="G34" s="150">
         <f t="shared" ref="G34" si="40">G31-G32</f>
-        <v>-630.45068126596811</v>
+        <v>-630.40624376596816</v>
       </c>
       <c r="H34" s="225">
         <f t="shared" ref="H34" si="41">H31-H32</f>
-        <v>-627.6397000131858</v>
+        <v>-627.59515141943587</v>
       </c>
       <c r="I34" s="225">
         <f t="shared" ref="I34" si="42">I31-I32</f>
-        <v>-620.837644585357</v>
+        <v>-620.79298462012252</v>
       </c>
       <c r="J34" s="225">
         <f t="shared" ref="J34" si="43">J31-J32</f>
-        <v>-601.63274124276234</v>
+        <v>-601.58785797770167</v>
       </c>
       <c r="K34" s="150">
         <f t="shared" ref="K34:N34" si="44">K31-K32</f>
-        <v>-620.38250935733299</v>
+        <v>-620.33728946778444</v>
       </c>
       <c r="L34" s="249">
         <f t="shared" si="44"/>
-        <v>-642.84660678631462</v>
+        <v>-642.80093469787062</v>
       </c>
       <c r="M34" s="225">
         <f t="shared" si="44"/>
-        <v>-662.07651217129251</v>
+        <v>-662.02947386277333</v>
       </c>
       <c r="N34" s="225">
         <f t="shared" si="44"/>
-        <v>-680.01051493350417</v>
+        <v>-679.96220247443068</v>
       </c>
       <c r="O34" s="150">
         <f t="shared" ref="O34:AA34" si="45">O31-O32</f>
-        <v>-696.48492380078505</v>
+        <v>-696.43544089039244</v>
       </c>
       <c r="P34" s="150">
         <f t="shared" si="45"/>
-        <v>-817.67623215503761</v>
+        <v>-817.6181390099556</v>
       </c>
       <c r="Q34" s="150">
         <f t="shared" si="45"/>
-        <v>-835.96322772532972</v>
+        <v>-835.90383535074204</v>
       </c>
       <c r="R34" s="150">
         <f t="shared" si="45"/>
-        <v>-854.1375918451696</v>
+        <v>-854.07690824316205</v>
       </c>
       <c r="S34" s="150">
         <f t="shared" si="45"/>
-        <v>-859.85618944066186</v>
+        <v>-859.7950995515364</v>
       </c>
       <c r="T34" s="150">
         <f t="shared" si="45"/>
-        <v>-866.25057573887523</v>
+        <v>-866.18903155011822</v>
       </c>
       <c r="U34" s="150">
         <f t="shared" si="45"/>
-        <v>-873.2644350145722</v>
+        <v>-873.20239251471298</v>
       </c>
       <c r="V34" s="150">
         <f t="shared" si="45"/>
-        <v>-881.17934589388699</v>
+        <v>-881.11674106624093</v>
       </c>
       <c r="W34" s="150">
         <f t="shared" si="45"/>
-        <v>-887.54372249410221</v>
+        <v>-887.48066549891269</v>
       </c>
       <c r="X34" s="150">
         <f t="shared" si="45"/>
-        <v>-893.79546764386509</v>
+        <v>-893.73196648321789</v>
       </c>
       <c r="Y34" s="150">
         <f t="shared" si="45"/>
-        <v>-900.49773859542927</v>
+        <v>-900.43376126098178</v>
       </c>
       <c r="Z34" s="150">
         <f t="shared" si="45"/>
-        <v>-907.70685107403244</v>
+        <v>-907.64236155639969</v>
       </c>
       <c r="AA34" s="150">
         <f t="shared" si="45"/>
-        <v>-915.03501956812443</v>
+        <v>-914.97000940877706</v>
       </c>
       <c r="AB34" s="254"/>
     </row>
@@ -23518,27 +23511,27 @@
       </c>
       <c r="F38" s="104">
         <f>main!M22</f>
-        <v>1836.9459999999999</v>
+        <v>1871.3489999999999</v>
       </c>
       <c r="G38" s="149">
         <f>main!N22</f>
-        <v>1874.1364363176749</v>
+        <v>1908.0455151906833</v>
       </c>
       <c r="H38" s="104">
         <f>main!O22</f>
-        <v>1905.2188269788135</v>
+        <v>1939.6902849913897</v>
       </c>
       <c r="I38" s="104">
         <f>main!P22</f>
-        <v>1935.514553250054</v>
+        <v>1970.5341571455765</v>
       </c>
       <c r="J38" s="104">
         <f>main!Q22</f>
-        <v>1967.8958548805504</v>
+        <v>2003.5013393393667</v>
       </c>
       <c r="K38" s="149">
         <f>main!R22</f>
-        <v>1989.584009164711</v>
+        <v>2025.581901198547</v>
       </c>
       <c r="L38" s="104"/>
       <c r="M38" s="104"/>
@@ -23612,27 +23605,27 @@
       <c r="E40" s="225"/>
       <c r="F40" s="225">
         <f>F38-F39</f>
-        <v>4.5999999999821739E-2</v>
+        <v>34.448999999999842</v>
       </c>
       <c r="G40" s="150">
         <f t="shared" ref="G40:K40" si="47">G38-G39</f>
-        <v>9.1220108456809612E-2</v>
+        <v>34.000298981465221</v>
       </c>
       <c r="H40" s="225">
         <f t="shared" si="47"/>
-        <v>9.2732986063538192E-2</v>
+        <v>34.564190998639788</v>
       </c>
       <c r="I40" s="225">
         <f t="shared" si="47"/>
-        <v>9.4207574237998415E-2</v>
+        <v>35.113811469760549</v>
       </c>
       <c r="J40" s="225">
         <f t="shared" si="47"/>
-        <v>9.5783673922369417E-2</v>
+        <v>35.701268132738733</v>
       </c>
       <c r="K40" s="150">
         <f t="shared" si="47"/>
-        <v>9.6839304535023984E-2</v>
+        <v>36.094731338371048</v>
       </c>
       <c r="L40" s="225">
         <v>0</v>
@@ -23768,27 +23761,27 @@
       </c>
       <c r="F44" s="104">
         <f>main!M26</f>
-        <v>79.099999999999994</v>
+        <v>90.2</v>
       </c>
       <c r="G44" s="149">
         <f>main!N26</f>
-        <v>80.701442564304074</v>
+        <v>91.968791214359072</v>
       </c>
       <c r="H44" s="104">
         <f>main!O26</f>
-        <v>82.039869007594206</v>
+        <v>93.494085660250093</v>
       </c>
       <c r="I44" s="104">
         <f>main!P26</f>
-        <v>83.344421208940986</v>
+        <v>94.980776420930042</v>
       </c>
       <c r="J44" s="104">
         <f>main!Q26</f>
-        <v>84.738779540090761</v>
+        <v>96.569811835425071</v>
       </c>
       <c r="K44" s="149">
         <f>main!R26</f>
-        <v>85.672684512734008</v>
+        <v>97.634106459088585</v>
       </c>
       <c r="L44" s="104"/>
       <c r="M44" s="104"/>
@@ -23864,27 +23857,27 @@
       <c r="E46" s="225"/>
       <c r="F46" s="225">
         <f>F44-F45</f>
-        <v>0</v>
+        <v>11.100000000000009</v>
       </c>
       <c r="G46" s="150">
         <f t="shared" ref="G46:K46" si="49">G44-G45</f>
-        <v>1.9071502101439819E-3</v>
+        <v>11.269255800265142</v>
       </c>
       <c r="H46" s="225">
         <f t="shared" si="49"/>
-        <v>1.9387801313541786E-3</v>
+        <v>11.456155432787241</v>
       </c>
       <c r="I46" s="225">
         <f t="shared" si="49"/>
-        <v>1.969609530561911E-3</v>
+        <v>11.638324821519618</v>
       </c>
       <c r="J46" s="225">
         <f t="shared" si="49"/>
-        <v>2.0025612436285201E-3</v>
+        <v>11.833034856577939</v>
       </c>
       <c r="K46" s="150">
         <f t="shared" si="49"/>
-        <v>2.024631444953684E-3</v>
+        <v>11.96344657779953</v>
       </c>
       <c r="L46" s="225">
         <v>0</v>
@@ -24024,87 +24017,87 @@
       </c>
       <c r="G50" s="149">
         <f>main!N89/1000</f>
-        <v>1373.8156728590002</v>
+        <v>1368.1173718507844</v>
       </c>
       <c r="H50" s="104">
         <f>main!O89/1000</f>
-        <v>1393.6535067068824</v>
+        <v>1387.852444352445</v>
       </c>
       <c r="I50" s="104">
         <f>main!P89/1000</f>
-        <v>1409.5183603139265</v>
+        <v>1403.6594096977371</v>
       </c>
       <c r="J50" s="232">
         <f>main!Q89/1000</f>
-        <v>1420.2223552427586</v>
+        <v>1414.3634046265693</v>
       </c>
       <c r="K50" s="149">
         <f>J50*(1+K52)</f>
-        <v>1456.3521805721477</v>
+        <v>1450.3441808569951</v>
       </c>
       <c r="L50" s="104">
         <f t="shared" ref="L50:AA50" si="50">K50*(1+L52)</f>
-        <v>1492.4820059015367</v>
+        <v>1486.3249570874207</v>
       </c>
       <c r="M50" s="104">
         <f t="shared" si="50"/>
-        <v>1528.6118312309259</v>
+        <v>1522.3057333178465</v>
       </c>
       <c r="N50" s="104">
         <f t="shared" si="50"/>
-        <v>1564.7416565603151</v>
+        <v>1558.2865095482723</v>
       </c>
       <c r="O50" s="149">
         <f t="shared" si="50"/>
-        <v>1569.166071496194</v>
+        <v>1562.6926721108387</v>
       </c>
       <c r="P50" s="104">
         <f t="shared" si="50"/>
-        <v>1573.5904864320726</v>
+        <v>1567.0988346734046</v>
       </c>
       <c r="Q50" s="104">
         <f t="shared" si="50"/>
-        <v>1578.0149013679513</v>
+        <v>1571.5049972359707</v>
       </c>
       <c r="R50" s="104">
         <f t="shared" si="50"/>
-        <v>1582.4393163038303</v>
+        <v>1575.911159798537</v>
       </c>
       <c r="S50" s="149">
         <f t="shared" si="50"/>
-        <v>1594.4899061049841</v>
+        <v>1587.9120363908539</v>
       </c>
       <c r="T50" s="104">
         <f t="shared" si="50"/>
-        <v>1606.5404959061379</v>
+        <v>1599.9129129831708</v>
       </c>
       <c r="U50" s="104">
         <f t="shared" si="50"/>
-        <v>1618.5910857072909</v>
+        <v>1611.9137895754868</v>
       </c>
       <c r="V50" s="104">
         <f t="shared" si="50"/>
-        <v>1630.6416755084458</v>
+        <v>1623.9146661678049</v>
       </c>
       <c r="W50" s="149">
         <f t="shared" si="50"/>
-        <v>1669.5855382015102</v>
+        <v>1662.6978708008971</v>
       </c>
       <c r="X50" s="104">
         <f t="shared" si="50"/>
-        <v>1708.5294008945755</v>
+        <v>1701.4810754339903</v>
       </c>
       <c r="Y50" s="104">
         <f t="shared" si="50"/>
-        <v>1747.4732635876398</v>
+        <v>1740.2642800670826</v>
       </c>
       <c r="Z50" s="104">
         <f t="shared" si="50"/>
-        <v>1786.4171262807042</v>
+        <v>1779.0474847001749</v>
       </c>
       <c r="AA50" s="149">
         <f t="shared" si="50"/>
-        <v>1815.5043883220089</v>
+        <v>1808.0147508610942</v>
       </c>
       <c r="AB50" s="95"/>
     </row>
@@ -24303,87 +24296,87 @@
       </c>
       <c r="G53" s="150">
         <f t="shared" ref="G53" si="70">G50-G51</f>
-        <v>39.284047628965254</v>
+        <v>33.585746620749433</v>
       </c>
       <c r="H53" s="225">
         <f t="shared" ref="H53" si="71">H50-H51</f>
-        <v>53.362256246811285</v>
+        <v>47.561193892373922</v>
       </c>
       <c r="I53" s="225">
         <f t="shared" ref="I53" si="72">I50-I51</f>
-        <v>63.467484623819473</v>
+        <v>57.608534007630169</v>
       </c>
       <c r="J53" s="249">
         <f t="shared" ref="J53" si="73">J50-J51</f>
-        <v>68.411854322616591</v>
+        <v>62.552903706427287</v>
       </c>
       <c r="K53" s="150">
         <f t="shared" ref="K53:AA53" si="74">K50-K51</f>
-        <v>70.152221482738696</v>
+        <v>64.144221767586032</v>
       </c>
       <c r="L53" s="225">
         <f t="shared" si="74"/>
-        <v>71.892588642860801</v>
+        <v>65.735539828744777</v>
       </c>
       <c r="M53" s="225">
         <f t="shared" si="74"/>
-        <v>73.632955802982906</v>
+        <v>67.326857889903522</v>
       </c>
       <c r="N53" s="225">
         <f t="shared" si="74"/>
-        <v>75.373322963105011</v>
+        <v>68.918175951062267</v>
       </c>
       <c r="O53" s="150">
         <f t="shared" si="74"/>
-        <v>75.586446231400942</v>
+        <v>69.113046846045563</v>
       </c>
       <c r="P53" s="225">
         <f t="shared" si="74"/>
-        <v>75.799569499696645</v>
+        <v>69.307917741028632</v>
       </c>
       <c r="Q53" s="225">
         <f t="shared" si="74"/>
-        <v>76.012692767992348</v>
+        <v>69.502788636011701</v>
       </c>
       <c r="R53" s="225">
         <f t="shared" si="74"/>
-        <v>76.225816036288279</v>
+        <v>69.697659530994997</v>
       </c>
       <c r="S53" s="150">
         <f t="shared" si="74"/>
-        <v>76.806290770357236</v>
+        <v>70.228421056227035</v>
       </c>
       <c r="T53" s="225">
         <f t="shared" si="74"/>
-        <v>77.386765504425966</v>
+        <v>70.759182581458845</v>
       </c>
       <c r="U53" s="225">
         <f t="shared" si="74"/>
-        <v>77.967240238494924</v>
+        <v>71.289944106690882</v>
       </c>
       <c r="V53" s="225">
         <f t="shared" si="74"/>
-        <v>78.547714972563881</v>
+        <v>71.82070563192292</v>
       </c>
       <c r="W53" s="150">
         <f t="shared" si="74"/>
-        <v>80.42363380420511</v>
+        <v>73.535966403592056</v>
       </c>
       <c r="X53" s="225">
         <f t="shared" si="74"/>
-        <v>82.299552635846567</v>
+        <v>75.25122717526142</v>
       </c>
       <c r="Y53" s="225">
         <f t="shared" si="74"/>
-        <v>84.175471467487796</v>
+        <v>76.966487946930556</v>
       </c>
       <c r="Z53" s="225">
         <f t="shared" si="74"/>
-        <v>86.051390299129253</v>
+        <v>78.68174871859992</v>
       </c>
       <c r="AA53" s="150">
         <f t="shared" si="74"/>
-        <v>87.452518457736005</v>
+        <v>79.962880996821241</v>
       </c>
       <c r="AB53" s="254"/>
     </row>
@@ -24474,91 +24467,91 @@
       </c>
       <c r="F57" s="104">
         <f>main!M88/1000</f>
-        <v>2508.7139999999999</v>
+        <v>2509.0010000000002</v>
       </c>
       <c r="G57" s="149">
         <f>main!N88/1000</f>
-        <v>1966.5974866534179</v>
+        <v>1966.8823341534182</v>
       </c>
       <c r="H57" s="104">
         <f>main!O88/1000</f>
-        <v>3088.9427957109897</v>
+        <v>3089.2255068547402</v>
       </c>
       <c r="I57" s="104">
         <f>main!P88/1000</f>
-        <v>1856.2309611612814</v>
+        <v>1856.5115519714532</v>
       </c>
       <c r="J57" s="104">
         <f>main!Q88/1000</f>
-        <v>1667.9892289525719</v>
+        <v>1668.2677153316674</v>
       </c>
       <c r="K57" s="274">
         <f>main!R88/1000</f>
-        <v>1664.2890673868606</v>
+        <v>1664.5717310616424</v>
       </c>
       <c r="L57" s="104">
         <f>K57*(1+L59)</f>
-        <v>1671.6812287184507</v>
+        <v>1671.9651478815533</v>
       </c>
       <c r="M57" s="104">
         <f t="shared" ref="M57:AA57" si="75">L57*(1+M59)</f>
-        <v>1659.1077563929985</v>
+        <v>1659.3895400713695</v>
       </c>
       <c r="N57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.8882858325874</v>
+        <v>1619.1632386162723</v>
       </c>
       <c r="O57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="P57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="Q57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="R57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="S57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="T57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="U57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="V57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="W57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="X57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="Y57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="Z57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="AA57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.107488150679</v>
+        <v>1618.3823083233012</v>
       </c>
       <c r="AB57" s="95"/>
     </row>
@@ -24750,91 +24743,91 @@
       <c r="E60" s="225"/>
       <c r="F60" s="225">
         <f t="shared" ref="F60" si="93">F57-F58</f>
-        <v>594.45100000000002</v>
+        <v>594.73800000000028</v>
       </c>
       <c r="G60" s="150">
         <f t="shared" ref="G60" si="94">G57-G58</f>
-        <v>314.07836196786297</v>
+        <v>314.36320946786327</v>
       </c>
       <c r="H60" s="225">
         <f t="shared" ref="H60" si="95">H57-H58</f>
-        <v>1641.9267533528007</v>
+        <v>1642.2094644965512</v>
       </c>
       <c r="I60" s="225">
         <f t="shared" ref="I60" si="96">I57-I58</f>
-        <v>574.2278108710334</v>
+        <v>574.50840168120521</v>
       </c>
       <c r="J60" s="225">
         <f t="shared" ref="J60" si="97">J57-J58</f>
-        <v>500.34254097599887</v>
+        <v>500.62102735509438</v>
       </c>
       <c r="K60" s="275">
         <f t="shared" ref="K60" si="98">K57-K58</f>
-        <v>468.78244356721166</v>
+        <v>469.06510724199347</v>
       </c>
       <c r="L60" s="225">
         <f t="shared" ref="L60:AA60" si="99">L57-L58</f>
-        <v>470.86460316326475</v>
+        <v>471.14852232636736</v>
       </c>
       <c r="M60" s="225">
         <f t="shared" si="99"/>
-        <v>467.32301703117241</v>
+        <v>467.6048007095435</v>
       </c>
       <c r="N60" s="225">
         <f t="shared" si="99"/>
-        <v>455.99434699556832</v>
+        <v>456.26929977925329</v>
       </c>
       <c r="O60" s="150">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="P60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="Q60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="R60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="S60" s="150">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="T60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="U60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="V60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="W60" s="150">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="X60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="Y60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="Z60" s="225">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="AA60" s="150">
         <f t="shared" si="99"/>
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="AB60" s="254"/>
     </row>
@@ -24932,7 +24925,7 @@
       </c>
       <c r="F64" s="104">
         <f>main!M50/1000</f>
-        <v>1213.308</v>
+        <v>1213.48</v>
       </c>
       <c r="G64" s="149">
         <f>main!N50/1000</f>
@@ -25205,7 +25198,7 @@
       <c r="E67" s="225"/>
       <c r="F67" s="225">
         <f>F64-F65</f>
-        <v>0.60799999999994725</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="G67" s="150">
         <f t="shared" ref="G67:AA67" si="103">G64-G65</f>
@@ -25381,7 +25374,7 @@
       </c>
       <c r="F71" s="226">
         <f>main!M78/1000</f>
-        <v>286.95061436735779</v>
+        <v>286.98038194444445</v>
       </c>
       <c r="G71" s="151">
         <f>main!N78/1000</f>
@@ -25639,7 +25632,7 @@
       <c r="E74" s="225"/>
       <c r="F74" s="225">
         <f>F71-F72</f>
-        <v>44.822614367357801</v>
+        <v>44.85238194444446</v>
       </c>
       <c r="G74" s="150">
         <f t="shared" ref="G74:K74" si="118">G71-G72</f>
@@ -25835,10 +25828,10 @@
         <v>293</v>
       </c>
       <c r="N1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -25897,19 +25890,19 @@
       </c>
       <c r="B3" s="102">
         <f t="array" ref="B3:B24">TRANSPOSE('add-ons calculations'!F27:AA27)</f>
-        <v>-22.257396859939746</v>
+        <v>-24.259502619583117</v>
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F34:AA34)</f>
-        <v>-591.10500000000002</v>
+        <v>-591.06000000000017</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
-        <v>4.5999999999821739E-2</v>
+        <v>34.448999999999842</v>
       </c>
       <c r="E3">
         <f t="array" ref="E3:E24">TRANSPOSE('add-ons calculations'!F46:AA46)</f>
-        <v>0</v>
+        <v>11.100000000000009</v>
       </c>
       <c r="F3">
         <f t="array" ref="F3:F24">TRANSPOSE('add-ons calculations'!F53:AA53)</f>
@@ -25917,23 +25910,23 @@
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>594.45100000000002</v>
+        <v>594.73800000000028</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
-        <v>0.60799999999994725</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>44.822614367357801</v>
+        <v>44.85238194444446</v>
       </c>
       <c r="J3" s="102">
         <f>'add-ons calculations'!F71</f>
-        <v>286.95061436735779</v>
+        <v>286.98038194444445</v>
       </c>
       <c r="K3" s="102" cm="1">
         <f t="array" ref="K3:K12">TRANSPOSE(main!M36:V36)/1000</f>
-        <v>874.87800000000004</v>
+        <v>881.35400000000004</v>
       </c>
       <c r="L3">
         <v>738.2</v>
@@ -25953,22 +25946,22 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>-26.789650629444708</v>
+        <v>-28.827861726949777</v>
       </c>
       <c r="C4">
-        <v>-630.45068126596811</v>
+        <v>-630.40624376596816</v>
       </c>
       <c r="D4">
-        <v>9.1220108456809612E-2</v>
+        <v>34.000298981465221</v>
       </c>
       <c r="E4">
-        <v>1.9071502101439819E-3</v>
+        <v>11.269255800265142</v>
       </c>
       <c r="F4">
-        <v>39.284047628965254</v>
+        <v>33.585746620749433</v>
       </c>
       <c r="G4">
-        <v>314.07836196786297</v>
+        <v>314.36320946786327</v>
       </c>
       <c r="H4">
         <v>-833.73947605477315</v>
@@ -25998,22 +25991,22 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>-32.762764634016577</v>
+        <v>-34.821314850515591</v>
       </c>
       <c r="C5">
-        <v>-627.6397000131858</v>
+        <v>-627.59515141943587</v>
       </c>
       <c r="D5">
-        <v>9.2732986063538192E-2</v>
+        <v>34.564190998639788</v>
       </c>
       <c r="E5">
-        <v>1.9387801313541786E-3</v>
+        <v>11.456155432787241</v>
       </c>
       <c r="F5">
-        <v>53.362256246811285</v>
+        <v>47.561193892373922</v>
       </c>
       <c r="G5">
-        <v>1641.9267533528007</v>
+        <v>1642.2094644965512</v>
       </c>
       <c r="H5">
         <v>-643.37710701026424</v>
@@ -26042,22 +26035,22 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>-40.594652008438686</v>
+        <v>-42.653202224937701</v>
       </c>
       <c r="C6">
-        <v>-620.837644585357</v>
+        <v>-620.79298462012252</v>
       </c>
       <c r="D6">
-        <v>9.4207574237998415E-2</v>
+        <v>35.113811469760549</v>
       </c>
       <c r="E6">
-        <v>1.969609530561911E-3</v>
+        <v>11.638324821519618</v>
       </c>
       <c r="F6">
-        <v>63.467484623819473</v>
+        <v>57.608534007630169</v>
       </c>
       <c r="G6">
-        <v>574.2278108710334</v>
+        <v>574.50840168120521</v>
       </c>
       <c r="H6">
         <v>-647.78916812809337</v>
@@ -26086,22 +26079,22 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>-48.426539382860597</v>
+        <v>-50.485089599359611</v>
       </c>
       <c r="C7">
-        <v>-601.63274124276234</v>
+        <v>-601.58785797770167</v>
       </c>
       <c r="D7">
-        <v>9.5783673922369417E-2</v>
+        <v>35.701268132738733</v>
       </c>
       <c r="E7">
-        <v>2.0025612436285201E-3</v>
+        <v>11.833034856577939</v>
       </c>
       <c r="F7">
-        <v>68.411854322616591</v>
+        <v>62.552903706427287</v>
       </c>
       <c r="G7">
-        <v>500.34254097599887</v>
+        <v>500.62102735509438</v>
       </c>
       <c r="H7">
         <v>-652.5536906191013</v>
@@ -26130,22 +26123,22 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>-46.071944194504397</v>
+        <v>-48.130494411003411</v>
       </c>
       <c r="C8">
-        <v>-620.38250935733299</v>
+        <v>-620.33728946778444</v>
       </c>
       <c r="D8">
-        <v>9.6839304535023984E-2</v>
+        <v>36.094731338371048</v>
       </c>
       <c r="E8">
-        <v>2.024631444953684E-3</v>
+        <v>11.96344657779953</v>
       </c>
       <c r="F8">
-        <v>70.152221482738696</v>
+        <v>64.144221767586032</v>
       </c>
       <c r="G8">
-        <v>468.78244356721166</v>
+        <v>469.06510724199347</v>
       </c>
       <c r="H8">
         <v>-1112.356223009233</v>
@@ -26174,10 +26167,10 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>-0.30296205657262476</v>
+        <v>-2.8365623230328936</v>
       </c>
       <c r="C9">
-        <v>-642.84660678631462</v>
+        <v>-642.80093469787062</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -26186,10 +26179,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.892588642860801</v>
+        <v>65.735539828744777</v>
       </c>
       <c r="G9">
-        <v>470.86460316326475</v>
+        <v>471.14852232636736</v>
       </c>
       <c r="H9">
         <v>-1163.1072012785651</v>
@@ -26218,10 +26211,10 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>2.0516331317836602</v>
+        <v>-0.48196713467660857</v>
       </c>
       <c r="C10">
-        <v>-662.07651217129251</v>
+        <v>-662.02947386277333</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -26230,10 +26223,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>73.632955802982906</v>
+        <v>67.326857889903522</v>
       </c>
       <c r="G10">
-        <v>467.32301703117241</v>
+        <v>467.6048007095435</v>
       </c>
       <c r="H10">
         <v>-1168.1884625696937</v>
@@ -26262,10 +26255,10 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>2.0305832892202886</v>
+        <v>-0.47702213152351192</v>
       </c>
       <c r="C11">
-        <v>-680.01051493350417</v>
+        <v>-679.96220247443068</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -26274,10 +26267,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>75.373322963105011</v>
+        <v>68.918175951062267</v>
       </c>
       <c r="G11">
-        <v>455.99434699556832</v>
+        <v>456.26929977925329</v>
       </c>
       <c r="H11">
         <v>-1173.3346412524631</v>
@@ -26306,10 +26299,10 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>2.0097400394941758</v>
+        <v>-0.47212566090590258</v>
       </c>
       <c r="C12">
-        <v>-696.48492380078505</v>
+        <v>-696.43544089039244</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -26318,10 +26311,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>75.586446231400942</v>
+        <v>69.113046846045563</v>
       </c>
       <c r="G12">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H12">
         <v>-1178.5457373268721</v>
@@ -26347,10 +26340,10 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>1.9888967897680345</v>
+        <v>-0.46722919028832166</v>
       </c>
       <c r="C13">
-        <v>-817.67623215503761</v>
+        <v>-817.6181390099556</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -26359,10 +26352,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>75.799569499696645</v>
+        <v>69.307917741028632</v>
       </c>
       <c r="G13">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H13">
         <v>-1183.8335539550396</v>
@@ -26382,10 +26375,10 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>1.9680535400418933</v>
+        <v>-0.46233271967074074</v>
       </c>
       <c r="C14">
-        <v>-835.96322772532972</v>
+        <v>-835.90383535074204</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -26394,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>76.012692767992348</v>
+        <v>69.502788636011701</v>
       </c>
       <c r="G14">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H14">
         <v>-1189.1449769074391</v>
@@ -26417,10 +26410,10 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>1.9472102903157804</v>
+        <v>-0.45743624905315983</v>
       </c>
       <c r="C15">
-        <v>-854.1375918451696</v>
+        <v>-854.07690824316205</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -26429,10 +26422,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>76.225816036288279</v>
+        <v>69.697659530994997</v>
       </c>
       <c r="G15">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H15">
         <v>-1194.5331204135953</v>
@@ -26452,10 +26445,10 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>1.9691524171809078</v>
+        <v>-0.46259086653816439</v>
       </c>
       <c r="C16">
-        <v>-859.85618944066186</v>
+        <v>-859.7950995515364</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -26464,10 +26457,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>76.806290770357236</v>
+        <v>70.228421056227035</v>
       </c>
       <c r="G16">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H16">
         <v>-1199.997984473508</v>
@@ -26487,10 +26480,10 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>1.9910945440460637</v>
+        <v>-0.46774548402314053</v>
       </c>
       <c r="C17">
-        <v>-866.25057573887523</v>
+        <v>-866.18903155011822</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -26499,10 +26492,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.386765504425966</v>
+        <v>70.759182581458845</v>
       </c>
       <c r="G17">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H17">
         <v>-1205.5218643440039</v>
@@ -26516,10 +26509,10 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>2.0130366709111911</v>
+        <v>-0.4729001015081451</v>
       </c>
       <c r="C18">
-        <v>-873.2644350145722</v>
+        <v>-873.20239251471298</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -26528,10 +26521,10 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>77.967240238494924</v>
+        <v>71.289944106690882</v>
       </c>
       <c r="G18">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H18">
         <v>-1211.0575473766155</v>
@@ -26545,10 +26538,10 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>2.0349787977763469</v>
+        <v>-0.47805471899312124</v>
       </c>
       <c r="C19">
-        <v>-881.17934589388699</v>
+        <v>-881.11674106624093</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -26557,10 +26550,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>78.547714972563881</v>
+        <v>71.82070563192292</v>
       </c>
       <c r="G19">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H19">
         <v>-1216.6227383145188</v>
@@ -26574,10 +26567,10 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>2.0627743883631524</v>
+        <v>-0.484584424984007</v>
       </c>
       <c r="C20">
-        <v>-887.54372249410221</v>
+        <v>-887.48066549891269</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -26586,10 +26579,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>80.42363380420511</v>
+        <v>73.535966403592056</v>
       </c>
       <c r="G20">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H20">
         <v>-1222.2174371577128</v>
@@ -26603,10 +26596,10 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>2.0905699789499579</v>
+        <v>-0.49111413097489276</v>
       </c>
       <c r="C21">
-        <v>-893.79546764386509</v>
+        <v>-893.73196648321789</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -26615,10 +26608,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>82.299552635846567</v>
+        <v>75.25122717526142</v>
       </c>
       <c r="G21">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H21">
         <v>-1227.8239391630234</v>
@@ -26632,10 +26625,10 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>2.1183655695367065</v>
+        <v>-0.49764383696580694</v>
       </c>
       <c r="C22">
-        <v>-900.49773859542927</v>
+        <v>-900.43376126098178</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -26644,10 +26637,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.175471467487796</v>
+        <v>76.966487946930556</v>
       </c>
       <c r="G22">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H22">
         <v>-1233.400933263043</v>
@@ -26661,10 +26654,10 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>2.1461611601234836</v>
+        <v>-0.50417354295672112</v>
       </c>
       <c r="C23">
-        <v>-907.70685107403244</v>
+        <v>-907.64236155639969</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -26673,10 +26666,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>86.051390299129253</v>
+        <v>78.68174871859992</v>
       </c>
       <c r="G23">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H23">
         <v>-1238.9838289441207</v>
@@ -26690,10 +26683,10 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>2.1750851411117083</v>
+        <v>-0.51096832903442646</v>
       </c>
       <c r="C24">
-        <v>-915.03501956812443</v>
+        <v>-914.97000940877706</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -26702,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>87.452518457736005</v>
+        <v>79.962880996821241</v>
       </c>
       <c r="G24">
-        <v>455.77441870761095</v>
+        <v>456.04923888023313</v>
       </c>
       <c r="H24">
         <v>-1244.5667246251992</v>
@@ -26734,36 +26727,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="301" t="s">
+      <c r="D1" s="314" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301" t="s">
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301" t="s">
+      <c r="I1" s="314"/>
+      <c r="J1" s="314"/>
+      <c r="K1" s="314"/>
+      <c r="L1" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301" t="s">
+      <c r="M1" s="314"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="314"/>
+      <c r="P1" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="301"/>
-      <c r="R1" s="301"/>
-      <c r="S1" s="301"/>
-      <c r="T1" s="301" t="s">
+      <c r="Q1" s="314"/>
+      <c r="R1" s="314"/>
+      <c r="S1" s="314"/>
+      <c r="T1" s="314" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
+      <c r="U1" s="314"/>
+      <c r="V1" s="314"/>
+      <c r="W1" s="314"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="199" t="s">
@@ -26861,39 +26854,39 @@
       </c>
       <c r="K3" s="199">
         <f>main!M30</f>
-        <v>3488125</v>
+        <v>3494888</v>
       </c>
       <c r="L3" s="266">
         <f>main!N30</f>
-        <v>2847845.8319988288</v>
+        <v>2848130.6794988289</v>
       </c>
       <c r="M3" s="266">
         <f>main!O30</f>
-        <v>3232064.9561336781</v>
+        <v>3232347.6672774283</v>
       </c>
       <c r="N3" s="266">
         <f>main!P30</f>
-        <v>2658305.2157637766</v>
+        <v>2658585.8065739484</v>
       </c>
       <c r="O3" s="266">
         <f>main!Q30</f>
-        <v>2548767.4784838995</v>
+        <v>2549045.9648629948</v>
       </c>
       <c r="P3" s="266">
         <f>main!R30</f>
-        <v>2601999.1665078122</v>
+        <v>2602281.8301825942</v>
       </c>
       <c r="Q3" s="266">
         <f>main!S30</f>
-        <v>2656541.4105371395</v>
+        <v>2656828.3141670432</v>
       </c>
       <c r="R3" s="266">
         <f>main!T30</f>
-        <v>2712430.6137193376</v>
+        <v>2712721.8209036896</v>
       </c>
       <c r="S3" s="266">
         <f>main!U30</f>
-        <v>2769704.2727967203</v>
+        <v>2769999.8480888377</v>
       </c>
       <c r="T3" s="266">
         <f>main!V30</f>
@@ -27024,43 +27017,43 @@
       </c>
       <c r="K5" s="199">
         <f>main!M91</f>
-        <v>835999</v>
+        <v>828480</v>
       </c>
       <c r="L5" s="273">
         <f>main!N91</f>
-        <v>846655.9390002318</v>
+        <v>838999.96973237256</v>
       </c>
       <c r="M5" s="273">
         <f>main!O91</f>
-        <v>859704.14460568153</v>
+        <v>851909.41974748904</v>
       </c>
       <c r="N5" s="273">
         <f>main!P91</f>
-        <v>867211.47334407107</v>
+        <v>859338.63247661723</v>
       </c>
       <c r="O5" s="273">
         <f>main!Q91</f>
-        <v>867929.66513166018</v>
+        <v>860057.04756403249</v>
       </c>
       <c r="P5" s="273">
         <f>main!R91</f>
-        <v>869012.33925145073</v>
+        <v>861140.05830831092</v>
       </c>
       <c r="Q5" s="273">
         <f>main!S91</f>
-        <v>870466.73148570256</v>
+        <v>862594.90274145827</v>
       </c>
       <c r="R5" s="273">
         <f>main!T91</f>
-        <v>872014.07451017783</v>
+        <v>864142.72686504154</v>
       </c>
       <c r="S5" s="273">
         <f>main!U91</f>
-        <v>873408.51802630571</v>
+        <v>865537.60394083988</v>
       </c>
       <c r="T5" s="273">
         <f>main!V91</f>
-        <v>874637.8300734181</v>
+        <v>866767.29820503015</v>
       </c>
       <c r="U5" s="273"/>
       <c r="V5" s="273"/>
@@ -27101,43 +27094,43 @@
       </c>
       <c r="K6" s="199">
         <f>main!M94</f>
-        <v>691267</v>
+        <v>683703</v>
       </c>
       <c r="L6" s="35">
         <f>main!N94</f>
-        <v>703733.08900023182</v>
+        <v>696032.68223237258</v>
       </c>
       <c r="M6" s="35">
         <f>main!O94</f>
-        <v>716423.98748068151</v>
+        <v>708584.71402873902</v>
       </c>
       <c r="N6" s="35">
         <f>main!P94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="O6" s="35">
         <f>main!Q94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="P6" s="35">
         <f>main!R94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="Q6" s="35">
         <f>main!S94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="R6" s="35">
         <f>main!T94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="S6" s="35">
         <f>main!U94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
       <c r="T6" s="35">
         <f>main!V94</f>
-        <v>723573.11582625867</v>
+        <v>715655.61499357037</v>
       </c>
     </row>
   </sheetData>
@@ -27173,22 +27166,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="319" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="307"/>
+      <c r="B1" s="320"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="314" t="s">
+      <c r="J1" s="327" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
+      <c r="V1" s="314"/>
+      <c r="W1" s="314"/>
+      <c r="X1" s="314"/>
+      <c r="Y1" s="314"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="321" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -27197,20 +27190,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="314"/>
+      <c r="J2" s="327"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="309"/>
+      <c r="A3" s="322"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="314"/>
+      <c r="J3" s="327"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="309"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -27220,7 +27213,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="310"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -27235,42 +27228,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="311" t="s">
+      <c r="C7" s="324" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="312"/>
-      <c r="F7" s="313"/>
-      <c r="G7" s="311" t="s">
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="326"/>
+      <c r="G7" s="324" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="312"/>
-      <c r="I7" s="312"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="311" t="s">
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="324" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="312"/>
-      <c r="M7" s="312"/>
-      <c r="N7" s="312"/>
-      <c r="O7" s="311" t="s">
+      <c r="L7" s="325"/>
+      <c r="M7" s="325"/>
+      <c r="N7" s="325"/>
+      <c r="O7" s="324" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="312"/>
-      <c r="R7" s="312"/>
-      <c r="S7" s="311" t="s">
+      <c r="P7" s="325"/>
+      <c r="Q7" s="325"/>
+      <c r="R7" s="325"/>
+      <c r="S7" s="324" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="312"/>
-      <c r="U7" s="312"/>
-      <c r="V7" s="312"/>
-      <c r="W7" s="311" t="s">
+      <c r="T7" s="325"/>
+      <c r="U7" s="325"/>
+      <c r="V7" s="325"/>
+      <c r="W7" s="324" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="312"/>
-      <c r="Y7" s="312"/>
-      <c r="Z7" s="312"/>
+      <c r="X7" s="325"/>
+      <c r="Y7" s="325"/>
+      <c r="Z7" s="325"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -28287,91 +28280,91 @@
       </c>
       <c r="F24" s="102">
         <f>main_nipas!K6/1000</f>
-        <v>691.26700000000005</v>
+        <v>683.70299999999997</v>
       </c>
       <c r="G24" s="149">
         <f>main_nipas!L6/1000</f>
-        <v>703.73308900023187</v>
+        <v>696.03268223237262</v>
       </c>
       <c r="H24" s="102">
         <f>main_nipas!M6/1000</f>
-        <v>716.42398748068149</v>
+        <v>708.58471402873897</v>
       </c>
       <c r="I24" s="102">
         <f>main_nipas!N6/1000</f>
-        <v>723.57311582625869</v>
+        <v>715.65561499357034</v>
       </c>
       <c r="J24" s="102">
         <f>main_nipas!O6/1000</f>
-        <v>723.57311582625869</v>
+        <v>715.65561499357034</v>
       </c>
       <c r="K24" s="149">
         <f>main_nipas!P6/1000</f>
-        <v>723.57311582625869</v>
+        <v>715.65561499357034</v>
       </c>
       <c r="L24" s="102">
         <f>main_nipas!Q6/1000</f>
-        <v>723.57311582625869</v>
+        <v>715.65561499357034</v>
       </c>
       <c r="M24" s="102">
         <f>main_nipas!R6/1000</f>
-        <v>723.57311582625869</v>
+        <v>715.65561499357034</v>
       </c>
       <c r="N24" s="102">
         <f>M24*(1+N26)</f>
-        <v>716.14922510463464</v>
+        <v>708.31295816481031</v>
       </c>
       <c r="O24" s="149">
         <f t="shared" ref="O24:AA24" si="0">N24*(1+O26)</f>
-        <v>708.79819586132737</v>
+        <v>701.04236554757711</v>
       </c>
       <c r="P24" s="102">
         <f t="shared" si="0"/>
-        <v>701.44716661801999</v>
+        <v>693.77177293034379</v>
       </c>
       <c r="Q24" s="102">
         <f t="shared" si="0"/>
-        <v>694.09613737471261</v>
+        <v>686.50118031311047</v>
       </c>
       <c r="R24" s="102">
         <f t="shared" si="0"/>
-        <v>686.74510813140535</v>
+        <v>679.23058769587726</v>
       </c>
       <c r="S24" s="149">
         <f t="shared" si="0"/>
-        <v>694.48369104747303</v>
+        <v>686.88449328585079</v>
       </c>
       <c r="T24" s="102">
         <f t="shared" si="0"/>
-        <v>702.22227396354072</v>
+        <v>694.53839887582433</v>
       </c>
       <c r="U24" s="102">
         <f t="shared" si="0"/>
-        <v>709.96085687960851</v>
+        <v>702.19230446579786</v>
       </c>
       <c r="V24" s="102">
         <f t="shared" si="0"/>
-        <v>717.69943979567631</v>
+        <v>709.84621005577139</v>
       </c>
       <c r="W24" s="149">
         <f t="shared" si="0"/>
-        <v>727.50243126404871</v>
+        <v>719.54193497233848</v>
       </c>
       <c r="X24" s="102">
         <f t="shared" si="0"/>
-        <v>737.30542273242099</v>
+        <v>729.23765988890557</v>
       </c>
       <c r="Y24" s="102">
         <f t="shared" si="0"/>
-        <v>747.1084142007935</v>
+        <v>738.93338480547277</v>
       </c>
       <c r="Z24" s="102">
         <f t="shared" si="0"/>
-        <v>756.9114056691659</v>
+        <v>748.62910972203997</v>
       </c>
       <c r="AA24" s="149">
         <f t="shared" si="0"/>
-        <v>767.11235959291537</v>
+        <v>758.71844249870844</v>
       </c>
       <c r="AB24" s="95"/>
     </row>
@@ -28557,91 +28550,91 @@
       <c r="E27" s="225"/>
       <c r="F27" s="225">
         <f t="shared" ref="F27:AA27" si="3">F24-F25</f>
-        <v>-7.7329999999999472</v>
+        <v>-15.297000000000025</v>
       </c>
       <c r="G27" s="150">
         <f t="shared" si="3"/>
-        <v>-21.942068749787381</v>
+        <v>-29.642475517646631</v>
       </c>
       <c r="H27" s="225">
         <f t="shared" si="3"/>
-        <v>-35.926328019357129</v>
+        <v>-43.765601471299647</v>
       </c>
       <c r="I27" s="225">
         <f t="shared" si="3"/>
-        <v>-55.452357423799299</v>
+        <v>-63.369858256487646</v>
       </c>
       <c r="J27" s="225">
         <f t="shared" si="3"/>
-        <v>-82.127515173818438</v>
+        <v>-90.045016006506785</v>
       </c>
       <c r="K27" s="150">
         <f t="shared" si="3"/>
-        <v>-74.107839317399907</v>
+        <v>-82.025340150088255</v>
       </c>
       <c r="L27" s="225">
         <f t="shared" si="3"/>
-        <v>-66.088163460981491</v>
+        <v>-74.005664293669838</v>
       </c>
       <c r="M27" s="249">
         <f t="shared" si="3"/>
-        <v>-58.068487604563074</v>
+        <v>-65.985988437251422</v>
       </c>
       <c r="N27" s="225">
         <f t="shared" si="3"/>
-        <v>-57.472702469768592</v>
+        <v>-65.308969409592919</v>
       </c>
       <c r="O27" s="150">
         <f t="shared" si="3"/>
-        <v>-56.882764644330791</v>
+        <v>-64.638594958081057</v>
       </c>
       <c r="P27" s="225">
         <f t="shared" si="3"/>
-        <v>-56.292826818892991</v>
+        <v>-63.968220506569196</v>
       </c>
       <c r="Q27" s="225">
         <f t="shared" si="3"/>
-        <v>-55.70288899345519</v>
+        <v>-63.297846055057335</v>
       </c>
       <c r="R27" s="225">
         <f t="shared" si="3"/>
-        <v>-55.112951168017389</v>
+        <v>-62.627471603545473</v>
       </c>
       <c r="S27" s="150">
         <f t="shared" si="3"/>
-        <v>-55.733991110367128</v>
+        <v>-63.333188871989364</v>
       </c>
       <c r="T27" s="225">
         <f t="shared" si="3"/>
-        <v>-56.355031052716868</v>
+        <v>-64.038906140433255</v>
       </c>
       <c r="U27" s="225">
         <f t="shared" si="3"/>
-        <v>-56.976070995066607</v>
+        <v>-64.74462340887726</v>
       </c>
       <c r="V27" s="225">
         <f t="shared" si="3"/>
-        <v>-57.597110937416346</v>
+        <v>-65.450340677321265</v>
       </c>
       <c r="W27" s="150">
         <f t="shared" si="3"/>
-        <v>-58.383824644874608</v>
+        <v>-66.344320936584836</v>
       </c>
       <c r="X27" s="225">
         <f t="shared" si="3"/>
-        <v>-59.170538352332983</v>
+        <v>-67.238301195848408</v>
       </c>
       <c r="Y27" s="225">
         <f t="shared" si="3"/>
-        <v>-59.957252059791244</v>
+        <v>-68.132281455111979</v>
       </c>
       <c r="Z27" s="225">
         <f t="shared" si="3"/>
-        <v>-60.74396576724962</v>
+        <v>-69.026261714375551</v>
       </c>
       <c r="AA27" s="150">
         <f t="shared" si="3"/>
-        <v>-61.562616921527933</v>
+        <v>-69.95653401573486</v>
       </c>
       <c r="AB27" s="254"/>
     </row>
@@ -28729,91 +28722,91 @@
       </c>
       <c r="F31" s="104">
         <f>main_nipas!K5/1000</f>
-        <v>835.99900000000002</v>
+        <v>828.48</v>
       </c>
       <c r="G31" s="149">
         <f>main_nipas!L5/1000</f>
-        <v>846.6559390002318</v>
+        <v>838.99996973237251</v>
       </c>
       <c r="H31" s="104">
         <f>main_nipas!M5/1000</f>
-        <v>859.70414460568156</v>
+        <v>851.90941974748898</v>
       </c>
       <c r="I31" s="104">
         <f>main_nipas!N5/1000</f>
-        <v>867.21147334407112</v>
+        <v>859.33863247661725</v>
       </c>
       <c r="J31" s="104">
         <f>main_nipas!O5/1000</f>
-        <v>867.92966513166016</v>
+        <v>860.05704756403247</v>
       </c>
       <c r="K31" s="149">
         <f>main_nipas!P5/1000</f>
-        <v>869.01233925145073</v>
+        <v>861.14005830831093</v>
       </c>
       <c r="L31" s="104">
         <f>main_nipas!Q5/1000</f>
-        <v>870.46673148570255</v>
+        <v>862.59490274145821</v>
       </c>
       <c r="M31" s="104">
         <f>L31*(1 + M33)</f>
-        <v>1058.4245004225857</v>
+        <v>1048.8529268004456</v>
       </c>
       <c r="N31" s="104">
         <f t="shared" ref="N31:AA31" si="4">M31*(1 + N33)</f>
-        <v>1236.4814356799634</v>
+        <v>1225.2996526720162</v>
       </c>
       <c r="O31" s="149">
         <f t="shared" si="4"/>
-        <v>1402.9841404825713</v>
+        <v>1390.2966356242066</v>
       </c>
       <c r="P31" s="104">
         <f t="shared" si="4"/>
-        <v>1566.7146118549165</v>
+        <v>1552.546455083919</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" si="4"/>
-        <v>1739.1578168652295</v>
+        <v>1723.4302169485613</v>
       </c>
       <c r="R31" s="104">
         <f t="shared" si="4"/>
-        <v>1910.8089551811815</v>
+        <v>1893.5290749582098</v>
       </c>
       <c r="S31" s="149">
         <f t="shared" si="4"/>
-        <v>1904.8707004367354</v>
+        <v>1887.6445212027816</v>
       </c>
       <c r="T31" s="104">
         <f t="shared" si="4"/>
-        <v>1903.6848458584566</v>
+        <v>1886.4693905773181</v>
       </c>
       <c r="U31" s="104">
         <f t="shared" si="4"/>
-        <v>1906.8553580991568</v>
+        <v>1889.6112311543147</v>
       </c>
       <c r="V31" s="104">
         <f t="shared" si="4"/>
-        <v>1916.3624038947451</v>
+        <v>1899.0323025712628</v>
       </c>
       <c r="W31" s="149">
         <f t="shared" si="4"/>
-        <v>1902.6531974396573</v>
+        <v>1885.4470715899415</v>
       </c>
       <c r="X31" s="104">
         <f t="shared" si="4"/>
-        <v>1888.1519242902086</v>
+        <v>1871.0769367536266</v>
       </c>
       <c r="Y31" s="104">
         <f t="shared" si="4"/>
-        <v>1876.818917918202</v>
+        <v>1859.8464173372852</v>
       </c>
       <c r="Z31" s="104">
         <f t="shared" si="4"/>
-        <v>1869.0502116708174</v>
+        <v>1852.1479652684141</v>
       </c>
       <c r="AA31" s="149">
         <f t="shared" si="4"/>
-        <v>1859.7452693304276</v>
+        <v>1842.9271696391268</v>
       </c>
       <c r="AB31" s="95"/>
     </row>
@@ -29002,91 +28995,91 @@
       <c r="E34" s="225"/>
       <c r="F34" s="225">
         <f t="shared" ref="F34:AA34" si="7">F31-F32</f>
-        <v>691.399</v>
+        <v>683.88</v>
       </c>
       <c r="G34" s="150">
         <f t="shared" si="7"/>
-        <v>726.6220967502511</v>
+        <v>718.96612748239181</v>
       </c>
       <c r="H34" s="225">
         <f t="shared" si="7"/>
-        <v>764.23118760572027</v>
+        <v>756.43646274752768</v>
       </c>
       <c r="I34" s="225">
         <f t="shared" si="7"/>
-        <v>796.29411591287919</v>
+        <v>788.42127504542532</v>
       </c>
       <c r="J34" s="225">
         <f t="shared" si="7"/>
-        <v>819.43775129708126</v>
+        <v>811.56513372945358</v>
       </c>
       <c r="K34" s="150">
         <f t="shared" si="7"/>
-        <v>806.09430547419333</v>
+        <v>798.22202453105353</v>
       </c>
       <c r="L34" s="249">
         <f t="shared" si="7"/>
-        <v>790.92303196281762</v>
+        <v>783.05120321857328</v>
       </c>
       <c r="M34" s="225">
         <f t="shared" si="7"/>
-        <v>961.70512289327155</v>
+        <v>952.13354927113153</v>
       </c>
       <c r="N34" s="225">
         <f t="shared" si="7"/>
-        <v>1123.4911234396754</v>
+        <v>1112.3093404317283</v>
       </c>
       <c r="O34" s="150">
         <f t="shared" si="7"/>
-        <v>1274.778725078075</v>
+        <v>1262.0912202197103</v>
       </c>
       <c r="P34" s="150">
         <f t="shared" si="7"/>
-        <v>1423.5474214089395</v>
+        <v>1409.379264637942</v>
       </c>
       <c r="Q34" s="150">
         <f t="shared" si="7"/>
-        <v>1580.2326772777706</v>
+        <v>1564.5050773611024</v>
       </c>
       <c r="R34" s="150">
         <f t="shared" si="7"/>
-        <v>1736.1982459158774</v>
+        <v>1718.9183656929056</v>
       </c>
       <c r="S34" s="150">
         <f t="shared" si="7"/>
-        <v>1730.8026319571122</v>
+        <v>1713.5764527231584</v>
       </c>
       <c r="T34" s="150">
         <f t="shared" si="7"/>
-        <v>1729.7251413826953</v>
+        <v>1712.5096861015568</v>
       </c>
       <c r="U34" s="150">
         <f t="shared" si="7"/>
-        <v>1732.6059305772574</v>
+        <v>1715.3618036324156</v>
       </c>
       <c r="V34" s="150">
         <f t="shared" si="7"/>
-        <v>1741.244217617616</v>
+        <v>1723.9141162941337</v>
       </c>
       <c r="W34" s="150">
         <f t="shared" si="7"/>
-        <v>1728.7877655292568</v>
+        <v>1711.581639679541</v>
       </c>
       <c r="X34" s="150">
         <f t="shared" si="7"/>
-        <v>1715.6116262101732</v>
+        <v>1698.5366386735911</v>
       </c>
       <c r="Y34" s="150">
         <f t="shared" si="7"/>
-        <v>1705.3142358139858</v>
+        <v>1688.3417352330689</v>
       </c>
       <c r="Z34" s="150">
         <f t="shared" si="7"/>
-        <v>1698.2554379560565</v>
+        <v>1681.3531915536532</v>
       </c>
       <c r="AA34" s="150">
         <f t="shared" si="7"/>
-        <v>1689.8007860527734</v>
+        <v>1672.9826863614726</v>
       </c>
       <c r="AB34" s="254"/>
     </row>
@@ -29638,91 +29631,91 @@
       </c>
       <c r="F45" s="102">
         <f>main_nipas!K3/1000</f>
-        <v>3488.125</v>
+        <v>3494.8879999999999</v>
       </c>
       <c r="G45" s="149">
         <f>main_nipas!L3/1000</f>
-        <v>2847.845831998829</v>
+        <v>2848.1306794988291</v>
       </c>
       <c r="H45" s="102">
         <f>main_nipas!M3/1000</f>
-        <v>3232.0649561336782</v>
+        <v>3232.3476672774282</v>
       </c>
       <c r="I45" s="102">
         <f>main_nipas!N3/1000</f>
-        <v>2658.3052157637767</v>
+        <v>2658.5858065739485</v>
       </c>
       <c r="J45" s="102">
         <f>main_nipas!O3/1000</f>
-        <v>2548.7674784838996</v>
+        <v>2549.0459648629949</v>
       </c>
       <c r="K45" s="274">
         <f>main_nipas!P3/1000</f>
-        <v>2601.9991665078123</v>
+        <v>2602.2818301825941</v>
       </c>
       <c r="L45" s="104">
         <f>K45*(1+L47)</f>
-        <v>2628.3452457207918</v>
+        <v>2628.6307714562777</v>
       </c>
       <c r="M45" s="104">
         <f t="shared" ref="M45:AA45" si="12">L45*(1+M47)</f>
-        <v>2627.5434641687648</v>
+        <v>2627.8289028040999</v>
       </c>
       <c r="N45" s="104">
         <f t="shared" si="12"/>
-        <v>2589.1506036815799</v>
+        <v>2589.4318715749832</v>
       </c>
       <c r="O45" s="104">
         <f t="shared" si="12"/>
-        <v>2592.0573222065595</v>
+        <v>2592.3389058662974</v>
       </c>
       <c r="P45" s="104">
         <f t="shared" si="12"/>
-        <v>2596.533342603233</v>
+        <v>2596.8154125076976</v>
       </c>
       <c r="Q45" s="104">
         <f t="shared" si="12"/>
-        <v>2602.0826071805495</v>
+        <v>2602.3652799197644</v>
       </c>
       <c r="R45" s="104">
         <f t="shared" si="12"/>
-        <v>2610.7069341322085</v>
+        <v>2610.9905437602506</v>
       </c>
       <c r="S45" s="104">
         <f t="shared" si="12"/>
-        <v>2637.0959349724048</v>
+        <v>2637.3824113238675</v>
       </c>
       <c r="T45" s="104">
         <f t="shared" si="12"/>
-        <v>2662.4525493247411</v>
+        <v>2662.7417802481054</v>
       </c>
       <c r="U45" s="104">
         <f t="shared" si="12"/>
-        <v>2682.9955450284483</v>
+        <v>2683.2870076045861</v>
       </c>
       <c r="V45" s="104">
         <f t="shared" si="12"/>
-        <v>2700.5879401482684</v>
+        <v>2700.8813138437936</v>
       </c>
       <c r="W45" s="104">
         <f t="shared" si="12"/>
-        <v>2762.916852497975</v>
+        <v>2763.2169971869871</v>
       </c>
       <c r="X45" s="104">
         <f t="shared" si="12"/>
-        <v>2815.5335753799473</v>
+        <v>2815.8394359955578</v>
       </c>
       <c r="Y45" s="104">
         <f t="shared" si="12"/>
-        <v>2859.5466083828628</v>
+        <v>2859.8572502781167</v>
       </c>
       <c r="Z45" s="104">
         <f t="shared" si="12"/>
-        <v>2894.0300700396974</v>
+        <v>2894.3444579861093</v>
       </c>
       <c r="AA45" s="104">
         <f t="shared" si="12"/>
-        <v>2912.6078528073549</v>
+        <v>2912.9242589190353</v>
       </c>
       <c r="AB45" s="95"/>
     </row>
@@ -29914,91 +29907,91 @@
       <c r="E48" s="225"/>
       <c r="F48" s="225">
         <f t="shared" ref="F48:AA48" si="30">F45-F46</f>
-        <v>817.02500000000009</v>
+        <v>823.78800000000001</v>
       </c>
       <c r="G48" s="150">
         <f t="shared" si="30"/>
-        <v>513.85424509879022</v>
+        <v>514.13909259879028</v>
       </c>
       <c r="H48" s="225">
         <f t="shared" si="30"/>
-        <v>1163.501858301976</v>
+        <v>1163.784569445726</v>
       </c>
       <c r="I48" s="225">
         <f t="shared" si="30"/>
-        <v>803.5651155471096</v>
+        <v>803.84570635728141</v>
       </c>
       <c r="J48" s="225">
         <f t="shared" si="30"/>
-        <v>843.28782539808162</v>
+        <v>843.56631177717691</v>
       </c>
       <c r="K48" s="275">
         <f t="shared" si="30"/>
-        <v>850.04005809445835</v>
+        <v>850.32272176924016</v>
       </c>
       <c r="L48" s="225">
         <f t="shared" si="30"/>
-        <v>858.64698733295586</v>
+        <v>858.93251306844172</v>
       </c>
       <c r="M48" s="225">
         <f t="shared" si="30"/>
-        <v>858.38505548999569</v>
+        <v>858.67049412533083</v>
       </c>
       <c r="N48" s="225">
         <f t="shared" si="30"/>
-        <v>845.84259591544492</v>
+        <v>846.12386380884823</v>
       </c>
       <c r="O48" s="150">
         <f t="shared" si="30"/>
-        <v>846.79218391518066</v>
+        <v>847.07376757491852</v>
       </c>
       <c r="P48" s="225">
         <f t="shared" si="30"/>
-        <v>848.25444289166103</v>
+        <v>848.53651279612563</v>
       </c>
       <c r="Q48" s="225">
         <f t="shared" si="30"/>
-        <v>850.06731710176859</v>
+        <v>850.34998984098343</v>
       </c>
       <c r="R48" s="225">
         <f t="shared" si="30"/>
-        <v>852.88477510766552</v>
+        <v>853.1683847357076</v>
       </c>
       <c r="S48" s="150">
         <f t="shared" si="30"/>
-        <v>861.50572629627095</v>
+        <v>861.79220264773357</v>
       </c>
       <c r="T48" s="225">
         <f t="shared" si="30"/>
-        <v>869.78940994020809</v>
+        <v>870.07864086357245</v>
       </c>
       <c r="U48" s="225">
         <f t="shared" si="30"/>
-        <v>876.50054554939038</v>
+        <v>876.79200812552813</v>
       </c>
       <c r="V48" s="225">
         <f t="shared" si="30"/>
-        <v>882.24775744790236</v>
+        <v>882.54113114342749</v>
       </c>
       <c r="W48" s="150">
         <f t="shared" si="30"/>
-        <v>902.60982095533109</v>
+        <v>902.90996564434317</v>
       </c>
       <c r="X48" s="225">
         <f t="shared" si="30"/>
-        <v>919.79903559883928</v>
+        <v>920.10489621444981</v>
       </c>
       <c r="Y48" s="225">
         <f t="shared" si="30"/>
-        <v>934.17753410578689</v>
+        <v>934.48817600104076</v>
       </c>
       <c r="Z48" s="225">
         <f t="shared" si="30"/>
-        <v>945.44284276820849</v>
+        <v>945.75723071462039</v>
       </c>
       <c r="AA48" s="150">
         <f t="shared" si="30"/>
-        <v>951.51196828767593</v>
+        <v>951.82837439935633</v>
       </c>
       <c r="AB48" s="254"/>
     </row>
@@ -30131,19 +30124,19 @@
       </c>
       <c r="B2" s="272">
         <f t="array" ref="B2:B23">TRANSPOSE('add-ons calculations nipas'!F27:AA27)</f>
-        <v>-7.7329999999999472</v>
+        <v>-15.297000000000025</v>
       </c>
       <c r="C2" s="270">
         <f t="array" ref="C2:C23">TRANSPOSE('add-ons calculations nipas'!F34:AA34)</f>
-        <v>691.399</v>
+        <v>683.88</v>
       </c>
       <c r="D2" s="270">
         <f t="array" ref="D2:D23">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
-        <v>4.5999999999821739E-2</v>
+        <v>34.448999999999842</v>
       </c>
       <c r="E2" s="270">
         <f t="array" ref="E2:E23">TRANSPOSE('add-ons calculations'!F46:AA46)</f>
-        <v>0</v>
+        <v>11.100000000000009</v>
       </c>
       <c r="F2" s="270">
         <f t="array" ref="F2:F23">TRANSPOSE('add-ons calculations nipas'!F41:AA41)</f>
@@ -30151,15 +30144,15 @@
       </c>
       <c r="G2" s="270">
         <f t="array" ref="G2:G23">TRANSPOSE('add-ons calculations nipas'!F48:AA48)</f>
-        <v>817.02500000000009</v>
+        <v>823.78800000000001</v>
       </c>
       <c r="H2" s="270">
         <f t="array" ref="H2:H23">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
-        <v>0.60799999999994725</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="I2" s="270">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>44.822614367357801</v>
+        <v>44.85238194444446</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -30167,22 +30160,22 @@
         <v>44196</v>
       </c>
       <c r="B3" s="270">
-        <v>-21.942068749787381</v>
+        <v>-29.642475517646631</v>
       </c>
       <c r="C3" s="270">
-        <v>726.6220967502511</v>
+        <v>718.96612748239181</v>
       </c>
       <c r="D3" s="270">
-        <v>9.1220108456809612E-2</v>
+        <v>34.000298981465221</v>
       </c>
       <c r="E3" s="270">
-        <v>1.9071502101439819E-3</v>
+        <v>11.269255800265142</v>
       </c>
       <c r="F3" s="270">
         <v>23.142985628403267</v>
       </c>
       <c r="G3" s="270">
-        <v>513.85424509879022</v>
+        <v>514.13909259879028</v>
       </c>
       <c r="H3" s="270">
         <v>-833.73947605477315</v>
@@ -30196,22 +30189,22 @@
         <v>44286</v>
       </c>
       <c r="B4" s="270">
-        <v>-35.926328019357129</v>
+        <v>-43.765601471299647</v>
       </c>
       <c r="C4" s="270">
-        <v>764.23118760572027</v>
+        <v>756.43646274752768</v>
       </c>
       <c r="D4" s="270">
-        <v>9.2732986063538192E-2</v>
+        <v>34.564190998639788</v>
       </c>
       <c r="E4" s="270">
-        <v>1.9387801313541786E-3</v>
+        <v>11.456155432787241</v>
       </c>
       <c r="F4" s="270">
         <v>46.379353230327069</v>
       </c>
       <c r="G4" s="270">
-        <v>1163.501858301976</v>
+        <v>1163.784569445726</v>
       </c>
       <c r="H4" s="270">
         <v>-643.37710701026424</v>
@@ -30225,22 +30218,22 @@
         <v>44377</v>
       </c>
       <c r="B5" s="270">
-        <v>-55.452357423799299</v>
+        <v>-63.369858256487646</v>
       </c>
       <c r="C5" s="270">
-        <v>796.29411591287919</v>
+        <v>788.42127504542532</v>
       </c>
       <c r="D5" s="270">
-        <v>9.4207574237998415E-2</v>
+        <v>35.113811469760549</v>
       </c>
       <c r="E5" s="270">
-        <v>1.969609530561911E-3</v>
+        <v>11.638324821519618</v>
       </c>
       <c r="F5" s="270">
         <v>69.743650491218432</v>
       </c>
       <c r="G5" s="270">
-        <v>803.5651155471096</v>
+        <v>803.84570635728141</v>
       </c>
       <c r="H5" s="270">
         <v>-647.78916812809337</v>
@@ -30254,22 +30247,22 @@
         <v>44469</v>
       </c>
       <c r="B6" s="270">
-        <v>-82.127515173818438</v>
+        <v>-90.045016006506785</v>
       </c>
       <c r="C6" s="270">
-        <v>819.43775129708126</v>
+        <v>811.56513372945358</v>
       </c>
       <c r="D6" s="270">
-        <v>9.5783673922369417E-2</v>
+        <v>35.701268132738733</v>
       </c>
       <c r="E6" s="270">
-        <v>2.0025612436285201E-3</v>
+        <v>11.833034856577939</v>
       </c>
       <c r="F6" s="270">
         <v>93.23744404962531</v>
       </c>
       <c r="G6" s="270">
-        <v>843.28782539808162</v>
+        <v>843.56631177717691</v>
       </c>
       <c r="H6" s="270">
         <v>-652.5536906191013</v>
@@ -30283,22 +30276,22 @@
         <v>44561</v>
       </c>
       <c r="B7" s="270">
-        <v>-74.107839317399907</v>
+        <v>-82.025340150088255</v>
       </c>
       <c r="C7" s="270">
-        <v>806.09430547419333</v>
+        <v>798.22202453105353</v>
       </c>
       <c r="D7" s="270">
-        <v>9.6839304535023984E-2</v>
+        <v>36.094731338371048</v>
       </c>
       <c r="E7" s="270">
-        <v>2.024631444953684E-3</v>
+        <v>11.96344657779953</v>
       </c>
       <c r="F7" s="270">
         <v>97.945155839323775</v>
       </c>
       <c r="G7" s="270">
-        <v>850.04005809445835</v>
+        <v>850.32272176924016</v>
       </c>
       <c r="H7" s="270">
         <v>-1112.356223009233</v>
@@ -30312,10 +30305,10 @@
         <v>44651</v>
       </c>
       <c r="B8" s="270">
-        <v>-66.088163460981491</v>
+        <v>-74.005664293669838</v>
       </c>
       <c r="C8" s="270">
-        <v>790.92303196281762</v>
+        <v>783.05120321857328</v>
       </c>
       <c r="D8" s="270">
         <v>0</v>
@@ -30327,7 +30320,7 @@
         <v>102.65286762902224</v>
       </c>
       <c r="G8" s="270">
-        <v>858.64698733295586</v>
+        <v>858.93251306844172</v>
       </c>
       <c r="H8" s="270">
         <v>-1163.1072012785651</v>
@@ -30341,10 +30334,10 @@
         <v>44742</v>
       </c>
       <c r="B9" s="270">
-        <v>-58.068487604563074</v>
+        <v>-65.985988437251422</v>
       </c>
       <c r="C9" s="270">
-        <v>961.70512289327155</v>
+        <v>952.13354927113153</v>
       </c>
       <c r="D9" s="270">
         <v>0</v>
@@ -30356,7 +30349,7 @@
         <v>107.3605794187207</v>
       </c>
       <c r="G9" s="270">
-        <v>858.38505548999569</v>
+        <v>858.67049412533083</v>
       </c>
       <c r="H9" s="270">
         <v>-1168.1884625696937</v>
@@ -30370,10 +30363,10 @@
         <v>44834</v>
       </c>
       <c r="B10" s="270">
-        <v>-57.472702469768592</v>
+        <v>-65.308969409592919</v>
       </c>
       <c r="C10" s="270">
-        <v>1123.4911234396754</v>
+        <v>1112.3093404317283</v>
       </c>
       <c r="D10" s="270">
         <v>0</v>
@@ -30385,7 +30378,7 @@
         <v>112.06829120841905</v>
       </c>
       <c r="G10" s="270">
-        <v>845.84259591544492</v>
+        <v>846.12386380884823</v>
       </c>
       <c r="H10" s="270">
         <v>-1173.3346412524631</v>
@@ -30399,10 +30392,10 @@
         <v>44926</v>
       </c>
       <c r="B11" s="270">
-        <v>-56.882764644330791</v>
+        <v>-64.638594958081057</v>
       </c>
       <c r="C11" s="270">
-        <v>1274.778725078075</v>
+        <v>1262.0912202197103</v>
       </c>
       <c r="D11" s="270">
         <v>0</v>
@@ -30414,7 +30407,7 @@
         <v>113.21479904544935</v>
       </c>
       <c r="G11" s="270">
-        <v>846.79218391518066</v>
+        <v>847.07376757491852</v>
       </c>
       <c r="H11" s="270">
         <v>-1178.5457373268721</v>
@@ -30428,10 +30421,10 @@
         <v>45016</v>
       </c>
       <c r="B12" s="270">
-        <v>-56.292826818892991</v>
+        <v>-63.968220506569196</v>
       </c>
       <c r="C12" s="270">
-        <v>1423.5474214089395</v>
+        <v>1409.379264637942</v>
       </c>
       <c r="D12" s="270">
         <v>0</v>
@@ -30443,7 +30436,7 @@
         <v>114.36130688247965</v>
       </c>
       <c r="G12" s="270">
-        <v>848.25444289166103</v>
+        <v>848.53651279612563</v>
       </c>
       <c r="H12" s="270">
         <v>-1183.8335539550396</v>
@@ -30457,10 +30450,10 @@
         <v>45107</v>
       </c>
       <c r="B13" s="270">
-        <v>-55.70288899345519</v>
+        <v>-63.297846055057335</v>
       </c>
       <c r="C13" s="270">
-        <v>1580.2326772777706</v>
+        <v>1564.5050773611024</v>
       </c>
       <c r="D13" s="270">
         <v>0</v>
@@ -30472,7 +30465,7 @@
         <v>115.50781471950995</v>
       </c>
       <c r="G13" s="270">
-        <v>850.06731710176859</v>
+        <v>850.34998984098343</v>
       </c>
       <c r="H13" s="270">
         <v>-1189.1449769074391</v>
@@ -30486,10 +30479,10 @@
         <v>45199</v>
       </c>
       <c r="B14" s="270">
-        <v>-55.112951168017389</v>
+        <v>-62.627471603545473</v>
       </c>
       <c r="C14" s="270">
-        <v>1736.1982459158774</v>
+        <v>1718.9183656929056</v>
       </c>
       <c r="D14" s="270">
         <v>0</v>
@@ -30501,7 +30494,7 @@
         <v>116.65432255654025</v>
       </c>
       <c r="G14" s="270">
-        <v>852.88477510766552</v>
+        <v>853.1683847357076</v>
       </c>
       <c r="H14" s="270">
         <v>-1194.5331204135953</v>
@@ -30515,10 +30508,10 @@
         <v>45291</v>
       </c>
       <c r="B15" s="270">
-        <v>-55.733991110367128</v>
+        <v>-63.333188871989364</v>
       </c>
       <c r="C15" s="270">
-        <v>1730.8026319571122</v>
+        <v>1713.5764527231584</v>
       </c>
       <c r="D15" s="270">
         <v>0</v>
@@ -30530,7 +30523,7 @@
         <v>117.32067194419665</v>
       </c>
       <c r="G15" s="270">
-        <v>861.50572629627095</v>
+        <v>861.79220264773357</v>
       </c>
       <c r="H15" s="270">
         <v>-1199.997984473508</v>
@@ -30544,10 +30537,10 @@
         <v>45382</v>
       </c>
       <c r="B16" s="270">
-        <v>-56.355031052716868</v>
+        <v>-64.038906140433255</v>
       </c>
       <c r="C16" s="270">
-        <v>1729.7251413826953</v>
+        <v>1712.5096861015568</v>
       </c>
       <c r="D16" s="270">
         <v>0</v>
@@ -30559,7 +30552,7 @@
         <v>117.98702133185293</v>
       </c>
       <c r="G16" s="270">
-        <v>869.78940994020809</v>
+        <v>870.07864086357245</v>
       </c>
       <c r="H16" s="270">
         <v>-1205.5218643440039</v>
@@ -30573,10 +30566,10 @@
         <v>45473</v>
       </c>
       <c r="B17" s="270">
-        <v>-56.976070995066607</v>
+        <v>-64.74462340887726</v>
       </c>
       <c r="C17" s="270">
-        <v>1732.6059305772574</v>
+        <v>1715.3618036324156</v>
       </c>
       <c r="D17" s="270">
         <v>0</v>
@@ -30588,7 +30581,7 @@
         <v>118.65337071950921</v>
       </c>
       <c r="G17" s="270">
-        <v>876.50054554939038</v>
+        <v>876.79200812552813</v>
       </c>
       <c r="H17" s="270">
         <v>-1211.0575473766155</v>
@@ -30602,10 +30595,10 @@
         <v>45565</v>
       </c>
       <c r="B18" s="270">
-        <v>-57.597110937416346</v>
+        <v>-65.450340677321265</v>
       </c>
       <c r="C18" s="270">
-        <v>1741.244217617616</v>
+        <v>1723.9141162941337</v>
       </c>
       <c r="D18" s="270">
         <v>0</v>
@@ -30617,7 +30610,7 @@
         <v>119.31972010716561</v>
       </c>
       <c r="G18" s="270">
-        <v>882.24775744790236</v>
+        <v>882.54113114342749</v>
       </c>
       <c r="H18" s="270">
         <v>-1216.6227383145188</v>
@@ -30631,10 +30624,10 @@
         <v>45657</v>
       </c>
       <c r="B19" s="270">
-        <v>-58.383824644874608</v>
+        <v>-66.344320936584836</v>
       </c>
       <c r="C19" s="270">
-        <v>1728.7877655292568</v>
+        <v>1711.581639679541</v>
       </c>
       <c r="D19" s="270">
         <v>0</v>
@@ -30646,7 +30639,7 @@
         <v>122.81863012191729</v>
       </c>
       <c r="G19" s="270">
-        <v>902.60982095533109</v>
+        <v>902.90996564434317</v>
       </c>
       <c r="H19" s="270">
         <v>-1222.2174371577128</v>
@@ -30660,10 +30653,10 @@
         <v>45747</v>
       </c>
       <c r="B20" s="270">
-        <v>-59.170538352332983</v>
+        <v>-67.238301195848408</v>
       </c>
       <c r="C20" s="270">
-        <v>1715.6116262101732</v>
+        <v>1698.5366386735911</v>
       </c>
       <c r="D20" s="270">
         <v>0</v>
@@ -30675,7 +30668,7 @@
         <v>126.31754013666887</v>
       </c>
       <c r="G20" s="270">
-        <v>919.79903559883928</v>
+        <v>920.10489621444981</v>
       </c>
       <c r="H20" s="270">
         <v>-1227.8239391630234</v>
@@ -30689,10 +30682,10 @@
         <v>45838</v>
       </c>
       <c r="B21" s="270">
-        <v>-59.957252059791244</v>
+        <v>-68.132281455111979</v>
       </c>
       <c r="C21" s="270">
-        <v>1705.3142358139858</v>
+        <v>1688.3417352330689</v>
       </c>
       <c r="D21" s="270">
         <v>0</v>
@@ -30704,7 +30697,7 @@
         <v>129.81645015142067</v>
       </c>
       <c r="G21" s="270">
-        <v>934.17753410578689</v>
+        <v>934.48817600104076</v>
       </c>
       <c r="H21" s="270">
         <v>-1233.400933263043</v>
@@ -30718,10 +30711,10 @@
         <v>45930</v>
       </c>
       <c r="B22" s="270">
-        <v>-60.74396576724962</v>
+        <v>-69.026261714375551</v>
       </c>
       <c r="C22" s="270">
-        <v>1698.2554379560565</v>
+        <v>1681.3531915536532</v>
       </c>
       <c r="D22" s="270">
         <v>0</v>
@@ -30733,7 +30726,7 @@
         <v>133.31536016617247</v>
       </c>
       <c r="G22" s="270">
-        <v>945.44284276820849</v>
+        <v>945.75723071462039</v>
       </c>
       <c r="H22" s="270">
         <v>-1238.9838289441207</v>
@@ -30747,10 +30740,10 @@
         <v>46022</v>
       </c>
       <c r="B23" s="270">
-        <v>-61.562616921527933</v>
+        <v>-69.95653401573486</v>
       </c>
       <c r="C23" s="270">
-        <v>1689.8007860527734</v>
+        <v>1672.9826863614726</v>
       </c>
       <c r="D23" s="270">
         <v>0</v>
@@ -30762,7 +30755,7 @@
         <v>135.67395143661656</v>
       </c>
       <c r="G23" s="270">
-        <v>951.51196828767593</v>
+        <v>951.82837439935633</v>
       </c>
       <c r="H23" s="270">
         <v>-1244.5667246251992</v>
@@ -30781,41 +30774,37 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" s="279" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="279" t="s">
+    <row r="1" spans="1:9" s="298" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="298" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="298" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="279" t="s">
+      <c r="C1" s="298" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="279" t="s">
+      <c r="D1" s="298" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="279" t="s">
+      <c r="E1" s="298" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="279" t="s">
+      <c r="F1" s="298" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="279" t="s">
+      <c r="G1" s="298" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="279" t="s">
+      <c r="H1" s="298" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="279" t="s">
+      <c r="I1" s="298" t="s">
         <v>332</v>
       </c>
     </row>
@@ -30823,115 +30812,115 @@
       <c r="A2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="283">
+      <c r="B2">
         <v>20909.900000000001</v>
       </c>
-      <c r="C2" s="283">
+      <c r="C2">
         <v>21115.3</v>
       </c>
-      <c r="D2" s="283">
+      <c r="D2">
         <v>21329.9</v>
       </c>
-      <c r="E2" s="283">
+      <c r="E2">
         <v>21540.3</v>
       </c>
-      <c r="F2" s="283">
+      <c r="F2">
         <v>21747.4</v>
       </c>
-      <c r="G2" s="283">
+      <c r="G2">
         <v>21561.1</v>
       </c>
-      <c r="H2" s="283">
+      <c r="H2">
         <v>19520.099999999999</v>
       </c>
-      <c r="I2" s="283">
-        <v>21157.1</v>
+      <c r="I2">
+        <v>21170.3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="283">
+      <c r="B3">
         <v>18813.900000000001</v>
       </c>
-      <c r="C3" s="283">
+      <c r="C3">
         <v>18950.3</v>
       </c>
-      <c r="D3" s="283">
+      <c r="D3">
         <v>19020.599999999999</v>
       </c>
-      <c r="E3" s="283">
+      <c r="E3">
         <v>19141.7</v>
       </c>
-      <c r="F3" s="283">
+      <c r="F3">
         <v>19254</v>
       </c>
-      <c r="G3" s="283">
+      <c r="G3">
         <v>19010.8</v>
       </c>
-      <c r="H3" s="283">
+      <c r="H3">
         <v>17302.5</v>
       </c>
-      <c r="I3" s="283">
-        <v>18583.5</v>
+      <c r="I3">
+        <v>18596.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="283">
+      <c r="B4">
         <v>1634.2</v>
       </c>
-      <c r="C4" s="283">
+      <c r="C4">
         <v>1695.5</v>
       </c>
-      <c r="D4" s="283">
+      <c r="D4">
         <v>1703.1</v>
       </c>
-      <c r="E4" s="283">
+      <c r="E4">
         <v>1713.2</v>
       </c>
-      <c r="F4" s="283">
+      <c r="F4">
         <v>1740.2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4">
         <v>1756.6</v>
       </c>
-      <c r="H4" s="283">
+      <c r="H4">
         <v>1600.1</v>
       </c>
-      <c r="I4" s="283">
-        <v>1687.2</v>
+      <c r="I4">
+        <v>1687.4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="283">
+      <c r="B5">
         <v>183.5</v>
       </c>
-      <c r="C5" s="283">
+      <c r="C5">
         <v>172.1</v>
       </c>
-      <c r="D5" s="283">
+      <c r="D5">
         <v>168.3</v>
       </c>
-      <c r="E5" s="283">
+      <c r="E5">
         <v>175.1</v>
       </c>
-      <c r="F5" s="283">
+      <c r="F5">
         <v>179.2</v>
       </c>
-      <c r="G5" s="283">
+      <c r="G5">
         <v>183.8</v>
       </c>
-      <c r="H5" s="283">
+      <c r="H5">
         <v>131.4</v>
       </c>
-      <c r="I5" s="283">
+      <c r="I5">
         <v>144.69999999999999</v>
       </c>
     </row>
@@ -30939,144 +30928,144 @@
       <c r="A6" t="s">
         <v>298</v>
       </c>
-      <c r="B6" s="283">
+      <c r="B6">
         <v>1355.2</v>
       </c>
-      <c r="C6" s="283">
+      <c r="C6">
         <v>1386.7</v>
       </c>
-      <c r="D6" s="283">
+      <c r="D6">
         <v>1392.6</v>
       </c>
-      <c r="E6" s="283">
+      <c r="E6">
         <v>1397.2</v>
       </c>
-      <c r="F6" s="283">
+      <c r="F6">
         <v>1411.7</v>
       </c>
-      <c r="G6" s="283">
+      <c r="G6">
         <v>1431.2</v>
       </c>
-      <c r="H6" s="283">
+      <c r="H6">
         <v>1369.2</v>
       </c>
-      <c r="I6" s="283">
-        <v>1429.6</v>
+      <c r="I6">
+        <v>1430.2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="283">
+      <c r="B7">
         <v>234.7</v>
       </c>
-      <c r="C7" s="283">
+      <c r="C7">
         <v>213.8</v>
       </c>
-      <c r="D7" s="283">
+      <c r="D7">
         <v>224.2</v>
       </c>
-      <c r="E7" s="283">
+      <c r="E7">
         <v>201.6</v>
       </c>
-      <c r="F7" s="283">
+      <c r="F7">
         <v>229.7</v>
       </c>
-      <c r="G7" s="283">
+      <c r="G7">
         <v>180.5</v>
       </c>
-      <c r="H7" s="283">
+      <c r="H7">
         <v>171.5</v>
       </c>
-      <c r="I7" s="283">
-        <v>205.3</v>
+      <c r="I7">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="283">
+      <c r="B8">
         <v>456.5</v>
       </c>
-      <c r="C8" s="283">
+      <c r="C8">
         <v>475.2</v>
       </c>
-      <c r="D8" s="283">
+      <c r="D8">
         <v>519.4</v>
       </c>
-      <c r="E8" s="283">
+      <c r="E8">
         <v>483.9</v>
       </c>
-      <c r="F8" s="283">
+      <c r="F8">
         <v>480.9</v>
       </c>
-      <c r="G8" s="283">
+      <c r="G8">
         <v>495.8</v>
       </c>
-      <c r="H8" s="283">
+      <c r="H8">
         <v>496.4</v>
       </c>
-      <c r="I8" s="283">
-        <v>499.4</v>
+      <c r="I8">
+        <v>506.6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="283">
+      <c r="B9">
         <v>1295.5</v>
       </c>
-      <c r="C9" s="283">
+      <c r="C9">
         <v>1301.5999999999999</v>
       </c>
-      <c r="D9" s="283">
+      <c r="D9">
         <v>1312.4</v>
       </c>
-      <c r="E9" s="283">
+      <c r="E9">
         <v>1326.5</v>
       </c>
-      <c r="F9" s="283">
+      <c r="F9">
         <v>1330.4</v>
       </c>
-      <c r="G9" s="283">
+      <c r="G9">
         <v>1346.2</v>
       </c>
-      <c r="H9" s="283">
+      <c r="H9">
         <v>1264.3</v>
       </c>
-      <c r="I9" s="283">
-        <v>1317.3</v>
+      <c r="I9">
+        <v>1344.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>333</v>
       </c>
-      <c r="B10" s="283">
+      <c r="B10">
         <v>8600</v>
       </c>
-      <c r="C10" s="283">
+      <c r="C10">
         <v>8932</v>
       </c>
-      <c r="D10" s="283">
+      <c r="D10">
         <v>8944</v>
       </c>
-      <c r="E10" s="283">
+      <c r="E10">
         <v>8604</v>
       </c>
-      <c r="F10" s="283">
+      <c r="F10">
         <v>7908</v>
       </c>
-      <c r="G10" s="283">
+      <c r="G10">
         <v>7020</v>
       </c>
-      <c r="H10" s="283">
+      <c r="H10">
         <v>6744</v>
       </c>
-      <c r="I10" s="283">
+      <c r="I10">
         <v>7248</v>
       </c>
     </row>
@@ -31084,115 +31073,115 @@
       <c r="A11" t="s">
         <v>334</v>
       </c>
-      <c r="B11" s="283">
+      <c r="B11">
         <v>12969</v>
       </c>
-      <c r="C11" s="283">
+      <c r="C11">
         <v>13054</v>
       </c>
-      <c r="D11" s="283">
+      <c r="D11">
         <v>13132</v>
       </c>
-      <c r="E11" s="283">
+      <c r="E11">
         <v>13183</v>
       </c>
-      <c r="F11" s="283">
+      <c r="F11">
         <v>13235</v>
       </c>
-      <c r="G11" s="283">
+      <c r="G11">
         <v>13345</v>
       </c>
-      <c r="H11" s="283">
+      <c r="H11">
         <v>12362</v>
       </c>
-      <c r="I11" s="283">
-        <v>12998</v>
+      <c r="I11">
+        <v>13001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="283">
+      <c r="B12">
         <v>63.5</v>
       </c>
-      <c r="C12" s="283">
+      <c r="C12">
         <v>68.5</v>
       </c>
-      <c r="D12" s="283">
+      <c r="D12">
         <v>68.7</v>
       </c>
-      <c r="E12" s="283">
+      <c r="E12">
         <v>69.8</v>
       </c>
-      <c r="F12" s="283">
+      <c r="F12">
         <v>71</v>
       </c>
-      <c r="G12" s="283">
+      <c r="G12">
         <v>62.7</v>
       </c>
-      <c r="H12" s="283">
+      <c r="H12">
         <v>54.2</v>
       </c>
-      <c r="I12" s="283">
-        <v>79.099999999999994</v>
+      <c r="I12">
+        <v>90.2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="283">
+      <c r="B13">
         <v>2220523</v>
       </c>
-      <c r="C13" s="283">
+      <c r="C13">
         <v>2298792</v>
       </c>
-      <c r="D13" s="283">
+      <c r="D13">
         <v>2315842</v>
       </c>
-      <c r="E13" s="283">
+      <c r="E13">
         <v>2331428</v>
       </c>
-      <c r="F13" s="283">
+      <c r="F13">
         <v>2347737</v>
       </c>
-      <c r="G13" s="283">
+      <c r="G13">
         <v>2422546</v>
       </c>
-      <c r="H13" s="283">
+      <c r="H13">
         <v>4815254</v>
       </c>
-      <c r="I13" s="283">
-        <v>3488125</v>
+      <c r="I13">
+        <v>3494888</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="283">
+      <c r="B14">
         <v>753311</v>
       </c>
-      <c r="C14" s="283">
+      <c r="C14">
         <v>767353</v>
       </c>
-      <c r="D14" s="283">
+      <c r="D14">
         <v>779707</v>
       </c>
-      <c r="E14" s="283">
+      <c r="E14">
         <v>789893</v>
       </c>
-      <c r="F14" s="283">
+      <c r="F14">
         <v>797912</v>
       </c>
-      <c r="G14" s="283">
+      <c r="G14">
         <v>804655</v>
       </c>
-      <c r="H14" s="283">
+      <c r="H14">
         <v>824058</v>
       </c>
-      <c r="I14" s="283">
+      <c r="I14">
         <v>842733</v>
       </c>
     </row>
@@ -31200,10 +31189,10 @@
       <c r="A15" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="283">
+      <c r="H15">
         <v>1078100</v>
       </c>
-      <c r="I15" s="283">
+      <c r="I15">
         <v>15600</v>
       </c>
     </row>
@@ -31211,39 +31200,39 @@
       <c r="A16" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="283">
+      <c r="B16">
         <v>27025</v>
       </c>
-      <c r="C16" s="283">
+      <c r="C16">
         <v>28029</v>
       </c>
-      <c r="D16" s="283">
+      <c r="D16">
         <v>27483</v>
       </c>
-      <c r="E16" s="283">
+      <c r="E16">
         <v>27578</v>
       </c>
-      <c r="F16" s="283">
+      <c r="F16">
         <v>27884</v>
       </c>
-      <c r="G16" s="283">
+      <c r="G16">
         <v>43429</v>
       </c>
-      <c r="H16" s="283">
+      <c r="H16">
         <v>1084572</v>
       </c>
-      <c r="I16" s="283">
-        <v>768678</v>
+      <c r="I16">
+        <v>775154</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>308</v>
       </c>
-      <c r="H17" s="283">
+      <c r="H17">
         <v>19100</v>
       </c>
-      <c r="I17" s="283">
+      <c r="I17">
         <v>27000</v>
       </c>
     </row>
@@ -31251,10 +31240,10 @@
       <c r="A18" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="283">
+      <c r="H18">
         <v>160900</v>
       </c>
-      <c r="I18" s="283">
+      <c r="I18">
         <v>58400</v>
       </c>
     </row>
@@ -31262,39 +31251,39 @@
       <c r="A19" t="s">
         <v>310</v>
       </c>
-      <c r="B19" s="283">
+      <c r="B19">
         <v>79458</v>
       </c>
-      <c r="C19" s="283">
+      <c r="C19">
         <v>71318</v>
       </c>
-      <c r="D19" s="283">
+      <c r="D19">
         <v>61083</v>
       </c>
-      <c r="E19" s="283">
+      <c r="E19">
         <v>81998</v>
       </c>
-      <c r="F19" s="283">
+      <c r="F19">
         <v>81147</v>
       </c>
-      <c r="G19" s="283">
+      <c r="G19">
         <v>75093</v>
       </c>
-      <c r="H19" s="283">
+      <c r="H19">
         <v>1086548</v>
       </c>
-      <c r="I19" s="283">
-        <v>1213308</v>
+      <c r="I19">
+        <v>1213480</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>311</v>
       </c>
-      <c r="H20" s="283">
+      <c r="H20">
         <v>609300</v>
       </c>
-      <c r="I20" s="283">
+      <c r="I20">
         <v>865600</v>
       </c>
     </row>
@@ -31302,10 +31291,10 @@
       <c r="A21" t="s">
         <v>312</v>
       </c>
-      <c r="H21" s="283">
+      <c r="H21">
         <v>63800</v>
       </c>
-      <c r="I21" s="283">
+      <c r="I21">
         <v>15000</v>
       </c>
     </row>
@@ -31313,10 +31302,10 @@
       <c r="A22" t="s">
         <v>313</v>
       </c>
-      <c r="H22" s="283">
+      <c r="H22">
         <v>73300</v>
       </c>
-      <c r="I22" s="283">
+      <c r="I22">
         <v>73300</v>
       </c>
     </row>
@@ -31324,10 +31313,10 @@
       <c r="A23" t="s">
         <v>314</v>
       </c>
-      <c r="H23" s="283">
+      <c r="H23">
         <v>140000</v>
       </c>
-      <c r="I23" s="283">
+      <c r="I23">
         <v>140000</v>
       </c>
     </row>
@@ -31335,28 +31324,28 @@
       <c r="A24" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="283">
+      <c r="B24">
         <v>586475</v>
       </c>
-      <c r="C24" s="283">
+      <c r="C24">
         <v>594213</v>
       </c>
-      <c r="D24" s="283">
+      <c r="D24">
         <v>612547</v>
       </c>
-      <c r="E24" s="283">
+      <c r="E24">
         <v>610331</v>
       </c>
-      <c r="F24" s="283">
+      <c r="F24">
         <v>615406</v>
       </c>
-      <c r="G24" s="283">
+      <c r="G24">
         <v>627805</v>
       </c>
-      <c r="H24" s="283">
+      <c r="H24">
         <v>1396890</v>
       </c>
-      <c r="I24" s="283">
+      <c r="I24">
         <v>728172</v>
       </c>
     </row>
@@ -31364,86 +31353,86 @@
       <c r="A25" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="283">
+      <c r="B25">
         <v>1368395</v>
       </c>
-      <c r="C25" s="283">
+      <c r="C25">
         <v>1388750</v>
       </c>
-      <c r="D25" s="283">
+      <c r="D25">
         <v>1410626</v>
       </c>
-      <c r="E25" s="283">
+      <c r="E25">
         <v>1429281</v>
       </c>
-      <c r="F25" s="283">
+      <c r="F25">
         <v>1447946</v>
       </c>
-      <c r="G25" s="283">
+      <c r="G25">
         <v>1452551</v>
       </c>
-      <c r="H25" s="283">
+      <c r="H25">
         <v>1504782</v>
       </c>
-      <c r="I25" s="283">
-        <v>1486802</v>
+      <c r="I25">
+        <v>1487035</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>317</v>
       </c>
-      <c r="B26" s="283">
+      <c r="B26">
         <v>1241599</v>
       </c>
-      <c r="C26" s="283">
+      <c r="C26">
         <v>1245767</v>
       </c>
-      <c r="D26" s="283">
+      <c r="D26">
         <v>1273567</v>
       </c>
-      <c r="E26" s="283">
+      <c r="E26">
         <v>1288518</v>
       </c>
-      <c r="F26" s="283">
+      <c r="F26">
         <v>1301120</v>
       </c>
-      <c r="G26" s="283">
+      <c r="G26">
         <v>1306142</v>
       </c>
-      <c r="H26" s="283">
+      <c r="H26">
         <v>1356816</v>
       </c>
-      <c r="I26" s="283">
-        <v>1335322</v>
+      <c r="I26">
+        <v>1335133</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>319</v>
       </c>
-      <c r="B27" s="283">
+      <c r="B27">
         <v>389624</v>
       </c>
-      <c r="C27" s="283">
+      <c r="C27">
         <v>404529</v>
       </c>
-      <c r="D27" s="283">
+      <c r="D27">
         <v>419672</v>
       </c>
-      <c r="E27" s="283">
+      <c r="E27">
         <v>418824</v>
       </c>
-      <c r="F27" s="283">
+      <c r="F27">
         <v>411409</v>
       </c>
-      <c r="G27" s="283">
+      <c r="G27">
         <v>423429</v>
       </c>
-      <c r="H27" s="283">
+      <c r="H27">
         <v>512640</v>
       </c>
-      <c r="I27" s="283">
+      <c r="I27">
         <v>486072</v>
       </c>
     </row>
@@ -31451,155 +31440,155 @@
       <c r="A28" t="s">
         <v>320</v>
       </c>
-      <c r="B28" s="283">
+      <c r="B28">
         <v>728844</v>
       </c>
-      <c r="C28" s="283">
+      <c r="C28">
         <v>738714</v>
       </c>
-      <c r="D28" s="283">
+      <c r="D28">
         <v>755204</v>
       </c>
-      <c r="E28" s="283">
+      <c r="E28">
         <v>763370</v>
       </c>
-      <c r="F28" s="283">
+      <c r="F28">
         <v>760967</v>
       </c>
-      <c r="G28" s="283">
+      <c r="G28">
         <v>767087</v>
       </c>
-      <c r="H28" s="283">
+      <c r="H28">
         <v>812158</v>
       </c>
-      <c r="I28" s="283">
-        <v>835999</v>
+      <c r="I28">
+        <v>828480</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>321</v>
       </c>
-      <c r="B29" s="283">
+      <c r="B29">
         <v>589819</v>
       </c>
-      <c r="C29" s="283">
+      <c r="C29">
         <v>599372</v>
       </c>
-      <c r="D29" s="283">
+      <c r="D29">
         <v>614976</v>
       </c>
-      <c r="E29" s="283">
+      <c r="E29">
         <v>622265</v>
       </c>
-      <c r="F29" s="283">
+      <c r="F29">
         <v>619362</v>
       </c>
-      <c r="G29" s="283">
+      <c r="G29">
         <v>624096</v>
       </c>
-      <c r="H29" s="283">
+      <c r="H29">
         <v>668823</v>
       </c>
-      <c r="I29" s="283">
-        <v>691267</v>
+      <c r="I29">
+        <v>683703</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>322</v>
       </c>
-      <c r="B30" s="283">
+      <c r="B30">
         <v>1997129</v>
       </c>
-      <c r="C30" s="283">
+      <c r="C30">
         <v>2012720</v>
       </c>
-      <c r="D30" s="283">
+      <c r="D30">
         <v>2025477</v>
       </c>
-      <c r="E30" s="283">
+      <c r="E30">
         <v>2028275</v>
       </c>
-      <c r="F30" s="283">
+      <c r="F30">
         <v>2035602</v>
       </c>
-      <c r="G30" s="283">
+      <c r="G30">
         <v>2041017</v>
       </c>
-      <c r="H30" s="283">
+      <c r="H30">
         <v>2013139</v>
       </c>
-      <c r="I30" s="283">
-        <v>1992677</v>
+      <c r="I30">
+        <v>1993051</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>323</v>
       </c>
-      <c r="B31" s="283">
+      <c r="B31">
         <v>2279638</v>
       </c>
-      <c r="C31" s="283">
+      <c r="C31">
         <v>2292717</v>
       </c>
-      <c r="D31" s="283">
+      <c r="D31">
         <v>2327018</v>
       </c>
-      <c r="E31" s="283">
+      <c r="E31">
         <v>2337774</v>
       </c>
-      <c r="F31" s="283">
+      <c r="F31">
         <v>2357385</v>
       </c>
-      <c r="G31" s="283">
+      <c r="G31">
         <v>2381563</v>
       </c>
-      <c r="H31" s="283">
+      <c r="H31">
         <v>2334544</v>
       </c>
-      <c r="I31" s="283">
-        <v>2329677</v>
+      <c r="I31">
+        <v>2329605</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>302</v>
       </c>
-      <c r="B32" s="283">
+      <c r="B32">
         <v>21.568999999999999</v>
       </c>
-      <c r="C32" s="283">
+      <c r="C32">
         <v>21.986000000000001</v>
       </c>
-      <c r="D32" s="283">
+      <c r="D32">
         <v>22.076000000000001</v>
       </c>
-      <c r="E32" s="283">
+      <c r="E32">
         <v>21.786999999999999</v>
       </c>
-      <c r="F32" s="283">
+      <c r="F32">
         <v>21.143000000000001</v>
       </c>
-      <c r="G32" s="283">
+      <c r="G32">
         <v>20.364999999999998</v>
       </c>
-      <c r="H32" s="283">
+      <c r="H32">
         <v>19.106000000000002</v>
       </c>
-      <c r="I32" s="283">
-        <v>20.245999999999999</v>
+      <c r="I32">
+        <v>20.248999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>336</v>
       </c>
-      <c r="H33" s="283">
+      <c r="H33">
         <v>277100</v>
       </c>
-      <c r="I33" s="283">
+      <c r="I33">
         <v>228300</v>
       </c>
     </row>
@@ -31607,10 +31596,10 @@
       <c r="A34" t="s">
         <v>316</v>
       </c>
-      <c r="H34" s="283">
+      <c r="H34">
         <v>690700</v>
       </c>
-      <c r="I34" s="283">
+      <c r="I34">
         <v>39200</v>
       </c>
     </row>
@@ -31721,6 +31710,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -31937,15 +31935,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
@@ -31964,6 +31953,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31980,12 +31977,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC038D98-3489-2D44-AEA9-51A842123149}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08109445-1EA8-C642-8B03-D8F0119526D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="460" windowWidth="33600" windowHeight="18880" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="2420" yWindow="460" windowWidth="33600" windowHeight="18880" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3504,6 +3504,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,6 +3571,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3591,34 +3607,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4150,10 +4150,10 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4175,10 +4175,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="316" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="315"/>
+      <c r="B1" s="316"/>
       <c r="C1" s="279"/>
       <c r="D1" s="279"/>
       <c r="E1" s="35"/>
@@ -4188,76 +4188,76 @@
       <c r="AC1" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" s="317" t="s">
+      <c r="AD1" s="318" t="s">
         <v>247</v>
       </c>
-      <c r="AE1" s="317"/>
-      <c r="AF1" s="317"/>
+      <c r="AE1" s="318"/>
+      <c r="AF1" s="318"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="318" t="s">
+      <c r="AI1" s="319" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="318"/>
-      <c r="AK1" s="318"/>
-      <c r="AL1" s="318"/>
-      <c r="AM1" s="316" t="s">
+      <c r="AJ1" s="319"/>
+      <c r="AK1" s="319"/>
+      <c r="AL1" s="319"/>
+      <c r="AM1" s="317" t="s">
         <v>279</v>
       </c>
-      <c r="AN1" s="316"/>
-      <c r="AO1" s="316"/>
-      <c r="AP1" s="316"/>
+      <c r="AN1" s="317"/>
+      <c r="AO1" s="317"/>
+      <c r="AP1" s="317"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="F2" s="314" t="s">
+      <c r="F2" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314" t="s">
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314" t="s">
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
-      <c r="R2" s="314" t="s">
+      <c r="O2" s="315"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="314"/>
-      <c r="T2" s="314"/>
-      <c r="U2" s="314"/>
-      <c r="V2" s="314" t="s">
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="U2" s="315"/>
+      <c r="V2" s="315" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="314"/>
-      <c r="X2" s="314"/>
-      <c r="Y2" s="314"/>
+      <c r="W2" s="315"/>
+      <c r="X2" s="315"/>
+      <c r="Y2" s="315"/>
       <c r="Z2" s="229"/>
       <c r="AA2" s="296"/>
       <c r="AB2" s="229"/>
       <c r="AC2" s="156"/>
-      <c r="AD2" s="314" t="s">
+      <c r="AD2" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="314"/>
-      <c r="AF2" s="314"/>
+      <c r="AE2" s="315"/>
+      <c r="AF2" s="315"/>
       <c r="AG2" s="156"/>
       <c r="AH2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="314" t="s">
+      <c r="AI2" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="314"/>
-      <c r="AK2" s="314"/>
+      <c r="AJ2" s="315"/>
+      <c r="AK2" s="315"/>
       <c r="AL2" s="230"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -4365,10 +4365,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="313" t="s">
+      <c r="A4" s="314" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="313"/>
+      <c r="B4" s="314"/>
       <c r="C4" s="279"/>
       <c r="D4" s="279"/>
       <c r="F4" s="199"/>
@@ -12233,50 +12233,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="329"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="329"/>
-      <c r="J5" s="329"/>
-      <c r="K5" s="329"/>
-      <c r="L5" s="329"/>
-      <c r="M5" s="329"/>
-      <c r="N5" s="329"/>
-      <c r="O5" s="329"/>
-      <c r="P5" s="329"/>
-      <c r="Q5" s="329"/>
-      <c r="R5" s="329"/>
-      <c r="S5" s="329"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="330"/>
+      <c r="R5" s="330"/>
+      <c r="S5" s="330"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="331" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="330"/>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="330"/>
-      <c r="M6" s="330"/>
-      <c r="N6" s="330"/>
-      <c r="O6" s="330"/>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="330"/>
-      <c r="S6" s="330"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="331"/>
+      <c r="L6" s="331"/>
+      <c r="M6" s="331"/>
+      <c r="N6" s="331"/>
+      <c r="O6" s="331"/>
+      <c r="P6" s="331"/>
+      <c r="Q6" s="331"/>
+      <c r="R6" s="331"/>
+      <c r="S6" s="331"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -12317,8 +12317,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="331"/>
-      <c r="S8" s="332"/>
+      <c r="R8" s="332"/>
+      <c r="S8" s="333"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
@@ -12583,10 +12583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="316" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="315"/>
+      <c r="B1" s="316"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -12594,18 +12594,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="333" t="s">
+      <c r="Z1" s="334" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="333"/>
-      <c r="AB1" s="333"/>
-      <c r="AC1" s="314"/>
-      <c r="AD1" s="314"/>
-      <c r="AE1" s="314"/>
-      <c r="AF1" s="314"/>
+      <c r="AA1" s="334"/>
+      <c r="AB1" s="334"/>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="315"/>
+      <c r="AE1" s="315"/>
+      <c r="AF1" s="315"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="335" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="107"/>
@@ -12614,45 +12614,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="334"/>
+      <c r="A3" s="335"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="334"/>
+      <c r="A4" s="335"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="334"/>
+      <c r="A5" s="335"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="325" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="324" t="s">
+      <c r="D7" s="326"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="325" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="324" t="s">
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
+      <c r="K7" s="325" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
-      <c r="N7" s="326"/>
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
+      <c r="N7" s="327"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -14533,88 +14533,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="335" t="s">
+      <c r="A3" s="341" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336"/>
-      <c r="B4" s="336"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="336"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="336"/>
-      <c r="H4" s="336"/>
-      <c r="I4" s="336"/>
-      <c r="J4" s="336"/>
-      <c r="K4" s="341" t="s">
+      <c r="A4" s="342"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="342"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="347" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="341"/>
-      <c r="M4" s="341"/>
-      <c r="N4" s="341"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="337" t="s">
+      <c r="C5" s="343" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="338"/>
-      <c r="E5" s="338"/>
-      <c r="F5" s="338"/>
-      <c r="G5" s="338"/>
-      <c r="H5" s="338"/>
-      <c r="I5" s="338"/>
-      <c r="J5" s="339"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="345"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="340" t="s">
+      <c r="L5" s="346" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="314"/>
-      <c r="N5" s="314"/>
+      <c r="M5" s="315"/>
+      <c r="N5" s="315"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="343">
+      <c r="C6" s="337">
         <v>2020</v>
       </c>
-      <c r="D6" s="344"/>
-      <c r="E6" s="344"/>
-      <c r="F6" s="344"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="344"/>
-      <c r="I6" s="344"/>
-      <c r="J6" s="345"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="339"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15051,24 +15051,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="314" t="s">
+      <c r="K22" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="314"/>
-      <c r="M22" s="314"/>
-      <c r="N22" s="314"/>
-      <c r="O22" s="314" t="s">
+      <c r="L22" s="315"/>
+      <c r="M22" s="315"/>
+      <c r="N22" s="315"/>
+      <c r="O22" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="314"/>
-      <c r="Q22" s="314"/>
-      <c r="R22" s="314"/>
-      <c r="S22" s="314" t="s">
+      <c r="P22" s="315"/>
+      <c r="Q22" s="315"/>
+      <c r="R22" s="315"/>
+      <c r="S22" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="314"/>
-      <c r="U22" s="314"/>
-      <c r="V22" s="314"/>
+      <c r="T22" s="315"/>
+      <c r="U22" s="315"/>
+      <c r="V22" s="315"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
@@ -15085,12 +15085,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="346" t="s">
+      <c r="K23" s="340" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="346"/>
-      <c r="M23" s="346"/>
-      <c r="N23" s="346"/>
+      <c r="L23" s="340"/>
+      <c r="M23" s="340"/>
+      <c r="N23" s="340"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15259,7 +15259,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="342" t="s">
+      <c r="I28" s="336" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15310,7 +15310,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="342"/>
+      <c r="I29" s="336"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15359,7 +15359,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="342"/>
+      <c r="I30" s="336"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15408,7 +15408,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="342"/>
+      <c r="I31" s="336"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15470,7 +15470,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="342" t="s">
+      <c r="I33" s="336" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15518,7 +15518,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="342"/>
+      <c r="I34" s="336"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15697,6 +15697,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -15704,12 +15710,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15817,30 +15817,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="350" t="s">
+      <c r="E6" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="350"/>
-      <c r="G6" s="350"/>
-      <c r="H6" s="350"/>
-      <c r="I6" s="350"/>
-      <c r="J6" s="350"/>
-      <c r="K6" s="350"/>
-      <c r="L6" s="350"/>
-      <c r="M6" s="350"/>
-      <c r="N6" s="350"/>
-      <c r="O6" s="350"/>
-      <c r="P6" s="350"/>
-      <c r="Q6" s="350"/>
-      <c r="R6" s="350"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="349"/>
+      <c r="N6" s="349"/>
+      <c r="O6" s="349"/>
+      <c r="P6" s="349"/>
+      <c r="Q6" s="349"/>
+      <c r="R6" s="349"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="347" t="s">
+      <c r="A7" s="348" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="347"/>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
+      <c r="B7" s="348"/>
+      <c r="C7" s="348"/>
+      <c r="D7" s="348"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -15858,11 +15858,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
-      <c r="B8" s="347" t="s">
+      <c r="B8" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="347"/>
-      <c r="D8" s="347"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -15908,11 +15908,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
-      <c r="B9" s="347" t="s">
+      <c r="B9" s="348" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="347"/>
-      <c r="D9" s="347"/>
+      <c r="C9" s="348"/>
+      <c r="D9" s="348"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -15958,11 +15958,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
-      <c r="B10" s="347" t="s">
+      <c r="B10" s="348" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="347"/>
-      <c r="D10" s="347"/>
+      <c r="C10" s="348"/>
+      <c r="D10" s="348"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16008,11 +16008,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
-      <c r="B11" s="347" t="s">
+      <c r="B11" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="347"/>
-      <c r="D11" s="347"/>
+      <c r="C11" s="348"/>
+      <c r="D11" s="348"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16107,10 +16107,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="347" t="s">
+      <c r="C13" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="347"/>
+      <c r="D13" s="348"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16261,11 +16261,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="B19" s="347" t="s">
+      <c r="B19" s="348" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="347"/>
-      <c r="D19" s="347"/>
+      <c r="C19" s="348"/>
+      <c r="D19" s="348"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16324,11 +16324,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="347" t="s">
+      <c r="B20" s="348" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="347"/>
-      <c r="D20" s="347"/>
+      <c r="C20" s="348"/>
+      <c r="D20" s="348"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16388,11 +16388,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="B21" s="347" t="s">
+      <c r="B21" s="348" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="347"/>
-      <c r="D21" s="347"/>
+      <c r="C21" s="348"/>
+      <c r="D21" s="348"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -16451,11 +16451,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="347" t="s">
+      <c r="B22" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="347"/>
-      <c r="D22" s="347"/>
+      <c r="C22" s="348"/>
+      <c r="D22" s="348"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -16568,21 +16568,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="348" t="s">
+      <c r="H27" s="350" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="348"/>
-      <c r="J27" s="348"/>
-      <c r="K27" s="348"/>
-      <c r="L27" s="348"/>
-      <c r="M27" s="348"/>
-      <c r="N27" s="348"/>
-      <c r="O27" s="348"/>
-      <c r="P27" s="348"/>
-      <c r="Q27" s="348"/>
-      <c r="R27" s="348"/>
-      <c r="S27" s="348"/>
-      <c r="T27" s="348"/>
+      <c r="I27" s="350"/>
+      <c r="J27" s="350"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="350"/>
+      <c r="M27" s="350"/>
+      <c r="N27" s="350"/>
+      <c r="O27" s="350"/>
+      <c r="P27" s="350"/>
+      <c r="Q27" s="350"/>
+      <c r="R27" s="350"/>
+      <c r="S27" s="350"/>
+      <c r="T27" s="350"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -16898,21 +16898,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="349" t="s">
+      <c r="F37" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="349"/>
-      <c r="H37" s="349"/>
-      <c r="I37" s="349"/>
-      <c r="J37" s="349"/>
-      <c r="K37" s="349"/>
-      <c r="L37" s="349"/>
-      <c r="M37" s="349"/>
-      <c r="N37" s="349"/>
-      <c r="O37" s="349"/>
-      <c r="P37" s="349"/>
-      <c r="Q37" s="349"/>
-      <c r="R37" s="349"/>
+      <c r="G37" s="351"/>
+      <c r="H37" s="351"/>
+      <c r="I37" s="351"/>
+      <c r="J37" s="351"/>
+      <c r="K37" s="351"/>
+      <c r="L37" s="351"/>
+      <c r="M37" s="351"/>
+      <c r="N37" s="351"/>
+      <c r="O37" s="351"/>
+      <c r="P37" s="351"/>
+      <c r="Q37" s="351"/>
+      <c r="R37" s="351"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17228,21 +17228,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="348" t="s">
+      <c r="F48" s="350" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="348"/>
-      <c r="H48" s="348"/>
-      <c r="I48" s="348"/>
-      <c r="J48" s="348"/>
-      <c r="K48" s="348"/>
-      <c r="L48" s="348"/>
-      <c r="M48" s="348"/>
-      <c r="N48" s="348"/>
-      <c r="O48" s="348"/>
-      <c r="P48" s="348"/>
-      <c r="Q48" s="348"/>
-      <c r="R48" s="348"/>
+      <c r="G48" s="350"/>
+      <c r="H48" s="350"/>
+      <c r="I48" s="350"/>
+      <c r="J48" s="350"/>
+      <c r="K48" s="350"/>
+      <c r="L48" s="350"/>
+      <c r="M48" s="350"/>
+      <c r="N48" s="350"/>
+      <c r="O48" s="350"/>
+      <c r="P48" s="350"/>
+      <c r="Q48" s="350"/>
+      <c r="R48" s="350"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -17554,12 +17554,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17568,6 +17562,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17606,50 +17606,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="329"/>
-      <c r="C5" s="329"/>
-      <c r="D5" s="329"/>
-      <c r="E5" s="329"/>
-      <c r="F5" s="329"/>
-      <c r="G5" s="329"/>
-      <c r="H5" s="329"/>
-      <c r="I5" s="329"/>
-      <c r="J5" s="329"/>
-      <c r="K5" s="329"/>
-      <c r="L5" s="329"/>
-      <c r="M5" s="329"/>
-      <c r="N5" s="329"/>
-      <c r="O5" s="329"/>
-      <c r="P5" s="329"/>
-      <c r="Q5" s="329"/>
-      <c r="R5" s="329"/>
-      <c r="S5" s="329"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="330"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="330"/>
+      <c r="R5" s="330"/>
+      <c r="S5" s="330"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="331" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="330"/>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="330"/>
-      <c r="M6" s="330"/>
-      <c r="N6" s="330"/>
-      <c r="O6" s="330"/>
-      <c r="P6" s="330"/>
-      <c r="Q6" s="330"/>
-      <c r="R6" s="330"/>
-      <c r="S6" s="330"/>
+      <c r="B6" s="331"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="331"/>
+      <c r="L6" s="331"/>
+      <c r="M6" s="331"/>
+      <c r="N6" s="331"/>
+      <c r="O6" s="331"/>
+      <c r="P6" s="331"/>
+      <c r="Q6" s="331"/>
+      <c r="R6" s="331"/>
+      <c r="S6" s="331"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -17689,10 +17689,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="331" t="s">
+      <c r="R8" s="332" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="332"/>
+      <c r="S8" s="333"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -20563,10 +20563,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="351" t="s">
+      <c r="D75" s="352" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="352"/>
+      <c r="E75" s="353"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -21514,10 +21514,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21536,23 +21536,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="320"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="327" t="s">
+      <c r="J1" s="328" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="314"/>
-      <c r="W1" s="314"/>
-      <c r="X1" s="314"/>
-      <c r="Y1" s="314"/>
+      <c r="V1" s="315"/>
+      <c r="W1" s="315"/>
+      <c r="X1" s="315"/>
+      <c r="Y1" s="315"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="322" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -21560,68 +21560,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="327"/>
+      <c r="J2" s="328"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="322"/>
+      <c r="A3" s="323"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="327"/>
+      <c r="J3" s="328"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="323"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="325" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="324" t="s">
+      <c r="D7" s="326"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="325" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="324" t="s">
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
+      <c r="K7" s="325" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
-      <c r="N7" s="325"/>
-      <c r="O7" s="324" t="s">
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
+      <c r="N7" s="326"/>
+      <c r="O7" s="325" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="325"/>
-      <c r="Q7" s="325"/>
-      <c r="R7" s="325"/>
-      <c r="S7" s="324" t="s">
+      <c r="P7" s="326"/>
+      <c r="Q7" s="326"/>
+      <c r="R7" s="326"/>
+      <c r="S7" s="325" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="325"/>
-      <c r="U7" s="325"/>
-      <c r="V7" s="325"/>
-      <c r="W7" s="324" t="s">
+      <c r="T7" s="326"/>
+      <c r="U7" s="326"/>
+      <c r="V7" s="326"/>
+      <c r="W7" s="325" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="325"/>
-      <c r="Y7" s="325"/>
-      <c r="Z7" s="325"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -21816,70 +21816,70 @@
         <v>370.81066666666698</v>
       </c>
       <c r="F11">
-        <v>881.93300000000011</v>
+        <v>143.73299999999989</v>
       </c>
       <c r="G11">
-        <v>891.98651810076751</v>
+        <v>119.7103015934359</v>
       </c>
       <c r="H11">
-        <v>891.27501716779318</v>
+        <v>95.692774643121879</v>
       </c>
       <c r="I11">
-        <v>892.48838718787158</v>
+        <v>71.680432077698356</v>
       </c>
       <c r="J11">
-        <v>887.49939524811271</v>
+        <v>49.757422545121358</v>
       </c>
       <c r="K11">
-        <v>912.80995474617953</v>
+        <v>63.885229528435843</v>
       </c>
       <c r="L11">
-        <v>939.90280216374003</v>
+        <v>80.170429568141572</v>
       </c>
       <c r="M11">
-        <v>965.78369379604453</v>
+        <v>96.995101270948112</v>
       </c>
       <c r="N11">
-        <v>989.88229750885569</v>
+        <v>112.932368446504</v>
       </c>
       <c r="O11">
-        <v>1011.979044291314</v>
+        <v>127.8342527553297</v>
       </c>
       <c r="P11">
-        <v>1033.576750456315</v>
+        <v>142.4876637965252</v>
       </c>
       <c r="Q11">
-        <v>1056.7428699904699</v>
+        <v>157.92199082170151</v>
       </c>
       <c r="R11">
-        <v>1079.766406491065</v>
+        <v>173.28532548469749</v>
       </c>
       <c r="S11">
-        <v>1086.988730126506</v>
+        <v>172.77585661115961</v>
       </c>
       <c r="T11">
-        <v>1095.0665519633039</v>
+        <v>172.69234191070231</v>
       </c>
       <c r="U11">
-        <v>1103.9285804846791</v>
+        <v>172.999285202235</v>
       </c>
       <c r="V11">
-        <v>1113.93127327453</v>
+        <v>173.8741673912084</v>
       </c>
       <c r="W11">
-        <v>1121.9665712579019</v>
+        <v>172.67426876663441</v>
       </c>
       <c r="X11">
-        <v>1129.859286207716</v>
+        <v>171.4033777798804</v>
       </c>
       <c r="Y11">
-        <v>1138.3223332917671</v>
+        <v>170.41645624184639</v>
       </c>
       <c r="Z11">
-        <v>1147.4270040268359</v>
+        <v>169.74900033362289</v>
       </c>
       <c r="AA11">
-        <v>1156.681516820131</v>
+        <v>168.94502379810791</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -22201,70 +22201,70 @@
         <v>3763.7893333333341</v>
       </c>
       <c r="F16">
-        <v>1915.067</v>
+        <v>2653.2669999999998</v>
       </c>
       <c r="G16">
-        <v>1653.243063736659</v>
+        <v>2317.9343666284731</v>
       </c>
       <c r="H16">
-        <v>1447.6763216952199</v>
+        <v>2053.9178721883209</v>
       </c>
       <c r="I16">
-        <v>1282.6115778747101</v>
+        <v>1841.244964503114</v>
       </c>
       <c r="J16">
-        <v>1168.218036502012</v>
+        <v>1692.806943814478</v>
       </c>
       <c r="K16">
-        <v>1196.0977521572081</v>
+        <v>1738.8476760207</v>
       </c>
       <c r="L16">
-        <v>1201.420957574891</v>
+        <v>1756.293963726893</v>
       </c>
       <c r="M16">
-        <v>1192.398092607149</v>
+        <v>1755.5540200918881</v>
       </c>
       <c r="N16">
-        <v>1163.510521947278</v>
+        <v>1729.6319796501559</v>
       </c>
       <c r="O16">
-        <v>1162.952327464749</v>
+        <v>1731.529779708525</v>
       </c>
       <c r="P16">
-        <v>1163.223418033522</v>
+        <v>1734.478848120219</v>
       </c>
       <c r="Q16">
-        <v>1164.061655925231</v>
+        <v>1738.1468780413959</v>
       </c>
       <c r="R16">
-        <v>1166.5248859901251</v>
+        <v>1743.874878588342</v>
       </c>
       <c r="S16">
-        <v>1179.2527801172971</v>
+        <v>1761.5240430940889</v>
       </c>
       <c r="T16">
-        <v>1191.4351178432501</v>
+        <v>1778.481616477271</v>
       </c>
       <c r="U16">
-        <v>1201.0737372062879</v>
+        <v>1792.214568108853</v>
       </c>
       <c r="V16">
-        <v>1209.153135236118</v>
+        <v>1803.970925515257</v>
       </c>
       <c r="W16">
-        <v>1235.6991953270949</v>
+        <v>1845.574035042185</v>
       </c>
       <c r="X16">
-        <v>1257.112926395658</v>
+        <v>1880.670991984249</v>
       </c>
       <c r="Y16">
-        <v>1273.980106203785</v>
+        <v>1910.0043752921761</v>
       </c>
       <c r="Z16">
-        <v>1285.81146007862</v>
+        <v>1932.953941083782</v>
       </c>
       <c r="AA16">
-        <v>1291.320506480959</v>
+        <v>1945.2974943481329</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -23097,63 +23097,63 @@
       </c>
       <c r="M31" s="104">
         <f>L31*(1 + M33)</f>
-        <v>196.196936733694</v>
+        <v>231.01005759196664</v>
       </c>
       <c r="N31" s="104">
         <f t="shared" ref="N31:AA31" si="22">M31*(1 + N33)</f>
-        <v>201.09251765764702</v>
+        <v>268.96732512240902</v>
       </c>
       <c r="O31" s="104">
         <f t="shared" si="22"/>
-        <v>205.5814255345841</v>
+        <v>304.45865517210234</v>
       </c>
       <c r="P31" s="104">
         <f t="shared" si="22"/>
-        <v>209.96895435420245</v>
+        <v>339.35820457397739</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" si="22"/>
-        <v>214.67510306825145</v>
+        <v>376.11763601185311</v>
       </c>
       <c r="R31" s="104">
         <f t="shared" si="22"/>
-        <v>219.35228633735218</v>
+        <v>412.70798726463727</v>
       </c>
       <c r="S31" s="104">
         <f t="shared" si="22"/>
-        <v>220.8194862729851</v>
+        <v>411.49460192584024</v>
       </c>
       <c r="T31" s="104">
         <f t="shared" si="22"/>
-        <v>222.46047887830755</v>
+        <v>411.29569769758933</v>
       </c>
       <c r="U31" s="104">
         <f t="shared" si="22"/>
-        <v>224.26078143084538</v>
+        <v>412.02673448733771</v>
       </c>
       <c r="V31" s="104">
         <f t="shared" si="22"/>
-        <v>226.2928075429692</v>
+        <v>414.11041275781412</v>
       </c>
       <c r="W31" s="104">
         <f t="shared" si="22"/>
-        <v>227.92516151643866</v>
+        <v>411.25265348198167</v>
       </c>
       <c r="X31" s="104">
         <f t="shared" si="22"/>
-        <v>229.52855004496021</v>
+        <v>408.2258140210584</v>
       </c>
       <c r="Y31" s="104">
         <f t="shared" si="22"/>
-        <v>231.24780035327461</v>
+        <v>405.87529530049824</v>
       </c>
       <c r="Z31" s="104">
         <f t="shared" si="22"/>
-        <v>233.09739516385611</v>
+        <v>404.28563741284785</v>
       </c>
       <c r="AA31" s="104">
         <f t="shared" si="22"/>
-        <v>234.97743007505923</v>
+        <v>402.37083281613849</v>
       </c>
       <c r="AB31" s="95"/>
     </row>
@@ -23171,91 +23171,91 @@
       </c>
       <c r="F32" s="104">
         <f t="shared" si="23"/>
-        <v>881.93300000000011</v>
+        <v>143.73299999999989</v>
       </c>
       <c r="G32" s="149">
         <f t="shared" si="23"/>
-        <v>891.98651810076751</v>
+        <v>119.7103015934359</v>
       </c>
       <c r="H32" s="104">
         <f t="shared" si="23"/>
-        <v>891.27501716779318</v>
+        <v>95.692774643121879</v>
       </c>
       <c r="I32" s="104">
         <f t="shared" si="23"/>
-        <v>892.48838718787158</v>
+        <v>71.680432077698356</v>
       </c>
       <c r="J32" s="104">
         <f t="shared" si="23"/>
-        <v>887.49939524811271</v>
+        <v>49.757422545121358</v>
       </c>
       <c r="K32" s="149">
         <f t="shared" si="23"/>
-        <v>912.80995474617953</v>
+        <v>63.885229528435843</v>
       </c>
       <c r="L32" s="232">
         <f t="shared" si="23"/>
-        <v>939.90280216374003</v>
+        <v>80.170429568141572</v>
       </c>
       <c r="M32" s="104">
         <f t="shared" si="23"/>
-        <v>965.78369379604453</v>
+        <v>96.995101270948112</v>
       </c>
       <c r="N32" s="104">
         <f t="shared" si="23"/>
-        <v>989.88229750885569</v>
+        <v>112.932368446504</v>
       </c>
       <c r="O32" s="149">
         <f t="shared" si="23"/>
-        <v>1011.979044291314</v>
+        <v>127.8342527553297</v>
       </c>
       <c r="P32" s="104">
         <f t="shared" si="23"/>
-        <v>1033.576750456315</v>
+        <v>142.4876637965252</v>
       </c>
       <c r="Q32" s="104">
         <f t="shared" si="23"/>
-        <v>1056.7428699904699</v>
+        <v>157.92199082170151</v>
       </c>
       <c r="R32" s="104">
         <f t="shared" si="23"/>
-        <v>1079.766406491065</v>
+        <v>173.28532548469749</v>
       </c>
       <c r="S32" s="149">
         <f t="shared" si="23"/>
-        <v>1086.988730126506</v>
+        <v>172.77585661115961</v>
       </c>
       <c r="T32" s="104">
         <f t="shared" si="23"/>
-        <v>1095.0665519633039</v>
+        <v>172.69234191070231</v>
       </c>
       <c r="U32" s="104">
         <f t="shared" si="23"/>
-        <v>1103.9285804846791</v>
+        <v>172.999285202235</v>
       </c>
       <c r="V32" s="104">
         <f t="shared" si="23"/>
-        <v>1113.93127327453</v>
+        <v>173.8741673912084</v>
       </c>
       <c r="W32" s="149">
         <f t="shared" si="23"/>
-        <v>1121.9665712579019</v>
+        <v>172.67426876663441</v>
       </c>
       <c r="X32" s="104">
         <f t="shared" si="23"/>
-        <v>1129.859286207716</v>
+        <v>171.4033777798804</v>
       </c>
       <c r="Y32" s="104">
         <f t="shared" si="23"/>
-        <v>1138.3223332917671</v>
+        <v>170.41645624184639</v>
       </c>
       <c r="Z32" s="104">
         <f t="shared" si="23"/>
-        <v>1147.4270040268359</v>
+        <v>169.74900033362289</v>
       </c>
       <c r="AA32" s="149">
         <f t="shared" si="23"/>
-        <v>1156.681516820131</v>
+        <v>168.94502379810791</v>
       </c>
       <c r="AB32" s="95"/>
     </row>
@@ -23274,63 +23274,63 @@
       <c r="L33" s="239"/>
       <c r="M33" s="239">
         <f t="shared" ref="M33" si="24">(M32/L32)-1</f>
-        <v>2.7535710684896797E-2</v>
+        <v>0.20986131412089115</v>
       </c>
       <c r="N33" s="239">
         <f t="shared" ref="N33" si="25">(N32/M32)-1</f>
-        <v>2.4952382057819689E-2</v>
+        <v>0.16431002150342011</v>
       </c>
       <c r="O33" s="256">
         <f t="shared" ref="O33" si="26">(O32/N32)-1</f>
-        <v>2.232260021021415E-2</v>
+        <v>0.13195405811297323</v>
       </c>
       <c r="P33" s="239">
         <f t="shared" ref="P33" si="27">(P32/O32)-1</f>
-        <v>2.1342048816955339E-2</v>
+        <v>0.11462820586311562</v>
       </c>
       <c r="Q33" s="239">
         <f t="shared" ref="Q33" si="28">(Q32/P32)-1</f>
-        <v>2.2413545509733179E-2</v>
+        <v>0.10832044412782849</v>
       </c>
       <c r="R33" s="239">
         <f t="shared" ref="R33" si="29">(R32/Q32)-1</f>
-        <v>2.1787264579133492E-2</v>
+        <v>9.7284327426834682E-2</v>
       </c>
       <c r="S33" s="256">
         <f t="shared" ref="S33" si="30">(S32/R32)-1</f>
-        <v>6.6887834183613215E-3</v>
+        <v>-2.940057804161067E-3</v>
       </c>
       <c r="T33" s="239">
         <f t="shared" ref="T33" si="31">(T32/S32)-1</f>
-        <v>7.4313758854316347E-3</v>
+        <v>-4.8337020053246249E-4</v>
       </c>
       <c r="U33" s="239">
         <f t="shared" ref="U33" si="32">(U32/T32)-1</f>
-        <v>8.0926848742541857E-3</v>
+        <v>1.7773995542396115E-3</v>
       </c>
       <c r="V33" s="239">
         <f t="shared" ref="V33" si="33">(V32/U32)-1</f>
-        <v>9.0609963059922194E-3</v>
+        <v>5.0571433746138261E-3</v>
       </c>
       <c r="W33" s="256">
         <f t="shared" ref="W33" si="34">(W32/V32)-1</f>
-        <v>7.2134593723642837E-3</v>
+        <v>-6.9009597145864854E-3</v>
       </c>
       <c r="X33" s="239">
         <f t="shared" ref="X33" si="35">(X32/W32)-1</f>
-        <v>7.0347148943707971E-3</v>
+        <v>-7.3600484648445041E-3</v>
       </c>
       <c r="Y33" s="239">
         <f t="shared" ref="Y33" si="36">(Y32/X32)-1</f>
-        <v>7.4903549383187329E-3</v>
+        <v>-5.7578885014823999E-3</v>
       </c>
       <c r="Z33" s="239">
         <f t="shared" ref="Z33" si="37">(Z32/Y32)-1</f>
-        <v>7.9983239094854053E-3</v>
+        <v>-3.9166165225046345E-3</v>
       </c>
       <c r="AA33" s="256">
         <f t="shared" ref="AA33" si="38">(AA32/Z32)-1</f>
-        <v>8.0654479638502252E-3</v>
+        <v>-4.736266687490609E-3</v>
       </c>
       <c r="AB33" s="253"/>
     </row>
@@ -23342,91 +23342,91 @@
       <c r="E34" s="225"/>
       <c r="F34" s="225">
         <f t="shared" ref="F34" si="39">F31-F32</f>
-        <v>-597.15600000000018</v>
+        <v>141.0440000000001</v>
       </c>
       <c r="G34" s="150">
         <f t="shared" ref="G34" si="40">G31-G32</f>
-        <v>-669.01923060076751</v>
+        <v>103.25698590656407</v>
       </c>
       <c r="H34" s="225">
         <f t="shared" ref="H34" si="41">H31-H32</f>
-        <v>-687.95031144904317</v>
+        <v>107.63193107562813</v>
       </c>
       <c r="I34" s="225">
         <f t="shared" ref="I34" si="42">I31-I32</f>
-        <v>-704.80536970482467</v>
+        <v>116.0025854053485</v>
       </c>
       <c r="J34" s="225">
         <f t="shared" ref="J34" si="43">J31-J32</f>
-        <v>-699.09796267765057</v>
+        <v>138.64401002534075</v>
       </c>
       <c r="K34" s="150">
         <f t="shared" ref="K34:N34" si="44">K31-K32</f>
-        <v>-723.32551143143894</v>
+        <v>125.59921378630472</v>
       </c>
       <c r="L34" s="249">
         <f t="shared" si="44"/>
-        <v>-748.96351441585216</v>
+        <v>110.76885817974633</v>
       </c>
       <c r="M34" s="225">
         <f t="shared" si="44"/>
-        <v>-769.58675706235056</v>
+        <v>134.01495632101853</v>
       </c>
       <c r="N34" s="225">
         <f t="shared" si="44"/>
-        <v>-788.78977985120866</v>
+        <v>156.03495667590502</v>
       </c>
       <c r="O34" s="150">
         <f t="shared" ref="O34:AA34" si="45">O31-O32</f>
-        <v>-806.39761875672991</v>
+        <v>176.62440241677263</v>
       </c>
       <c r="P34" s="150">
         <f t="shared" si="45"/>
-        <v>-823.60779610211262</v>
+        <v>196.87054077745219</v>
       </c>
       <c r="Q34" s="150">
         <f t="shared" si="45"/>
-        <v>-842.06776692221842</v>
+        <v>218.19564519015159</v>
       </c>
       <c r="R34" s="150">
         <f t="shared" si="45"/>
-        <v>-860.41412015371282</v>
+        <v>239.42266177993977</v>
       </c>
       <c r="S34" s="150">
         <f t="shared" si="45"/>
-        <v>-866.16924385352081</v>
+        <v>238.71874531468063</v>
       </c>
       <c r="T34" s="150">
         <f t="shared" si="45"/>
-        <v>-872.60607308499641</v>
+        <v>238.60335578688702</v>
       </c>
       <c r="U34" s="150">
         <f t="shared" si="45"/>
-        <v>-879.66779905383373</v>
+        <v>239.0274492851027</v>
       </c>
       <c r="V34" s="150">
         <f t="shared" si="45"/>
-        <v>-887.63846573156081</v>
+        <v>240.23624536660571</v>
       </c>
       <c r="W34" s="150">
         <f t="shared" si="45"/>
-        <v>-894.04140974146321</v>
+        <v>238.57838471534725</v>
       </c>
       <c r="X34" s="150">
         <f t="shared" si="45"/>
-        <v>-900.33073616275578</v>
+        <v>236.822436241178</v>
       </c>
       <c r="Y34" s="150">
         <f t="shared" si="45"/>
-        <v>-907.07453293849244</v>
+        <v>235.45883905865185</v>
       </c>
       <c r="Z34" s="150">
         <f t="shared" si="45"/>
-        <v>-914.32960886297974</v>
+        <v>234.53663707922496</v>
       </c>
       <c r="AA34" s="150">
         <f t="shared" si="45"/>
-        <v>-921.70408674507178</v>
+        <v>233.42580901803058</v>
       </c>
       <c r="AB34" s="254"/>
     </row>
@@ -24504,67 +24504,67 @@
       </c>
       <c r="L57" s="104">
         <f>K57*(1+L59)</f>
-        <v>1671.9798691013036</v>
+        <v>1681.2727898882304</v>
       </c>
       <c r="M57" s="104">
         <f t="shared" ref="M57:AA57" si="75">L57*(1+M59)</f>
-        <v>1659.4230308902108</v>
+        <v>1680.5644533994202</v>
       </c>
       <c r="N57" s="104">
         <f t="shared" si="75"/>
-        <v>1619.2211047409951</v>
+        <v>1655.7496888137784</v>
       </c>
       <c r="O57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.4442829851005</v>
+        <v>1657.566423178687</v>
       </c>
       <c r="P57" s="104">
         <f t="shared" si="75"/>
-        <v>1618.8215512280372</v>
+        <v>1660.3895203244397</v>
       </c>
       <c r="Q57" s="104">
         <f t="shared" si="75"/>
-        <v>1619.9881006140947</v>
+        <v>1663.9008680978411</v>
       </c>
       <c r="R57" s="104">
         <f t="shared" si="75"/>
-        <v>1623.4161006464742</v>
+        <v>1669.3841935883013</v>
       </c>
       <c r="S57" s="104">
         <f t="shared" si="75"/>
-        <v>1641.1291117459646</v>
+        <v>1686.2794632075206</v>
       </c>
       <c r="T57" s="104">
         <f t="shared" si="75"/>
-        <v>1658.0828891109786</v>
+        <v>1702.5126834431453</v>
       </c>
       <c r="U57" s="104">
         <f t="shared" si="75"/>
-        <v>1671.496653403437</v>
+        <v>1715.659023623029</v>
       </c>
       <c r="V57" s="104">
         <f t="shared" si="75"/>
-        <v>1682.7404982649418</v>
+        <v>1726.9132010123569</v>
       </c>
       <c r="W57" s="104">
         <f t="shared" si="75"/>
-        <v>1719.6838175871369</v>
+        <v>1766.739208199637</v>
       </c>
       <c r="X57" s="104">
         <f t="shared" si="75"/>
-        <v>1749.4846355629252</v>
+        <v>1800.3369771000982</v>
       </c>
       <c r="Y57" s="104">
         <f t="shared" si="75"/>
-        <v>1772.9581607331754</v>
+        <v>1828.4173669491454</v>
       </c>
       <c r="Z57" s="104">
         <f t="shared" si="75"/>
-        <v>1789.4234848797325</v>
+        <v>1850.3866279624326</v>
       </c>
       <c r="AA57" s="104">
         <f t="shared" si="75"/>
-        <v>1797.0902519896126</v>
+        <v>1862.2029187784933</v>
       </c>
       <c r="AB57" s="95"/>
     </row>
@@ -24582,91 +24582,91 @@
       </c>
       <c r="F58" s="104">
         <f t="shared" si="76"/>
-        <v>1915.067</v>
+        <v>2653.2669999999998</v>
       </c>
       <c r="G58" s="149">
         <f t="shared" si="76"/>
-        <v>1653.243063736659</v>
+        <v>2317.9343666284731</v>
       </c>
       <c r="H58" s="104">
         <f t="shared" si="76"/>
-        <v>1447.6763216952199</v>
+        <v>2053.9178721883209</v>
       </c>
       <c r="I58" s="104">
         <f t="shared" si="76"/>
-        <v>1282.6115778747101</v>
+        <v>1841.244964503114</v>
       </c>
       <c r="J58" s="104">
         <f t="shared" si="76"/>
-        <v>1168.218036502012</v>
+        <v>1692.806943814478</v>
       </c>
       <c r="K58" s="274">
         <f t="shared" si="76"/>
-        <v>1196.0977521572081</v>
+        <v>1738.8476760207</v>
       </c>
       <c r="L58" s="104">
         <f t="shared" si="76"/>
-        <v>1201.420957574891</v>
+        <v>1756.293963726893</v>
       </c>
       <c r="M58" s="104">
         <f t="shared" si="76"/>
-        <v>1192.398092607149</v>
+        <v>1755.5540200918881</v>
       </c>
       <c r="N58" s="104">
         <f t="shared" si="76"/>
-        <v>1163.510521947278</v>
+        <v>1729.6319796501559</v>
       </c>
       <c r="O58" s="149">
         <f t="shared" si="76"/>
-        <v>1162.952327464749</v>
+        <v>1731.529779708525</v>
       </c>
       <c r="P58" s="104">
         <f t="shared" si="76"/>
-        <v>1163.223418033522</v>
+        <v>1734.478848120219</v>
       </c>
       <c r="Q58" s="104">
         <f t="shared" si="76"/>
-        <v>1164.061655925231</v>
+        <v>1738.1468780413959</v>
       </c>
       <c r="R58" s="104">
         <f t="shared" si="76"/>
-        <v>1166.5248859901251</v>
+        <v>1743.874878588342</v>
       </c>
       <c r="S58" s="149">
         <f t="shared" si="76"/>
-        <v>1179.2527801172971</v>
+        <v>1761.5240430940889</v>
       </c>
       <c r="T58" s="104">
         <f t="shared" si="76"/>
-        <v>1191.4351178432501</v>
+        <v>1778.481616477271</v>
       </c>
       <c r="U58" s="104">
         <f t="shared" si="76"/>
-        <v>1201.0737372062879</v>
+        <v>1792.214568108853</v>
       </c>
       <c r="V58" s="104">
         <f t="shared" si="76"/>
-        <v>1209.153135236118</v>
+        <v>1803.970925515257</v>
       </c>
       <c r="W58" s="149">
         <f t="shared" si="76"/>
-        <v>1235.6991953270949</v>
+        <v>1845.574035042185</v>
       </c>
       <c r="X58" s="104">
         <f t="shared" si="76"/>
-        <v>1257.112926395658</v>
+        <v>1880.670991984249</v>
       </c>
       <c r="Y58" s="104">
         <f t="shared" si="76"/>
-        <v>1273.980106203785</v>
+        <v>1910.0043752921761</v>
       </c>
       <c r="Z58" s="104">
         <f t="shared" si="76"/>
-        <v>1285.81146007862</v>
+        <v>1932.953941083782</v>
       </c>
       <c r="AA58" s="149">
         <f t="shared" si="76"/>
-        <v>1291.320506480959</v>
+        <v>1945.2974943481329</v>
       </c>
       <c r="AB58" s="95"/>
     </row>
@@ -24684,67 +24684,67 @@
       <c r="K59" s="256"/>
       <c r="L59" s="239">
         <f t="shared" ref="L59" si="77">(L58/K58)-1</f>
-        <v>4.4504769013087309E-3</v>
+        <v>1.0033246699399534E-2</v>
       </c>
       <c r="M59" s="239">
         <f t="shared" ref="M59" si="78">(M58/L58)-1</f>
-        <v>-7.5101611228381993E-3</v>
+        <v>-4.2130967268982911E-4</v>
       </c>
       <c r="N59" s="239">
         <f t="shared" ref="N59" si="79">(N58/M58)-1</f>
-        <v>-2.4226448229809794E-2</v>
+        <v>-1.4765732153531497E-2</v>
       </c>
       <c r="O59" s="256">
         <f t="shared" ref="O59" si="80">(O58/N58)-1</f>
-        <v>-4.7975026611257743E-4</v>
+        <v>1.0972276650162982E-3</v>
       </c>
       <c r="P59" s="239">
         <f t="shared" ref="P59" si="81">(P58/O58)-1</f>
-        <v>2.331054871045346E-4</v>
+        <v>1.7031577777371076E-3</v>
       </c>
       <c r="Q59" s="239">
         <f t="shared" ref="Q59" si="82">(Q58/P58)-1</f>
-        <v>7.2061641703036194E-4</v>
+        <v>2.114773509721557E-3</v>
       </c>
       <c r="R59" s="239">
         <f t="shared" ref="R59" si="83">(R58/Q58)-1</f>
-        <v>2.116064945835161E-3</v>
+        <v>3.2954640481248632E-3</v>
       </c>
       <c r="S59" s="256">
         <f t="shared" ref="S59" si="84">(S58/R58)-1</f>
-        <v>1.0910949504835399E-2</v>
+        <v>1.0120659872131288E-2</v>
       </c>
       <c r="T59" s="239">
         <f t="shared" ref="T59" si="85">(T58/S58)-1</f>
-        <v>1.0330556714686079E-2</v>
+        <v>9.626648838352736E-3</v>
       </c>
       <c r="U59" s="239">
         <f t="shared" ref="U59" si="86">(U58/T58)-1</f>
-        <v>8.0899238394833706E-3</v>
+        <v>7.7217281890062939E-3</v>
       </c>
       <c r="V59" s="239">
         <f t="shared" ref="V59" si="87">(V58/U58)-1</f>
-        <v>6.7268126673245554E-3</v>
+        <v>6.5596818682316371E-3</v>
       </c>
       <c r="W59" s="256">
         <f t="shared" ref="W59" si="88">(W58/V58)-1</f>
-        <v>2.1954258164159635E-2</v>
+        <v>2.3061962329046448E-2</v>
       </c>
       <c r="X59" s="239">
         <f t="shared" ref="X59" si="89">(X58/W58)-1</f>
-        <v>1.7329242545063517E-2</v>
+        <v>1.9016824183518466E-2</v>
       </c>
       <c r="Y59" s="239">
         <f t="shared" ref="Y59" si="90">(Y58/X58)-1</f>
-        <v>1.3417394296062035E-2</v>
+        <v>1.5597296620701417E-2</v>
       </c>
       <c r="Z59" s="239">
         <f t="shared" ref="Z59" si="91">(Z58/Y58)-1</f>
-        <v>9.2869219991904561E-3</v>
+        <v>1.20154519479021E-2</v>
       </c>
       <c r="AA59" s="256">
         <f t="shared" ref="AA59" si="92">(AA58/Z58)-1</f>
-        <v>4.2844900464662494E-3</v>
+        <v>6.3858496583886204E-3</v>
       </c>
       <c r="AB59" s="253"/>
     </row>
@@ -24756,91 +24756,91 @@
       <c r="E60" s="225"/>
       <c r="F60" s="225">
         <f t="shared" ref="F60" si="93">F57-F58</f>
-        <v>593.9340000000002</v>
+        <v>-144.26599999999962</v>
       </c>
       <c r="G60" s="150">
         <f t="shared" ref="G60" si="94">G57-G58</f>
-        <v>313.63927041675925</v>
+        <v>-351.05203247505483</v>
       </c>
       <c r="H60" s="225">
         <f t="shared" ref="H60" si="95">H57-H58</f>
-        <v>1641.5491851595202</v>
+        <v>1035.3076346664193</v>
       </c>
       <c r="I60" s="225">
         <f t="shared" ref="I60" si="96">I57-I58</f>
-        <v>573.89997409674311</v>
+        <v>15.266587468339139</v>
       </c>
       <c r="J60" s="225">
         <f t="shared" ref="J60" si="97">J57-J58</f>
-        <v>500.04967882965548</v>
+        <v>-24.539228482810586</v>
       </c>
       <c r="K60" s="275">
         <f t="shared" ref="K60" si="98">K57-K58</f>
-        <v>468.47397890443426</v>
+        <v>-74.275944959057597</v>
       </c>
       <c r="L60" s="225">
         <f t="shared" ref="L60:AA60" si="99">L57-L58</f>
-        <v>470.55891152641266</v>
+        <v>-75.021173838662662</v>
       </c>
       <c r="M60" s="225">
         <f t="shared" si="99"/>
-        <v>467.02493828306183</v>
+        <v>-74.989566692467861</v>
       </c>
       <c r="N60" s="225">
         <f t="shared" si="99"/>
-        <v>455.71058279371709</v>
+        <v>-73.882290836377479</v>
       </c>
       <c r="O60" s="150">
         <f t="shared" si="99"/>
-        <v>455.49195552035144</v>
+        <v>-73.963356529837938</v>
       </c>
       <c r="P60" s="225">
         <f t="shared" si="99"/>
-        <v>455.59813319451519</v>
+        <v>-74.089327795779354</v>
       </c>
       <c r="Q60" s="225">
         <f t="shared" si="99"/>
-        <v>455.92644468886374</v>
+        <v>-74.246009943554782</v>
       </c>
       <c r="R60" s="225">
         <f t="shared" si="99"/>
-        <v>456.89121465634912</v>
+        <v>-74.490685000040685</v>
       </c>
       <c r="S60" s="150">
         <f t="shared" si="99"/>
-        <v>461.87633162866746</v>
+        <v>-75.244579886568317</v>
       </c>
       <c r="T60" s="225">
         <f t="shared" si="99"/>
-        <v>466.64777126772856</v>
+        <v>-75.968933034125712</v>
       </c>
       <c r="U60" s="225">
         <f t="shared" si="99"/>
-        <v>470.42291619714911</v>
+        <v>-76.55554448582393</v>
       </c>
       <c r="V60" s="225">
         <f t="shared" si="99"/>
-        <v>473.5873630288238</v>
+        <v>-77.057724502900101</v>
       </c>
       <c r="W60" s="150">
         <f t="shared" si="99"/>
-        <v>483.98462226004199</v>
+        <v>-78.834826842547955</v>
       </c>
       <c r="X60" s="225">
         <f t="shared" si="99"/>
-        <v>492.37170916726723</v>
+        <v>-80.334014884150747</v>
       </c>
       <c r="Y60" s="225">
         <f t="shared" si="99"/>
-        <v>498.97805452939042</v>
+        <v>-81.587008343030675</v>
       </c>
       <c r="Z60" s="225">
         <f t="shared" si="99"/>
-        <v>503.61202480111251</v>
+        <v>-82.567313121349343</v>
       </c>
       <c r="AA60" s="150">
         <f t="shared" si="99"/>
-        <v>505.76974550865361</v>
+        <v>-83.094575569639574</v>
       </c>
       <c r="AB60" s="254"/>
     </row>
@@ -25790,8 +25790,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="M23:M24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F34:AA34)</f>
-        <v>-597.15600000000018</v>
+        <v>141.0440000000001</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
@@ -25929,7 +25929,7 @@
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>593.9340000000002</v>
+        <v>-144.26599999999962</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
@@ -25971,7 +25971,7 @@
         <v>-20.937831399481894</v>
       </c>
       <c r="C4">
-        <v>-669.01923060076751</v>
+        <v>103.25698590656407</v>
       </c>
       <c r="D4">
         <v>-1.0953270393285948</v>
@@ -25983,7 +25983,7 @@
         <v>33.585746620749433</v>
       </c>
       <c r="G4">
-        <v>313.63927041675925</v>
+        <v>-351.05203247505483</v>
       </c>
       <c r="H4">
         <v>-833.94013103694624</v>
@@ -26019,7 +26019,7 @@
         <v>-26.641254195579705</v>
       </c>
       <c r="C5">
-        <v>-687.95031144904317</v>
+        <v>107.63193107562813</v>
       </c>
       <c r="D5">
         <v>-1.1134929435183949</v>
@@ -26031,7 +26031,7 @@
         <v>47.561193892373922</v>
       </c>
       <c r="G5">
-        <v>1641.5491851595202</v>
+        <v>1035.3076346664193</v>
       </c>
       <c r="H5">
         <v>-643.57844188676734</v>
@@ -26054,7 +26054,7 @@
       <c r="O5">
         <v>71.400000000000006</v>
       </c>
-      <c r="P5" s="353">
+      <c r="P5" s="313">
         <f>664000/1000</f>
         <v>664</v>
       </c>
@@ -26067,7 +26067,7 @@
         <v>-34.183111242533812</v>
       </c>
       <c r="C6">
-        <v>-704.80536970482467</v>
+        <v>116.0025854053485</v>
       </c>
       <c r="D6">
         <v>-1.1311990867463919</v>
@@ -26079,7 +26079,7 @@
         <v>57.608534007630169</v>
       </c>
       <c r="G6">
-        <v>573.89997409674311</v>
+        <v>15.266587468339139</v>
       </c>
       <c r="H6">
         <v>-647.99123064723142</v>
@@ -26114,7 +26114,7 @@
         <v>-41.724968289487691</v>
       </c>
       <c r="C7">
-        <v>-699.09796267765057</v>
+        <v>138.64401002534075</v>
       </c>
       <c r="D7">
         <v>-1.150124131134362</v>
@@ -26126,7 +26126,7 @@
         <v>62.552903706427287</v>
       </c>
       <c r="G7">
-        <v>500.04967882965548</v>
+        <v>-24.539228482810586</v>
       </c>
       <c r="H7">
         <v>-652.75653890924525</v>
@@ -26161,7 +26161,7 @@
         <v>-39.457568432331414</v>
       </c>
       <c r="C8">
-        <v>-723.32551143143894</v>
+        <v>125.59921378630472</v>
       </c>
       <c r="D8">
         <v>-1.1627996340230311</v>
@@ -26173,7 +26173,7 @@
         <v>64.144221767586032</v>
       </c>
       <c r="G8">
-        <v>468.47397890443426</v>
+        <v>-74.275944959057597</v>
       </c>
       <c r="H8">
         <v>-1112.559918312772</v>
@@ -26208,7 +26208,7 @@
         <v>5.749168324439097</v>
       </c>
       <c r="C9">
-        <v>-748.96351441585216</v>
+        <v>110.76885817974633</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -26220,7 +26220,7 @@
         <v>65.735539828744777</v>
       </c>
       <c r="G9">
-        <v>470.55891152641266</v>
+        <v>-75.021173838662662</v>
       </c>
       <c r="H9">
         <v>-1163.3117757737041</v>
@@ -26255,7 +26255,7 @@
         <v>8.0165681815954883</v>
       </c>
       <c r="C10">
-        <v>-769.58675706235056</v>
+        <v>134.01495632101853</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -26267,7 +26267,7 @@
         <v>67.326857889903522</v>
       </c>
       <c r="G10">
-        <v>467.02493828306183</v>
+        <v>-74.989566692467861</v>
       </c>
       <c r="H10">
         <v>-1168.3939307885266</v>
@@ -26302,7 +26302,7 @@
         <v>7.9343178535486345</v>
       </c>
       <c r="C11">
-        <v>-788.78977985120866</v>
+        <v>156.03495667590502</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>68.918175951062267</v>
       </c>
       <c r="G11">
-        <v>455.71058279371709</v>
+        <v>-73.882290836377479</v>
       </c>
       <c r="H11">
         <v>-1173.5410146130612</v>
@@ -26349,7 +26349,7 @@
         <v>7.8528747680539652</v>
       </c>
       <c r="C12">
-        <v>-806.39761875672991</v>
+        <v>176.62440241677263</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -26361,7 +26361,7 @@
         <v>69.113046846045563</v>
       </c>
       <c r="G12">
-        <v>455.49195552035144</v>
+        <v>-73.963356529837938</v>
       </c>
       <c r="H12">
         <v>-1178.7530272473091</v>
@@ -26396,7 +26396,7 @@
         <v>7.771431682559296</v>
       </c>
       <c r="C13">
-        <v>-823.60779610211262</v>
+        <v>196.87054077745219</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -26408,7 +26408,7 @@
         <v>69.307917741028632</v>
       </c>
       <c r="G13">
-        <v>455.59813319451519</v>
+        <v>-74.089327795779354</v>
       </c>
       <c r="H13">
         <v>-1184.0417739294007</v>
@@ -26443,7 +26443,7 @@
         <v>7.6899885970646267</v>
       </c>
       <c r="C14">
-        <v>-842.06776692221842</v>
+        <v>218.19564519015159</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -26455,7 +26455,7 @@
         <v>69.502788636011701</v>
       </c>
       <c r="G14">
-        <v>455.92644468886374</v>
+        <v>-74.246009943554782</v>
       </c>
       <c r="H14">
         <v>-1189.3541310877511</v>
@@ -26490,7 +26490,7 @@
         <v>7.6085455115699858</v>
       </c>
       <c r="C15">
-        <v>-860.41412015371282</v>
+        <v>239.42266177993977</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>69.697659530994997</v>
       </c>
       <c r="G15">
-        <v>456.89121465634912</v>
+        <v>-74.490685000040685</v>
       </c>
       <c r="H15">
         <v>-1194.7432222939442</v>
@@ -26537,7 +26537,7 @@
         <v>7.694282358640038</v>
       </c>
       <c r="C16">
-        <v>-866.16924385352081</v>
+        <v>238.71874531468063</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -26549,7 +26549,7 @@
         <v>70.228421056227035</v>
       </c>
       <c r="G16">
-        <v>461.87633162866746</v>
+        <v>-75.244579886568317</v>
       </c>
       <c r="H16">
         <v>-1200.2090475479797</v>
@@ -26584,7 +26584,7 @@
         <v>7.7800192057100617</v>
       </c>
       <c r="C17">
-        <v>-872.60607308499641</v>
+        <v>238.60335578688702</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -26596,7 +26596,7 @@
         <v>70.759182581458845</v>
       </c>
       <c r="G17">
-        <v>466.64777126772856</v>
+        <v>-75.968933034125712</v>
       </c>
       <c r="H17">
         <v>-1205.733898992665</v>
@@ -26631,7 +26631,7 @@
         <v>7.8657560527801138</v>
       </c>
       <c r="C18">
-        <v>-879.66779905383373</v>
+        <v>239.0274492851027</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -26643,7 +26643,7 @@
         <v>71.289944106690882</v>
       </c>
       <c r="G18">
-        <v>470.42291619714911</v>
+        <v>-76.55554448582393</v>
       </c>
       <c r="H18">
         <v>-1211.2705556754795</v>
@@ -26678,7 +26678,7 @@
         <v>7.9514928998501375</v>
       </c>
       <c r="C19">
-        <v>-887.63846573156081</v>
+        <v>240.23624536660571</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -26690,7 +26690,7 @@
         <v>71.82070563192292</v>
       </c>
       <c r="G19">
-        <v>473.5873630288238</v>
+        <v>-77.057724502900101</v>
       </c>
       <c r="H19">
         <v>-1216.8367254536176</v>
@@ -26725,7 +26725,7 @@
         <v>8.0601016192330803</v>
       </c>
       <c r="C20">
-        <v>-894.04140974146321</v>
+        <v>238.57838471534725</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         <v>73.535966403592056</v>
       </c>
       <c r="G20">
-        <v>483.98462226004199</v>
+        <v>-78.834826842547955</v>
       </c>
       <c r="H20">
         <v>-1222.4324083270799</v>
@@ -26772,7 +26772,7 @@
         <v>8.1687103386159947</v>
       </c>
       <c r="C21">
-        <v>-900.33073616275578</v>
+        <v>236.822436241178</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -26784,7 +26784,7 @@
         <v>75.251227175261192</v>
       </c>
       <c r="G21">
-        <v>492.37170916726723</v>
+        <v>-80.334014884150747</v>
       </c>
       <c r="H21">
         <v>-1228.0398964386723</v>
@@ -26819,7 +26819,7 @@
         <v>8.2773190579989091</v>
       </c>
       <c r="C22">
-        <v>-907.07453293849244</v>
+        <v>235.45883905865185</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -26831,7 +26831,7 @@
         <v>76.966487946930556</v>
       </c>
       <c r="G22">
-        <v>498.97805452939042</v>
+        <v>-81.587008343030675</v>
       </c>
       <c r="H22">
         <v>-1233.6178714549401</v>
@@ -26866,7 +26866,7 @@
         <v>8.3859277773818519</v>
       </c>
       <c r="C23">
-        <v>-914.32960886297974</v>
+        <v>234.53663707922496</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -26878,7 +26878,7 @@
         <v>78.68174871859992</v>
       </c>
       <c r="G23">
-        <v>503.61202480111251</v>
+        <v>-82.567313121349343</v>
       </c>
       <c r="H23">
         <v>-1239.2017490902733</v>
@@ -26913,7 +26913,7 @@
         <v>8.4989455787047632</v>
       </c>
       <c r="C24">
-        <v>-921.70408674507178</v>
+        <v>233.42580901803058</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>79.962880996821241</v>
       </c>
       <c r="G24">
-        <v>505.76974550865361</v>
+        <v>-83.094575569639574</v>
       </c>
       <c r="H24">
         <v>-1244.7856267256061</v>
@@ -26961,7 +26961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37CCB5-9AFD-AA42-ADF6-76E6C38F7458}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -26972,36 +26972,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="314" t="s">
+      <c r="D1" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314" t="s">
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314" t="s">
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="314"/>
-      <c r="P1" s="314" t="s">
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="315"/>
+      <c r="P1" s="315" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="314"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="314"/>
-      <c r="T1" s="314" t="s">
+      <c r="Q1" s="315"/>
+      <c r="R1" s="315"/>
+      <c r="S1" s="315"/>
+      <c r="T1" s="315" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="314"/>
-      <c r="V1" s="314"/>
-      <c r="W1" s="314"/>
+      <c r="U1" s="315"/>
+      <c r="V1" s="315"/>
+      <c r="W1" s="315"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="199" t="s">
@@ -27411,22 +27411,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="320"/>
+      <c r="B1" s="321"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="327" t="s">
+      <c r="J1" s="328" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="314"/>
-      <c r="W1" s="314"/>
-      <c r="X1" s="314"/>
-      <c r="Y1" s="314"/>
+      <c r="V1" s="315"/>
+      <c r="W1" s="315"/>
+      <c r="X1" s="315"/>
+      <c r="Y1" s="315"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="322" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -27435,20 +27435,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="327"/>
+      <c r="J2" s="328"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="322"/>
+      <c r="A3" s="323"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="327"/>
+      <c r="J3" s="328"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -27458,7 +27458,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="323"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -27473,42 +27473,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="325" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="324" t="s">
+      <c r="D7" s="326"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="325" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="324" t="s">
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
+      <c r="K7" s="325" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="325"/>
-      <c r="M7" s="325"/>
-      <c r="N7" s="325"/>
-      <c r="O7" s="324" t="s">
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
+      <c r="N7" s="326"/>
+      <c r="O7" s="325" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="325"/>
-      <c r="Q7" s="325"/>
-      <c r="R7" s="325"/>
-      <c r="S7" s="324" t="s">
+      <c r="P7" s="326"/>
+      <c r="Q7" s="326"/>
+      <c r="R7" s="326"/>
+      <c r="S7" s="325" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="325"/>
-      <c r="U7" s="325"/>
-      <c r="V7" s="325"/>
-      <c r="W7" s="324" t="s">
+      <c r="T7" s="326"/>
+      <c r="U7" s="326"/>
+      <c r="V7" s="326"/>
+      <c r="W7" s="325" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="325"/>
-      <c r="Y7" s="325"/>
-      <c r="Z7" s="325"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -31949,9 +31949,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32172,27 +32175,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32217,9 +32208,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29472AD-BB99-499B-9090-BDDA871E27AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8D0E3-F3E5-483A-ABAE-DE6D45E8FCCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
     <numFmt numFmtId="172" formatCode="0.0000"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2424,12 +2424,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3526,6 +3520,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3592,6 +3596,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3613,43 +3632,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4184,10 +4178,10 @@
   <dimension ref="A1:AS115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4211,10 +4205,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="325" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="317"/>
+      <c r="B1" s="325"/>
       <c r="C1" s="279"/>
       <c r="D1" s="279"/>
       <c r="E1" s="35"/>
@@ -4230,78 +4224,78 @@
       <c r="AE1" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="AF1" s="319" t="s">
+      <c r="AF1" s="327" t="s">
         <v>247</v>
       </c>
-      <c r="AG1" s="319"/>
-      <c r="AH1" s="319"/>
+      <c r="AG1" s="327"/>
+      <c r="AH1" s="327"/>
       <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="320" t="s">
+      <c r="AK1" s="328" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="320"/>
-      <c r="AM1" s="320"/>
-      <c r="AN1" s="320"/>
-      <c r="AO1" s="318" t="s">
+      <c r="AL1" s="328"/>
+      <c r="AM1" s="328"/>
+      <c r="AN1" s="328"/>
+      <c r="AO1" s="326" t="s">
         <v>279</v>
       </c>
-      <c r="AP1" s="318"/>
-      <c r="AQ1" s="318"/>
-      <c r="AR1" s="318"/>
+      <c r="AP1" s="326"/>
+      <c r="AQ1" s="326"/>
+      <c r="AR1" s="326"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="F2" s="316" t="s">
+      <c r="F2" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316" t="s">
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
       <c r="N2" s="314"/>
       <c r="O2" s="314"/>
-      <c r="P2" s="316" t="s">
+      <c r="P2" s="324" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316" t="s">
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
+      <c r="S2" s="324"/>
+      <c r="T2" s="324" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316" t="s">
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324" t="s">
         <v>268</v>
       </c>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
+      <c r="AA2" s="324"/>
       <c r="AB2" s="229"/>
       <c r="AC2" s="296"/>
       <c r="AD2" s="229"/>
       <c r="AE2" s="156"/>
-      <c r="AF2" s="316" t="s">
+      <c r="AF2" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="AG2" s="316"/>
-      <c r="AH2" s="316"/>
+      <c r="AG2" s="324"/>
+      <c r="AH2" s="324"/>
       <c r="AI2" s="156"/>
       <c r="AJ2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="316" t="s">
+      <c r="AK2" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="316"/>
-      <c r="AM2" s="316"/>
+      <c r="AL2" s="324"/>
+      <c r="AM2" s="324"/>
       <c r="AN2" s="230"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
@@ -4329,8 +4323,8 @@
       <c r="M3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="355"/>
-      <c r="O3" s="355"/>
+      <c r="N3" s="315"/>
+      <c r="O3" s="315"/>
       <c r="P3" t="s">
         <v>5</v>
       </c>
@@ -4411,10 +4405,10 @@
       </c>
     </row>
     <row r="4" spans="1:45" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="323" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="315"/>
+      <c r="B4" s="323"/>
       <c r="C4" s="279"/>
       <c r="D4" s="279"/>
       <c r="F4" s="199"/>
@@ -4425,8 +4419,8 @@
       <c r="K4" s="199"/>
       <c r="L4" s="199"/>
       <c r="M4" s="199"/>
-      <c r="N4" s="355"/>
-      <c r="O4" s="355"/>
+      <c r="N4" s="315"/>
+      <c r="O4" s="315"/>
       <c r="AE4" s="192"/>
       <c r="AF4" s="180"/>
       <c r="AG4" s="192"/>
@@ -4473,10 +4467,10 @@
         <f>VLOOKUP(C5,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>21170.3</v>
       </c>
-      <c r="N5" s="355">
+      <c r="N5" s="315">
         <v>21157.1</v>
       </c>
-      <c r="O5" s="355">
+      <c r="O5" s="315">
         <f>N5-M5</f>
         <v>-13.200000000000728</v>
       </c>
@@ -4562,11 +4556,11 @@
         <f t="shared" si="0"/>
         <v>8.4538501339644911E-2</v>
       </c>
-      <c r="N6" s="356">
+      <c r="N6" s="316">
         <v>8.3862275295720767E-2</v>
       </c>
-      <c r="O6" s="355">
-        <f t="shared" ref="O6:O69" si="1">N6-M6</f>
+      <c r="O6" s="315">
+        <f t="shared" ref="O6:O68" si="1">N6-M6</f>
         <v>-6.7622604392414409E-4</v>
       </c>
       <c r="P6" s="198">
@@ -4657,10 +4651,10 @@
         <f>VLOOKUP(C7,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>18596.5</v>
       </c>
-      <c r="N7" s="355">
+      <c r="N7" s="315">
         <v>18583.5</v>
       </c>
-      <c r="O7" s="355">
+      <c r="O7" s="315">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
@@ -4725,8 +4719,8 @@
       <c r="K8" s="217"/>
       <c r="L8" s="217"/>
       <c r="M8" s="199"/>
-      <c r="N8" s="355"/>
-      <c r="O8" s="355"/>
+      <c r="N8" s="315"/>
+      <c r="O8" s="315"/>
       <c r="P8" s="216"/>
       <c r="Q8" s="216"/>
       <c r="R8" s="216"/>
@@ -4756,8 +4750,8 @@
       <c r="K9" s="199"/>
       <c r="L9" s="199"/>
       <c r="M9" s="199"/>
-      <c r="N9" s="355"/>
-      <c r="O9" s="355"/>
+      <c r="N9" s="315"/>
+      <c r="O9" s="315"/>
       <c r="AE9" s="192"/>
       <c r="AF9" s="180"/>
       <c r="AG9" s="192"/>
@@ -4781,8 +4775,8 @@
       <c r="K10" s="199"/>
       <c r="L10" s="199"/>
       <c r="M10" s="199"/>
-      <c r="N10" s="355"/>
-      <c r="O10" s="355"/>
+      <c r="N10" s="315"/>
+      <c r="O10" s="315"/>
       <c r="AF10" s="146"/>
       <c r="AK10" s="146"/>
     </row>
@@ -4822,10 +4816,10 @@
         <f t="shared" si="2"/>
         <v>3262.3</v>
       </c>
-      <c r="N11" s="355">
+      <c r="N11" s="315">
         <v>3261.5</v>
       </c>
-      <c r="O11" s="355">
+      <c r="O11" s="315">
         <f t="shared" si="1"/>
         <v>-0.8000000000001819</v>
       </c>
@@ -4905,10 +4899,10 @@
         <f>VLOOKUP(C12,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1687.4</v>
       </c>
-      <c r="N12" s="355">
+      <c r="N12" s="315">
         <v>1687.2</v>
       </c>
-      <c r="O12" s="355">
+      <c r="O12" s="315">
         <f t="shared" si="1"/>
         <v>-0.20000000000004547</v>
       </c>
@@ -5005,8 +4999,8 @@
       <c r="K13" s="201"/>
       <c r="L13" s="201"/>
       <c r="M13" s="199"/>
-      <c r="N13" s="355"/>
-      <c r="O13" s="355"/>
+      <c r="N13" s="315"/>
+      <c r="O13" s="315"/>
       <c r="P13" s="176">
         <v>0.06</v>
       </c>
@@ -5087,10 +5081,10 @@
         <f>VLOOKUP(C14,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>144.69999999999999</v>
       </c>
-      <c r="N14" s="355">
+      <c r="N14" s="315">
         <v>144.69999999999999</v>
       </c>
-      <c r="O14" s="355">
+      <c r="O14" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5183,8 +5177,8 @@
       <c r="K15" s="201"/>
       <c r="L15" s="201"/>
       <c r="M15" s="199"/>
-      <c r="N15" s="355"/>
-      <c r="O15" s="355"/>
+      <c r="N15" s="315"/>
+      <c r="O15" s="315"/>
       <c r="P15" s="176">
         <v>0.04</v>
       </c>
@@ -5265,10 +5259,10 @@
         <f>VLOOKUP(C16,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1430.2</v>
       </c>
-      <c r="N16" s="355">
+      <c r="N16" s="315">
         <v>1429.6</v>
       </c>
-      <c r="O16" s="355">
+      <c r="O16" s="315">
         <f t="shared" si="1"/>
         <v>-0.60000000000013642</v>
       </c>
@@ -5365,8 +5359,8 @@
       <c r="K17" s="201"/>
       <c r="L17" s="201"/>
       <c r="M17" s="199"/>
-      <c r="N17" s="355"/>
-      <c r="O17" s="355"/>
+      <c r="N17" s="315"/>
+      <c r="O17" s="315"/>
       <c r="P17" s="176">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5447,10 +5441,10 @@
         <f>VLOOKUP(C18,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>207</v>
       </c>
-      <c r="N18" s="355">
+      <c r="N18" s="315">
         <v>205.3</v>
       </c>
-      <c r="O18" s="355">
+      <c r="O18" s="315">
         <f t="shared" si="1"/>
         <v>-1.6999999999999886</v>
       </c>
@@ -5546,8 +5540,8 @@
       <c r="K19" s="201"/>
       <c r="L19" s="201"/>
       <c r="M19" s="199"/>
-      <c r="N19" s="355"/>
-      <c r="O19" s="355"/>
+      <c r="N19" s="315"/>
+      <c r="O19" s="315"/>
       <c r="P19" s="176">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5604,8 +5598,8 @@
       <c r="K20" s="201"/>
       <c r="L20" s="201"/>
       <c r="M20" s="199"/>
-      <c r="N20" s="355"/>
-      <c r="O20" s="355"/>
+      <c r="N20" s="315"/>
+      <c r="O20" s="315"/>
       <c r="P20" s="176"/>
       <c r="Q20" s="176"/>
       <c r="R20" s="176"/>
@@ -5646,8 +5640,8 @@
       <c r="K21" s="201"/>
       <c r="L21" s="201"/>
       <c r="M21" s="199"/>
-      <c r="N21" s="355"/>
-      <c r="O21" s="355"/>
+      <c r="N21" s="315"/>
+      <c r="O21" s="315"/>
       <c r="P21" s="176"/>
       <c r="Q21" s="176"/>
       <c r="R21" s="176"/>
@@ -5710,10 +5704,10 @@
         <f t="shared" si="13"/>
         <v>1871.3489999999999</v>
       </c>
-      <c r="N22" s="355">
+      <c r="N22" s="315">
         <v>1836.9459999999999</v>
       </c>
-      <c r="O22" s="355">
+      <c r="O22" s="315">
         <f t="shared" si="1"/>
         <v>-34.40300000000002</v>
       </c>
@@ -5787,10 +5781,10 @@
         <f>VLOOKUP(C23,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>506.6</v>
       </c>
-      <c r="N23" s="355">
+      <c r="N23" s="315">
         <v>499.4</v>
       </c>
-      <c r="O23" s="355">
+      <c r="O23" s="315">
         <f t="shared" si="1"/>
         <v>-7.2000000000000455</v>
       </c>
@@ -5864,10 +5858,10 @@
         <f>VLOOKUP(C24,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1344.5</v>
       </c>
-      <c r="N24" s="355">
+      <c r="N24" s="315">
         <v>1317.3</v>
       </c>
-      <c r="O24" s="355">
+      <c r="O24" s="315">
         <f t="shared" si="1"/>
         <v>-27.200000000000045</v>
       </c>
@@ -5941,10 +5935,10 @@
         <f>VLOOKUP(C25,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>20.248999999999999</v>
       </c>
-      <c r="N25" s="355">
+      <c r="N25" s="315">
         <v>20.245999999999999</v>
       </c>
-      <c r="O25" s="355">
+      <c r="O25" s="315">
         <f t="shared" si="1"/>
         <v>-3.0000000000001137E-3</v>
       </c>
@@ -6018,10 +6012,10 @@
         <f>VLOOKUP(C26,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>90.2</v>
       </c>
-      <c r="N26" s="355">
+      <c r="N26" s="315">
         <v>79.099999999999994</v>
       </c>
-      <c r="O26" s="355">
+      <c r="O26" s="315">
         <f t="shared" si="1"/>
         <v>-11.100000000000009</v>
       </c>
@@ -6095,8 +6089,8 @@
         <v>0.31603498542274056</v>
       </c>
       <c r="M27" s="199"/>
-      <c r="N27" s="355"/>
-      <c r="O27" s="355"/>
+      <c r="N27" s="315"/>
+      <c r="O27" s="315"/>
       <c r="P27" s="195"/>
       <c r="Q27" s="195"/>
       <c r="R27" s="195"/>
@@ -6120,8 +6114,8 @@
       <c r="K28" s="201"/>
       <c r="L28" s="201"/>
       <c r="M28" s="199"/>
-      <c r="N28" s="355"/>
-      <c r="O28" s="355"/>
+      <c r="N28" s="315"/>
+      <c r="O28" s="315"/>
       <c r="P28" s="176"/>
       <c r="Q28" s="176"/>
       <c r="R28" s="176"/>
@@ -6166,8 +6160,8 @@
       <c r="K29" s="199"/>
       <c r="L29" s="203"/>
       <c r="M29" s="199"/>
-      <c r="N29" s="355"/>
-      <c r="O29" s="355"/>
+      <c r="N29" s="315"/>
+      <c r="O29" s="315"/>
       <c r="P29" s="88"/>
       <c r="Q29" s="88"/>
       <c r="R29" s="88"/>
@@ -6218,10 +6212,10 @@
         <f>VLOOKUP(C30,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>3494888</v>
       </c>
-      <c r="N30" s="355">
+      <c r="N30" s="315">
         <v>3488125</v>
       </c>
-      <c r="O30" s="355">
+      <c r="O30" s="315">
         <f t="shared" si="1"/>
         <v>-6763</v>
       </c>
@@ -6327,10 +6321,10 @@
         <f>VLOOKUP(C31,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>842733</v>
       </c>
-      <c r="N31" s="355">
+      <c r="N31" s="315">
         <v>842733</v>
       </c>
-      <c r="O31" s="355">
+      <c r="O31" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6452,10 +6446,10 @@
         <f>VLOOKUP(C32,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>15600</v>
       </c>
-      <c r="N32" s="355">
+      <c r="N32" s="315">
         <v>15600</v>
       </c>
-      <c r="O32" s="355">
+      <c r="O32" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6514,8 +6508,8 @@
       <c r="K33" s="286"/>
       <c r="L33" s="286"/>
       <c r="M33" s="287"/>
-      <c r="N33" s="357"/>
-      <c r="O33" s="355"/>
+      <c r="N33" s="317"/>
+      <c r="O33" s="315"/>
       <c r="P33" s="288"/>
       <c r="Q33" s="288">
         <f>'Stimulus Round 2'!C4*4</f>
@@ -6549,8 +6543,8 @@
       <c r="K34" s="286"/>
       <c r="L34" s="286"/>
       <c r="M34" s="287"/>
-      <c r="N34" s="357"/>
-      <c r="O34" s="355"/>
+      <c r="N34" s="317"/>
+      <c r="O34" s="315"/>
       <c r="P34" s="288"/>
       <c r="Q34" s="288">
         <f>'Stimulus Round 2'!$C$15*4/2</f>
@@ -6587,8 +6581,8 @@
       <c r="K35" s="286"/>
       <c r="L35" s="286"/>
       <c r="M35" s="287"/>
-      <c r="N35" s="357"/>
-      <c r="O35" s="355"/>
+      <c r="N35" s="317"/>
+      <c r="O35" s="315"/>
       <c r="P35" s="288"/>
       <c r="Q35" s="288">
         <f>'Stimulus Round 2'!$C$19*4/4</f>
@@ -6648,10 +6642,10 @@
         <f>M37+M40</f>
         <v>881354</v>
       </c>
-      <c r="N36" s="355">
+      <c r="N36" s="315">
         <v>874878</v>
       </c>
-      <c r="O36" s="355">
+      <c r="O36" s="315">
         <f t="shared" si="1"/>
         <v>-6476</v>
       </c>
@@ -6750,10 +6744,10 @@
         <f>VLOOKUP(C37,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>775154</v>
       </c>
-      <c r="N37" s="355">
+      <c r="N37" s="315">
         <v>768678</v>
       </c>
-      <c r="O37" s="355">
+      <c r="O37" s="315">
         <f t="shared" si="1"/>
         <v>-6476</v>
       </c>
@@ -6800,10 +6794,10 @@
         <f>M39+M40</f>
         <v>738200</v>
       </c>
-      <c r="N38" s="355">
+      <c r="N38" s="315">
         <v>738200</v>
       </c>
-      <c r="O38" s="355">
+      <c r="O38" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6870,10 +6864,10 @@
         <f>1000*'figuring out UI'!N17</f>
         <v>632000</v>
       </c>
-      <c r="N39" s="355">
+      <c r="N39" s="315">
         <v>632000</v>
       </c>
-      <c r="O39" s="355">
+      <c r="O39" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6950,10 +6944,10 @@
       <c r="M40" s="199">
         <v>106200</v>
       </c>
-      <c r="N40" s="355">
+      <c r="N40" s="315">
         <v>106200</v>
       </c>
-      <c r="O40" s="355">
+      <c r="O40" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6998,8 +6992,8 @@
       <c r="K41" s="286"/>
       <c r="L41" s="286"/>
       <c r="M41" s="287"/>
-      <c r="N41" s="357"/>
-      <c r="O41" s="355"/>
+      <c r="N41" s="317"/>
+      <c r="O41" s="315"/>
       <c r="P41" s="288"/>
       <c r="Q41" s="288">
         <f>'Stimulus Round 2'!$C$3*4</f>
@@ -7051,10 +7045,10 @@
         <f>1000*'figuring out UI'!N18</f>
         <v>140000</v>
       </c>
-      <c r="N42" s="355">
+      <c r="N42" s="315">
         <v>140000</v>
       </c>
-      <c r="O42" s="355">
+      <c r="O42" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7142,10 +7136,10 @@
         <f>SUM(M44:M45)</f>
         <v>85400</v>
       </c>
-      <c r="N43" s="355">
+      <c r="N43" s="315">
         <v>85400</v>
       </c>
-      <c r="O43" s="355">
+      <c r="O43" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7226,10 +7220,10 @@
         <f>VLOOKUP(C44,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>27000</v>
       </c>
-      <c r="N44" s="355">
+      <c r="N44" s="315">
         <v>27000</v>
       </c>
-      <c r="O44" s="355">
+      <c r="O44" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7293,10 +7287,10 @@
         <f>VLOOKUP(C45,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>58400</v>
       </c>
-      <c r="N45" s="355">
+      <c r="N45" s="315">
         <v>58400</v>
       </c>
-      <c r="O45" s="355">
+      <c r="O45" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7372,10 +7366,10 @@
         <f>M30-M32-M36-M31-M43</f>
         <v>1669801</v>
       </c>
-      <c r="N46" s="358">
+      <c r="N46" s="318">
         <v>1669514</v>
       </c>
-      <c r="O46" s="355">
+      <c r="O46" s="315">
         <f t="shared" si="1"/>
         <v>-287</v>
       </c>
@@ -7493,8 +7487,8 @@
         <v>2.938781628264131E-2</v>
       </c>
       <c r="M47" s="199"/>
-      <c r="N47" s="355"/>
-      <c r="O47" s="355">
+      <c r="N47" s="315"/>
+      <c r="O47" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7536,8 +7530,8 @@
       <c r="K48" s="202"/>
       <c r="L48" s="202"/>
       <c r="M48" s="199"/>
-      <c r="N48" s="355"/>
-      <c r="O48" s="355">
+      <c r="N48" s="315"/>
+      <c r="O48" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7597,8 +7591,8 @@
       <c r="K49" s="199"/>
       <c r="L49" s="199"/>
       <c r="M49" s="199"/>
-      <c r="N49" s="355"/>
-      <c r="O49" s="355"/>
+      <c r="N49" s="315"/>
+      <c r="O49" s="315"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -7662,10 +7656,10 @@
         <f>VLOOKUP(C50,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>1213480</v>
       </c>
-      <c r="N50" s="358">
+      <c r="N50" s="318">
         <v>1213308</v>
       </c>
-      <c r="O50" s="355">
+      <c r="O50" s="315">
         <f t="shared" si="1"/>
         <v>-172</v>
       </c>
@@ -7750,7 +7744,7 @@
       <c r="N51" s="116">
         <v>1093900</v>
       </c>
-      <c r="O51" s="355">
+      <c r="O51" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7815,7 +7809,7 @@
       <c r="K52" s="204"/>
       <c r="L52" s="204"/>
       <c r="M52" s="204"/>
-      <c r="O52" s="355"/>
+      <c r="O52" s="315"/>
       <c r="P52" s="116"/>
       <c r="Q52" s="116"/>
       <c r="R52" s="116"/>
@@ -7859,10 +7853,10 @@
         <f>VLOOKUP(C53,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>865600</v>
       </c>
-      <c r="N53" s="358">
+      <c r="N53" s="318">
         <v>865600</v>
       </c>
-      <c r="O53" s="355">
+      <c r="O53" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7935,7 +7929,7 @@
         <f>SUM(N55:N57)</f>
         <v>228300</v>
       </c>
-      <c r="O54" s="362">
+      <c r="O54" s="322">
         <f>N56-M56</f>
         <v>0</v>
       </c>
@@ -8004,10 +7998,10 @@
         <f>VLOOKUP(C55,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>15000</v>
       </c>
-      <c r="N55" s="355">
+      <c r="N55" s="315">
         <v>15000</v>
       </c>
-      <c r="O55" s="362">
+      <c r="O55" s="322">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8057,7 +8051,7 @@
         <f>VLOOKUP(C56,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>73300</v>
       </c>
-      <c r="N56" s="359">
+      <c r="N56" s="319">
         <v>73300</v>
       </c>
       <c r="P56" s="264"/>
@@ -8106,10 +8100,10 @@
         <f>VLOOKUP(C57,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>140000</v>
       </c>
-      <c r="N57" s="359">
+      <c r="N57" s="319">
         <v>140000</v>
       </c>
-      <c r="O57" s="362">
+      <c r="O57" s="322">
         <f>N57-M57</f>
         <v>0</v>
       </c>
@@ -8149,8 +8143,8 @@
       <c r="K58" s="263"/>
       <c r="L58" s="263"/>
       <c r="M58" s="199"/>
-      <c r="N58" s="355"/>
-      <c r="O58" s="355"/>
+      <c r="N58" s="315"/>
+      <c r="O58" s="315"/>
       <c r="P58" s="264"/>
       <c r="Q58" s="264"/>
       <c r="R58" s="264"/>
@@ -8185,8 +8179,8 @@
       <c r="K59" s="286"/>
       <c r="L59" s="286"/>
       <c r="M59" s="287"/>
-      <c r="N59" s="357"/>
-      <c r="O59" s="355"/>
+      <c r="N59" s="317"/>
+      <c r="O59" s="315"/>
       <c r="P59" s="292"/>
       <c r="Q59" s="292">
         <f>'Stimulus Round 2'!$C$2*4/3</f>
@@ -8230,8 +8224,8 @@
       <c r="K60" s="286"/>
       <c r="L60" s="286"/>
       <c r="M60" s="287"/>
-      <c r="N60" s="357"/>
-      <c r="O60" s="355"/>
+      <c r="N60" s="317"/>
+      <c r="O60" s="315"/>
       <c r="P60" s="292"/>
       <c r="Q60" s="292">
         <f>'Stimulus Round 2'!$C$12*4/3</f>
@@ -8275,8 +8269,8 @@
       <c r="K61" s="286"/>
       <c r="L61" s="286"/>
       <c r="M61" s="287"/>
-      <c r="N61" s="357"/>
-      <c r="O61" s="355"/>
+      <c r="N61" s="317"/>
+      <c r="O61" s="315"/>
       <c r="P61" s="292"/>
       <c r="Q61" s="292">
         <f>'Stimulus Round 2'!$C$18*4/4</f>
@@ -8323,8 +8317,8 @@
       <c r="K62" s="286"/>
       <c r="L62" s="286"/>
       <c r="M62" s="287"/>
-      <c r="N62" s="357"/>
-      <c r="O62" s="355"/>
+      <c r="N62" s="317"/>
+      <c r="O62" s="315"/>
       <c r="P62" s="292"/>
       <c r="Q62" s="292">
         <f>'Stimulus Round 2'!$C$20*4/8</f>
@@ -8381,8 +8375,8 @@
       <c r="K63" s="204"/>
       <c r="L63" s="204"/>
       <c r="M63" s="199"/>
-      <c r="N63" s="355"/>
-      <c r="O63" s="355"/>
+      <c r="N63" s="315"/>
+      <c r="O63" s="315"/>
       <c r="P63" s="116"/>
       <c r="Q63" s="116"/>
       <c r="R63" s="116"/>
@@ -8441,10 +8435,10 @@
         <f>VLOOKUP(C64,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>728172</v>
       </c>
-      <c r="N64" s="355">
+      <c r="N64" s="315">
         <v>728172</v>
       </c>
-      <c r="O64" s="355">
+      <c r="O64" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8523,10 +8517,10 @@
         <f t="shared" si="34"/>
         <v>242100</v>
       </c>
-      <c r="N65" s="355">
+      <c r="N65" s="315">
         <v>242100</v>
       </c>
-      <c r="O65" s="355">
+      <c r="O65" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8570,10 +8564,10 @@
         <f>L66*(1+M82)</f>
         <v>189980.38194444444</v>
       </c>
-      <c r="N66" s="360">
+      <c r="N66" s="320">
         <v>189950.61436735778</v>
       </c>
-      <c r="O66" s="355">
+      <c r="O66" s="315">
         <f t="shared" si="1"/>
         <v>-29.767577086662641</v>
       </c>
@@ -8658,10 +8652,10 @@
       <c r="M67" s="199">
         <v>38500</v>
       </c>
-      <c r="N67" s="355">
+      <c r="N67" s="315">
         <v>38500</v>
       </c>
-      <c r="O67" s="355">
+      <c r="O67" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8705,10 +8699,10 @@
         <f>SUM(M70:M72)</f>
         <v>97000</v>
       </c>
-      <c r="N68" s="355">
+      <c r="N68" s="315">
         <v>97000</v>
       </c>
-      <c r="O68" s="355">
+      <c r="O68" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8785,8 +8779,8 @@
       <c r="K69" s="204"/>
       <c r="L69" s="208"/>
       <c r="M69" s="199"/>
-      <c r="N69" s="355"/>
-      <c r="O69" s="355"/>
+      <c r="N69" s="315"/>
+      <c r="O69" s="315"/>
       <c r="P69" s="116"/>
       <c r="Q69" s="116"/>
       <c r="R69" s="116"/>
@@ -8825,10 +8819,10 @@
       <c r="M70" s="199">
         <v>45000</v>
       </c>
-      <c r="N70" s="355">
+      <c r="N70" s="315">
         <v>45000</v>
       </c>
-      <c r="O70" s="355">
+      <c r="O70" s="315">
         <f t="shared" ref="O70:O107" si="43">N70-M70</f>
         <v>0</v>
       </c>
@@ -8890,10 +8884,10 @@
       <c r="M71" s="199">
         <v>27000</v>
       </c>
-      <c r="N71" s="355">
+      <c r="N71" s="315">
         <v>27000</v>
       </c>
-      <c r="O71" s="355">
+      <c r="O71" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -8945,10 +8939,10 @@
       <c r="M72" s="199">
         <v>25000</v>
       </c>
-      <c r="N72" s="355">
+      <c r="N72" s="315">
         <v>25000</v>
       </c>
-      <c r="O72" s="355">
+      <c r="O72" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -8996,8 +8990,8 @@
       <c r="K73" s="204"/>
       <c r="L73" s="204"/>
       <c r="M73" s="199"/>
-      <c r="N73" s="355"/>
-      <c r="O73" s="355"/>
+      <c r="N73" s="315"/>
+      <c r="O73" s="315"/>
       <c r="P73" s="116"/>
       <c r="Q73" s="116">
         <f>SUM(Q74:Q77)</f>
@@ -9068,8 +9062,8 @@
       <c r="K74" s="286"/>
       <c r="L74" s="286"/>
       <c r="M74" s="287"/>
-      <c r="N74" s="357"/>
-      <c r="O74" s="355"/>
+      <c r="N74" s="317"/>
+      <c r="O74" s="315"/>
       <c r="P74" s="292"/>
       <c r="Q74" s="292">
         <f>'Stimulus Round 2'!$C$13*4/12</f>
@@ -9140,8 +9134,8 @@
       <c r="K75" s="286"/>
       <c r="L75" s="286"/>
       <c r="M75" s="287"/>
-      <c r="N75" s="357"/>
-      <c r="O75" s="355"/>
+      <c r="N75" s="317"/>
+      <c r="O75" s="315"/>
       <c r="P75" s="292"/>
       <c r="Q75" s="292">
         <f>'Stimulus Round 2'!$C$5*4/12</f>
@@ -9212,8 +9206,8 @@
       <c r="K76" s="286"/>
       <c r="L76" s="286"/>
       <c r="M76" s="287"/>
-      <c r="N76" s="357"/>
-      <c r="O76" s="355"/>
+      <c r="N76" s="317"/>
+      <c r="O76" s="315"/>
       <c r="P76" s="292"/>
       <c r="Q76" s="292">
         <f>'Stimulus Round 2'!$C$10*4/12</f>
@@ -9284,8 +9278,8 @@
       <c r="K77" s="286"/>
       <c r="L77" s="286"/>
       <c r="M77" s="287"/>
-      <c r="N77" s="357"/>
-      <c r="O77" s="355"/>
+      <c r="N77" s="317"/>
+      <c r="O77" s="315"/>
       <c r="P77" s="292"/>
       <c r="Q77" s="292">
         <f>'Stimulus Round 2'!$C$16*4/12</f>
@@ -9367,10 +9361,10 @@
         <f t="shared" ref="M78:AB78" si="45">M66+M68</f>
         <v>286980.38194444444</v>
       </c>
-      <c r="N78" s="355">
+      <c r="N78" s="315">
         <v>286950.6143673578</v>
       </c>
-      <c r="O78" s="355">
+      <c r="O78" s="315">
         <f t="shared" si="43"/>
         <v>-29.767577086633537</v>
       </c>
@@ -9444,8 +9438,8 @@
       <c r="K79" s="199"/>
       <c r="L79" s="205"/>
       <c r="M79" s="199"/>
-      <c r="N79" s="355"/>
-      <c r="O79" s="355"/>
+      <c r="N79" s="315"/>
+      <c r="O79" s="315"/>
       <c r="P79" s="135"/>
       <c r="Q79" s="135"/>
       <c r="R79" s="135"/>
@@ -9504,10 +9498,10 @@
         <f>VLOOKUP(C80,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>1335.133</v>
       </c>
-      <c r="N80" s="355">
+      <c r="N80" s="315">
         <v>1335.3219999999999</v>
       </c>
-      <c r="O80" s="355">
+      <c r="O80" s="315">
         <f t="shared" si="43"/>
         <v>0.18899999999985084</v>
       </c>
@@ -9565,10 +9559,10 @@
         <f>VLOOKUP(C81,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>1487.0350000000001</v>
       </c>
-      <c r="N81" s="355">
+      <c r="N81" s="315">
         <v>1486.8019999999999</v>
       </c>
-      <c r="O81" s="355">
+      <c r="O81" s="315">
         <f t="shared" si="43"/>
         <v>-0.23300000000017462</v>
       </c>
@@ -9637,10 +9631,10 @@
         <f>M81/L81-1</f>
         <v>-1.1805555555555514E-2</v>
       </c>
-      <c r="N82" s="356">
+      <c r="N82" s="316">
         <v>-1.1960393407761893E-2</v>
       </c>
-      <c r="O82" s="355">
+      <c r="O82" s="315">
         <f t="shared" si="43"/>
         <v>-1.548378522063798E-4</v>
       </c>
@@ -9719,8 +9713,8 @@
       <c r="K83" s="209"/>
       <c r="L83" s="209"/>
       <c r="M83" s="202"/>
-      <c r="N83" s="356"/>
-      <c r="O83" s="355"/>
+      <c r="N83" s="316"/>
+      <c r="O83" s="315"/>
       <c r="P83" s="188"/>
       <c r="Q83" s="102">
         <f>SUM(Q84:Q86)</f>
@@ -9769,8 +9763,8 @@
       <c r="K84" s="301"/>
       <c r="L84" s="301"/>
       <c r="M84" s="302"/>
-      <c r="N84" s="361"/>
-      <c r="O84" s="355"/>
+      <c r="N84" s="321"/>
+      <c r="O84" s="315"/>
       <c r="P84" s="303"/>
       <c r="Q84" s="292">
         <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
@@ -9819,8 +9813,8 @@
       <c r="K85" s="301"/>
       <c r="L85" s="301"/>
       <c r="M85" s="302"/>
-      <c r="N85" s="361"/>
-      <c r="O85" s="355"/>
+      <c r="N85" s="321"/>
+      <c r="O85" s="315"/>
       <c r="P85" s="303"/>
       <c r="Q85" s="292">
         <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
@@ -9869,8 +9863,8 @@
       <c r="K86" s="301"/>
       <c r="L86" s="301"/>
       <c r="M86" s="302"/>
-      <c r="N86" s="361"/>
-      <c r="O86" s="355"/>
+      <c r="N86" s="321"/>
+      <c r="O86" s="315"/>
       <c r="P86" s="303"/>
       <c r="Q86" s="292">
         <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
@@ -9943,10 +9937,10 @@
         <f>VLOOKUP(C87,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>486072</v>
       </c>
-      <c r="N87" s="355">
+      <c r="N87" s="315">
         <v>486072</v>
       </c>
-      <c r="O87" s="355"/>
+      <c r="O87" s="315"/>
       <c r="P87" s="116">
         <f t="shared" ref="P87:U87" si="51">P94*0.74</f>
         <v>515064.18485195568</v>
@@ -10061,10 +10055,10 @@
         <f t="shared" si="52"/>
         <v>2509001</v>
       </c>
-      <c r="N88" s="355">
+      <c r="N88" s="315">
         <v>2508714</v>
       </c>
-      <c r="O88" s="355">
+      <c r="O88" s="315">
         <f t="shared" si="43"/>
         <v>-287</v>
       </c>
@@ -10142,10 +10136,10 @@
         <f t="shared" si="54"/>
         <v>1328805</v>
       </c>
-      <c r="N89" s="355">
+      <c r="N89" s="315">
         <v>1328805</v>
       </c>
-      <c r="O89" s="355">
+      <c r="O89" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10212,8 +10206,8 @@
       <c r="K90" s="199"/>
       <c r="L90" s="199"/>
       <c r="M90" s="199"/>
-      <c r="N90" s="355"/>
-      <c r="O90" s="355"/>
+      <c r="N90" s="315"/>
+      <c r="O90" s="315"/>
       <c r="AO90" s="243"/>
     </row>
     <row r="91" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -10252,10 +10246,10 @@
         <f>VLOOKUP(C91,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>828480</v>
       </c>
-      <c r="N91" s="355">
+      <c r="N91" s="315">
         <v>835999</v>
       </c>
-      <c r="O91" s="355">
+      <c r="O91" s="315">
         <f t="shared" si="43"/>
         <v>7519</v>
       </c>
@@ -10333,10 +10327,10 @@
         <f>M91-M94</f>
         <v>144777</v>
       </c>
-      <c r="N92" s="355">
+      <c r="N92" s="315">
         <v>144732</v>
       </c>
-      <c r="O92" s="355">
+      <c r="O92" s="315">
         <f t="shared" si="43"/>
         <v>-45</v>
       </c>
@@ -10387,8 +10381,8 @@
       <c r="K93" s="199"/>
       <c r="L93" s="199"/>
       <c r="M93" s="199"/>
-      <c r="N93" s="355"/>
-      <c r="O93" s="355">
+      <c r="N93" s="315"/>
+      <c r="O93" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10430,10 +10424,10 @@
         <f>VLOOKUP(C94,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>683703</v>
       </c>
-      <c r="N94" s="355">
+      <c r="N94" s="315">
         <v>691267</v>
       </c>
-      <c r="O94" s="355">
+      <c r="O94" s="315">
         <f t="shared" si="43"/>
         <v>7564</v>
       </c>
@@ -10513,8 +10507,8 @@
       <c r="K95" s="202"/>
       <c r="L95" s="202"/>
       <c r="M95" s="199"/>
-      <c r="N95" s="355"/>
-      <c r="O95" s="355">
+      <c r="N95" s="315"/>
+      <c r="O95" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10572,8 +10566,8 @@
       </c>
       <c r="L96" s="211"/>
       <c r="M96" s="199"/>
-      <c r="N96" s="355"/>
-      <c r="O96" s="355">
+      <c r="N96" s="315"/>
+      <c r="O96" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10621,10 +10615,10 @@
         <f>VLOOKUP(C97,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>1993.0509999999999</v>
       </c>
-      <c r="N97" s="355">
+      <c r="N97" s="315">
         <v>1992.6769999999999</v>
       </c>
-      <c r="O97" s="355">
+      <c r="O97" s="315">
         <f t="shared" si="43"/>
         <v>-0.37400000000002365</v>
       </c>
@@ -10702,10 +10696,10 @@
         <f>(M97/L97)-1</f>
         <v>-9.9592668024439668E-3</v>
       </c>
-      <c r="N98" s="355">
+      <c r="N98" s="315">
         <v>-1.0145049923004357E-2</v>
       </c>
-      <c r="O98" s="355">
+      <c r="O98" s="315">
         <f t="shared" si="43"/>
         <v>-1.8578312056038992E-4</v>
       </c>
@@ -10740,8 +10734,8 @@
       <c r="K99" s="202"/>
       <c r="L99" s="202"/>
       <c r="M99" s="199"/>
-      <c r="N99" s="355"/>
-      <c r="O99" s="355">
+      <c r="N99" s="315"/>
+      <c r="O99" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10811,10 +10805,10 @@
         <f>VLOOKUP(C100,'Haver NA'!$A$1:$I$34,9,0)/1000</f>
         <v>2329.605</v>
       </c>
-      <c r="N100" s="355">
+      <c r="N100" s="315">
         <v>2329.6770000000001</v>
       </c>
-      <c r="O100" s="355">
+      <c r="O100" s="315">
         <f t="shared" si="43"/>
         <v>7.2000000000116415E-2</v>
       </c>
@@ -10865,8 +10859,8 @@
       <c r="K101" s="199"/>
       <c r="L101" s="199"/>
       <c r="M101" s="199"/>
-      <c r="N101" s="355"/>
-      <c r="O101" s="355">
+      <c r="N101" s="315"/>
+      <c r="O101" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -10935,10 +10929,10 @@
         <f>(((M100/L100))^4)-1</f>
         <v>-8.3608921686818549E-3</v>
       </c>
-      <c r="N102" s="356">
+      <c r="N102" s="316">
         <v>-8.2382940014741335E-3</v>
       </c>
-      <c r="O102" s="355">
+      <c r="O102" s="315">
         <f t="shared" si="43"/>
         <v>1.2259816720772143E-4</v>
       </c>
@@ -10968,8 +10962,8 @@
       <c r="K103" s="202"/>
       <c r="L103" s="202"/>
       <c r="M103" s="199"/>
-      <c r="N103" s="355"/>
-      <c r="O103" s="355">
+      <c r="N103" s="315"/>
+      <c r="O103" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -11017,8 +11011,8 @@
       <c r="K104" s="202"/>
       <c r="L104" s="202"/>
       <c r="M104" s="199"/>
-      <c r="N104" s="355"/>
-      <c r="O104" s="355">
+      <c r="N104" s="315"/>
+      <c r="O104" s="315">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
@@ -11069,10 +11063,10 @@
         <f t="shared" si="66"/>
         <v>482408</v>
       </c>
-      <c r="N105" s="355">
+      <c r="N105" s="315">
         <v>489927</v>
       </c>
-      <c r="O105" s="355">
+      <c r="O105" s="315">
         <f t="shared" si="43"/>
         <v>7519</v>
       </c>
@@ -11146,10 +11140,10 @@
         <f t="shared" si="67"/>
         <v>197631</v>
       </c>
-      <c r="N106" s="355">
+      <c r="N106" s="315">
         <v>205195</v>
       </c>
-      <c r="O106" s="355">
+      <c r="O106" s="315">
         <f t="shared" si="43"/>
         <v>7564</v>
       </c>
@@ -11241,10 +11235,10 @@
         <f t="shared" si="68"/>
         <v>284777</v>
       </c>
-      <c r="N107" s="355">
+      <c r="N107" s="315">
         <v>284732</v>
       </c>
-      <c r="O107" s="355">
+      <c r="O107" s="315">
         <f t="shared" si="43"/>
         <v>-45</v>
       </c>
@@ -11306,8 +11300,14 @@
       <c r="I108" s="220"/>
       <c r="J108" s="220"/>
       <c r="K108" s="220"/>
-      <c r="L108" s="220"/>
-      <c r="M108" s="135"/>
+      <c r="L108" s="135">
+        <f>L107-L42</f>
+        <v>143335</v>
+      </c>
+      <c r="M108" s="135">
+        <f>M107-M42</f>
+        <v>144777</v>
+      </c>
       <c r="N108" s="135"/>
       <c r="O108" s="135"/>
       <c r="P108" s="94"/>
@@ -12813,50 +12813,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="339"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="339"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="339"/>
+      <c r="P5" s="339"/>
+      <c r="Q5" s="339"/>
+      <c r="R5" s="339"/>
+      <c r="S5" s="339"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="332" t="s">
+      <c r="A6" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="332"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="332"/>
-      <c r="M6" s="332"/>
-      <c r="N6" s="332"/>
-      <c r="O6" s="332"/>
-      <c r="P6" s="332"/>
-      <c r="Q6" s="332"/>
-      <c r="R6" s="332"/>
-      <c r="S6" s="332"/>
+      <c r="B6" s="340"/>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="340"/>
+      <c r="G6" s="340"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="340"/>
+      <c r="L6" s="340"/>
+      <c r="M6" s="340"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="340"/>
+      <c r="P6" s="340"/>
+      <c r="Q6" s="340"/>
+      <c r="R6" s="340"/>
+      <c r="S6" s="340"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12897,8 +12897,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="333"/>
-      <c r="S8" s="334"/>
+      <c r="R8" s="341"/>
+      <c r="S8" s="342"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13163,10 +13163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="325" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="317"/>
+      <c r="B1" s="325"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13174,18 +13174,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="335" t="s">
+      <c r="Z1" s="343" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="316"/>
-      <c r="AD1" s="316"/>
-      <c r="AE1" s="316"/>
-      <c r="AF1" s="316"/>
+      <c r="AA1" s="343"/>
+      <c r="AB1" s="343"/>
+      <c r="AC1" s="324"/>
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="324"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="344" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="107"/>
@@ -13194,45 +13194,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="336"/>
+      <c r="A3" s="344"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="336"/>
+      <c r="A4" s="344"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="336"/>
+      <c r="A5" s="344"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="326" t="s">
+      <c r="C7" s="334" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="327"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="326" t="s">
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="336"/>
+      <c r="G7" s="334" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="326" t="s">
+      <c r="H7" s="335"/>
+      <c r="I7" s="335"/>
+      <c r="J7" s="336"/>
+      <c r="K7" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="328"/>
+      <c r="L7" s="335"/>
+      <c r="M7" s="335"/>
+      <c r="N7" s="336"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -15096,8 +15096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="H12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15113,88 +15113,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="350" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="350"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="350" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="338"/>
-      <c r="B4" s="338"/>
-      <c r="C4" s="338"/>
-      <c r="D4" s="338"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
-      <c r="H4" s="338"/>
-      <c r="I4" s="338"/>
-      <c r="J4" s="338"/>
-      <c r="K4" s="343" t="s">
+      <c r="A4" s="351"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="351"/>
+      <c r="E4" s="351"/>
+      <c r="F4" s="351"/>
+      <c r="G4" s="351"/>
+      <c r="H4" s="351"/>
+      <c r="I4" s="351"/>
+      <c r="J4" s="351"/>
+      <c r="K4" s="356" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="343"/>
-      <c r="M4" s="343"/>
-      <c r="N4" s="343"/>
+      <c r="L4" s="356"/>
+      <c r="M4" s="356"/>
+      <c r="N4" s="356"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="339" t="s">
+      <c r="C5" s="352" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="341"/>
+      <c r="D5" s="353"/>
+      <c r="E5" s="353"/>
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="353"/>
+      <c r="J5" s="354"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="342" t="s">
+      <c r="L5" s="355" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="316"/>
-      <c r="N5" s="316"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="324"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="345">
+      <c r="C6" s="346">
         <v>2020</v>
       </c>
-      <c r="D6" s="346"/>
-      <c r="E6" s="346"/>
-      <c r="F6" s="346"/>
-      <c r="G6" s="346"/>
-      <c r="H6" s="346"/>
-      <c r="I6" s="346"/>
-      <c r="J6" s="347"/>
+      <c r="D6" s="347"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="347"/>
+      <c r="I6" s="347"/>
+      <c r="J6" s="348"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15631,24 +15631,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="316" t="s">
+      <c r="K22" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="316"/>
-      <c r="M22" s="316"/>
-      <c r="N22" s="316"/>
-      <c r="O22" s="316" t="s">
+      <c r="L22" s="324"/>
+      <c r="M22" s="324"/>
+      <c r="N22" s="324"/>
+      <c r="O22" s="324" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="316"/>
-      <c r="Q22" s="316"/>
-      <c r="R22" s="316"/>
-      <c r="S22" s="316" t="s">
+      <c r="P22" s="324"/>
+      <c r="Q22" s="324"/>
+      <c r="R22" s="324"/>
+      <c r="S22" s="324" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="316"/>
-      <c r="U22" s="316"/>
-      <c r="V22" s="316"/>
+      <c r="T22" s="324"/>
+      <c r="U22" s="324"/>
+      <c r="V22" s="324"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15665,12 +15665,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="348" t="s">
+      <c r="K23" s="349" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="348"/>
-      <c r="M23" s="348"/>
-      <c r="N23" s="348"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="349"/>
+      <c r="N23" s="349"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15839,7 +15839,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="344" t="s">
+      <c r="I28" s="345" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15890,7 +15890,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="344"/>
+      <c r="I29" s="345"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15939,7 +15939,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="344"/>
+      <c r="I30" s="345"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15988,7 +15988,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="344"/>
+      <c r="I31" s="345"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16050,7 +16050,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="344" t="s">
+      <c r="I33" s="345" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16098,7 +16098,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="344"/>
+      <c r="I34" s="345"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -16277,6 +16277,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16284,12 +16290,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -16397,30 +16397,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="352" t="s">
+      <c r="E6" s="358" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="352"/>
-      <c r="I6" s="352"/>
-      <c r="J6" s="352"/>
-      <c r="K6" s="352"/>
-      <c r="L6" s="352"/>
-      <c r="M6" s="352"/>
-      <c r="N6" s="352"/>
-      <c r="O6" s="352"/>
-      <c r="P6" s="352"/>
-      <c r="Q6" s="352"/>
-      <c r="R6" s="352"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="358"/>
+      <c r="I6" s="358"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="358"/>
+      <c r="L6" s="358"/>
+      <c r="M6" s="358"/>
+      <c r="N6" s="358"/>
+      <c r="O6" s="358"/>
+      <c r="P6" s="358"/>
+      <c r="Q6" s="358"/>
+      <c r="R6" s="358"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="349" t="s">
+      <c r="A7" s="357" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="349"/>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
+      <c r="B7" s="357"/>
+      <c r="C7" s="357"/>
+      <c r="D7" s="357"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16438,11 +16438,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="349" t="s">
+      <c r="B8" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="349"/>
-      <c r="D8" s="349"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16488,11 +16488,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="357" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="349"/>
-      <c r="D9" s="349"/>
+      <c r="C9" s="357"/>
+      <c r="D9" s="357"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16538,11 +16538,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="349" t="s">
+      <c r="B10" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="349"/>
-      <c r="D10" s="349"/>
+      <c r="C10" s="357"/>
+      <c r="D10" s="357"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16588,11 +16588,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="349" t="s">
+      <c r="B11" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="349"/>
-      <c r="D11" s="349"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16687,10 +16687,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="349" t="s">
+      <c r="C13" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="349"/>
+      <c r="D13" s="357"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16841,11 +16841,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="349" t="s">
+      <c r="B19" s="357" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="349"/>
-      <c r="D19" s="349"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16904,11 +16904,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="349" t="s">
+      <c r="B20" s="357" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="349"/>
-      <c r="D20" s="349"/>
+      <c r="C20" s="357"/>
+      <c r="D20" s="357"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16968,11 +16968,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="349" t="s">
+      <c r="B21" s="357" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="349"/>
-      <c r="D21" s="349"/>
+      <c r="C21" s="357"/>
+      <c r="D21" s="357"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17031,11 +17031,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="349" t="s">
+      <c r="B22" s="357" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="349"/>
-      <c r="D22" s="349"/>
+      <c r="C22" s="357"/>
+      <c r="D22" s="357"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17148,21 +17148,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="350" t="s">
+      <c r="H27" s="359" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="350"/>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
-      <c r="P27" s="350"/>
-      <c r="Q27" s="350"/>
-      <c r="R27" s="350"/>
-      <c r="S27" s="350"/>
-      <c r="T27" s="350"/>
+      <c r="I27" s="359"/>
+      <c r="J27" s="359"/>
+      <c r="K27" s="359"/>
+      <c r="L27" s="359"/>
+      <c r="M27" s="359"/>
+      <c r="N27" s="359"/>
+      <c r="O27" s="359"/>
+      <c r="P27" s="359"/>
+      <c r="Q27" s="359"/>
+      <c r="R27" s="359"/>
+      <c r="S27" s="359"/>
+      <c r="T27" s="359"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17478,21 +17478,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="351" t="s">
+      <c r="F37" s="360" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="351"/>
-      <c r="H37" s="351"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="351"/>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="351"/>
-      <c r="P37" s="351"/>
-      <c r="Q37" s="351"/>
-      <c r="R37" s="351"/>
+      <c r="G37" s="360"/>
+      <c r="H37" s="360"/>
+      <c r="I37" s="360"/>
+      <c r="J37" s="360"/>
+      <c r="K37" s="360"/>
+      <c r="L37" s="360"/>
+      <c r="M37" s="360"/>
+      <c r="N37" s="360"/>
+      <c r="O37" s="360"/>
+      <c r="P37" s="360"/>
+      <c r="Q37" s="360"/>
+      <c r="R37" s="360"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17808,21 +17808,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="350" t="s">
+      <c r="F48" s="359" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="350"/>
-      <c r="H48" s="350"/>
-      <c r="I48" s="350"/>
-      <c r="J48" s="350"/>
-      <c r="K48" s="350"/>
-      <c r="L48" s="350"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350"/>
-      <c r="P48" s="350"/>
-      <c r="Q48" s="350"/>
-      <c r="R48" s="350"/>
+      <c r="G48" s="359"/>
+      <c r="H48" s="359"/>
+      <c r="I48" s="359"/>
+      <c r="J48" s="359"/>
+      <c r="K48" s="359"/>
+      <c r="L48" s="359"/>
+      <c r="M48" s="359"/>
+      <c r="N48" s="359"/>
+      <c r="O48" s="359"/>
+      <c r="P48" s="359"/>
+      <c r="Q48" s="359"/>
+      <c r="R48" s="359"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18134,12 +18134,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18148,6 +18142,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18186,50 +18186,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="338" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="339"/>
+      <c r="K5" s="339"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="339"/>
+      <c r="N5" s="339"/>
+      <c r="O5" s="339"/>
+      <c r="P5" s="339"/>
+      <c r="Q5" s="339"/>
+      <c r="R5" s="339"/>
+      <c r="S5" s="339"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="332" t="s">
+      <c r="A6" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="332"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="332"/>
-      <c r="M6" s="332"/>
-      <c r="N6" s="332"/>
-      <c r="O6" s="332"/>
-      <c r="P6" s="332"/>
-      <c r="Q6" s="332"/>
-      <c r="R6" s="332"/>
-      <c r="S6" s="332"/>
+      <c r="B6" s="340"/>
+      <c r="C6" s="340"/>
+      <c r="D6" s="340"/>
+      <c r="E6" s="340"/>
+      <c r="F6" s="340"/>
+      <c r="G6" s="340"/>
+      <c r="H6" s="340"/>
+      <c r="I6" s="340"/>
+      <c r="J6" s="340"/>
+      <c r="K6" s="340"/>
+      <c r="L6" s="340"/>
+      <c r="M6" s="340"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="340"/>
+      <c r="P6" s="340"/>
+      <c r="Q6" s="340"/>
+      <c r="R6" s="340"/>
+      <c r="S6" s="340"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18269,10 +18269,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="333" t="s">
+      <c r="R8" s="341" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="334"/>
+      <c r="S8" s="342"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21143,10 +21143,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="353" t="s">
+      <c r="D75" s="361" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="354"/>
+      <c r="E75" s="362"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22097,7 +22097,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22116,23 +22116,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="329" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="322"/>
+      <c r="B1" s="330"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="329" t="s">
+      <c r="J1" s="337" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
+      <c r="V1" s="324"/>
+      <c r="W1" s="324"/>
+      <c r="X1" s="324"/>
+      <c r="Y1" s="324"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="331" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -22140,68 +22140,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="329"/>
+      <c r="J2" s="337"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="324"/>
+      <c r="A3" s="332"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="329"/>
+      <c r="J3" s="337"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="324"/>
+      <c r="A4" s="332"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="325"/>
+      <c r="A5" s="333"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="326" t="s">
+      <c r="C7" s="334" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="327"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="326" t="s">
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="336"/>
+      <c r="G7" s="334" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="326" t="s">
+      <c r="H7" s="335"/>
+      <c r="I7" s="335"/>
+      <c r="J7" s="336"/>
+      <c r="K7" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="326" t="s">
+      <c r="L7" s="335"/>
+      <c r="M7" s="335"/>
+      <c r="N7" s="335"/>
+      <c r="O7" s="334" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="327"/>
-      <c r="Q7" s="327"/>
-      <c r="R7" s="327"/>
-      <c r="S7" s="326" t="s">
+      <c r="P7" s="335"/>
+      <c r="Q7" s="335"/>
+      <c r="R7" s="335"/>
+      <c r="S7" s="334" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="327"/>
-      <c r="U7" s="327"/>
-      <c r="V7" s="327"/>
-      <c r="W7" s="326" t="s">
+      <c r="T7" s="335"/>
+      <c r="U7" s="335"/>
+      <c r="V7" s="335"/>
+      <c r="W7" s="334" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
+      <c r="X7" s="335"/>
+      <c r="Y7" s="335"/>
+      <c r="Z7" s="335"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -27552,36 +27552,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="316" t="s">
+      <c r="D1" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316" t="s">
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="316"/>
-      <c r="J1" s="316"/>
-      <c r="K1" s="316"/>
-      <c r="L1" s="316" t="s">
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="316"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="316"/>
-      <c r="P1" s="316" t="s">
+      <c r="M1" s="324"/>
+      <c r="N1" s="324"/>
+      <c r="O1" s="324"/>
+      <c r="P1" s="324" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="316"/>
-      <c r="T1" s="316" t="s">
+      <c r="Q1" s="324"/>
+      <c r="R1" s="324"/>
+      <c r="S1" s="324"/>
+      <c r="T1" s="324" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="316"/>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
+      <c r="U1" s="324"/>
+      <c r="V1" s="324"/>
+      <c r="W1" s="324"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="199" t="s">
@@ -27991,22 +27991,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="321" t="s">
+      <c r="A1" s="329" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="322"/>
+      <c r="B1" s="330"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="329" t="s">
+      <c r="J1" s="337" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="316"/>
-      <c r="W1" s="316"/>
-      <c r="X1" s="316"/>
-      <c r="Y1" s="316"/>
+      <c r="V1" s="324"/>
+      <c r="W1" s="324"/>
+      <c r="X1" s="324"/>
+      <c r="Y1" s="324"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="331" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -28015,20 +28015,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="329"/>
+      <c r="J2" s="337"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="324"/>
+      <c r="A3" s="332"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="329"/>
+      <c r="J3" s="337"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="324"/>
+      <c r="A4" s="332"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -28038,7 +28038,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="325"/>
+      <c r="A5" s="333"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -28053,42 +28053,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="326" t="s">
+      <c r="C7" s="334" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="327"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="326" t="s">
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="336"/>
+      <c r="G7" s="334" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="326" t="s">
+      <c r="H7" s="335"/>
+      <c r="I7" s="335"/>
+      <c r="J7" s="336"/>
+      <c r="K7" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="326" t="s">
+      <c r="L7" s="335"/>
+      <c r="M7" s="335"/>
+      <c r="N7" s="335"/>
+      <c r="O7" s="334" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="327"/>
-      <c r="Q7" s="327"/>
-      <c r="R7" s="327"/>
-      <c r="S7" s="326" t="s">
+      <c r="P7" s="335"/>
+      <c r="Q7" s="335"/>
+      <c r="R7" s="335"/>
+      <c r="S7" s="334" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="327"/>
-      <c r="U7" s="327"/>
-      <c r="V7" s="327"/>
-      <c r="W7" s="326" t="s">
+      <c r="T7" s="335"/>
+      <c r="U7" s="335"/>
+      <c r="V7" s="335"/>
+      <c r="W7" s="334" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="327"/>
-      <c r="Y7" s="327"/>
-      <c r="Z7" s="327"/>
+      <c r="X7" s="335"/>
+      <c r="Y7" s="335"/>
+      <c r="Z7" s="335"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -32535,6 +32535,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -32751,15 +32760,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
@@ -32778,6 +32778,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32794,12 +32802,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8D0E3-F3E5-483A-ABAE-DE6D45E8FCCC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F388E-0628-4BF7-A8B8-BD8A5CC7DC3D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Stimulus Round 2" sheetId="16" r:id="rId2"/>
+    <sheet name="Stimulus Round 2" sheetId="16" state="hidden" r:id="rId2"/>
     <sheet name="add-ons calculations" sheetId="5" r:id="rId3"/>
     <sheet name="FIM Add Factors" sheetId="9" r:id="rId4"/>
     <sheet name="main_nipas" sheetId="10" r:id="rId5"/>
@@ -732,33 +732,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     grow it by 1%</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={1855A115-8570-465F-B05E-38BBA49F0533}</author>
-    <author>tc={3C125DA7-4F05-46DF-A087-778AC4E0593F}</author>
-  </authors>
-  <commentList>
-    <comment ref="O34" authorId="0" shapeId="0" xr:uid="{1855A115-8570-465F-B05E-38BBA49F0533}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    where is this sourced?</t>
-      </text>
-    </comment>
-    <comment ref="O37" authorId="1" shapeId="0" xr:uid="{3C125DA7-4F05-46DF-A087-778AC4E0593F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    why is federal including total legislation *and* also PEUC?</t>
       </text>
     </comment>
   </commentList>
@@ -3596,21 +3569,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3632,14 +3590,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4162,26 +4135,15 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O34" dT="2020-10-19T15:00:30.46" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{1855A115-8570-465F-B05E-38BBA49F0533}">
-    <text>where is this sourced?</text>
-  </threadedComment>
-  <threadedComment ref="O37" dT="2020-10-19T15:28:22.85" personId="{2D35AFA9-F227-4AE7-B9A7-D673D9D18C70}" id="{3C125DA7-4F05-46DF-A087-778AC4E0593F}">
-    <text>why is federal including total legislation *and* also PEUC?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AS115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4475,40 +4437,43 @@
         <v>-13.200000000000728</v>
       </c>
       <c r="P5">
-        <v>21585.442357487202</v>
+        <v>21598.399172907619</v>
       </c>
       <c r="Q5">
-        <v>21943.435051587501</v>
+        <v>21956.606754670749</v>
       </c>
       <c r="R5">
-        <v>22292.3673066964</v>
+        <v>22305.748458849539</v>
       </c>
       <c r="S5">
-        <v>22665.320260526601</v>
+        <v>22678.925280344971</v>
       </c>
       <c r="T5">
-        <v>22915.1144564395</v>
+        <v>22928.869417001941</v>
       </c>
       <c r="U5">
-        <v>23143.732510058599</v>
+        <v>23157.624700235021</v>
       </c>
       <c r="V5">
-        <v>23370.032776958898</v>
+        <v>23384.060805481411</v>
       </c>
       <c r="W5">
-        <v>23606.657730151801</v>
+        <v>23620.8277944867</v>
       </c>
       <c r="X5">
-        <v>23846.759363422701</v>
+        <v>23861.073550472051</v>
       </c>
       <c r="Y5">
-        <v>24088.125243994698</v>
+        <v>24102.584312631949</v>
       </c>
       <c r="Z5">
-        <v>24319.482500099599</v>
+        <v>24334.080442576571</v>
       </c>
       <c r="AA5">
-        <v>24567.380325060702</v>
+        <v>24582.12706997171</v>
+      </c>
+      <c r="AB5">
+        <v>24844.299599649439</v>
       </c>
       <c r="AE5" s="192"/>
       <c r="AF5" s="180"/>
@@ -4565,39 +4530,39 @@
       </c>
       <c r="P6" s="198">
         <f>P5/M5-1</f>
-        <v>1.9609658695776799E-2</v>
+        <v>2.0221686650997883E-2</v>
       </c>
       <c r="Q6" s="198">
         <f t="shared" si="0"/>
-        <v>1.6584913488053799E-2</v>
+        <v>1.6584913488054021E-2</v>
       </c>
       <c r="R6" s="198">
         <f t="shared" si="0"/>
-        <v>1.5901441788333637E-2</v>
+        <v>1.5901441788336301E-2</v>
       </c>
       <c r="S6" s="198">
         <f t="shared" si="0"/>
-        <v>1.6730073962049286E-2</v>
+        <v>1.673007396204973E-2</v>
       </c>
       <c r="T6" s="198">
         <f t="shared" si="0"/>
-        <v>1.1020986822230627E-2</v>
+        <v>1.1020986822227741E-2</v>
       </c>
       <c r="U6" s="198">
         <f t="shared" si="0"/>
-        <v>9.9767362739422438E-3</v>
+        <v>9.9767362739417997E-3</v>
       </c>
       <c r="V6" s="198">
         <f t="shared" si="0"/>
-        <v>9.7780367450215344E-3</v>
+        <v>9.778036745024643E-3</v>
       </c>
       <c r="W6" s="198">
         <f t="shared" si="0"/>
-        <v>1.0125144258513741E-2</v>
+        <v>1.0125144258510854E-2</v>
       </c>
       <c r="X6" s="198">
         <f t="shared" si="0"/>
-        <v>1.0170928727628814E-2</v>
+        <v>1.0170928727630146E-2</v>
       </c>
       <c r="Y6" s="176"/>
       <c r="Z6" s="173"/>
@@ -4659,40 +4624,43 @@
         <v>-13</v>
       </c>
       <c r="P7">
-        <v>18942.381551882499</v>
+        <v>18955.122607058929</v>
       </c>
       <c r="Q7">
-        <v>19219.912560792101</v>
+        <v>19232.840289322561</v>
       </c>
       <c r="R7">
-        <v>19461.207445519602</v>
+        <v>19474.29747420385</v>
       </c>
       <c r="S7">
-        <v>19712.765741142499</v>
+        <v>19726.02497337263</v>
       </c>
       <c r="T7">
-        <v>19856.558222362499</v>
+        <v>19869.914172522811</v>
       </c>
       <c r="U7">
-        <v>19971.655044547999</v>
+        <v>19985.088411318178</v>
       </c>
       <c r="V7">
-        <v>20075.545897694501</v>
+        <v>20089.049143697619</v>
       </c>
       <c r="W7">
-        <v>20183.311712097599</v>
+        <v>20196.887443716219</v>
       </c>
       <c r="X7">
-        <v>20293.486286200499</v>
+        <v>20307.13612361862</v>
       </c>
       <c r="Y7">
-        <v>20403.870317668701</v>
+        <v>20417.59440177177</v>
       </c>
       <c r="Z7">
-        <v>20500.639620398</v>
+        <v>20514.428793625211</v>
       </c>
       <c r="AA7">
-        <v>20608.1959774358</v>
+        <v>20622.057495393041</v>
+      </c>
+      <c r="AB7">
+        <v>20739.956511448359</v>
       </c>
       <c r="AE7" s="192"/>
       <c r="AF7" s="180"/>
@@ -5713,39 +5681,39 @@
       </c>
       <c r="P22" s="102">
         <f t="shared" si="13"/>
-        <v>1908.0455151906833</v>
+        <v>1909.1908330926583</v>
       </c>
       <c r="Q22" s="102">
         <f t="shared" si="13"/>
-        <v>1939.6902849913897</v>
+        <v>1940.8545978916857</v>
       </c>
       <c r="R22" s="102">
         <f t="shared" si="13"/>
-        <v>1970.5341571455765</v>
+        <v>1971.716984299685</v>
       </c>
       <c r="S22" s="102">
         <f t="shared" si="13"/>
-        <v>2003.5013393393667</v>
+        <v>2004.7039552792487</v>
       </c>
       <c r="T22" s="102">
         <f t="shared" si="13"/>
-        <v>2025.581901198547</v>
+        <v>2026.797771152849</v>
       </c>
       <c r="U22" s="102">
         <f t="shared" si="13"/>
-        <v>2045.7905976280756</v>
+        <v>2047.0185979962541</v>
       </c>
       <c r="V22" s="102">
         <f t="shared" si="13"/>
-        <v>2065.7944132643024</v>
+        <v>2067.0344210652102</v>
       </c>
       <c r="W22" s="102">
         <f t="shared" si="13"/>
-        <v>2086.7108797070355</v>
+        <v>2087.9634427658029</v>
       </c>
       <c r="X22" s="102">
         <f t="shared" ref="X22" si="14">SUM(X23:X25)</f>
-        <v>2107.9346673397031</v>
+        <v>2109.1999701280711</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.35">
@@ -5790,39 +5758,39 @@
       </c>
       <c r="P23" s="102">
         <f>M23*(1+P$6)</f>
-        <v>516.53425309528052</v>
+        <v>516.84430645739553</v>
       </c>
       <c r="Q23" s="102">
         <f t="shared" ref="Q23:X23" si="15">P23*(1+Q$6)</f>
-        <v>525.10092899648225</v>
+        <v>525.41612456678467</v>
       </c>
       <c r="R23" s="102">
         <f t="shared" si="15"/>
-        <v>533.45079085191969</v>
+        <v>533.77099848623664</v>
       </c>
       <c r="S23" s="102">
         <f t="shared" si="15"/>
-        <v>542.37546203798604</v>
+        <v>542.70102676970851</v>
       </c>
       <c r="T23" s="102">
         <f t="shared" si="15"/>
-        <v>548.35297485780791</v>
+        <v>548.68212763414692</v>
       </c>
       <c r="U23" s="102">
         <f t="shared" si="15"/>
-        <v>553.82374787299591</v>
+        <v>554.15618451977809</v>
       </c>
       <c r="V23" s="102">
         <f t="shared" si="15"/>
-        <v>559.2390568299636</v>
+        <v>559.57474405449511</v>
       </c>
       <c r="W23" s="102">
         <f t="shared" si="15"/>
-        <v>564.90143295536211</v>
+        <v>565.24051906146622</v>
       </c>
       <c r="X23" s="102">
         <f t="shared" si="15"/>
-        <v>570.64700516808648</v>
+        <v>570.98954009480906</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
@@ -5867,39 +5835,39 @@
       </c>
       <c r="P24" s="102">
         <f>M24*(1+P$6)</f>
-        <v>1370.8651861164719</v>
+        <v>1371.6880577022666</v>
       </c>
       <c r="Q24" s="102">
         <f t="shared" ref="Q24:X24" si="16">P24*(1+Q$6)</f>
-        <v>1393.6008666319983</v>
+        <v>1394.4373854718556</v>
       </c>
       <c r="R24" s="102">
         <f t="shared" si="16"/>
-        <v>1415.7611296889183</v>
+        <v>1416.6109503844161</v>
       </c>
       <c r="S24" s="102">
         <f t="shared" si="16"/>
-        <v>1439.4469181012084</v>
+        <v>1440.310956359797</v>
       </c>
       <c r="T24" s="102">
         <f t="shared" si="16"/>
-        <v>1455.3110436169025</v>
+        <v>1456.1846044297486</v>
       </c>
       <c r="U24" s="102">
         <f t="shared" si="16"/>
-        <v>1469.8302980956239</v>
+        <v>1470.7125741943184</v>
       </c>
       <c r="V24" s="102">
         <f t="shared" si="16"/>
-        <v>1484.202352759349</v>
+        <v>1485.0932557861602</v>
       </c>
       <c r="W24" s="102">
         <f t="shared" si="16"/>
-        <v>1499.2301156898629</v>
+        <v>1500.1300392383366</v>
       </c>
       <c r="X24" s="102">
         <f t="shared" si="16"/>
-        <v>1514.4786783428592</v>
+        <v>1515.3877549496067</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
@@ -5944,39 +5912,39 @@
       </c>
       <c r="P25" s="102">
         <f>M25*(1+P$6)</f>
-        <v>20.646075978930782</v>
+        <v>20.658468932996055</v>
       </c>
       <c r="Q25" s="102">
         <f t="shared" ref="Q25:X25" si="17">P25*(1+Q$6)</f>
-        <v>20.988489362909135</v>
+        <v>21.001087853045448</v>
       </c>
       <c r="R25" s="102">
         <f t="shared" si="17"/>
-        <v>21.322236604738496</v>
+        <v>21.335035429032388</v>
       </c>
       <c r="S25" s="102">
         <f t="shared" si="17"/>
-        <v>21.678959200172084</v>
+        <v>21.691972149743052</v>
       </c>
       <c r="T25" s="102">
         <f t="shared" si="17"/>
-        <v>21.917882723836858</v>
+        <v>21.931039088953501</v>
       </c>
       <c r="U25" s="102">
         <f t="shared" si="17"/>
-        <v>22.136551659455773</v>
+        <v>22.149839282157497</v>
       </c>
       <c r="V25" s="102">
         <f t="shared" si="17"/>
-        <v>22.353003674989999</v>
+        <v>22.366421224554824</v>
       </c>
       <c r="W25" s="102">
         <f t="shared" si="17"/>
-        <v>22.579331061810361</v>
+        <v>22.592884466000061</v>
       </c>
       <c r="X25" s="102">
         <f t="shared" si="17"/>
-        <v>22.808983828757569</v>
+        <v>22.82267508365533</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
@@ -6021,39 +5989,39 @@
       </c>
       <c r="P26" s="102">
         <f>M26*(1+P6)</f>
-        <v>91.968791214359072</v>
+        <v>92.023996135920015</v>
       </c>
       <c r="Q26" s="102">
         <f t="shared" ref="Q26:X26" si="18">P26*(1+Q6)</f>
-        <v>93.494085660250093</v>
+        <v>93.550206150659264</v>
       </c>
       <c r="R26" s="102">
         <f t="shared" si="18"/>
-        <v>94.980776420930042</v>
+        <v>95.037789308050833</v>
       </c>
       <c r="S26" s="102">
         <f t="shared" si="18"/>
-        <v>96.569811835425071</v>
+        <v>96.627778552364219</v>
       </c>
       <c r="T26" s="102">
         <f t="shared" si="18"/>
-        <v>97.634106459088585</v>
+        <v>97.692712026450963</v>
       </c>
       <c r="U26" s="102">
         <f t="shared" si="18"/>
-        <v>98.608176190572919</v>
+        <v>98.667366450225003</v>
       </c>
       <c r="V26" s="102">
         <f t="shared" si="18"/>
-        <v>99.572370560723897</v>
+        <v>99.632139584910121</v>
       </c>
       <c r="W26" s="102">
         <f t="shared" si="18"/>
-        <v>100.58055517681342</v>
+        <v>100.64092937099143</v>
       </c>
       <c r="X26" s="102">
         <f t="shared" si="18"/>
-        <v>101.60355283490213</v>
+        <v>101.66454109070624</v>
       </c>
     </row>
     <row r="27" spans="1:41" s="187" customFormat="1" x14ac:dyDescent="0.35">
@@ -6221,7 +6189,7 @@
       </c>
       <c r="P30" s="44">
         <f>P31+P36+P46</f>
-        <v>2848130.6794988289</v>
+        <v>2855130.6794988289</v>
       </c>
       <c r="Q30" s="44">
         <f t="shared" ref="Q30:W30" si="20">Q31+Q36+Q46</f>
@@ -6635,8 +6603,9 @@
       <c r="K36" s="204">
         <v>43429</v>
       </c>
-      <c r="L36" s="204">
-        <v>1112564</v>
+      <c r="L36" s="88">
+        <f>L38+L42</f>
+        <v>1084000</v>
       </c>
       <c r="M36" s="199">
         <f>M37+M40</f>
@@ -6651,7 +6620,7 @@
       </c>
       <c r="P36" s="87">
         <f>P38+P42</f>
-        <v>337800</v>
+        <v>344800</v>
       </c>
       <c r="Q36" s="87">
         <f t="shared" ref="Q36:X36" si="21">Q38+Q42</f>
@@ -6697,11 +6666,11 @@
       </c>
       <c r="AF36" s="45">
         <f>AVERAGE(J36:M36)/1000</f>
-        <v>516.30775000000006</v>
+        <v>509.16674999999998</v>
       </c>
       <c r="AG36" s="45">
         <f t="shared" ref="AG36:AG46" si="22">AVERAGE(P36:S36)/1000</f>
-        <v>314.45</v>
+        <v>316.2</v>
       </c>
       <c r="AH36" s="45">
         <f t="shared" ref="AH36:AH46" si="23">AVERAGE(T36:W36)/1000</f>
@@ -6739,7 +6708,9 @@
       <c r="I37" s="204"/>
       <c r="J37" s="204"/>
       <c r="K37" s="204"/>
-      <c r="L37" s="204"/>
+      <c r="L37" s="204">
+        <v>1084572</v>
+      </c>
       <c r="M37" s="199">
         <f>VLOOKUP(C37,'Haver NA'!$A$1:$I$34,9,0)</f>
         <v>775154</v>
@@ -6792,14 +6763,14 @@
       </c>
       <c r="M38" s="199">
         <f>M39+M40</f>
-        <v>738200</v>
+        <v>695200</v>
       </c>
       <c r="N38" s="315">
         <v>738200</v>
       </c>
       <c r="O38" s="315">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="P38" s="87">
         <f>SUM(P39:P41)</f>
@@ -6862,14 +6833,14 @@
       </c>
       <c r="M39" s="199">
         <f>1000*'figuring out UI'!N17</f>
-        <v>632000</v>
+        <v>589000</v>
       </c>
       <c r="N39" s="315">
         <v>632000</v>
       </c>
       <c r="O39" s="315">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="P39" s="87">
         <f>1000*'figuring out UI'!O17</f>
@@ -6913,7 +6884,7 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="45">
         <f>AVERAGE(J39:M39)/1000</f>
-        <v>366.73333333333329</v>
+        <v>355.98333333333329</v>
       </c>
       <c r="AG39" s="45">
         <f t="shared" si="22"/>
@@ -7039,22 +7010,22 @@
       </c>
       <c r="L42" s="204">
         <f>'figuring out UI'!M18*1000</f>
-        <v>277600</v>
+        <v>249066.66666666672</v>
       </c>
       <c r="M42" s="199">
         <f>1000*'figuring out UI'!N18</f>
-        <v>140000</v>
+        <v>186000</v>
       </c>
       <c r="N42" s="315">
         <v>140000</v>
       </c>
       <c r="O42" s="315">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-46000</v>
       </c>
       <c r="P42" s="87">
         <f>1000*'figuring out UI'!O18</f>
-        <v>80000</v>
+        <v>87000</v>
       </c>
       <c r="Q42" s="87">
         <f>1000*'figuring out UI'!P18</f>
@@ -7097,11 +7068,11 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="45">
         <f>AVERAGE(J42:M42)/1000</f>
-        <v>104.4</v>
+        <v>108.76666666666668</v>
       </c>
       <c r="AG42" s="45">
         <f t="shared" si="22"/>
-        <v>57</v>
+        <v>58.75</v>
       </c>
       <c r="AH42" s="45">
         <f t="shared" si="23"/>
@@ -7359,8 +7330,8 @@
         <v>1574462</v>
       </c>
       <c r="L46" s="203">
-        <f>L30-L32-L36-L31-L43</f>
-        <v>1620732</v>
+        <f>L30-L32-L37-L31-L43</f>
+        <v>1648724</v>
       </c>
       <c r="M46" s="204">
         <f>M30-M32-M36-M31-M43</f>
@@ -7417,11 +7388,11 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3">
         <f>AF30-AF32-AF36-AF31-AF43</f>
-        <v>-1673.3722500000001</v>
+        <v>-1666.23125</v>
       </c>
       <c r="AF46" s="45">
         <f>AVERAGE(J46:M46)/1000</f>
-        <v>1596.7339999999999</v>
+        <v>1603.732</v>
       </c>
       <c r="AG46" s="45">
         <f t="shared" si="22"/>
@@ -7448,11 +7419,11 @@
       <c r="AO46" s="184"/>
       <c r="AP46">
         <f>AL46/AK46*AF46</f>
-        <v>1671.143339466229</v>
+        <v>1678.467452993958</v>
       </c>
       <c r="AQ46">
         <f>AM46/AK46*AF46</f>
-        <v>1711.7293926923571</v>
+        <v>1719.2313825604638</v>
       </c>
     </row>
     <row r="47" spans="1:43" s="171" customFormat="1" x14ac:dyDescent="0.35">
@@ -7484,7 +7455,7 @@
       </c>
       <c r="L47" s="236">
         <f t="shared" si="30"/>
-        <v>2.938781628264131E-2</v>
+        <v>4.7166587697893059E-2</v>
       </c>
       <c r="M47" s="199"/>
       <c r="N47" s="315"/>
@@ -7565,7 +7536,7 @@
       <c r="Y48" s="176"/>
       <c r="AF48" s="189">
         <f>AF31+AF32+AF36+AF43</f>
-        <v>1673.3722500000001</v>
+        <v>1666.23125</v>
       </c>
       <c r="AK48" s="189">
         <f>AK31+AK32+AK36+AK43</f>
@@ -8444,23 +8415,23 @@
       </c>
       <c r="P64" s="116">
         <f>P66+(SUM($M$68:$T$68))/4/6*4</f>
-        <v>325872.88477706735</v>
+        <v>325924.37754843186</v>
       </c>
       <c r="Q64" s="116">
         <f>Q66+(SUM($M$68:$T$68))/4/6*4</f>
-        <v>326640.99544764287</v>
+        <v>326692.69489482319</v>
       </c>
       <c r="R64" s="116">
         <f>R66+(SUM($M$68:$T$68))/4/6*4</f>
-        <v>327522.43392207247</v>
+        <v>327574.37053822295</v>
       </c>
       <c r="S64" s="116">
         <f>S66+(SUM($M$68:$T$68))/4/6*4</f>
-        <v>328554.97613497748</v>
+        <v>328607.19057763403</v>
       </c>
       <c r="T64" s="116">
         <f>T66+(SUM($M$68:$T$68))/4/6*4</f>
-        <v>330044.37969325099</v>
+        <v>330096.99489026307</v>
       </c>
       <c r="U64" s="44"/>
       <c r="V64" s="44"/>
@@ -8573,55 +8544,55 @@
       </c>
       <c r="P66" s="116">
         <f>M66*(1+P82)</f>
-        <v>191372.88477706735</v>
+        <v>191424.37754843186</v>
       </c>
       <c r="Q66" s="116">
         <f t="shared" ref="Q66:T66" si="35">P66*(1+Q82)</f>
-        <v>192140.9954476429</v>
+        <v>192192.69489482319</v>
       </c>
       <c r="R66" s="116">
         <f t="shared" si="35"/>
-        <v>193022.43392207247</v>
+        <v>193074.37053822298</v>
       </c>
       <c r="S66" s="116">
         <f t="shared" si="35"/>
-        <v>194054.97613497748</v>
+        <v>194107.19057763406</v>
       </c>
       <c r="T66" s="116">
         <f t="shared" si="35"/>
-        <v>195544.37969325102</v>
+        <v>195596.9948902631</v>
       </c>
       <c r="U66" s="116">
         <f t="shared" ref="U66" si="36">T66*(1+U82)</f>
-        <v>197240.80684971521</v>
+        <v>197293.87850499584</v>
       </c>
       <c r="V66" s="116">
         <f t="shared" ref="V66" si="37">U66*(1+V82)</f>
-        <v>198958.57178194768</v>
+        <v>199012.10563686007</v>
       </c>
       <c r="W66" s="116">
         <f t="shared" ref="W66" si="38">V66*(1+W82)</f>
-        <v>200866.80125051294</v>
+        <v>200920.8485534183</v>
       </c>
       <c r="X66" s="116">
         <f t="shared" ref="X66:Z66" si="39">W66*(1+X82)</f>
-        <v>202622.47677399646</v>
+        <v>202676.99647715053</v>
       </c>
       <c r="Y66" s="116">
         <f t="shared" si="39"/>
-        <v>204572.45802602731</v>
+        <v>204627.50241134351</v>
       </c>
       <c r="Z66" s="116">
         <f t="shared" si="39"/>
-        <v>206361.5615193437</v>
+        <v>206417.08729938377</v>
       </c>
       <c r="AA66" s="116">
         <f t="shared" ref="AA66" si="40">Z66*(1+AA82)</f>
-        <v>208346.79396445845</v>
+        <v>208402.85391171087</v>
       </c>
       <c r="AB66" s="116">
         <f t="shared" ref="AB66" si="41">AA66*(1+AB82)</f>
-        <v>214810.11799163782</v>
+        <v>210411.47948991408</v>
       </c>
       <c r="AC66" s="44"/>
       <c r="AD66" s="44"/>
@@ -9370,55 +9341,55 @@
       </c>
       <c r="P78" s="144">
         <f t="shared" si="45"/>
-        <v>298372.88477706735</v>
+        <v>298424.37754843186</v>
       </c>
       <c r="Q78" s="144">
         <f t="shared" si="45"/>
-        <v>341140.99544764287</v>
+        <v>341192.69489482319</v>
       </c>
       <c r="R78" s="144">
         <f t="shared" si="45"/>
-        <v>314022.43392207247</v>
+        <v>314074.37053822295</v>
       </c>
       <c r="S78" s="144">
         <f t="shared" si="45"/>
-        <v>315054.97613497748</v>
+        <v>315107.19057763403</v>
       </c>
       <c r="T78" s="144">
         <f t="shared" si="45"/>
-        <v>310544.37969325099</v>
+        <v>310596.99489026307</v>
       </c>
       <c r="U78" s="144">
         <f t="shared" si="45"/>
-        <v>306240.80684971518</v>
+        <v>306293.87850499584</v>
       </c>
       <c r="V78" s="144">
         <f t="shared" si="45"/>
-        <v>307958.57178194768</v>
+        <v>308012.10563686007</v>
       </c>
       <c r="W78" s="144">
         <f t="shared" si="45"/>
-        <v>309866.80125051294</v>
+        <v>309920.8485534183</v>
       </c>
       <c r="X78" s="144">
         <f t="shared" si="45"/>
-        <v>311622.47677399649</v>
+        <v>311676.99647715053</v>
       </c>
       <c r="Y78" s="144">
         <f t="shared" si="45"/>
-        <v>313572.45802602731</v>
+        <v>313627.50241134351</v>
       </c>
       <c r="Z78" s="144">
         <f t="shared" si="45"/>
-        <v>265361.5615193437</v>
+        <v>265417.08729938377</v>
       </c>
       <c r="AA78" s="144">
         <f t="shared" si="45"/>
-        <v>267346.79396445845</v>
+        <v>267402.8539117109</v>
       </c>
       <c r="AB78" s="144">
         <f t="shared" si="45"/>
-        <v>273810.11799163779</v>
+        <v>269411.47948991408</v>
       </c>
       <c r="AC78" s="44"/>
       <c r="AD78" s="44"/>
@@ -9567,43 +9538,43 @@
         <v>-0.23300000000017462</v>
       </c>
       <c r="P81">
-        <v>1497.93454882981</v>
+        <v>1498.3375986209639</v>
       </c>
       <c r="Q81">
-        <v>1503.94678777432</v>
+        <v>1504.3514552807801</v>
       </c>
       <c r="R81">
-        <v>1510.84607836637</v>
+        <v>1511.252602267454</v>
       </c>
       <c r="S81">
-        <v>1518.9281044884999</v>
+        <v>1519.3368030232709</v>
       </c>
       <c r="T81">
-        <v>1530.5861251620499</v>
+        <v>1530.997960524671</v>
       </c>
       <c r="U81">
-        <v>1543.8645833417499</v>
+        <v>1544.2799915439159</v>
       </c>
       <c r="V81">
-        <v>1557.3100588685299</v>
+        <v>1557.72908484966</v>
       </c>
       <c r="W81">
-        <v>1572.24635902092</v>
+        <v>1572.6694039177321</v>
       </c>
       <c r="X81">
-        <v>1585.9885724291801</v>
+        <v>1586.4153149483291</v>
       </c>
       <c r="Y81">
-        <v>1601.2516766583401</v>
+        <v>1601.682526026475</v>
       </c>
       <c r="Z81">
-        <v>1615.2555410887301</v>
+        <v>1615.690158481731</v>
       </c>
       <c r="AA81">
-        <v>1630.7945672703099</v>
+        <v>1631.2333657547081</v>
       </c>
       <c r="AB81">
-        <v>1681.38499637876</v>
+        <v>1646.9554971985581</v>
       </c>
       <c r="AC81"/>
       <c r="AD81"/>
@@ -9640,55 +9611,55 @@
       </c>
       <c r="P82" s="188">
         <f>P81/M81-1</f>
-        <v>7.3297190918908406E-3</v>
+        <v>7.6007616639579556E-3</v>
       </c>
       <c r="Q82" s="188">
         <f t="shared" ref="Q82:X82" si="46">Q81/P81-1</f>
-        <v>4.0136860113193507E-3</v>
+        <v>4.0136860113175743E-3</v>
       </c>
       <c r="R82" s="188">
         <f t="shared" si="46"/>
-        <v>4.5874565829953085E-3</v>
+        <v>4.5874565830001934E-3</v>
       </c>
       <c r="S82" s="188">
         <f t="shared" si="46"/>
-        <v>5.3493378563544969E-3</v>
+        <v>5.349337856350056E-3</v>
       </c>
       <c r="T82" s="188">
         <f t="shared" si="46"/>
-        <v>7.6751629251576858E-3</v>
+        <v>7.6751629251632369E-3</v>
       </c>
       <c r="U82" s="188">
         <f t="shared" si="46"/>
-        <v>8.675407388979206E-3</v>
+        <v>8.6754073889772076E-3</v>
       </c>
       <c r="V82" s="188">
         <f t="shared" si="46"/>
-        <v>8.7089733593581631E-3</v>
+        <v>8.7089733593570529E-3</v>
       </c>
       <c r="W82" s="188">
         <f t="shared" si="46"/>
-        <v>9.5910894990571816E-3</v>
+        <v>9.5910894990536288E-3</v>
       </c>
       <c r="X82" s="188">
         <f t="shared" si="46"/>
-        <v>8.7404962520107876E-3</v>
+        <v>8.7404962520121199E-3</v>
       </c>
       <c r="Y82" s="188">
         <f t="shared" ref="Y82" si="47">Y81/X81-1</f>
-        <v>9.6237163965073869E-3</v>
+        <v>9.6237163965120498E-3</v>
       </c>
       <c r="Z82" s="188">
         <f t="shared" ref="Z82" si="48">Z81/Y81-1</f>
-        <v>8.7455736250123817E-3</v>
+        <v>8.7455736250097171E-3</v>
       </c>
       <c r="AA82" s="188">
         <f>AA81/Z81-1</f>
-        <v>9.6201658414407643E-3</v>
+        <v>9.6201658414400981E-3</v>
       </c>
       <c r="AB82" s="188">
         <f t="shared" ref="AB82" si="49">AB81/AA81-1</f>
-        <v>3.1021950970274714E-2</v>
+        <v>9.6381865243273523E-3</v>
       </c>
       <c r="AC82" s="188"/>
       <c r="AD82" s="188"/>
@@ -10049,18 +10020,18 @@
       </c>
       <c r="L88" s="203">
         <f t="shared" si="52"/>
-        <v>3713565.333333333</v>
+        <v>3741557.333333333</v>
       </c>
       <c r="M88" s="199">
         <f t="shared" si="52"/>
-        <v>2509001</v>
+        <v>2466001</v>
       </c>
       <c r="N88" s="315">
         <v>2508714</v>
       </c>
       <c r="O88" s="315">
         <f t="shared" si="43"/>
-        <v>-287</v>
+        <v>42713</v>
       </c>
       <c r="P88" s="142">
         <f>P46+P43+P32+P38+P33+P34</f>
@@ -10692,7 +10663,7 @@
         <f t="shared" si="62"/>
         <v>-1.36697697207252E-2</v>
       </c>
-      <c r="M98" s="199">
+      <c r="M98" s="202">
         <f>(M97/L97)-1</f>
         <v>-9.9592668024439668E-3</v>
       </c>
@@ -10963,10 +10934,7 @@
       <c r="L103" s="202"/>
       <c r="M103" s="199"/>
       <c r="N103" s="315"/>
-      <c r="O103" s="315">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
+      <c r="O103" s="315"/>
       <c r="P103" s="176">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -11012,10 +10980,7 @@
       <c r="L104" s="202"/>
       <c r="M104" s="199"/>
       <c r="N104" s="315"/>
-      <c r="O104" s="315">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
+      <c r="O104" s="315"/>
       <c r="P104" s="176"/>
       <c r="Q104" s="176"/>
       <c r="R104" s="176"/>
@@ -11057,22 +11022,22 @@
       </c>
       <c r="L105" s="203">
         <f t="shared" si="66"/>
-        <v>577118</v>
+        <v>548584.66666666674</v>
       </c>
       <c r="M105" s="199">
         <f t="shared" si="66"/>
-        <v>482408</v>
+        <v>528408</v>
       </c>
       <c r="N105" s="315">
         <v>489927</v>
       </c>
       <c r="O105" s="315">
         <f t="shared" si="43"/>
-        <v>7519</v>
+        <v>-38481</v>
       </c>
       <c r="P105" s="223">
         <f t="shared" si="66"/>
-        <v>403935.78488041688</v>
+        <v>410935.78488041688</v>
       </c>
       <c r="Q105" s="223">
         <f t="shared" si="66"/>
@@ -11126,18 +11091,36 @@
       </c>
       <c r="B106" s="141"/>
       <c r="E106" s="141"/>
-      <c r="F106" s="203"/>
-      <c r="G106" s="203"/>
-      <c r="H106" s="203"/>
-      <c r="I106" s="203"/>
-      <c r="J106" s="203"/>
-      <c r="K106" s="203"/>
+      <c r="F106" s="203">
+        <f t="shared" ref="F106:K106" si="67">F94-F87</f>
+        <v>200195</v>
+      </c>
+      <c r="G106" s="203">
+        <f t="shared" si="67"/>
+        <v>194843</v>
+      </c>
+      <c r="H106" s="203">
+        <f t="shared" si="67"/>
+        <v>195304</v>
+      </c>
+      <c r="I106" s="203">
+        <f t="shared" si="67"/>
+        <v>203441</v>
+      </c>
+      <c r="J106" s="203">
+        <f t="shared" si="67"/>
+        <v>208223</v>
+      </c>
+      <c r="K106" s="203">
+        <f t="shared" si="67"/>
+        <v>200667</v>
+      </c>
       <c r="L106" s="203">
-        <f t="shared" ref="L106:AA106" si="67">L94-L87</f>
+        <f>L94-L87</f>
         <v>156183</v>
       </c>
       <c r="M106" s="199">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="L106:AA106" si="68">M94-M87</f>
         <v>197631</v>
       </c>
       <c r="N106" s="315">
@@ -11148,51 +11131,51 @@
         <v>7564</v>
       </c>
       <c r="P106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>180968.4973804169</v>
       </c>
       <c r="Q106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>184232.02564747212</v>
       </c>
       <c r="R106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>186070.45989832829</v>
       </c>
       <c r="S106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>186070.45989832829</v>
       </c>
       <c r="T106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>186070.45989832829</v>
       </c>
       <c r="U106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>186070.45989832829</v>
       </c>
       <c r="V106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>229009.79679794249</v>
       </c>
       <c r="W106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>229009.79679794249</v>
       </c>
       <c r="X106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>229009.79679794249</v>
       </c>
       <c r="Y106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="Z106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AA106" s="142">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AO106" s="243"/>
@@ -11204,90 +11187,90 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="F107" s="203">
-        <f t="shared" ref="F107:AA107" si="68">F105-(F94-F87)</f>
+        <f t="shared" ref="F107:K107" si="69">F105-F106</f>
         <v>139025</v>
       </c>
       <c r="G107" s="203">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>139342</v>
       </c>
       <c r="H107" s="203">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>140228</v>
       </c>
       <c r="I107" s="203">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>141105</v>
       </c>
       <c r="J107" s="203">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>141335</v>
       </c>
       <c r="K107" s="203">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>142991</v>
       </c>
       <c r="L107" s="203">
-        <f t="shared" si="68"/>
-        <v>420935</v>
-      </c>
-      <c r="M107" s="199">
-        <f t="shared" si="68"/>
-        <v>284777</v>
+        <f>L105-L106</f>
+        <v>392401.66666666674</v>
+      </c>
+      <c r="M107" s="203">
+        <f>M105-M106</f>
+        <v>330777</v>
       </c>
       <c r="N107" s="315">
         <v>284732</v>
       </c>
       <c r="O107" s="315">
         <f t="shared" si="43"/>
-        <v>-45</v>
-      </c>
-      <c r="P107" s="143">
-        <f t="shared" si="68"/>
-        <v>222967.28749999998</v>
-      </c>
-      <c r="Q107" s="143">
-        <f t="shared" si="68"/>
+        <v>-46045</v>
+      </c>
+      <c r="P107" s="142">
+        <f t="shared" ref="P107:AA107" si="70">P105-P106</f>
+        <v>229967.28749999998</v>
+      </c>
+      <c r="Q107" s="142">
+        <f t="shared" si="70"/>
         <v>203324.70571875002</v>
       </c>
-      <c r="R107" s="143">
-        <f t="shared" si="68"/>
+      <c r="R107" s="142">
+        <f t="shared" si="70"/>
         <v>187683.01748304686</v>
       </c>
-      <c r="S107" s="143">
-        <f t="shared" si="68"/>
+      <c r="S107" s="142">
+        <f t="shared" si="70"/>
         <v>188401.43257046212</v>
       </c>
-      <c r="T107" s="143">
-        <f t="shared" si="68"/>
+      <c r="T107" s="142">
+        <f t="shared" si="70"/>
         <v>189484.44331474055</v>
       </c>
-      <c r="U107" s="143">
-        <f t="shared" si="68"/>
+      <c r="U107" s="142">
+        <f t="shared" si="70"/>
         <v>190939.28774788789</v>
       </c>
-      <c r="V107" s="143">
-        <f t="shared" si="68"/>
+      <c r="V107" s="142">
+        <f t="shared" si="70"/>
         <v>192487.11187147116</v>
       </c>
-      <c r="W107" s="143">
-        <f t="shared" si="68"/>
+      <c r="W107" s="142">
+        <f t="shared" si="70"/>
         <v>193881.98894726951</v>
       </c>
-      <c r="X107" s="143">
-        <f t="shared" si="68"/>
+      <c r="X107" s="142">
+        <f t="shared" si="70"/>
         <v>195111.68321145978</v>
       </c>
-      <c r="Y107" s="143">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="Z107" s="143">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="AA107" s="143">
-        <f t="shared" si="68"/>
+      <c r="Y107" s="142">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="Z107" s="142">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AA107" s="142">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AO107" s="267"/>
@@ -11299,10 +11282,13 @@
       <c r="H108" s="220"/>
       <c r="I108" s="220"/>
       <c r="J108" s="220"/>
-      <c r="K108" s="220"/>
+      <c r="K108" s="220">
+        <f>K107+43400</f>
+        <v>186391</v>
+      </c>
       <c r="L108" s="135">
         <f>L107-L42</f>
-        <v>143335</v>
+        <v>143335.00000000003</v>
       </c>
       <c r="M108" s="135">
         <f>M107-M42</f>
@@ -15093,11 +15079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView topLeftCell="C3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15113,68 +15099,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="345" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="350"/>
-      <c r="C2" s="350"/>
-      <c r="D2" s="350"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="350"/>
-      <c r="G2" s="350"/>
-      <c r="H2" s="350"/>
-      <c r="I2" s="350"/>
-      <c r="J2" s="350"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="345" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="350"/>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="350"/>
-      <c r="I3" s="350"/>
-      <c r="J3" s="350"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="345"/>
+      <c r="H3" s="345"/>
+      <c r="I3" s="345"/>
+      <c r="J3" s="345"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="351"/>
-      <c r="B4" s="351"/>
-      <c r="C4" s="351"/>
-      <c r="D4" s="351"/>
-      <c r="E4" s="351"/>
-      <c r="F4" s="351"/>
-      <c r="G4" s="351"/>
-      <c r="H4" s="351"/>
-      <c r="I4" s="351"/>
-      <c r="J4" s="351"/>
-      <c r="K4" s="356" t="s">
+      <c r="A4" s="346"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="351" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="356"/>
-      <c r="M4" s="356"/>
-      <c r="N4" s="356"/>
+      <c r="L4" s="351"/>
+      <c r="M4" s="351"/>
+      <c r="N4" s="351"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="347" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="353"/>
-      <c r="E5" s="353"/>
-      <c r="F5" s="353"/>
-      <c r="G5" s="353"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="354"/>
+      <c r="D5" s="348"/>
+      <c r="E5" s="348"/>
+      <c r="F5" s="348"/>
+      <c r="G5" s="348"/>
+      <c r="H5" s="348"/>
+      <c r="I5" s="348"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="355" t="s">
+      <c r="L5" s="350" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="324"/>
@@ -15185,16 +15171,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="346">
+      <c r="C6" s="353">
         <v>2020</v>
       </c>
-      <c r="D6" s="347"/>
-      <c r="E6" s="347"/>
-      <c r="F6" s="347"/>
-      <c r="G6" s="347"/>
-      <c r="H6" s="347"/>
-      <c r="I6" s="347"/>
-      <c r="J6" s="348"/>
+      <c r="D6" s="354"/>
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="354"/>
+      <c r="H6" s="354"/>
+      <c r="I6" s="354"/>
+      <c r="J6" s="355"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15286,12 +15272,13 @@
         <v>43.4</v>
       </c>
       <c r="M8" s="73">
-        <f>AVERAGE(F8:H8)</f>
-        <v>1112.5333333333333</v>
+        <v>1084</v>
       </c>
       <c r="N8" s="73">
-        <f>4*N26</f>
-        <v>772</v>
+        <v>775</v>
+      </c>
+      <c r="O8" s="73">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
@@ -15345,7 +15332,7 @@
       </c>
       <c r="N10" s="73">
         <f t="shared" ref="N10:O12" si="1">4*N28</f>
-        <v>37.413333333333327</v>
+        <v>24</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
@@ -15385,7 +15372,7 @@
       </c>
       <c r="N11" s="73">
         <f t="shared" si="1"/>
-        <v>146.10666666666663</v>
+        <v>156</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
@@ -15437,7 +15424,7 @@
       </c>
       <c r="N12" s="73">
         <f t="shared" si="1"/>
-        <v>456.1733333333334</v>
+        <v>373</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
@@ -15487,7 +15474,7 @@
       </c>
       <c r="N17" s="80">
         <f t="shared" ref="N17:W17" si="3">4*N37</f>
-        <v>632</v>
+        <v>589</v>
       </c>
       <c r="O17" s="80">
         <f t="shared" si="3"/>
@@ -15540,15 +15527,15 @@
       </c>
       <c r="M18" s="80">
         <f>4*M38</f>
-        <v>277.60000000000002</v>
+        <v>249.06666666666672</v>
       </c>
       <c r="N18" s="80">
         <f t="shared" ref="N18:W18" si="5">4*N38</f>
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="O18" s="80">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P18" s="80">
         <f t="shared" si="5"/>
@@ -15665,12 +15652,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="349" t="s">
+      <c r="K23" s="356" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="349"/>
-      <c r="M23" s="349"/>
-      <c r="N23" s="349"/>
+      <c r="L23" s="356"/>
+      <c r="M23" s="356"/>
+      <c r="N23" s="356"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15774,15 +15761,15 @@
       </c>
       <c r="M26" s="83">
         <f>M8/4</f>
-        <v>278.13333333333333</v>
+        <v>271</v>
       </c>
       <c r="N26" s="83">
-        <f>N37+N38</f>
-        <v>193</v>
-      </c>
-      <c r="O26" s="84">
-        <f>O33+O34</f>
-        <v>57</v>
+        <f>N8/4</f>
+        <v>193.75</v>
+      </c>
+      <c r="O26" s="83">
+        <f>O8/4</f>
+        <v>68.75</v>
       </c>
       <c r="P26" s="84">
         <f>P33+P34</f>
@@ -15839,7 +15826,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="345" t="s">
+      <c r="I28" s="352" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15857,8 +15844,7 @@
         <v>1.7666666666666668</v>
       </c>
       <c r="N28" s="83">
-        <f>F24-M28</f>
-        <v>9.3533333333333317</v>
+        <v>6</v>
       </c>
       <c r="O28" s="84">
         <v>15</v>
@@ -15890,7 +15876,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="345"/>
+      <c r="I29" s="352"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15906,8 +15892,7 @@
         <v>30.683333333333337</v>
       </c>
       <c r="N29" s="83">
-        <f>F23-M29</f>
-        <v>36.526666666666657</v>
+        <v>39</v>
       </c>
       <c r="O29" s="84">
         <v>10</v>
@@ -15939,7 +15924,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="345"/>
+      <c r="I30" s="352"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15955,8 +15940,7 @@
         <v>171.51666666666665</v>
       </c>
       <c r="N30" s="83">
-        <f>F22-M30</f>
-        <v>114.04333333333335</v>
+        <v>93.25</v>
       </c>
       <c r="O30" s="84">
         <v>5</v>
@@ -15988,7 +15972,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="345"/>
+      <c r="I31" s="352"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -16050,7 +16034,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="345" t="s">
+      <c r="I33" s="352" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16062,7 +16046,7 @@
       </c>
       <c r="N33" s="72">
         <f t="shared" si="9"/>
-        <v>162.92333333333335</v>
+        <v>141.25</v>
       </c>
       <c r="O33" s="72">
         <f t="shared" si="9"/>
@@ -16098,7 +16082,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="345"/>
+      <c r="I34" s="352"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -16112,14 +16096,15 @@
       </c>
       <c r="M34" s="72">
         <f>M26-M33</f>
-        <v>71.166666666666686</v>
+        <v>64.03333333333336</v>
       </c>
       <c r="N34" s="72">
         <f>N26-N33</f>
-        <v>30.076666666666654</v>
+        <v>52.5</v>
       </c>
       <c r="O34" s="72">
-        <v>25</v>
+        <f>O26-O33</f>
+        <v>36.75</v>
       </c>
       <c r="P34" s="72">
         <v>25</v>
@@ -16146,7 +16131,7 @@
     <row r="35" spans="3:23" x14ac:dyDescent="0.35">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
-        <v>119.04333333333334</v>
+        <v>134.33333333333337</v>
       </c>
       <c r="R35" s="72"/>
     </row>
@@ -16180,7 +16165,8 @@
         <v>208.73333333333332</v>
       </c>
       <c r="N37" s="72">
-        <v>158</v>
+        <f>N33+N28</f>
+        <v>147.25</v>
       </c>
       <c r="O37" s="72">
         <f>O33+O28</f>
@@ -16215,18 +16201,20 @@
         <v>6.95</v>
       </c>
       <c r="L38" s="72">
-        <f t="shared" ref="L38:M38" si="13">L26-L37</f>
+        <f t="shared" ref="L38:N38" si="13">L26-L37</f>
         <v>10.85</v>
       </c>
       <c r="M38" s="72">
         <f t="shared" si="13"/>
-        <v>69.400000000000006</v>
+        <v>62.26666666666668</v>
       </c>
       <c r="N38" s="72">
-        <v>35</v>
+        <f t="shared" si="13"/>
+        <v>46.5</v>
       </c>
       <c r="O38" s="72">
-        <v>20</v>
+        <f t="shared" ref="O38" si="14">O26-O37</f>
+        <v>21.75</v>
       </c>
       <c r="P38" s="72">
         <v>15</v>
@@ -16254,35 +16242,14 @@
       </c>
     </row>
     <row r="40" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="O40" s="72">
-        <f>O37-O28</f>
-        <v>32</v>
-      </c>
-      <c r="P40" s="72">
-        <f t="shared" ref="P40:S40" si="14">P37-P28</f>
-        <v>26</v>
-      </c>
-      <c r="Q40" s="72">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="R40" s="72">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="72">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16290,9 +16257,14 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16397,22 +16369,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="358" t="s">
+      <c r="E6" s="360" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="358"/>
-      <c r="G6" s="358"/>
-      <c r="H6" s="358"/>
-      <c r="I6" s="358"/>
-      <c r="J6" s="358"/>
-      <c r="K6" s="358"/>
-      <c r="L6" s="358"/>
-      <c r="M6" s="358"/>
-      <c r="N6" s="358"/>
-      <c r="O6" s="358"/>
-      <c r="P6" s="358"/>
-      <c r="Q6" s="358"/>
-      <c r="R6" s="358"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="360"/>
+      <c r="J6" s="360"/>
+      <c r="K6" s="360"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="357" t="s">
@@ -17148,21 +17120,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="359" t="s">
+      <c r="H27" s="358" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="359"/>
-      <c r="J27" s="359"/>
-      <c r="K27" s="359"/>
-      <c r="L27" s="359"/>
-      <c r="M27" s="359"/>
-      <c r="N27" s="359"/>
-      <c r="O27" s="359"/>
-      <c r="P27" s="359"/>
-      <c r="Q27" s="359"/>
-      <c r="R27" s="359"/>
-      <c r="S27" s="359"/>
-      <c r="T27" s="359"/>
+      <c r="I27" s="358"/>
+      <c r="J27" s="358"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="358"/>
+      <c r="M27" s="358"/>
+      <c r="N27" s="358"/>
+      <c r="O27" s="358"/>
+      <c r="P27" s="358"/>
+      <c r="Q27" s="358"/>
+      <c r="R27" s="358"/>
+      <c r="S27" s="358"/>
+      <c r="T27" s="358"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17478,21 +17450,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="360" t="s">
+      <c r="F37" s="359" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="360"/>
-      <c r="H37" s="360"/>
-      <c r="I37" s="360"/>
-      <c r="J37" s="360"/>
-      <c r="K37" s="360"/>
-      <c r="L37" s="360"/>
-      <c r="M37" s="360"/>
-      <c r="N37" s="360"/>
-      <c r="O37" s="360"/>
-      <c r="P37" s="360"/>
-      <c r="Q37" s="360"/>
-      <c r="R37" s="360"/>
+      <c r="G37" s="359"/>
+      <c r="H37" s="359"/>
+      <c r="I37" s="359"/>
+      <c r="J37" s="359"/>
+      <c r="K37" s="359"/>
+      <c r="L37" s="359"/>
+      <c r="M37" s="359"/>
+      <c r="N37" s="359"/>
+      <c r="O37" s="359"/>
+      <c r="P37" s="359"/>
+      <c r="Q37" s="359"/>
+      <c r="R37" s="359"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17808,21 +17780,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="359" t="s">
+      <c r="F48" s="358" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="359"/>
-      <c r="H48" s="359"/>
-      <c r="I48" s="359"/>
-      <c r="J48" s="359"/>
-      <c r="K48" s="359"/>
-      <c r="L48" s="359"/>
-      <c r="M48" s="359"/>
-      <c r="N48" s="359"/>
-      <c r="O48" s="359"/>
-      <c r="P48" s="359"/>
-      <c r="Q48" s="359"/>
-      <c r="R48" s="359"/>
+      <c r="G48" s="358"/>
+      <c r="H48" s="358"/>
+      <c r="I48" s="358"/>
+      <c r="J48" s="358"/>
+      <c r="K48" s="358"/>
+      <c r="L48" s="358"/>
+      <c r="M48" s="358"/>
+      <c r="N48" s="358"/>
+      <c r="O48" s="358"/>
+      <c r="P48" s="358"/>
+      <c r="Q48" s="358"/>
+      <c r="R48" s="358"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18134,6 +18106,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18142,12 +18120,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23645,15 +23617,15 @@
       <c r="D31" s="102"/>
       <c r="E31" s="104">
         <f>main!L107/1000</f>
-        <v>420.935</v>
+        <v>392.40166666666676</v>
       </c>
       <c r="F31" s="104">
         <f>main!M107/1000</f>
-        <v>284.77699999999999</v>
+        <v>330.77699999999999</v>
       </c>
       <c r="G31" s="104">
         <f>main!P107/1000</f>
-        <v>222.96728749999997</v>
+        <v>229.96728749999997</v>
       </c>
       <c r="H31" s="104">
         <f>main!Q107/1000</f>
@@ -23922,11 +23894,11 @@
       <c r="E34" s="225"/>
       <c r="F34" s="225">
         <f t="shared" ref="F34" si="39">F31-F32</f>
-        <v>141.0440000000001</v>
+        <v>187.0440000000001</v>
       </c>
       <c r="G34" s="150">
         <f t="shared" ref="G34" si="40">G31-G32</f>
-        <v>103.25698590656407</v>
+        <v>110.25698590656407</v>
       </c>
       <c r="H34" s="225">
         <f t="shared" ref="H34" si="41">H31-H32</f>
@@ -24108,23 +24080,23 @@
       </c>
       <c r="G38" s="149">
         <f>main!P22</f>
-        <v>1908.0455151906833</v>
+        <v>1909.1908330926583</v>
       </c>
       <c r="H38" s="104">
         <f>main!Q22</f>
-        <v>1939.6902849913897</v>
+        <v>1940.8545978916857</v>
       </c>
       <c r="I38" s="104">
         <f>main!R22</f>
-        <v>1970.5341571455765</v>
+        <v>1971.716984299685</v>
       </c>
       <c r="J38" s="104">
         <f>main!S22</f>
-        <v>2003.5013393393667</v>
+        <v>2004.7039552792487</v>
       </c>
       <c r="K38" s="149">
         <f>main!T22</f>
-        <v>2025.581901198547</v>
+        <v>2026.797771152849</v>
       </c>
       <c r="L38" s="104"/>
       <c r="M38" s="104"/>
@@ -24202,23 +24174,23 @@
       </c>
       <c r="G40" s="150">
         <f t="shared" ref="G40:K40" si="47">G38-G39</f>
-        <v>-1.0953270393285948</v>
+        <v>4.9990862646382084E-2</v>
       </c>
       <c r="H40" s="225">
         <f t="shared" si="47"/>
-        <v>-1.1134929435183949</v>
+        <v>5.0819956777559128E-2</v>
       </c>
       <c r="I40" s="225">
         <f t="shared" si="47"/>
-        <v>-1.1311990867463919</v>
+        <v>5.1628067362116781E-2</v>
       </c>
       <c r="J40" s="225">
         <f t="shared" si="47"/>
-        <v>-1.150124131134362</v>
+        <v>5.2491808747618052E-2</v>
       </c>
       <c r="K40" s="150">
         <f t="shared" si="47"/>
-        <v>-1.1627996340230311</v>
+        <v>5.3070320278948202E-2</v>
       </c>
       <c r="L40" s="225">
         <v>0</v>
@@ -24358,23 +24330,23 @@
       </c>
       <c r="G44" s="149">
         <f>main!P26</f>
-        <v>91.968791214359072</v>
+        <v>92.023996135920015</v>
       </c>
       <c r="H44" s="104">
         <f>main!Q26</f>
-        <v>93.494085660250093</v>
+        <v>93.550206150659264</v>
       </c>
       <c r="I44" s="104">
         <f>main!R26</f>
-        <v>94.980776420930042</v>
+        <v>95.037789308050833</v>
       </c>
       <c r="J44" s="104">
         <f>main!S26</f>
-        <v>96.569811835425071</v>
+        <v>96.627778552364219</v>
       </c>
       <c r="K44" s="149">
         <f>main!T26</f>
-        <v>97.634106459088585</v>
+        <v>97.692712026450963</v>
       </c>
       <c r="L44" s="104"/>
       <c r="M44" s="104"/>
@@ -24454,23 +24426,23 @@
       </c>
       <c r="G46" s="150">
         <f t="shared" ref="G46:K46" si="49">G44-G45</f>
-        <v>-5.5204921560942921E-2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="225">
         <f t="shared" si="49"/>
-        <v>-5.6120490409199419E-2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="225">
         <f t="shared" si="49"/>
-        <v>-5.7012887120805544E-2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="225">
         <f t="shared" si="49"/>
-        <v>-5.7966716939205298E-2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="150">
         <f t="shared" si="49"/>
-        <v>-5.8605567362434385E-2</v>
+        <v>0</v>
       </c>
       <c r="L46" s="225">
         <v>0</v>
@@ -25056,11 +25028,11 @@
       </c>
       <c r="E57" s="104">
         <f>main!L88/1000</f>
-        <v>3713.565333333333</v>
+        <v>3741.5573333333332</v>
       </c>
       <c r="F57" s="104">
         <f>main!M88/1000</f>
-        <v>2509.0010000000002</v>
+        <v>2466.0010000000002</v>
       </c>
       <c r="G57" s="149">
         <f>main!P88/1000</f>
@@ -25336,7 +25308,7 @@
       <c r="E60" s="225"/>
       <c r="F60" s="225">
         <f t="shared" ref="F60" si="93">F57-F58</f>
-        <v>-144.26599999999962</v>
+        <v>-187.26599999999962</v>
       </c>
       <c r="G60" s="150">
         <f t="shared" ref="G60" si="94">G57-G58</f>
@@ -25971,43 +25943,43 @@
       </c>
       <c r="G71" s="151">
         <f>main!P78/1000</f>
-        <v>298.37288477706733</v>
+        <v>298.42437754843183</v>
       </c>
       <c r="H71" s="226">
         <f>main!Q78/1000</f>
-        <v>341.14099544764287</v>
+        <v>341.19269489482321</v>
       </c>
       <c r="I71" s="226">
         <f>main!R78/1000</f>
-        <v>314.02243392207248</v>
+        <v>314.07437053822298</v>
       </c>
       <c r="J71" s="226">
         <f>main!S78/1000</f>
-        <v>315.05497613497749</v>
+        <v>315.10719057763401</v>
       </c>
       <c r="K71" s="151">
         <f>main!T78/1000</f>
-        <v>310.54437969325096</v>
+        <v>310.59699489026309</v>
       </c>
       <c r="L71" s="226">
         <f>main!U78/1000</f>
-        <v>306.24080684971517</v>
+        <v>306.29387850499586</v>
       </c>
       <c r="M71" s="226">
         <f>main!V78/1000</f>
-        <v>307.95857178194768</v>
+        <v>308.01210563686004</v>
       </c>
       <c r="N71" s="226">
         <f>main!W78/1000</f>
-        <v>309.86680125051294</v>
+        <v>309.9208485534183</v>
       </c>
       <c r="O71" s="151">
         <f>main!X78/1000</f>
-        <v>311.62247677399648</v>
+        <v>311.67699647715051</v>
       </c>
       <c r="P71" s="258">
         <f>main!Y78/1000</f>
-        <v>313.57245802602733</v>
+        <v>313.62750241134353</v>
       </c>
       <c r="Q71" s="258">
         <v>330.50545802602733</v>
@@ -26229,43 +26201,43 @@
       </c>
       <c r="G74" s="150">
         <f t="shared" ref="G74:K74" si="118">G71-G72</f>
-        <v>69.242163837897039</v>
+        <v>69.293656609261546</v>
       </c>
       <c r="H74" s="225">
         <f t="shared" si="118"/>
-        <v>127.61464764872966</v>
+        <v>127.66634709591</v>
       </c>
       <c r="I74" s="225">
         <f t="shared" si="118"/>
-        <v>115.66594358351179</v>
+        <v>115.71788019966229</v>
       </c>
       <c r="J74" s="225">
         <f t="shared" si="118"/>
-        <v>131.28898901689669</v>
+        <v>131.34120345955321</v>
       </c>
       <c r="K74" s="150">
         <f t="shared" si="118"/>
-        <v>115.49105945954116</v>
+        <v>115.54367465655329</v>
       </c>
       <c r="L74" s="225">
         <f t="shared" ref="L74:N74" si="119">L71-L72</f>
-        <v>99.106394189216473</v>
+        <v>99.159465844497163</v>
       </c>
       <c r="M74" s="225">
         <f t="shared" si="119"/>
-        <v>88.661254484149993</v>
+        <v>88.714788339062352</v>
       </c>
       <c r="N74" s="225">
         <f t="shared" si="119"/>
-        <v>77.676309913851043</v>
+        <v>77.730357216756403</v>
       </c>
       <c r="O74" s="150">
         <f t="shared" ref="O74:AA74" si="120">O71-O72</f>
-        <v>67.178458618642992</v>
+        <v>67.23297832179702</v>
       </c>
       <c r="P74" s="260">
         <f t="shared" si="120"/>
-        <v>56.129915947324207</v>
+        <v>56.184960332640401</v>
       </c>
       <c r="Q74" s="260">
         <f t="shared" si="120"/>
@@ -26370,8 +26342,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26469,7 +26441,7 @@
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2:M12">TRANSPOSE(main!L42:X42)/1000</f>
-        <v>277.60000000000002</v>
+        <v>249.06666666666672</v>
       </c>
       <c r="N2">
         <f t="array" ref="N2:N16">TRANSPOSE(main!L73:AB73/1000)</f>
@@ -26493,7 +26465,7 @@
       </c>
       <c r="C3">
         <f t="array" ref="C3:C24">TRANSPOSE('add-ons calculations'!F34:AA34)</f>
-        <v>141.0440000000001</v>
+        <v>187.0440000000001</v>
       </c>
       <c r="D3">
         <f t="array" ref="D3:D24">TRANSPOSE('add-ons calculations'!F40:AA40)</f>
@@ -26509,7 +26481,7 @@
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>-144.26599999999962</v>
+        <v>-187.26599999999962</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
@@ -26528,10 +26500,10 @@
         <v>881.35400000000004</v>
       </c>
       <c r="L3">
-        <v>738.2</v>
+        <v>695.2</v>
       </c>
       <c r="M3">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -26551,13 +26523,13 @@
         <v>-20.937831399481894</v>
       </c>
       <c r="C4">
-        <v>103.25698590656407</v>
+        <v>110.25698590656407</v>
       </c>
       <c r="D4">
-        <v>-1.0953270393285948</v>
+        <v>4.9990862646382084E-2</v>
       </c>
       <c r="E4">
-        <v>-5.5204921560942921E-2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>33.585746620749433</v>
@@ -26569,7 +26541,7 @@
         <v>-833.94013103694624</v>
       </c>
       <c r="I4">
-        <v>69.242163837897039</v>
+        <v>69.293656609261546</v>
       </c>
       <c r="J4" s="102"/>
       <c r="K4" s="102">
@@ -26602,10 +26574,10 @@
         <v>107.63193107562813</v>
       </c>
       <c r="D5">
-        <v>-1.1134929435183949</v>
+        <v>5.0819956777559128E-2</v>
       </c>
       <c r="E5">
-        <v>-5.6120490409199419E-2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>59.561193892373922</v>
@@ -26617,16 +26589,16 @@
         <v>-643.57844188676734</v>
       </c>
       <c r="I5">
-        <v>127.61464764872966</v>
+        <v>127.66634709591</v>
       </c>
       <c r="K5">
         <v>-6.476</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -26650,10 +26622,10 @@
         <v>116.0025854053485</v>
       </c>
       <c r="D6">
-        <v>-1.1311990867463919</v>
+        <v>5.1628067362116781E-2</v>
       </c>
       <c r="E6">
-        <v>-5.7012887120805544E-2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>81.75548712799673</v>
@@ -26665,16 +26637,16 @@
         <v>-647.99123064723142</v>
       </c>
       <c r="I6">
-        <v>115.66594358351179</v>
+        <v>115.71788019966229</v>
       </c>
       <c r="K6">
-        <v>337.8</v>
+        <v>344.8</v>
       </c>
       <c r="L6">
         <v>257.8</v>
       </c>
       <c r="M6">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -26697,10 +26669,10 @@
         <v>138.64401002534075</v>
       </c>
       <c r="D7">
-        <v>-1.150124131134362</v>
+        <v>5.2491808747618052E-2</v>
       </c>
       <c r="E7">
-        <v>-5.7966716939205298E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>98.995562669159426</v>
@@ -26712,7 +26684,7 @@
         <v>-652.75653890924525</v>
       </c>
       <c r="I7">
-        <v>131.28898901689669</v>
+        <v>131.34120345955321</v>
       </c>
       <c r="K7">
         <v>724</v>
@@ -26744,10 +26716,10 @@
         <v>125.59921378630472</v>
       </c>
       <c r="D8">
-        <v>-1.1627996340230311</v>
+        <v>5.3070320278948202E-2</v>
       </c>
       <c r="E8">
-        <v>-5.8605567362434385E-2</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>101.51396577302398</v>
@@ -26759,7 +26731,7 @@
         <v>-1112.559918312772</v>
       </c>
       <c r="I8">
-        <v>115.49105945954116</v>
+        <v>115.54367465655329</v>
       </c>
       <c r="K8">
         <v>152</v>
@@ -26806,7 +26778,7 @@
         <v>-1163.3117757737041</v>
       </c>
       <c r="I9">
-        <v>99.106394189216473</v>
+        <v>99.159465844497163</v>
       </c>
       <c r="K9">
         <v>44</v>
@@ -26853,7 +26825,7 @@
         <v>-1168.3939307885266</v>
       </c>
       <c r="I10">
-        <v>88.661254484149993</v>
+        <v>88.714788339062352</v>
       </c>
       <c r="K10">
         <v>44</v>
@@ -26900,7 +26872,7 @@
         <v>-1173.5410146130612</v>
       </c>
       <c r="I11">
-        <v>77.676309913851043</v>
+        <v>77.730357216756403</v>
       </c>
       <c r="K11">
         <v>44</v>
@@ -26947,7 +26919,7 @@
         <v>-1178.7530272473091</v>
       </c>
       <c r="I12">
-        <v>67.178458618642992</v>
+        <v>67.23297832179702</v>
       </c>
       <c r="K12">
         <v>44</v>
@@ -26994,7 +26966,7 @@
         <v>-1184.0417739294007</v>
       </c>
       <c r="I13">
-        <v>56.129915947324207</v>
+        <v>56.184960332640401</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -27683,7 +27655,7 @@
       </c>
       <c r="L3" s="266">
         <f>main!P30</f>
-        <v>2848130.6794988289</v>
+        <v>2855130.6794988289</v>
       </c>
       <c r="M3" s="266">
         <f>main!Q30</f>
@@ -30460,7 +30432,7 @@
       </c>
       <c r="G45" s="149">
         <f>main_nipas!L3/1000</f>
-        <v>2848.1306794988291</v>
+        <v>2855.1306794988291</v>
       </c>
       <c r="H45" s="102">
         <f>main_nipas!M3/1000</f>
@@ -30736,7 +30708,7 @@
       </c>
       <c r="G48" s="150">
         <f t="shared" si="30"/>
-        <v>514.13909259879028</v>
+        <v>521.13909259879028</v>
       </c>
       <c r="H48" s="225">
         <f t="shared" si="30"/>
@@ -30991,22 +30963,22 @@
         <v>718.96612748239181</v>
       </c>
       <c r="D3" s="270">
-        <v>-1.0953270393285948</v>
+        <v>4.9990862646382084E-2</v>
       </c>
       <c r="E3" s="270">
-        <v>-5.5204921560942921E-2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="270">
         <v>23.142985628403267</v>
       </c>
       <c r="G3" s="270">
-        <v>514.13909259879028</v>
+        <v>521.13909259879028</v>
       </c>
       <c r="H3" s="270">
         <v>-833.94013103694624</v>
       </c>
       <c r="I3" s="270">
-        <v>69.242163837897039</v>
+        <v>69.293656609261546</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -31020,10 +30992,10 @@
         <v>756.43646274752768</v>
       </c>
       <c r="D4" s="270">
-        <v>-1.1134929435183949</v>
+        <v>5.0819956777559128E-2</v>
       </c>
       <c r="E4" s="270">
-        <v>-5.6120490409199419E-2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="270">
         <v>58.379353230327069</v>
@@ -31035,7 +31007,7 @@
         <v>-643.57844188676734</v>
       </c>
       <c r="I4" s="270">
-        <v>127.61464764872966</v>
+        <v>127.66634709591</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -31049,10 +31021,10 @@
         <v>788.42127504542532</v>
       </c>
       <c r="D5" s="270">
-        <v>-1.1311990867463919</v>
+        <v>5.1628067362116781E-2</v>
       </c>
       <c r="E5" s="270">
-        <v>-5.7012887120805544E-2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="270">
         <v>93.890603611585107</v>
@@ -31064,7 +31036,7 @@
         <v>-647.99123064723142</v>
       </c>
       <c r="I5" s="270">
-        <v>115.66594358351179</v>
+        <v>115.71788019966229</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -31078,10 +31050,10 @@
         <v>811.56513372945358</v>
       </c>
       <c r="D6" s="270">
-        <v>-1.150124131134362</v>
+        <v>5.2491808747618052E-2</v>
       </c>
       <c r="E6" s="270">
-        <v>-5.7966716939205298E-2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="270">
         <v>129.68010301235745</v>
@@ -31093,7 +31065,7 @@
         <v>-652.75653890924525</v>
       </c>
       <c r="I6" s="270">
-        <v>131.28898901689669</v>
+        <v>131.34120345955321</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -31107,10 +31079,10 @@
         <v>798.22202453105353</v>
       </c>
       <c r="D7" s="270">
-        <v>-1.1627996340230311</v>
+        <v>5.3070320278948202E-2</v>
       </c>
       <c r="E7" s="270">
-        <v>-5.8605567362434385E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="270">
         <v>136.22786454811614</v>
@@ -31122,7 +31094,7 @@
         <v>-1112.559918312772</v>
       </c>
       <c r="I7" s="270">
-        <v>115.49105945954116</v>
+        <v>115.54367465655329</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -31151,7 +31123,7 @@
         <v>-1163.3117757737041</v>
       </c>
       <c r="I8" s="270">
-        <v>99.106394189216473</v>
+        <v>99.159465844497163</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -31180,7 +31152,7 @@
         <v>-1168.3939307885266</v>
       </c>
       <c r="I9" s="270">
-        <v>88.661254484149993</v>
+        <v>88.714788339062352</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -31209,7 +31181,7 @@
         <v>-1173.5410146130612</v>
       </c>
       <c r="I10" s="270">
-        <v>77.676309913851043</v>
+        <v>77.730357216756403</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -31238,7 +31210,7 @@
         <v>-1178.7530272473091</v>
       </c>
       <c r="I11" s="270">
-        <v>67.178458618642992</v>
+        <v>67.23297832179702</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -31267,7 +31239,7 @@
         <v>-1184.0417739294007</v>
       </c>
       <c r="I12" s="270">
-        <v>56.129915947324207</v>
+        <v>56.184960332640401</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -32529,21 +32501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -32760,32 +32717,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32802,4 +32749,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyilla\Documents\Git\Fiscal-Impact-Measure\documentation\COVID-19 Changes\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399058F7-ADA1-4049-8429-4871F7202677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2BA2D-1D2D-6944-A22F-4F0B4225059D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Stimulus Round 2" sheetId="16" state="hidden" r:id="rId2"/>
+    <sheet name="Stimulus Round 2" sheetId="16" r:id="rId2"/>
     <sheet name="add-ons calculations" sheetId="5" r:id="rId3"/>
     <sheet name="FIM Add Factors" sheetId="9" r:id="rId4"/>
     <sheet name="main_nipas" sheetId="10" r:id="rId5"/>
@@ -41,7 +41,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -739,14 +742,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -3550,21 +3553,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3586,14 +3574,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4120,32 +4123,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412AAB1A-8B83-4A8D-A21D-8EE870D0279B}">
   <dimension ref="A1:AQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I52" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O53" sqref="O53"/>
+      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.81640625" style="35" customWidth="1"/>
-    <col min="6" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" customWidth="1"/>
-    <col min="16" max="22" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="35" customWidth="1"/>
-    <col min="24" max="25" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.81640625" customWidth="1"/>
-    <col min="28" max="32" width="8.81640625" customWidth="1"/>
-    <col min="33" max="33" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="10.453125" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="8.6328125" style="146"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="35" customWidth="1"/>
+    <col min="6" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="22" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1640625" style="35" customWidth="1"/>
+    <col min="24" max="25" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" customWidth="1"/>
+    <col min="28" max="32" width="8.83203125" customWidth="1"/>
+    <col min="33" max="33" width="15.5" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="316" t="s">
         <v>163</v>
       </c>
@@ -4180,7 +4183,7 @@
       <c r="AO1" s="317"/>
       <c r="AP1" s="317"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F2" s="315" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4234,7 @@
       <c r="AK2" s="315"/>
       <c r="AL2" s="230"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F3" s="199" t="s">
         <v>5</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="314" t="s">
         <v>264</v>
       </c>
@@ -4361,7 +4364,7 @@
       <c r="AK4" s="97"/>
       <c r="AL4" s="97"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -4446,7 +4449,7 @@
       <c r="AK5" s="97"/>
       <c r="AL5" s="97"/>
     </row>
-    <row r="6" spans="1:43" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="170" t="s">
         <v>216</v>
       </c>
@@ -4534,7 +4537,7 @@
       <c r="AL6" s="175"/>
       <c r="AM6" s="241"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>262</v>
       </c>
@@ -4619,7 +4622,7 @@
       <c r="AK7" s="97"/>
       <c r="AL7" s="97"/>
     </row>
-    <row r="8" spans="1:43" s="213" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" s="213" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="213" t="s">
         <v>263</v>
       </c>
@@ -4653,7 +4656,7 @@
       <c r="AL8" s="214"/>
       <c r="AM8" s="242"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="F9" s="199"/>
       <c r="G9" s="199"/>
       <c r="H9" s="199"/>
@@ -4673,7 +4676,7 @@
       <c r="AK9" s="97"/>
       <c r="AL9" s="97"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4688,7 +4691,7 @@
       <c r="AD10" s="146"/>
       <c r="AI10" s="146"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="177" t="s">
         <v>258</v>
       </c>
@@ -4764,7 +4767,7 @@
       <c r="AD11" s="146"/>
       <c r="AI11" s="146"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="218" t="s">
         <v>25</v>
       </c>
@@ -4879,7 +4882,7 @@
       </c>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:43" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219" t="s">
         <v>216</v>
       </c>
@@ -4937,7 +4940,7 @@
       <c r="AL13" s="175"/>
       <c r="AM13" s="241"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="218" t="s">
         <v>26</v>
       </c>
@@ -5048,7 +5051,7 @@
       <c r="AP14" s="35"/>
       <c r="AQ14" s="35"/>
     </row>
-    <row r="15" spans="1:43" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:43" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219" t="s">
         <v>216</v>
       </c>
@@ -5106,7 +5109,7 @@
       <c r="AL15" s="186"/>
       <c r="AM15" s="241"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="218" t="s">
         <v>27</v>
       </c>
@@ -5221,7 +5224,7 @@
       </c>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219" t="s">
         <v>216</v>
       </c>
@@ -5279,7 +5282,7 @@
       <c r="AL17" s="175"/>
       <c r="AM17" s="241"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="177" t="s">
         <v>0</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>237.052464440053</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="178" t="s">
         <v>216</v>
       </c>
@@ -5451,7 +5454,7 @@
       <c r="AL19" s="175"/>
       <c r="AM19" s="241"/>
     </row>
-    <row r="20" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="170"/>
       <c r="C20" s="280"/>
       <c r="D20" s="280"/>
@@ -5489,7 +5492,7 @@
       <c r="AL20" s="175"/>
       <c r="AM20" s="241"/>
     </row>
-    <row r="21" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -5529,7 +5532,7 @@
       <c r="AL21" s="175"/>
       <c r="AM21" s="241"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="177" t="s">
         <v>266</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>2109.1999701280711</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="218" t="s">
         <v>22</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>570.98954009480906</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="218" t="s">
         <v>23</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>1515.3877549496067</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="218" t="s">
         <v>24</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>22.82267508365533</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="177" t="s">
         <v>0</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>101.66454109070624</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="178" t="s">
         <v>267</v>
       </c>
@@ -5925,7 +5928,7 @@
       <c r="U27" s="195"/>
       <c r="AM27" s="244"/>
     </row>
-    <row r="28" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="196"/>
       <c r="B28" s="197"/>
       <c r="C28" s="280"/>
@@ -5973,7 +5976,7 @@
       <c r="AL28" s="175"/>
       <c r="AM28" s="241"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="F29" s="199"/>
       <c r="G29" s="199"/>
       <c r="H29" s="199"/>
@@ -5996,7 +5999,7 @@
         <v>2696.6527204036238</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
         <v>14</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="86" t="s">
         <v>3</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
         <v>341</v>
       </c>
@@ -6295,7 +6298,7 @@
       <c r="AL32" s="3"/>
       <c r="AM32" s="184"/>
     </row>
-    <row r="33" spans="1:41" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="294" t="s">
         <v>342</v>
       </c>
@@ -6328,7 +6331,7 @@
       <c r="AL33" s="289"/>
       <c r="AM33" s="291"/>
     </row>
-    <row r="34" spans="1:41" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="294" t="s">
         <v>349</v>
       </c>
@@ -6364,7 +6367,7 @@
       <c r="AL34" s="289"/>
       <c r="AM34" s="291"/>
     </row>
-    <row r="35" spans="1:41" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="294" t="s">
         <v>353</v>
       </c>
@@ -6406,7 +6409,7 @@
       <c r="AL35" s="289"/>
       <c r="AM35" s="291"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="86" t="s">
         <v>141</v>
       </c>
@@ -6509,7 +6512,7 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="184"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="115" t="s">
         <v>335</v>
       </c>
@@ -6558,7 +6561,7 @@
       <c r="AL37" s="3"/>
       <c r="AM37" s="184"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
         <v>213</v>
       </c>
@@ -6617,7 +6620,7 @@
       <c r="AL38" s="3"/>
       <c r="AM38" s="184"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
         <v>138</v>
       </c>
@@ -6698,7 +6701,7 @@
       <c r="AL39" s="3"/>
       <c r="AM39" s="184"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="281" t="s">
         <v>162</v>
       </c>
@@ -6741,7 +6744,7 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="184"/>
     </row>
-    <row r="41" spans="1:41" s="285" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" s="285" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="284" t="s">
         <v>347</v>
       </c>
@@ -6782,7 +6785,7 @@
       <c r="AL41" s="289"/>
       <c r="AM41" s="291"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>139</v>
       </c>
@@ -6866,7 +6869,7 @@
       <c r="AL42" s="3"/>
       <c r="AM42" s="184"/>
     </row>
-    <row r="43" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="86" t="s">
         <v>147</v>
       </c>
@@ -6941,7 +6944,7 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="184"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="117" t="s">
         <v>206</v>
       </c>
@@ -7001,7 +7004,7 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="184"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
         <v>207</v>
       </c>
@@ -7061,7 +7064,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="184"/>
     </row>
-    <row r="46" spans="1:41" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="s">
         <v>149</v>
       </c>
@@ -7179,7 +7182,7 @@
         <v>1719.2313825604638</v>
       </c>
     </row>
-    <row r="47" spans="1:41" s="171" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" s="171" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="170" t="s">
         <v>216</v>
       </c>
@@ -7237,7 +7240,7 @@
       <c r="AL47" s="175"/>
       <c r="AM47" s="185"/>
     </row>
-    <row r="48" spans="1:41" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="170" t="s">
         <v>271</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="E49"/>
@@ -7331,7 +7334,7 @@
       <c r="AL49" s="44"/>
       <c r="AM49" s="245"/>
     </row>
-    <row r="50" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="141" t="s">
         <v>4</v>
       </c>
@@ -7374,15 +7377,15 @@
       </c>
       <c r="O50" s="144">
         <f t="shared" si="30"/>
-        <v>577416.91666666663</v>
+        <v>794083.58333333337</v>
       </c>
       <c r="P50" s="144">
         <f t="shared" si="30"/>
-        <v>577416.91666666663</v>
+        <v>794083.58333333337</v>
       </c>
       <c r="Q50" s="144">
         <f t="shared" si="30"/>
-        <v>577416.91666666663</v>
+        <v>144083.58333333331</v>
       </c>
       <c r="R50" s="144">
         <f t="shared" si="30"/>
@@ -7431,7 +7434,7 @@
       <c r="AF50" s="44"/>
       <c r="AM50" s="243"/>
     </row>
-    <row r="51" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="134" t="s">
         <v>201</v>
       </c>
@@ -7452,15 +7455,15 @@
       </c>
       <c r="O51" s="116">
         <f>O53+O54+SUM(O59:O62)</f>
-        <v>502586.66666666663</v>
+        <v>719253.33333333337</v>
       </c>
       <c r="P51" s="116">
         <f t="shared" ref="P51:V51" si="32">P53+P54+SUM(P59:P62)</f>
-        <v>502586.66666666663</v>
+        <v>719253.33333333337</v>
       </c>
       <c r="Q51" s="116">
         <f t="shared" si="32"/>
-        <v>502586.66666666663</v>
+        <v>69253.333333333328</v>
       </c>
       <c r="R51" s="116">
         <f t="shared" si="32"/>
@@ -7495,7 +7498,7 @@
       <c r="AG51" s="44"/>
       <c r="AM51" s="243"/>
     </row>
-    <row r="52" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="227" t="s">
         <v>339</v>
       </c>
@@ -7529,7 +7532,7 @@
       <c r="AG52" s="44"/>
       <c r="AM52" s="243"/>
     </row>
-    <row r="53" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="282" t="s">
         <v>337</v>
       </c>
@@ -7593,7 +7596,7 @@
       <c r="AG53" s="44"/>
       <c r="AM53" s="243"/>
     </row>
-    <row r="54" spans="1:39" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" s="35" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="113" t="s">
         <v>274</v>
       </c>
@@ -7656,7 +7659,7 @@
       <c r="AG54" s="44"/>
       <c r="AM54" s="243"/>
     </row>
-    <row r="55" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="283" t="s">
         <v>284</v>
       </c>
@@ -7702,7 +7705,7 @@
       <c r="AG55" s="189"/>
       <c r="AM55" s="244"/>
     </row>
-    <row r="56" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="283" t="s">
         <v>285</v>
       </c>
@@ -7748,7 +7751,7 @@
       <c r="AG56" s="189"/>
       <c r="AM56" s="244"/>
     </row>
-    <row r="57" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="283" t="s">
         <v>286</v>
       </c>
@@ -7794,7 +7797,7 @@
       <c r="AG57" s="189"/>
       <c r="AM57" s="244"/>
     </row>
-    <row r="58" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" s="187" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="227" t="s">
         <v>340</v>
       </c>
@@ -7830,7 +7833,7 @@
       <c r="AG58" s="189"/>
       <c r="AM58" s="244"/>
     </row>
-    <row r="59" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="284" t="s">
         <v>338</v>
       </c>
@@ -7844,17 +7847,14 @@
       <c r="M59" s="287"/>
       <c r="N59" s="292"/>
       <c r="O59" s="292">
-        <f>'Stimulus Round 2'!$C$2*4/3</f>
-        <v>433333.33333333331</v>
+        <f>'Stimulus Round 2'!$C$2*4/2</f>
+        <v>650000</v>
       </c>
       <c r="P59" s="292">
-        <f>'Stimulus Round 2'!$C$2*4/3</f>
-        <v>433333.33333333331</v>
-      </c>
-      <c r="Q59" s="292">
-        <f>'Stimulus Round 2'!$C$2*4/3</f>
-        <v>433333.33333333331</v>
-      </c>
+        <f>'Stimulus Round 2'!$C$2*4/2</f>
+        <v>650000</v>
+      </c>
+      <c r="Q59" s="292"/>
       <c r="R59" s="292"/>
       <c r="S59" s="292"/>
       <c r="T59" s="292"/>
@@ -7873,7 +7873,7 @@
       <c r="AG59" s="289"/>
       <c r="AM59" s="293"/>
     </row>
-    <row r="60" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="284" t="s">
         <v>351</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="AG60" s="289"/>
       <c r="AM60" s="293"/>
     </row>
-    <row r="61" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="284" t="s">
         <v>285</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="AG61" s="289"/>
       <c r="AM61" s="293"/>
     </row>
-    <row r="62" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" s="285" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="284" t="s">
         <v>354</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="AG62" s="289"/>
       <c r="AM62" s="293"/>
     </row>
-    <row r="63" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="134"/>
       <c r="F63" s="199"/>
       <c r="G63" s="199"/>
@@ -8052,7 +8052,7 @@
       <c r="AG63" s="44"/>
       <c r="AM63" s="243"/>
     </row>
-    <row r="64" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
         <v>16</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="AF64" s="44"/>
       <c r="AM64" s="243"/>
     </row>
-    <row r="65" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
         <v>229</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="AG65" s="44"/>
       <c r="AM65" s="243"/>
     </row>
-    <row r="66" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="136" t="s">
         <v>230</v>
       </c>
@@ -8264,7 +8264,7 @@
       <c r="AG66" s="44"/>
       <c r="AM66" s="243"/>
     </row>
-    <row r="67" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="137" t="s">
         <v>210</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="AG67" s="140"/>
       <c r="AM67" s="246"/>
     </row>
-    <row r="68" spans="1:39" s="35" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="134" t="s">
         <v>211</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="AG68" s="44"/>
       <c r="AM68" s="243"/>
     </row>
-    <row r="69" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="227" t="s">
         <v>343</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="AG69" s="44"/>
       <c r="AM69" s="243"/>
     </row>
-    <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="113" t="s">
         <v>198</v>
       </c>
@@ -8477,7 +8477,7 @@
       <c r="AG70" s="44"/>
       <c r="AM70" s="243"/>
     </row>
-    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="113" t="s">
         <v>202</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="AG71" s="44"/>
       <c r="AM71" s="243"/>
     </row>
-    <row r="72" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="113" t="s">
         <v>199</v>
       </c>
@@ -8573,7 +8573,7 @@
       <c r="AG72" s="44"/>
       <c r="AM72" s="243"/>
     </row>
-    <row r="73" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="228" t="s">
         <v>344</v>
       </c>
@@ -8643,7 +8643,7 @@
       <c r="AG73" s="44"/>
       <c r="AM73" s="243"/>
     </row>
-    <row r="74" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="295" t="s">
         <v>345</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="AG74" s="289"/>
       <c r="AM74" s="293"/>
     </row>
-    <row r="75" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="295" t="s">
         <v>346</v>
       </c>
@@ -8783,7 +8783,7 @@
       <c r="AG75" s="289"/>
       <c r="AM75" s="293"/>
     </row>
-    <row r="76" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="295" t="s">
         <v>350</v>
       </c>
@@ -8853,7 +8853,7 @@
       <c r="AG76" s="289"/>
       <c r="AM76" s="293"/>
     </row>
-    <row r="77" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="295" t="s">
         <v>352</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="AG77" s="289"/>
       <c r="AM77" s="293"/>
     </row>
-    <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="145" t="s">
         <v>218</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="AG78" s="44"/>
       <c r="AM78" s="243"/>
     </row>
-    <row r="79" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F79" s="199"/>
       <c r="G79" s="199"/>
       <c r="H79" s="199"/>
@@ -9038,7 +9038,7 @@
       <c r="AG79" s="44"/>
       <c r="AM79" s="243"/>
     </row>
-    <row r="80" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>17</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="AL80" s="44"/>
       <c r="AM80" s="245"/>
     </row>
-    <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="114" t="s">
         <v>204</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="AL81" s="44"/>
       <c r="AM81" s="245"/>
     </row>
-    <row r="82" spans="1:39" s="187" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" s="187" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="170" t="s">
         <v>203</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="AL82" s="189"/>
       <c r="AM82" s="247"/>
     </row>
-    <row r="83" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="114" t="s">
         <v>359</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="AL83" s="189"/>
       <c r="AM83" s="247"/>
     </row>
-    <row r="84" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="299" t="s">
         <v>355</v>
       </c>
@@ -9352,7 +9352,7 @@
       <c r="AL84" s="304"/>
       <c r="AM84" s="305"/>
     </row>
-    <row r="85" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="299" t="s">
         <v>356</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="AL85" s="304"/>
       <c r="AM85" s="305"/>
     </row>
-    <row r="86" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" s="300" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="299" t="s">
         <v>357</v>
       </c>
@@ -9448,7 +9448,7 @@
       <c r="AL86" s="304"/>
       <c r="AM86" s="305"/>
     </row>
-    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="35" t="s">
         <v>205</v>
       </c>
@@ -9560,7 +9560,7 @@
       <c r="AL87" s="84"/>
       <c r="AM87" s="243"/>
     </row>
-    <row r="88" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="141" t="s">
         <v>161</v>
       </c>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="AM88" s="243"/>
     </row>
-    <row r="89" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="141" t="s">
         <v>215</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
       <c r="AM89" s="243"/>
     </row>
-    <row r="90" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F90" s="199"/>
       <c r="G90" s="199"/>
       <c r="H90" s="199"/>
@@ -9737,7 +9737,7 @@
       <c r="M90" s="199"/>
       <c r="AM90" s="243"/>
     </row>
-    <row r="91" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="35" t="s">
         <v>15</v>
       </c>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="AM91" s="243"/>
     </row>
-    <row r="92" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="35" t="s">
         <v>231</v>
       </c>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="AM92" s="243"/>
     </row>
-    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F93" s="205"/>
       <c r="G93" s="199"/>
       <c r="H93" s="199"/>
@@ -9896,7 +9896,7 @@
       <c r="M93" s="199"/>
       <c r="AM93" s="243"/>
     </row>
-    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="35" t="s">
         <v>228</v>
       </c>
@@ -9996,7 +9996,7 @@
       <c r="AL94" s="84"/>
       <c r="AM94" s="243"/>
     </row>
-    <row r="95" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="170" t="s">
         <v>271</v>
       </c>
@@ -10032,7 +10032,7 @@
       <c r="W95" s="176"/>
       <c r="AM95" s="244"/>
     </row>
-    <row r="96" spans="1:39" s="153" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39" s="153" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="153" t="s">
         <v>223</v>
       </c>
@@ -10070,7 +10070,7 @@
       <c r="AJ96" s="155"/>
       <c r="AM96" s="248"/>
     </row>
-    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="35" t="s">
         <v>18</v>
       </c>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="AM97" s="243"/>
     </row>
-    <row r="98" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="170" t="s">
         <v>287</v>
       </c>
@@ -10194,7 +10194,7 @@
       <c r="Y98" s="262"/>
       <c r="AM98" s="244"/>
     </row>
-    <row r="99" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="170" t="s">
         <v>288</v>
       </c>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="AM99" s="244"/>
     </row>
-    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
         <v>217</v>
       </c>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="AM100" s="243"/>
     </row>
-    <row r="101" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F101" s="199"/>
       <c r="G101" s="199"/>
       <c r="H101" s="199"/>
@@ -10365,7 +10365,7 @@
       <c r="Y101"/>
       <c r="AM101" s="243"/>
     </row>
-    <row r="102" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="170" t="s">
         <v>287</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="Y102" s="262"/>
       <c r="AM102" s="244"/>
     </row>
-    <row r="103" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="170" t="s">
         <v>288</v>
       </c>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="AM103" s="244"/>
     </row>
-    <row r="104" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="265" t="s">
         <v>263</v>
       </c>
@@ -10470,7 +10470,7 @@
       <c r="V104" s="176"/>
       <c r="AM104" s="244"/>
     </row>
-    <row r="105" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="35" t="s">
         <v>164</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="AM105" s="243"/>
     </row>
-    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="141" t="s">
         <v>214</v>
       </c>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="AM106" s="243"/>
     </row>
-    <row r="107" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39" s="141" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="141" t="s">
         <v>232</v>
       </c>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="AM107" s="267"/>
     </row>
-    <row r="108" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="F108" s="220"/>
       <c r="G108" s="220"/>
@@ -10753,7 +10753,7 @@
       <c r="V108"/>
       <c r="AM108" s="243"/>
     </row>
-    <row r="109" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" s="187" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="170"/>
       <c r="F109" s="195"/>
       <c r="G109" s="195"/>
@@ -10773,7 +10773,7 @@
       <c r="U109" s="195"/>
       <c r="AM109" s="244"/>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>158</v>
       </c>
@@ -10801,7 +10801,7 @@
       <c r="AH110" s="35"/>
       <c r="AI110" s="35"/>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L111" s="35"/>
       <c r="M111" s="35"/>
       <c r="N111" s="35"/>
@@ -10826,7 +10826,7 @@
       <c r="AH111" s="35"/>
       <c r="AI111" s="35"/>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.2">
       <c r="L112" s="35"/>
       <c r="M112" s="35"/>
       <c r="N112" s="35"/>
@@ -10851,7 +10851,7 @@
       <c r="AH112" s="35"/>
       <c r="AI112" s="35"/>
     </row>
-    <row r="113" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="113" spans="12:35" x14ac:dyDescent="0.2">
       <c r="L113" s="35"/>
       <c r="M113" s="35"/>
       <c r="N113" s="35"/>
@@ -10876,7 +10876,7 @@
       <c r="AH113" s="35"/>
       <c r="AI113" s="35"/>
     </row>
-    <row r="114" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="114" spans="12:35" x14ac:dyDescent="0.2">
       <c r="L114" s="35"/>
       <c r="M114" s="35"/>
       <c r="N114" s="35"/>
@@ -10901,7 +10901,7 @@
       <c r="AH114" s="35"/>
       <c r="AI114" s="35"/>
     </row>
-    <row r="115" spans="12:35" x14ac:dyDescent="0.35">
+    <row r="115" spans="12:35" x14ac:dyDescent="0.2">
       <c r="L115" s="35"/>
       <c r="M115" s="35"/>
       <c r="N115" s="35"/>
@@ -10958,25 +10958,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" style="158" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="158" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="158" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="158" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="158"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="158" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="158" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="158" t="s">
         <v>235</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="158" t="s">
         <v>237</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="158" t="s">
         <v>13</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="158" t="s">
         <v>238</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="161" t="s">
         <v>239</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="158" t="s">
         <v>240</v>
       </c>
@@ -11244,10 +11244,10 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="164"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="158" t="s">
         <v>241</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="158" t="s">
         <v>156</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="278" t="s">
         <v>141</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="158" t="s">
         <v>20</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="158" t="s">
         <v>238</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="158" t="s">
         <v>242</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="162" t="s">
         <v>240</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="162"/>
       <c r="C21" s="162"/>
       <c r="D21" s="167">
@@ -11513,22 +11513,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="158" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="158" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="158" t="s">
         <v>34</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="158" t="s">
         <v>245</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="158" t="s">
         <v>246</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="158" t="s">
         <v>156</v>
       </c>
@@ -11583,25 +11583,25 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" style="158" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="158" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="158" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="158" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="158" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="12" style="158"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="158" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="158" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="158" t="s">
         <v>235</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="158" t="s">
         <v>237</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="158" t="s">
         <v>13</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" s="158" t="s">
         <v>238</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="161" t="s">
         <v>239</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="158" t="s">
         <v>240</v>
       </c>
@@ -11869,10 +11869,10 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D11" s="164"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="158" t="s">
         <v>241</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="158" t="s">
         <v>156</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="278" t="s">
         <v>141</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="158" t="s">
         <v>20</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="158" t="s">
         <v>238</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>1.5888244379207488E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="158" t="s">
         <v>242</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>0.86186821348990206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" s="162" t="s">
         <v>240</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="162"/>
       <c r="C21" s="162"/>
       <c r="D21" s="167">
@@ -12138,22 +12138,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="158" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="158" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C24" s="158" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="158" t="s">
         <v>34</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>5654.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="158" t="s">
         <v>245</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>0.18843065822516181</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="158" t="s">
         <v>246</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>0.19065893255048985</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="158" t="s">
         <v>156</v>
       </c>
@@ -12208,9 +12208,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -12219,7 +12219,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -12228,9 +12228,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="329" t="s">
         <v>32</v>
       </c>
@@ -12253,7 +12253,7 @@
       <c r="R5" s="330"/>
       <c r="S5" s="330"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="331" t="s">
         <v>33</v>
       </c>
@@ -12276,7 +12276,7 @@
       <c r="R6" s="331"/>
       <c r="S6" s="331"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -12297,7 +12297,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="130"/>
       <c r="B8" s="130"/>
       <c r="C8" s="11"/>
@@ -12318,7 +12318,7 @@
       <c r="R8" s="332"/>
       <c r="S8" s="333"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
       <c r="B9" s="130"/>
       <c r="C9" s="14"/>
@@ -12341,7 +12341,7 @@
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -12376,7 +12376,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="130"/>
       <c r="B11" s="28" t="s">
         <v>2</v>
@@ -12413,7 +12413,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="130"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -12452,7 +12452,7 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="130" t="s">
         <v>220</v>
       </c>
@@ -12498,7 +12498,7 @@
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
@@ -12511,7 +12511,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -12571,16 +12571,16 @@
       <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="4" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="118" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="118" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="316" t="s">
         <v>208</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="AE1" s="315"/>
       <c r="AF1" s="315"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="335" t="s">
         <v>192</v>
       </c>
@@ -12611,28 +12611,28 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="335"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="335"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="335"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="325" t="s">
         <v>160</v>
       </c>
@@ -12652,7 +12652,7 @@
       <c r="M7" s="326"/>
       <c r="N7" s="327"/>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -12687,7 +12687,7 @@
       <c r="M8" s="96"/>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:32" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>165</v>
       </c>
@@ -12705,7 +12705,7 @@
       <c r="M9" s="78"/>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>171</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>173</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>174</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>0.61311927847613501</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>176</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>168</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>3246.3114308992499</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>169</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>252.77338989879101</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>170</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -13024,13 +13024,13 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>185</v>
       </c>
       <c r="B23" s="110"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>186</v>
       </c>
@@ -13068,7 +13068,7 @@
       </c>
       <c r="L24" s="100"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>187</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>-46.377972457627124</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>180</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>193.49039972658653</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>178</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>71.905190915813407</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99" t="s">
         <v>179</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>121.58520881077312</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="102"/>
       <c r="F29" s="102"/>
@@ -13209,7 +13209,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="122"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D30" s="102"/>
       <c r="E30" s="102"/>
       <c r="F30" s="102"/>
@@ -13219,13 +13219,13 @@
       <c r="J30" s="104"/>
       <c r="K30" s="122"/>
     </row>
-    <row r="31" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="110" t="s">
         <v>188</v>
       </c>
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>186</v>
       </c>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="L32" s="100"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>187</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>180</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>191.84423247697106</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>178</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>397.47458006632002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99" t="s">
         <v>179</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>-205.63034758934896</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
@@ -13409,7 +13409,7 @@
       <c r="J37" s="103"/>
       <c r="K37" s="123"/>
     </row>
-    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
       <c r="D38" s="103"/>
       <c r="E38" s="103"/>
@@ -13420,7 +13420,7 @@
       <c r="J38" s="103"/>
       <c r="K38" s="123"/>
     </row>
-    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="110" t="s">
         <v>184</v>
       </c>
@@ -13434,7 +13434,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="122"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>180</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>1892.015583446143</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>181</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>1890.9916822863934</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>178</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>2052.5745731536199</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>179</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>-161.58289086722652</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D44" s="102"/>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -13576,7 +13576,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="122"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D45" s="102"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102"/>
@@ -13586,7 +13586,7 @@
       <c r="J45" s="104"/>
       <c r="K45" s="122"/>
     </row>
-    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="110" t="s">
         <v>183</v>
       </c>
@@ -13600,7 +13600,7 @@
       <c r="J46" s="104"/>
       <c r="K46" s="122"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>180</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>74.827748020610457</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>181</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>97.788296196225005</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>178</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>61.480044477236603</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99" t="s">
         <v>179</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>36.308251718988402</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D51" s="102"/>
       <c r="E51" s="102"/>
       <c r="F51" s="102"/>
@@ -13742,13 +13742,13 @@
       <c r="J51" s="104"/>
       <c r="K51" s="122"/>
     </row>
-    <row r="53" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="105" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="105"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>186</v>
       </c>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="L54" s="100"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>187</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>77.568110169491518</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>180</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>1466.8336294397507</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>178</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>1536.3491403461601</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99" t="s">
         <v>179</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>-69.515510906409418</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="102"/>
       <c r="E59" s="102"/>
       <c r="F59" s="102"/>
@@ -13928,7 +13928,7 @@
       <c r="J59" s="104"/>
       <c r="K59" s="122"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="102"/>
       <c r="E60" s="102"/>
       <c r="F60" s="102"/>
@@ -13938,13 +13938,13 @@
       <c r="J60" s="104"/>
       <c r="K60" s="122"/>
     </row>
-    <row r="61" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="105" t="s">
         <v>190</v>
       </c>
       <c r="B61" s="105"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>186</v>
       </c>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="L62" s="100"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>187</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>85.98974092242338</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>180</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>2007.57447036953</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>178</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>2744.7441275841602</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99" t="s">
         <v>179</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>-737.16965721463021</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
       <c r="D67" s="103"/>
       <c r="E67" s="103"/>
@@ -14124,7 +14124,7 @@
       <c r="J67" s="103"/>
       <c r="K67" s="123"/>
     </row>
-    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
       <c r="D68" s="103"/>
       <c r="E68" s="103"/>
@@ -14135,7 +14135,7 @@
       <c r="J68" s="103"/>
       <c r="K68" s="123"/>
     </row>
-    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="105" t="s">
         <v>191</v>
       </c>
@@ -14149,7 +14149,7 @@
       <c r="J69" s="104"/>
       <c r="K69" s="122"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>4</v>
       </c>
@@ -14168,22 +14168,22 @@
       </c>
       <c r="H70" s="102">
         <f>main!O50/1000</f>
-        <v>577.41691666666668</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="I70" s="102">
         <f>main!P50/1000</f>
-        <v>577.41691666666668</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="J70" s="102">
         <f>main!Q50/1000</f>
-        <v>577.41691666666668</v>
+        <v>144.08358333333331</v>
       </c>
       <c r="K70" s="102">
         <f>main!R50/1000</f>
         <v>122.75024999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>178</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>1109.9502671346299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99" t="s">
         <v>179</v>
       </c>
@@ -14236,22 +14236,22 @@
       </c>
       <c r="H72" s="103">
         <f t="shared" si="23"/>
-        <v>-519.67121484897336</v>
+        <v>-303.00454818230662</v>
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
-        <v>-523.63619157232336</v>
+        <v>-306.96952490565661</v>
       </c>
       <c r="J72" s="103">
         <f t="shared" si="23"/>
-        <v>-527.91791393977326</v>
+        <v>-961.25124727310663</v>
       </c>
       <c r="K72" s="103">
         <f t="shared" si="23"/>
         <v>-987.20001713462989</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
@@ -14261,7 +14261,7 @@
       <c r="J73" s="104"/>
       <c r="K73" s="122"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D74" s="102"/>
       <c r="E74" s="102"/>
       <c r="F74" s="102"/>
@@ -14271,7 +14271,7 @@
       <c r="J74" s="104"/>
       <c r="K74" s="122"/>
     </row>
-    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="105" t="s">
         <v>197</v>
       </c>
@@ -14285,7 +14285,7 @@
       <c r="J75" s="104"/>
       <c r="K75" s="122"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>186</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>3301.0791480964817</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>187</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="111" t="s">
         <v>198</v>
       </c>
@@ -14370,7 +14370,7 @@
       <c r="J78" s="102"/>
       <c r="K78" s="122"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="112" t="s">
         <v>199</v>
       </c>
@@ -14389,7 +14389,7 @@
       <c r="J79" s="102"/>
       <c r="K79" s="122"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>180</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>3421.0791480964817</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>178</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>748.69791667930303</v>
       </c>
     </row>
-    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:11" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99" t="s">
         <v>179</v>
       </c>
@@ -14518,101 +14518,101 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="11" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="341" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
       <c r="K2" s="77"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="341" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="342"/>
-      <c r="B4" s="342"/>
-      <c r="C4" s="342"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="347" t="s">
+    <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="337"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="342" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
+      <c r="N4" s="342"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="345"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="340"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="346" t="s">
+      <c r="L5" s="341" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="315"/>
       <c r="N5" s="315"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="337">
+      <c r="C6" s="344">
         <v>2020</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="339"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="346"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="50"/>
       <c r="B7" s="51"/>
       <c r="C7" s="52" t="s">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="K7" s="78"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>23</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
         <v>131</v>
       </c>
@@ -14731,7 +14731,7 @@
       <c r="N9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>24</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>25</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>26</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K13" s="35" t="s">
         <v>140</v>
       </c>
@@ -14880,12 +14880,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>120</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="J18" s="79" t="s">
         <v>139</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -15016,7 +15016,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:23" ht="48" x14ac:dyDescent="0.2">
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="67"/>
@@ -15026,7 +15026,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="69" t="s">
         <v>121</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="F21" s="70"/>
       <c r="G21" s="67"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="69"/>
       <c r="D22" s="71" t="s">
         <v>122</v>
@@ -15069,7 +15069,7 @@
       <c r="U22" s="315"/>
       <c r="V22" s="315"/>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
       <c r="D23" s="69" t="s">
         <v>123</v>
@@ -15084,12 +15084,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="340" t="s">
+      <c r="K23" s="347" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="340"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="340"/>
+      <c r="L23" s="347"/>
+      <c r="M23" s="347"/>
+      <c r="N23" s="347"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15097,7 +15097,7 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="67"/>
       <c r="D24" s="69" t="s">
         <v>124</v>
@@ -15149,7 +15149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="67"/>
       <c r="D25" s="69" t="s">
         <v>58</v>
@@ -15173,7 +15173,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="67"/>
       <c r="D26" s="69"/>
       <c r="E26" s="67"/>
@@ -15232,7 +15232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="67"/>
       <c r="D27" s="69"/>
       <c r="E27" s="224" t="s">
@@ -15257,8 +15257,8 @@
       <c r="R27" s="35"/>
       <c r="S27" s="72"/>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="336" t="s">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I28" s="343" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15294,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -15308,7 +15308,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="336"/>
+      <c r="I29" s="343"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15340,7 +15340,7 @@
       </c>
       <c r="S29" s="72"/>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -15356,7 +15356,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="336"/>
+      <c r="I30" s="343"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15388,7 +15388,7 @@
       </c>
       <c r="S30" s="72"/>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="177" t="s">
         <v>128</v>
       </c>
@@ -15404,7 +15404,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="336"/>
+      <c r="I31" s="343"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="S31" s="72"/>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="177" t="s">
         <v>129</v>
       </c>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="N32" s="72"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>145</v>
       </c>
@@ -15466,7 +15466,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="336" t="s">
+      <c r="I33" s="343" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15513,8 +15513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="336"/>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="I34" s="343"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15560,19 +15560,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N35" s="72">
         <f>SUM(K34:N34)</f>
         <v>134.33333333333337</v>
       </c>
       <c r="R35" s="72"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>270</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>433</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O40" s="72"/>
       <c r="P40" s="72"/>
       <c r="Q40" s="72"/>
@@ -15682,12 +15682,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -15695,6 +15689,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15708,19 +15708,19 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>94</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -15796,29 +15796,29 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="349" t="s">
+      <c r="E6" s="351" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="349"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="349"/>
-      <c r="I6" s="349"/>
-      <c r="J6" s="349"/>
-      <c r="K6" s="349"/>
-      <c r="L6" s="349"/>
-      <c r="M6" s="349"/>
-      <c r="N6" s="349"/>
-      <c r="O6" s="349"/>
-      <c r="P6" s="349"/>
-      <c r="Q6" s="349"/>
-      <c r="R6" s="349"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
+      <c r="H6" s="351"/>
+      <c r="I6" s="351"/>
+      <c r="J6" s="351"/>
+      <c r="K6" s="351"/>
+      <c r="L6" s="351"/>
+      <c r="M6" s="351"/>
+      <c r="N6" s="351"/>
+      <c r="O6" s="351"/>
+      <c r="P6" s="351"/>
+      <c r="Q6" s="351"/>
+      <c r="R6" s="351"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="348" t="s">
         <v>88</v>
       </c>
@@ -15840,7 +15840,7 @@
       <c r="Q7" s="36"/>
       <c r="R7" s="36"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="348" t="s">
         <v>89</v>
@@ -15890,7 +15890,7 @@
         <v>22653.71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="348" t="s">
         <v>90</v>
@@ -15940,7 +15940,7 @@
         <v>15406.718999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="348" t="s">
         <v>91</v>
@@ -15990,7 +15990,7 @@
         <v>3152.433</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="348" t="s">
         <v>58</v>
@@ -16040,7 +16040,7 @@
         <v>3725.3310000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -16088,7 +16088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="348" t="s">
@@ -16138,7 +16138,7 @@
         <v>44938.192999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -16188,7 +16188,7 @@
         <v>33837.324000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -16238,12 +16238,12 @@
         <v>11100.869000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="348" t="s">
         <v>89</v>
@@ -16306,7 +16306,7 @@
         <v>22863.275999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="348" t="s">
         <v>90</v>
@@ -16370,7 +16370,7 @@
       </c>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="348" t="s">
         <v>91</v>
@@ -16433,7 +16433,7 @@
         <v>3314.95</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="348" t="s">
         <v>58</v>
@@ -16496,7 +16496,7 @@
         <v>3821.0209999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -16544,7 +16544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="10"/>
       <c r="C27" s="24"/>
@@ -16552,23 +16552,23 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="350" t="s">
+      <c r="H27" s="349" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="350"/>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
-      <c r="P27" s="350"/>
-      <c r="Q27" s="350"/>
-      <c r="R27" s="350"/>
-      <c r="S27" s="350"/>
-      <c r="T27" s="350"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I27" s="349"/>
+      <c r="J27" s="349"/>
+      <c r="K27" s="349"/>
+      <c r="L27" s="349"/>
+      <c r="M27" s="349"/>
+      <c r="N27" s="349"/>
+      <c r="O27" s="349"/>
+      <c r="P27" s="349"/>
+      <c r="Q27" s="349"/>
+      <c r="R27" s="349"/>
+      <c r="S27" s="349"/>
+      <c r="T27" s="349"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>96</v>
       </c>
@@ -16592,7 +16592,7 @@
       <c r="S28" s="26"/>
       <c r="T28" s="26"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="10" t="s">
         <v>89</v>
@@ -16640,7 +16640,7 @@
         <v>-1551.309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="10" t="s">
         <v>90</v>
@@ -16688,7 +16688,7 @@
         <v>-656.35500000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="10" t="s">
         <v>91</v>
@@ -16736,7 +16736,7 @@
         <v>-276.72699999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>58</v>
@@ -16784,7 +16784,7 @@
         <v>407.49900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="10"/>
       <c r="C33" s="24"/>
@@ -16828,7 +16828,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="10"/>
       <c r="C34" s="24"/>
@@ -16876,29 +16876,29 @@
         <v>-2076.8919999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="351" t="s">
+      <c r="F37" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="351"/>
-      <c r="H37" s="351"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="351"/>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="351"/>
-      <c r="P37" s="351"/>
-      <c r="Q37" s="351"/>
-      <c r="R37" s="351"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
+      <c r="G37" s="350"/>
+      <c r="H37" s="350"/>
+      <c r="I37" s="350"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="350"/>
+      <c r="L37" s="350"/>
+      <c r="M37" s="350"/>
+      <c r="N37" s="350"/>
+      <c r="O37" s="350"/>
+      <c r="P37" s="350"/>
+      <c r="Q37" s="350"/>
+      <c r="R37" s="350"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>100</v>
       </c>
@@ -16920,7 +16920,7 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="10" t="s">
         <v>89</v>
@@ -16968,7 +16968,7 @@
         <v>114.194</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>91</v>
@@ -17016,7 +17016,7 @@
         <v>44.915999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="10" t="s">
         <v>90</v>
@@ -17064,7 +17064,7 @@
         <v>-4.3769999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="10" t="s">
         <v>58</v>
@@ -17112,7 +17112,7 @@
         <v>-1.5840000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="10"/>
       <c r="C43" s="24"/>
@@ -17158,7 +17158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="10"/>
       <c r="C44" s="24" t="s">
@@ -17206,29 +17206,29 @@
         <v>153.149</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="24"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="350" t="s">
+      <c r="F48" s="349" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="350"/>
-      <c r="H48" s="350"/>
-      <c r="I48" s="350"/>
-      <c r="J48" s="350"/>
-      <c r="K48" s="350"/>
-      <c r="L48" s="350"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350"/>
-      <c r="P48" s="350"/>
-      <c r="Q48" s="350"/>
-      <c r="R48" s="350"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G48" s="349"/>
+      <c r="H48" s="349"/>
+      <c r="I48" s="349"/>
+      <c r="J48" s="349"/>
+      <c r="K48" s="349"/>
+      <c r="L48" s="349"/>
+      <c r="M48" s="349"/>
+      <c r="N48" s="349"/>
+      <c r="O48" s="349"/>
+      <c r="P48" s="349"/>
+      <c r="Q48" s="349"/>
+      <c r="R48" s="349"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>96</v>
       </c>
@@ -17250,7 +17250,7 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>89</v>
@@ -17298,7 +17298,7 @@
         <v>-323.76</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>91</v>
@@ -17346,7 +17346,7 @@
         <v>-207.43299999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>90</v>
@@ -17394,7 +17394,7 @@
         <v>-109.739</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>58</v>
@@ -17442,7 +17442,7 @@
         <v>-94.105999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -17488,7 +17488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="24"/>
       <c r="C55" s="10"/>
@@ -17538,6 +17538,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17546,12 +17552,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17567,9 +17567,9 @@
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -17578,7 +17578,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -17587,9 +17587,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="329" t="s">
         <v>32</v>
       </c>
@@ -17612,7 +17612,7 @@
       <c r="R5" s="330"/>
       <c r="S5" s="330"/>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="331" t="s">
         <v>33</v>
       </c>
@@ -17635,7 +17635,7 @@
       <c r="R6" s="331"/>
       <c r="S6" s="331"/>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -17656,7 +17656,7 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -17678,7 +17678,7 @@
       </c>
       <c r="S8" s="333"/>
     </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="14"/>
@@ -17705,7 +17705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -17754,7 +17754,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -17777,7 +17777,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>38</v>
@@ -17828,7 +17828,7 @@
         <v>12876.373</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>39</v>
@@ -17879,7 +17879,7 @@
         <v>1805.0319999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -17928,7 +17928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -17979,7 +17979,7 @@
         <v>14681.405000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -18000,7 +18000,7 @@
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -18023,7 +18023,7 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="28" t="s">
         <v>44</v>
@@ -18074,7 +18074,7 @@
         <v>12109.843000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="28" t="s">
         <v>2</v>
@@ -18125,7 +18125,7 @@
         <v>5805.7169999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="28" t="s">
         <v>45</v>
@@ -18176,7 +18176,7 @@
         <v>601.34900000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="28" t="s">
         <v>46</v>
@@ -18227,7 +18227,7 @@
         <v>168.07</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -18276,7 +18276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -18328,7 +18328,7 @@
       </c>
       <c r="T23" s="25"/>
     </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -18352,7 +18352,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
     </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
@@ -18375,7 +18375,7 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
     </row>
-    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>49</v>
@@ -18426,7 +18426,7 @@
         <v>930.94100000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>50</v>
@@ -18477,7 +18477,7 @@
         <v>875.31100000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>51</v>
@@ -18528,7 +18528,7 @@
         <v>682.72</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -18579,7 +18579,7 @@
         <v>610.42399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -18630,7 +18630,7 @@
         <v>340.57900000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>54</v>
@@ -18681,7 +18681,7 @@
         <v>298.62400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -18730,7 +18730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -18781,7 +18781,7 @@
         <v>3738.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -18812,7 +18812,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>56</v>
@@ -18912,7 +18912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>57</v>
@@ -18976,7 +18976,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>58</v>
@@ -19040,7 +19040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -19089,7 +19089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -19153,7 +19153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -19187,7 +19187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>60</v>
@@ -19279,7 +19279,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>58</v>
@@ -19330,7 +19330,7 @@
         <v>183.27699999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -19379,7 +19379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -19430,7 +19430,7 @@
         <v>1517.9280000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="89"/>
       <c r="B47" s="89"/>
       <c r="C47" s="89"/>
@@ -19463,7 +19463,7 @@
       <c r="R47" s="90"/>
       <c r="S47" s="90"/>
     </row>
-    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="89" t="s">
         <v>148</v>
       </c>
@@ -19489,7 +19489,7 @@
       <c r="R48" s="90"/>
       <c r="S48" s="90"/>
     </row>
-    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="89" t="s">
         <v>156</v>
       </c>
@@ -19521,7 +19521,7 @@
       <c r="R49" s="90"/>
       <c r="S49" s="90"/>
     </row>
-    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="89" t="s">
         <v>157</v>
       </c>
@@ -19553,7 +19553,7 @@
       <c r="R50" s="90"/>
       <c r="S50" s="90"/>
     </row>
-    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="91" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="89"/>
       <c r="B51" s="89"/>
       <c r="C51" s="89"/>
@@ -19574,7 +19574,7 @@
       <c r="R51" s="92"/>
       <c r="S51" s="92"/>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>61</v>
       </c>
@@ -19597,7 +19597,7 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>62</v>
@@ -19648,7 +19648,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>63</v>
@@ -19699,7 +19699,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>64</v>
@@ -19750,7 +19750,7 @@
         <v>179.15</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>65</v>
@@ -19801,7 +19801,7 @@
         <v>-42.021999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>66</v>
@@ -19852,7 +19852,7 @@
         <v>140.99100000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="10"/>
       <c r="B58" s="28" t="s">
         <v>67</v>
@@ -19903,7 +19903,7 @@
         <v>51.79</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>68</v>
@@ -19954,7 +19954,7 @@
         <v>29.829000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>58</v>
@@ -20005,7 +20005,7 @@
         <v>697.76099999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -20054,7 +20054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -20105,7 +20105,7 @@
         <v>1057.6969999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -20126,7 +20126,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>69</v>
       </c>
@@ -20149,7 +20149,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>70</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>41712.921000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -20221,7 +20221,7 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>71</v>
       </c>
@@ -20244,7 +20244,7 @@
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>72</v>
@@ -20295,7 +20295,7 @@
         <v>-2166.04</v>
       </c>
     </row>
-    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>73</v>
@@ -20318,7 +20318,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>74</v>
@@ -20341,7 +20341,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="28" t="s">
@@ -20392,7 +20392,7 @@
         <v>-537.75800000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="28" t="s">
@@ -20443,7 +20443,7 @@
         <v>-265.04899999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="28" t="s">
@@ -20494,7 +20494,7 @@
         <v>-210.17099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -20543,7 +20543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -20594,7 +20594,7 @@
         <v>-1012.978</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="10"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10"/>
@@ -20615,7 +20615,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="10"/>
       <c r="B77" s="28" t="s">
         <v>77</v>
@@ -20666,7 +20666,7 @@
         <v>-120.02500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="10"/>
       <c r="B78" s="28" t="s">
         <v>66</v>
@@ -20717,7 +20717,7 @@
         <v>-108.732</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="10"/>
       <c r="B79" s="28" t="s">
         <v>67</v>
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="10"/>
       <c r="B80" s="28" t="s">
         <v>58</v>
@@ -20819,7 +20819,7 @@
         <v>-326.91500000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="10"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -20868,7 +20868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="10"/>
       <c r="B82" s="28"/>
       <c r="C82" s="10"/>
@@ -20919,7 +20919,7 @@
         <v>-3734.69</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -20940,7 +20940,7 @@
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -20963,7 +20963,7 @@
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="T85" s="25"/>
     </row>
-    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -21037,7 +21037,7 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
     </row>
-    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>80</v>
       </c>
@@ -21061,7 +21061,7 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
     </row>
-    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>81</v>
       </c>
@@ -21084,7 +21084,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>82</v>
@@ -21135,7 +21135,7 @@
         <v>9943.8029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>83</v>
@@ -21186,7 +21186,7 @@
         <v>16518.938999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="31"/>
@@ -21226,17 +21226,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
         <v>358</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="306" t="s">
         <v>363</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="306" t="s">
         <v>364</v>
       </c>
@@ -21271,7 +21271,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="306" t="s">
         <v>20</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="306" t="s">
         <v>199</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="306" t="s">
         <v>365</v>
       </c>
@@ -21307,7 +21307,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="308" t="s">
         <v>355</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="177" t="s">
         <v>356</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
         <v>357</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="308" t="s">
         <v>58</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="309" t="s">
         <v>366</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="308" t="s">
         <v>367</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="308" t="s">
         <v>58</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="309" t="s">
         <v>368</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="308" t="s">
         <v>349</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>58</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="309" t="s">
         <v>369</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="308" t="s">
         <v>370</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="308" t="s">
         <v>371</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="310" t="s">
         <v>372</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="309" t="s">
         <v>34</v>
       </c>
@@ -21497,29 +21497,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="146" customWidth="1"/>
-    <col min="8" max="10" width="9.36328125" style="95" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" style="146" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.6328125" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" style="146"/>
-    <col min="19" max="19" width="8.6328125" style="146"/>
-    <col min="23" max="23" width="8.6328125" style="146"/>
-    <col min="27" max="27" width="8.6328125" style="146"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="146" customWidth="1"/>
+    <col min="8" max="10" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="146" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="146"/>
+    <col min="19" max="19" width="8.6640625" style="146"/>
+    <col min="23" max="23" width="8.6640625" style="146"/>
+    <col min="27" max="27" width="8.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="320" t="s">
         <v>208</v>
       </c>
@@ -21535,7 +21535,7 @@
       <c r="X1" s="315"/>
       <c r="Y1" s="315"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="322" t="s">
         <v>192</v>
       </c>
@@ -21546,7 +21546,7 @@
       <c r="I2" s="251"/>
       <c r="J2" s="328"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="323"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -21555,21 +21555,21 @@
       <c r="I3" s="251"/>
       <c r="J3" s="328"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="323"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="324"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="325" t="s">
         <v>160</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>200</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>165</v>
       </c>
@@ -21712,7 +21712,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>171</v>
       </c>
@@ -21789,7 +21789,7 @@
         <v>234.29095602088191</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>168.94502379810791</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>173</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>2395.1547917579569</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>174</v>
       </c>
@@ -22020,7 +22020,7 @@
         <v>115.45073596781251</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>0.65670630121913887</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>176</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>1728.0518698642729</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>1945.2974943481329</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>168</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>4113.6602460036602</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>169</v>
       </c>
@@ -22405,7 +22405,7 @@
         <v>627.04256599622272</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>170</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>1327.53178791449</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>294.49680065914453</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="L22" s="95"/>
@@ -22576,7 +22576,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>185</v>
       </c>
@@ -22597,7 +22597,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>178</v>
       </c>
@@ -22801,7 +22801,7 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="213" t="s">
         <v>280</v>
       </c>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="AB26" s="253"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>179</v>
       </c>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="AB27" s="254"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -22992,7 +22992,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -23015,7 +23015,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
         <v>188</v>
       </c>
@@ -23042,7 +23042,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>188</v>
       </c>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>178</v>
       </c>
@@ -23243,7 +23243,7 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="213" t="s">
         <v>280</v>
       </c>
@@ -23318,7 +23318,7 @@
       </c>
       <c r="AB33" s="253"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
         <v>179</v>
       </c>
@@ -23414,7 +23414,7 @@
       </c>
       <c r="AB34" s="254"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="225"/>
@@ -23442,7 +23442,7 @@
       <c r="AA35" s="183"/>
       <c r="AB35" s="254"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="225"/>
@@ -23470,7 +23470,7 @@
       <c r="AA36" s="183"/>
       <c r="AB36" s="254"/>
     </row>
-    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="110" t="s">
         <v>184</v>
       </c>
@@ -23497,7 +23497,7 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>273</v>
       </c>
@@ -23544,7 +23544,7 @@
       <c r="Z38" s="95"/>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>178</v>
       </c>
@@ -23594,7 +23594,7 @@
       <c r="Z39" s="95"/>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99" t="s">
         <v>179</v>
       </c>
@@ -23674,7 +23674,7 @@
       </c>
       <c r="AB40" s="254"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D41" s="102"/>
       <c r="E41" s="104"/>
       <c r="F41" s="104"/>
@@ -23697,7 +23697,7 @@
       <c r="Z41" s="95"/>
       <c r="AB41" s="95"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -23720,7 +23720,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="110" t="s">
         <v>183</v>
       </c>
@@ -23747,7 +23747,7 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>273</v>
       </c>
@@ -23794,7 +23794,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>178</v>
       </c>
@@ -23846,7 +23846,7 @@
       <c r="Z45" s="95"/>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99" t="s">
         <v>179</v>
       </c>
@@ -23926,7 +23926,7 @@
       </c>
       <c r="AB46" s="254"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D47" s="102"/>
       <c r="E47" s="104"/>
       <c r="F47" s="104"/>
@@ -23949,7 +23949,7 @@
       <c r="Z47" s="95"/>
       <c r="AB47" s="95"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D48" s="102"/>
       <c r="E48" s="104"/>
       <c r="F48" s="104"/>
@@ -23972,7 +23972,7 @@
       <c r="Z48" s="95"/>
       <c r="AB48" s="95"/>
     </row>
-    <row r="49" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="105" t="s">
         <v>189</v>
       </c>
@@ -23999,7 +23999,7 @@
       <c r="Z49" s="95"/>
       <c r="AB49" s="95"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>189</v>
       </c>
@@ -24098,7 +24098,7 @@
       </c>
       <c r="AB50" s="95"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>178</v>
       </c>
@@ -24200,7 +24200,7 @@
       </c>
       <c r="AB51" s="95"/>
     </row>
-    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B52" s="213" t="s">
         <v>280</v>
       </c>
@@ -24281,7 +24281,7 @@
       </c>
       <c r="AB52" s="253"/>
     </row>
-    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="99" t="s">
         <v>179</v>
       </c>
@@ -24377,7 +24377,7 @@
       </c>
       <c r="AB53" s="254"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D54" s="102"/>
       <c r="E54" s="104"/>
       <c r="F54" s="104"/>
@@ -24400,7 +24400,7 @@
       <c r="Z54" s="95"/>
       <c r="AB54" s="95"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D55" s="102"/>
       <c r="E55" s="104"/>
       <c r="F55" s="104"/>
@@ -24423,7 +24423,7 @@
       <c r="Z55" s="95"/>
       <c r="AB55" s="95"/>
     </row>
-    <row r="56" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="105" t="s">
         <v>190</v>
       </c>
@@ -24450,7 +24450,7 @@
       <c r="Z56" s="95"/>
       <c r="AB56" s="95"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="86" t="s">
         <v>190</v>
       </c>
@@ -24552,7 +24552,7 @@
       </c>
       <c r="AB57" s="95"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>178</v>
       </c>
@@ -24654,7 +24654,7 @@
       </c>
       <c r="AB58" s="95"/>
     </row>
-    <row r="59" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B59" s="213" t="s">
         <v>280</v>
       </c>
@@ -24732,7 +24732,7 @@
       </c>
       <c r="AB59" s="253"/>
     </row>
-    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="99" t="s">
         <v>179</v>
       </c>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="AB60" s="254"/>
     </row>
-    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="99"/>
       <c r="D61" s="103"/>
       <c r="E61" s="225"/>
@@ -24856,7 +24856,7 @@
       <c r="AA61" s="183"/>
       <c r="AB61" s="254"/>
     </row>
-    <row r="62" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="D62" s="103"/>
       <c r="E62" s="225"/>
@@ -24884,7 +24884,7 @@
       <c r="AA62" s="183"/>
       <c r="AB62" s="254"/>
     </row>
-    <row r="63" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="105" t="s">
         <v>191</v>
       </c>
@@ -24911,7 +24911,7 @@
       <c r="Z63" s="95"/>
       <c r="AB63" s="95"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>212</v>
       </c>
@@ -24930,15 +24930,15 @@
       </c>
       <c r="H64" s="104">
         <f>main!O50/1000</f>
-        <v>577.41691666666668</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="I64" s="104">
         <f>main!P50/1000</f>
-        <v>577.41691666666668</v>
+        <v>794.08358333333342</v>
       </c>
       <c r="J64" s="104">
         <f>main!Q50/1000</f>
-        <v>577.41691666666668</v>
+        <v>144.08358333333331</v>
       </c>
       <c r="K64" s="149">
         <f>main!R50/1000</f>
@@ -25010,7 +25010,7 @@
       </c>
       <c r="AB64" s="95"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>178</v>
       </c>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="AB65" s="95"/>
     </row>
-    <row r="66" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B66" s="213" t="s">
         <v>280</v>
       </c>
@@ -25187,7 +25187,7 @@
       </c>
       <c r="AB66" s="253"/>
     </row>
-    <row r="67" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99" t="s">
         <v>179</v>
       </c>
@@ -25203,15 +25203,15 @@
       </c>
       <c r="H67" s="225">
         <f t="shared" si="103"/>
-        <v>-643.57844188676734</v>
+        <v>-426.91177522010059</v>
       </c>
       <c r="I67" s="225">
         <f t="shared" si="103"/>
-        <v>-647.99123064723142</v>
+        <v>-431.32456398056468</v>
       </c>
       <c r="J67" s="225">
         <f t="shared" si="103"/>
-        <v>-652.75653890924525</v>
+        <v>-1086.0898722425786</v>
       </c>
       <c r="K67" s="150">
         <f t="shared" si="103"/>
@@ -25287,7 +25287,7 @@
       <c r="AE67" s="150"/>
       <c r="AF67" s="150"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D68" s="102"/>
       <c r="E68" s="104"/>
       <c r="F68" s="104"/>
@@ -25310,7 +25310,7 @@
       <c r="Z68" s="95"/>
       <c r="AB68" s="95"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D69" s="102"/>
       <c r="E69" s="104"/>
       <c r="F69" s="104"/>
@@ -25333,7 +25333,7 @@
       <c r="Z69" s="95"/>
       <c r="AB69" s="95"/>
     </row>
-    <row r="70" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="105" t="s">
         <v>197</v>
       </c>
@@ -25360,7 +25360,7 @@
       <c r="Z70" s="95"/>
       <c r="AB70" s="95"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>209</v>
       </c>
@@ -25456,7 +25456,7 @@
       </c>
       <c r="AB71" s="95"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>178</v>
       </c>
@@ -25558,7 +25558,7 @@
       </c>
       <c r="AB72" s="95"/>
     </row>
-    <row r="73" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B73" s="213" t="s">
         <v>280</v>
       </c>
@@ -25621,7 +25621,7 @@
       </c>
       <c r="AB73" s="253"/>
     </row>
-    <row r="74" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="99" t="s">
         <v>179</v>
       </c>
@@ -25717,7 +25717,7 @@
       </c>
       <c r="AB74" s="254"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E75" s="95"/>
       <c r="F75" s="95"/>
       <c r="L75" s="95"/>
@@ -25734,7 +25734,7 @@
       <c r="Z75" s="95"/>
       <c r="AB75" s="95"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E76" s="95"/>
       <c r="F76" s="95"/>
       <c r="L76" s="95"/>
@@ -25774,17 +25774,17 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="190">
         <v>44012</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="190">
         <v>44104</v>
       </c>
@@ -25947,7 +25947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="190">
         <v>44196</v>
       </c>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="190">
         <v>44286</v>
       </c>
@@ -26018,7 +26018,7 @@
         <v>1035.3076346664193</v>
       </c>
       <c r="H5">
-        <v>-643.57844188676734</v>
+        <v>-426.91177522010059</v>
       </c>
       <c r="I5">
         <v>127.66634709591</v>
@@ -26043,7 +26043,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="190">
         <v>44377</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>15.266587468339139</v>
       </c>
       <c r="H6">
-        <v>-647.99123064723142</v>
+        <v>-431.32456398056468</v>
       </c>
       <c r="I6">
         <v>115.71788019966229</v>
@@ -26090,7 +26090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="190">
         <v>44469</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>-24.539228482810586</v>
       </c>
       <c r="H7">
-        <v>-652.75653890924525</v>
+        <v>-1086.0898722425786</v>
       </c>
       <c r="I7">
         <v>131.34120345955321</v>
@@ -26137,7 +26137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="190">
         <v>44561</v>
       </c>
@@ -26184,7 +26184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="190">
         <v>44651</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="190">
         <v>44742</v>
       </c>
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="190">
         <v>44834</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="190">
         <v>44926</v>
       </c>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="190">
         <v>45016</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="190">
         <v>45107</v>
       </c>
@@ -26466,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="190">
         <v>45199</v>
       </c>
@@ -26513,7 +26513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="190">
         <v>45291</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="190">
         <v>45382</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="190">
         <v>45473</v>
       </c>
@@ -26654,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="190">
         <v>45565</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="190">
         <v>45657</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="190">
         <v>45747</v>
       </c>
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="190">
         <v>45838</v>
       </c>
@@ -26842,7 +26842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="190">
         <v>45930</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="190">
         <v>46022</v>
       </c>
@@ -26949,13 +26949,13 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="23" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D1" s="315" t="s">
         <v>21</v>
       </c>
@@ -26987,7 +26987,7 @@
       <c r="V1" s="315"/>
       <c r="W1" s="315"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="199" t="s">
         <v>5</v>
       </c>
@@ -27049,7 +27049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
@@ -27126,7 +27126,7 @@
       <c r="W3" s="266"/>
       <c r="AJ3" s="243"/>
     </row>
-    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>215</v>
       </c>
@@ -27212,7 +27212,7 @@
       </c>
       <c r="AJ4" s="243"/>
     </row>
-    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
@@ -27289,7 +27289,7 @@
       <c r="W5" s="273"/>
       <c r="AJ5" s="269"/>
     </row>
-    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>214</v>
       </c>
@@ -27383,18 +27383,18 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="146"/>
-    <col min="11" max="11" width="10.81640625" style="146"/>
-    <col min="15" max="15" width="10.81640625" style="146"/>
-    <col min="19" max="19" width="10.81640625" style="146"/>
-    <col min="23" max="23" width="10.81640625" style="146"/>
-    <col min="27" max="27" width="12.1796875" style="146" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="146"/>
+    <col min="11" max="11" width="10.83203125" style="146"/>
+    <col min="15" max="15" width="10.83203125" style="146"/>
+    <col min="19" max="19" width="10.83203125" style="146"/>
+    <col min="23" max="23" width="10.83203125" style="146"/>
+    <col min="27" max="27" width="12.1640625" style="146" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="320" t="s">
         <v>208</v>
       </c>
@@ -27409,7 +27409,7 @@
       <c r="X1" s="315"/>
       <c r="Y1" s="315"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="322" t="s">
         <v>192</v>
       </c>
@@ -27421,7 +27421,7 @@
       <c r="I2" s="251"/>
       <c r="J2" s="328"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="323"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
@@ -27431,7 +27431,7 @@
       <c r="I3" s="251"/>
       <c r="J3" s="328"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="323"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
@@ -27441,7 +27441,7 @@
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="324"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
@@ -27451,12 +27451,12 @@
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H6" s="95"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="325" t="s">
         <v>160</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="268" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="268" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="268" t="s">
         <v>200</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="268" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="268" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>165</v>
       </c>
@@ -27599,7 +27599,7 @@
       <c r="W9" s="148"/>
       <c r="AA9" s="148"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="86" t="s">
         <v>171</v>
       </c>
@@ -27676,7 +27676,7 @@
         <v>828.6749765144433</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="86" t="s">
         <v>172</v>
       </c>
@@ -27753,7 +27753,7 @@
         <v>169.9444832776542</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
         <v>173</v>
       </c>
@@ -27830,7 +27830,7 @@
         <v>2355.9885775604512</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="86" t="s">
         <v>174</v>
       </c>
@@ -27907,7 +27907,7 @@
         <v>80.167011412978511</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -27984,7 +27984,7 @@
         <v>0.65670630121913887</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="86" t="s">
         <v>176</v>
       </c>
@@ -28061,7 +28061,7 @@
         <v>1151.8062286849761</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="86" t="s">
         <v>167</v>
       </c>
@@ -28138,7 +28138,7 @@
         <v>1961.095884519679</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="86" t="s">
         <v>168</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>4091.8476387732821</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="86" t="s">
         <v>169</v>
       </c>
@@ -28292,7 +28292,7 @@
         <v>587.36016206119621</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="86" t="s">
         <v>170</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>1326.2183753120521</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
@@ -28446,12 +28446,12 @@
         <v>869.9054194417273</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
       <c r="H22" s="95"/>
@@ -28471,7 +28471,7 @@
       <c r="Z22" s="95"/>
       <c r="AB22" s="95"/>
     </row>
-    <row r="23" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="110" t="s">
         <v>185</v>
       </c>
@@ -28495,7 +28495,7 @@
       <c r="Z23" s="95"/>
       <c r="AB23" s="95"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>185</v>
       </c>
@@ -28597,7 +28597,7 @@
       </c>
       <c r="AB24" s="95"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>178</v>
       </c>
@@ -28699,7 +28699,7 @@
       </c>
       <c r="AB25" s="95"/>
     </row>
-    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="213" t="s">
         <v>280</v>
       </c>
@@ -28771,7 +28771,7 @@
       </c>
       <c r="AB26" s="253"/>
     </row>
-    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99" t="s">
         <v>179</v>
       </c>
@@ -28867,7 +28867,7 @@
       </c>
       <c r="AB27" s="254"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D28" s="102"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -28890,7 +28890,7 @@
       <c r="Z28" s="95"/>
       <c r="AB28" s="95"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D29" s="102"/>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -28913,7 +28913,7 @@
       <c r="Z29" s="95"/>
       <c r="AB29" s="95"/>
     </row>
-    <row r="30" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="110" t="s">
         <v>188</v>
       </c>
@@ -28940,7 +28940,7 @@
       <c r="Z30" s="95"/>
       <c r="AB30" s="95"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>188</v>
       </c>
@@ -29039,7 +29039,7 @@
       </c>
       <c r="AB31" s="95"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>178</v>
       </c>
@@ -29141,7 +29141,7 @@
       </c>
       <c r="AB32" s="95"/>
     </row>
-    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B33" s="213" t="s">
         <v>280</v>
       </c>
@@ -29216,7 +29216,7 @@
       </c>
       <c r="AB33" s="253"/>
     </row>
-    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99" t="s">
         <v>179</v>
       </c>
@@ -29312,7 +29312,7 @@
       </c>
       <c r="AB34" s="254"/>
     </row>
-    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="D35" s="103"/>
       <c r="E35" s="225"/>
@@ -29340,7 +29340,7 @@
       <c r="AA35" s="183"/>
       <c r="AB35" s="254"/>
     </row>
-    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
       <c r="D36" s="103"/>
       <c r="E36" s="225"/>
@@ -29368,7 +29368,7 @@
       <c r="AA36" s="183"/>
       <c r="AB36" s="254"/>
     </row>
-    <row r="37" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="105" t="s">
         <v>189</v>
       </c>
@@ -29395,7 +29395,7 @@
       <c r="Z37" s="95"/>
       <c r="AB37" s="95"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>189</v>
       </c>
@@ -29494,7 +29494,7 @@
       </c>
       <c r="AB38" s="95"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>178</v>
       </c>
@@ -29596,7 +29596,7 @@
       </c>
       <c r="AB39" s="95"/>
     </row>
-    <row r="40" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B40" s="213" t="s">
         <v>280</v>
       </c>
@@ -29677,7 +29677,7 @@
       </c>
       <c r="AB40" s="253"/>
     </row>
-    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99" t="s">
         <v>179</v>
       </c>
@@ -29773,7 +29773,7 @@
       </c>
       <c r="AB41" s="254"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D42" s="102"/>
       <c r="E42" s="104"/>
       <c r="F42" s="104"/>
@@ -29796,7 +29796,7 @@
       <c r="Z42" s="95"/>
       <c r="AB42" s="95"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D43" s="102"/>
       <c r="E43" s="104"/>
       <c r="F43" s="104"/>
@@ -29819,7 +29819,7 @@
       <c r="Z43" s="95"/>
       <c r="AB43" s="95"/>
     </row>
-    <row r="44" spans="1:28" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
         <v>190</v>
       </c>
@@ -29846,7 +29846,7 @@
       <c r="Z44" s="95"/>
       <c r="AB44" s="95"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="86" t="s">
         <v>190</v>
       </c>
@@ -29948,7 +29948,7 @@
       </c>
       <c r="AB45" s="95"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>178</v>
       </c>
@@ -30050,7 +30050,7 @@
       </c>
       <c r="AB46" s="95"/>
     </row>
-    <row r="47" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="171" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B47" s="213" t="s">
         <v>280</v>
       </c>
@@ -30128,7 +30128,7 @@
       </c>
       <c r="AB47" s="253"/>
     </row>
-    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99" t="s">
         <v>179</v>
       </c>
@@ -30224,7 +30224,7 @@
       </c>
       <c r="AB48" s="254"/>
     </row>
-    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
       <c r="D49" s="103"/>
       <c r="E49" s="225"/>
@@ -30252,7 +30252,7 @@
       <c r="AA49" s="183"/>
       <c r="AB49" s="254"/>
     </row>
-    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:28" s="97" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
       <c r="D50" s="103"/>
       <c r="E50" s="225"/>
@@ -30305,20 +30305,20 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="270" t="s">
         <v>257</v>
       </c>
@@ -30347,7 +30347,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="271">
         <v>44104</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>44.85238194444446</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="271">
         <v>44196</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>69.293656609261546</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="271">
         <v>44286</v>
       </c>
@@ -30436,13 +30436,13 @@
         <v>1175.784569445726</v>
       </c>
       <c r="H4" s="270">
-        <v>-643.57844188676734</v>
+        <v>-426.91177522010059</v>
       </c>
       <c r="I4" s="270">
         <v>127.66634709591</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="271">
         <v>44377</v>
       </c>
@@ -30465,13 +30465,13 @@
         <v>827.99265947764798</v>
       </c>
       <c r="H5" s="270">
-        <v>-647.99123064723142</v>
+        <v>-431.32456398056468</v>
       </c>
       <c r="I5" s="270">
         <v>115.71788019966229</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="271">
         <v>44469</v>
       </c>
@@ -30494,13 +30494,13 @@
         <v>880.00897073990927</v>
       </c>
       <c r="H6" s="270">
-        <v>-652.75653890924525</v>
+        <v>-1086.0898722425786</v>
       </c>
       <c r="I6" s="270">
         <v>131.34120345955321</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="271">
         <v>44561</v>
       </c>
@@ -30529,7 +30529,7 @@
         <v>115.54367465655329</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="271">
         <v>44651</v>
       </c>
@@ -30558,7 +30558,7 @@
         <v>99.159465844497163</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="271">
         <v>44742</v>
       </c>
@@ -30587,7 +30587,7 @@
         <v>88.714788339062352</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="271">
         <v>44834</v>
       </c>
@@ -30616,7 +30616,7 @@
         <v>77.730357216756403</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="271">
         <v>44926</v>
       </c>
@@ -30645,7 +30645,7 @@
         <v>67.23297832179702</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="271">
         <v>45016</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>56.184960332640401</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="271">
         <v>45107</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>60.681221313274534</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="271">
         <v>45199</v>
       </c>
@@ -30732,7 +30732,7 @@
         <v>47.547539065059539</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="271">
         <v>45291</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>45.661372118098029</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="271">
         <v>45382</v>
       </c>
@@ -30790,7 +30790,7 @@
         <v>45.975992958117956</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="271">
         <v>45473</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>46.297859579612521</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="271">
         <v>45565</v>
       </c>
@@ -30848,7 +30848,7 @@
         <v>46.628917748543074</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="271">
         <v>45657</v>
       </c>
@@ -30877,7 +30877,7 @@
         <v>46.720623828499299</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="271">
         <v>45747</v>
       </c>
@@ -30906,7 +30906,7 @@
         <v>46.930226557055903</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="271">
         <v>45838</v>
       </c>
@@ -30935,7 +30935,7 @@
         <v>47.032571404843281</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="271">
         <v>45930</v>
       </c>
@@ -30964,7 +30964,7 @@
         <v>47.141596715840137</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="271">
         <v>46022</v>
       </c>
@@ -31006,9 +31006,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="298" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="298" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="298" t="s">
         <v>324</v>
       </c>
@@ -31037,7 +31037,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>21170.3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>295</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>18596.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>296</v>
       </c>
@@ -31124,7 +31124,7 @@
         <v>1687.4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>297</v>
       </c>
@@ -31153,7 +31153,7 @@
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>298</v>
       </c>
@@ -31182,7 +31182,7 @@
         <v>1430.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>299</v>
       </c>
@@ -31211,7 +31211,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>300</v>
       </c>
@@ -31240,7 +31240,7 @@
         <v>506.6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -31269,7 +31269,7 @@
         <v>1344.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>333</v>
       </c>
@@ -31298,7 +31298,7 @@
         <v>7248</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>334</v>
       </c>
@@ -31327,7 +31327,7 @@
         <v>13001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>303</v>
       </c>
@@ -31356,7 +31356,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>304</v>
       </c>
@@ -31385,7 +31385,7 @@
         <v>3494888</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>305</v>
       </c>
@@ -31414,7 +31414,7 @@
         <v>842733</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>306</v>
       </c>
@@ -31425,7 +31425,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -31454,7 +31454,7 @@
         <v>775154</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -31465,7 +31465,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -31476,7 +31476,7 @@
         <v>58400</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -31505,7 +31505,7 @@
         <v>1213480</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>311</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>865600</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>312</v>
       </c>
@@ -31527,7 +31527,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>313</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>73300</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>314</v>
       </c>
@@ -31549,7 +31549,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>315</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>728172</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -31607,7 +31607,7 @@
         <v>1487035</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -31636,7 +31636,7 @@
         <v>1335133</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -31665,7 +31665,7 @@
         <v>486072</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>320</v>
       </c>
@@ -31694,7 +31694,7 @@
         <v>828480</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>321</v>
       </c>
@@ -31723,7 +31723,7 @@
         <v>683703</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>322</v>
       </c>
@@ -31752,7 +31752,7 @@
         <v>1993051</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>323</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>2329605</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>302</v>
       </c>
@@ -31810,7 +31810,7 @@
         <v>20.248999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>336</v>
       </c>
@@ -31821,7 +31821,7 @@
         <v>228300</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>316</v>
       </c>
@@ -31845,9 +31845,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="190">
         <v>44104</v>
       </c>
@@ -31863,7 +31863,7 @@
         <v>337800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="190">
         <v>44196</v>
       </c>
@@ -31871,7 +31871,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="190">
         <v>44286</v>
       </c>
@@ -31879,7 +31879,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="190">
         <v>44377</v>
       </c>
@@ -31887,7 +31887,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="190">
         <v>44469</v>
       </c>
@@ -31895,7 +31895,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="190">
         <v>44561</v>
       </c>
@@ -31903,7 +31903,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="190">
         <v>44651</v>
       </c>
@@ -31911,7 +31911,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="190">
         <v>44742</v>
       </c>
@@ -31919,7 +31919,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="190">
         <v>44834</v>
       </c>
@@ -31933,18 +31933,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32165,6 +32165,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -32177,14 +32185,6 @@
     <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2BA2D-1D2D-6944-A22F-4F0B4225059D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEAA82-3902-2C48-A90E-0C594C3A2116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3553,6 +3553,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3574,29 +3589,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14531,68 +14531,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="341" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="337"/>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337"/>
-      <c r="J4" s="337"/>
-      <c r="K4" s="342" t="s">
+      <c r="A4" s="342"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="342"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="347" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="342"/>
-      <c r="M4" s="342"/>
-      <c r="N4" s="342"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="338" t="s">
+      <c r="C5" s="343" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="340"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="345"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="341" t="s">
+      <c r="L5" s="346" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="315"/>
@@ -14603,16 +14603,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="344">
+      <c r="C6" s="337">
         <v>2020</v>
       </c>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="346"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="339"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15084,12 +15084,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="347" t="s">
+      <c r="K23" s="340" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="347"/>
-      <c r="M23" s="347"/>
-      <c r="N23" s="347"/>
+      <c r="L23" s="340"/>
+      <c r="M23" s="340"/>
+      <c r="N23" s="340"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="343" t="s">
+      <c r="I28" s="336" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15308,7 +15308,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="343"/>
+      <c r="I29" s="336"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15356,7 +15356,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="343"/>
+      <c r="I30" s="336"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15404,7 +15404,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="343"/>
+      <c r="I31" s="336"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15466,7 +15466,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="343" t="s">
+      <c r="I33" s="336" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15514,7 +15514,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="343"/>
+      <c r="I34" s="336"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15682,6 +15682,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -15689,12 +15695,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15801,22 +15801,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="351" t="s">
+      <c r="E6" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="351"/>
-      <c r="G6" s="351"/>
-      <c r="H6" s="351"/>
-      <c r="I6" s="351"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="351"/>
-      <c r="L6" s="351"/>
-      <c r="M6" s="351"/>
-      <c r="N6" s="351"/>
-      <c r="O6" s="351"/>
-      <c r="P6" s="351"/>
-      <c r="Q6" s="351"/>
-      <c r="R6" s="351"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="349"/>
+      <c r="N6" s="349"/>
+      <c r="O6" s="349"/>
+      <c r="P6" s="349"/>
+      <c r="Q6" s="349"/>
+      <c r="R6" s="349"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="348" t="s">
@@ -16552,21 +16552,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="349" t="s">
+      <c r="H27" s="350" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="349"/>
-      <c r="J27" s="349"/>
-      <c r="K27" s="349"/>
-      <c r="L27" s="349"/>
-      <c r="M27" s="349"/>
-      <c r="N27" s="349"/>
-      <c r="O27" s="349"/>
-      <c r="P27" s="349"/>
-      <c r="Q27" s="349"/>
-      <c r="R27" s="349"/>
-      <c r="S27" s="349"/>
-      <c r="T27" s="349"/>
+      <c r="I27" s="350"/>
+      <c r="J27" s="350"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="350"/>
+      <c r="M27" s="350"/>
+      <c r="N27" s="350"/>
+      <c r="O27" s="350"/>
+      <c r="P27" s="350"/>
+      <c r="Q27" s="350"/>
+      <c r="R27" s="350"/>
+      <c r="S27" s="350"/>
+      <c r="T27" s="350"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -16882,21 +16882,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="350" t="s">
+      <c r="F37" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="350"/>
-      <c r="H37" s="350"/>
-      <c r="I37" s="350"/>
-      <c r="J37" s="350"/>
-      <c r="K37" s="350"/>
-      <c r="L37" s="350"/>
-      <c r="M37" s="350"/>
-      <c r="N37" s="350"/>
-      <c r="O37" s="350"/>
-      <c r="P37" s="350"/>
-      <c r="Q37" s="350"/>
-      <c r="R37" s="350"/>
+      <c r="G37" s="351"/>
+      <c r="H37" s="351"/>
+      <c r="I37" s="351"/>
+      <c r="J37" s="351"/>
+      <c r="K37" s="351"/>
+      <c r="L37" s="351"/>
+      <c r="M37" s="351"/>
+      <c r="N37" s="351"/>
+      <c r="O37" s="351"/>
+      <c r="P37" s="351"/>
+      <c r="Q37" s="351"/>
+      <c r="R37" s="351"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17212,21 +17212,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="349" t="s">
+      <c r="F48" s="350" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="349"/>
-      <c r="H48" s="349"/>
-      <c r="I48" s="349"/>
-      <c r="J48" s="349"/>
-      <c r="K48" s="349"/>
-      <c r="L48" s="349"/>
-      <c r="M48" s="349"/>
-      <c r="N48" s="349"/>
-      <c r="O48" s="349"/>
-      <c r="P48" s="349"/>
-      <c r="Q48" s="349"/>
-      <c r="R48" s="349"/>
+      <c r="G48" s="350"/>
+      <c r="H48" s="350"/>
+      <c r="I48" s="350"/>
+      <c r="J48" s="350"/>
+      <c r="K48" s="350"/>
+      <c r="L48" s="350"/>
+      <c r="M48" s="350"/>
+      <c r="N48" s="350"/>
+      <c r="O48" s="350"/>
+      <c r="P48" s="350"/>
+      <c r="Q48" s="350"/>
+      <c r="R48" s="350"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -17538,12 +17538,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17552,6 +17546,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21497,7 +21497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -25773,9 +25773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31933,18 +31933,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32165,14 +32165,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -32185,6 +32177,14 @@
     <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEAA82-3902-2C48-A90E-0C594C3A2116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C916A63-632F-B849-9794-65818839E131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3553,21 +3553,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3589,14 +3574,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14531,68 +14531,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="336" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
+      <c r="D3" s="336"/>
+      <c r="E3" s="336"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="336"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="336"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="342"/>
-      <c r="B4" s="342"/>
-      <c r="C4" s="342"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="347" t="s">
+      <c r="A4" s="337"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
+      <c r="I4" s="337"/>
+      <c r="J4" s="337"/>
+      <c r="K4" s="342" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
+      <c r="N4" s="342"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="345"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
+      <c r="G5" s="339"/>
+      <c r="H5" s="339"/>
+      <c r="I5" s="339"/>
+      <c r="J5" s="340"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="346" t="s">
+      <c r="L5" s="341" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="315"/>
@@ -14603,16 +14603,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="337">
+      <c r="C6" s="344">
         <v>2020</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="339"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
+      <c r="H6" s="345"/>
+      <c r="I6" s="345"/>
+      <c r="J6" s="346"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15084,12 +15084,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="340" t="s">
+      <c r="K23" s="347" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="340"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="340"/>
+      <c r="L23" s="347"/>
+      <c r="M23" s="347"/>
+      <c r="N23" s="347"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="336" t="s">
+      <c r="I28" s="343" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15308,7 +15308,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="336"/>
+      <c r="I29" s="343"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15356,7 +15356,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="336"/>
+      <c r="I30" s="343"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15404,7 +15404,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="336"/>
+      <c r="I31" s="343"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15466,7 +15466,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="336" t="s">
+      <c r="I33" s="343" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15514,7 +15514,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="336"/>
+      <c r="I34" s="343"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15682,12 +15682,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -15695,6 +15689,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15801,22 +15801,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="349" t="s">
+      <c r="E6" s="351" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="349"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="349"/>
-      <c r="I6" s="349"/>
-      <c r="J6" s="349"/>
-      <c r="K6" s="349"/>
-      <c r="L6" s="349"/>
-      <c r="M6" s="349"/>
-      <c r="N6" s="349"/>
-      <c r="O6" s="349"/>
-      <c r="P6" s="349"/>
-      <c r="Q6" s="349"/>
-      <c r="R6" s="349"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
+      <c r="H6" s="351"/>
+      <c r="I6" s="351"/>
+      <c r="J6" s="351"/>
+      <c r="K6" s="351"/>
+      <c r="L6" s="351"/>
+      <c r="M6" s="351"/>
+      <c r="N6" s="351"/>
+      <c r="O6" s="351"/>
+      <c r="P6" s="351"/>
+      <c r="Q6" s="351"/>
+      <c r="R6" s="351"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="348" t="s">
@@ -16552,21 +16552,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="350" t="s">
+      <c r="H27" s="349" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="350"/>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
-      <c r="P27" s="350"/>
-      <c r="Q27" s="350"/>
-      <c r="R27" s="350"/>
-      <c r="S27" s="350"/>
-      <c r="T27" s="350"/>
+      <c r="I27" s="349"/>
+      <c r="J27" s="349"/>
+      <c r="K27" s="349"/>
+      <c r="L27" s="349"/>
+      <c r="M27" s="349"/>
+      <c r="N27" s="349"/>
+      <c r="O27" s="349"/>
+      <c r="P27" s="349"/>
+      <c r="Q27" s="349"/>
+      <c r="R27" s="349"/>
+      <c r="S27" s="349"/>
+      <c r="T27" s="349"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -16882,21 +16882,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="351" t="s">
+      <c r="F37" s="350" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="351"/>
-      <c r="H37" s="351"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="351"/>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="351"/>
-      <c r="P37" s="351"/>
-      <c r="Q37" s="351"/>
-      <c r="R37" s="351"/>
+      <c r="G37" s="350"/>
+      <c r="H37" s="350"/>
+      <c r="I37" s="350"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="350"/>
+      <c r="L37" s="350"/>
+      <c r="M37" s="350"/>
+      <c r="N37" s="350"/>
+      <c r="O37" s="350"/>
+      <c r="P37" s="350"/>
+      <c r="Q37" s="350"/>
+      <c r="R37" s="350"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17212,21 +17212,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="350" t="s">
+      <c r="F48" s="349" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="350"/>
-      <c r="H48" s="350"/>
-      <c r="I48" s="350"/>
-      <c r="J48" s="350"/>
-      <c r="K48" s="350"/>
-      <c r="L48" s="350"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350"/>
-      <c r="P48" s="350"/>
-      <c r="Q48" s="350"/>
-      <c r="R48" s="350"/>
+      <c r="G48" s="349"/>
+      <c r="H48" s="349"/>
+      <c r="I48" s="349"/>
+      <c r="J48" s="349"/>
+      <c r="K48" s="349"/>
+      <c r="L48" s="349"/>
+      <c r="M48" s="349"/>
+      <c r="N48" s="349"/>
+      <c r="O48" s="349"/>
+      <c r="P48" s="349"/>
+      <c r="Q48" s="349"/>
+      <c r="R48" s="349"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -17538,6 +17538,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17546,12 +17552,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25774,8 +25774,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25866,7 +25866,9 @@
         <f>'add-ons calculations'!E71</f>
         <v>279.25</v>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="102">
+        <v>0</v>
+      </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2:L6">TRANSPOSE(main!L38:P38)/1000</f>
         <v>834.93333333333328</v>
@@ -25975,7 +25977,9 @@
       <c r="I4">
         <v>69.293656609261546</v>
       </c>
-      <c r="J4" s="102"/>
+      <c r="J4" s="102">
+        <v>0</v>
+      </c>
       <c r="K4" s="102">
         <v>344.8</v>
       </c>
@@ -26023,6 +26027,9 @@
       <c r="I5">
         <v>127.66634709591</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>724</v>
       </c>
@@ -26071,6 +26078,9 @@
       <c r="I6">
         <v>115.71788019966229</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>152</v>
       </c>
@@ -26118,6 +26128,9 @@
       <c r="I7">
         <v>131.34120345955321</v>
       </c>
+      <c r="J7" s="102">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>44</v>
       </c>
@@ -26165,6 +26178,9 @@
       <c r="I8">
         <v>115.54367465655329</v>
       </c>
+      <c r="J8" s="102">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>44</v>
       </c>
@@ -26212,6 +26228,9 @@
       <c r="I9">
         <v>99.159465844497163</v>
       </c>
+      <c r="J9" s="102">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>44</v>
       </c>
@@ -26259,6 +26278,9 @@
       <c r="I10">
         <v>88.714788339062352</v>
       </c>
+      <c r="J10" s="102">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>44</v>
       </c>
@@ -26306,6 +26328,9 @@
       <c r="I11">
         <v>77.730357216756403</v>
       </c>
+      <c r="J11" s="102">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>44</v>
       </c>
@@ -26353,6 +26378,9 @@
       <c r="I12">
         <v>67.23297832179702</v>
       </c>
+      <c r="J12" s="102">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>44</v>
       </c>
@@ -26400,6 +26428,9 @@
       <c r="I13">
         <v>56.184960332640401</v>
       </c>
+      <c r="J13" s="102">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -26447,6 +26478,9 @@
       <c r="I14">
         <v>60.681221313274534</v>
       </c>
+      <c r="J14" s="102">
+        <v>0</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
@@ -26494,6 +26528,9 @@
       <c r="I15">
         <v>47.547539065059539</v>
       </c>
+      <c r="J15" s="102">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>0</v>
       </c>
@@ -26541,6 +26578,9 @@
       <c r="I16">
         <v>45.661372118098029</v>
       </c>
+      <c r="J16" s="102">
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>0</v>
       </c>
@@ -26588,6 +26628,9 @@
       <c r="I17">
         <v>45.975992958117956</v>
       </c>
+      <c r="J17" s="102">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>0</v>
       </c>
@@ -26635,6 +26678,9 @@
       <c r="I18">
         <v>46.297859579612521</v>
       </c>
+      <c r="J18" s="102">
+        <v>0</v>
+      </c>
       <c r="K18">
         <v>0</v>
       </c>
@@ -26682,6 +26728,9 @@
       <c r="I19">
         <v>46.628917748543074</v>
       </c>
+      <c r="J19" s="102">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>0</v>
       </c>
@@ -26729,6 +26778,9 @@
       <c r="I20">
         <v>46.720623828499299</v>
       </c>
+      <c r="J20" s="102">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -26776,6 +26828,9 @@
       <c r="I21">
         <v>46.930226557055903</v>
       </c>
+      <c r="J21" s="102">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>0</v>
       </c>
@@ -26823,6 +26878,9 @@
       <c r="I22">
         <v>47.032571404843281</v>
       </c>
+      <c r="J22" s="102">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -26870,6 +26928,9 @@
       <c r="I23">
         <v>47.141596715840137</v>
       </c>
+      <c r="J23" s="102">
+        <v>0</v>
+      </c>
       <c r="K23">
         <v>0</v>
       </c>
@@ -26916,6 +26977,9 @@
       </c>
       <c r="I24">
         <v>47.208731610573466</v>
+      </c>
+      <c r="J24" s="102">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -31939,15 +32003,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -32164,6 +32219,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
@@ -32182,14 +32246,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32206,4 +32262,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C916A63-632F-B849-9794-65818839E131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82E045-A637-F44A-8191-383AB41C5E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" activeTab="3" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" firstSheet="1" activeTab="13" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3553,6 +3553,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3574,29 +3589,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4124,10 +4124,10 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14514,8 +14514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14531,68 +14531,68 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="341" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="341" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="336"/>
-      <c r="I3" s="336"/>
-      <c r="J3" s="336"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="337"/>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
-      <c r="I4" s="337"/>
-      <c r="J4" s="337"/>
-      <c r="K4" s="342" t="s">
+      <c r="A4" s="342"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="342"/>
+      <c r="G4" s="342"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="347" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="342"/>
-      <c r="M4" s="342"/>
-      <c r="N4" s="342"/>
+      <c r="L4" s="347"/>
+      <c r="M4" s="347"/>
+      <c r="N4" s="347"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="338" t="s">
+      <c r="C5" s="343" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="339"/>
-      <c r="E5" s="339"/>
-      <c r="F5" s="339"/>
-      <c r="G5" s="339"/>
-      <c r="H5" s="339"/>
-      <c r="I5" s="339"/>
-      <c r="J5" s="340"/>
+      <c r="D5" s="344"/>
+      <c r="E5" s="344"/>
+      <c r="F5" s="344"/>
+      <c r="G5" s="344"/>
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="345"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="341" t="s">
+      <c r="L5" s="346" t="s">
         <v>107</v>
       </c>
       <c r="M5" s="315"/>
@@ -14603,16 +14603,16 @@
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="344">
+      <c r="C6" s="337">
         <v>2020</v>
       </c>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="346"/>
+      <c r="D6" s="338"/>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+      <c r="G6" s="338"/>
+      <c r="H6" s="338"/>
+      <c r="I6" s="338"/>
+      <c r="J6" s="339"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -15084,12 +15084,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="347" t="s">
+      <c r="K23" s="340" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="347"/>
-      <c r="M23" s="347"/>
-      <c r="N23" s="347"/>
+      <c r="L23" s="340"/>
+      <c r="M23" s="340"/>
+      <c r="N23" s="340"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="343" t="s">
+      <c r="I28" s="336" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15308,7 +15308,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="343"/>
+      <c r="I29" s="336"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15356,7 +15356,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="343"/>
+      <c r="I30" s="336"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15404,7 +15404,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="343"/>
+      <c r="I31" s="336"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15466,7 +15466,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="343" t="s">
+      <c r="I33" s="336" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15514,7 +15514,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="343"/>
+      <c r="I34" s="336"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15682,6 +15682,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -15689,12 +15695,6 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15801,22 +15801,22 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="351" t="s">
+      <c r="E6" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="351"/>
-      <c r="G6" s="351"/>
-      <c r="H6" s="351"/>
-      <c r="I6" s="351"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="351"/>
-      <c r="L6" s="351"/>
-      <c r="M6" s="351"/>
-      <c r="N6" s="351"/>
-      <c r="O6" s="351"/>
-      <c r="P6" s="351"/>
-      <c r="Q6" s="351"/>
-      <c r="R6" s="351"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="349"/>
+      <c r="N6" s="349"/>
+      <c r="O6" s="349"/>
+      <c r="P6" s="349"/>
+      <c r="Q6" s="349"/>
+      <c r="R6" s="349"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="348" t="s">
@@ -16552,21 +16552,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="349" t="s">
+      <c r="H27" s="350" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="349"/>
-      <c r="J27" s="349"/>
-      <c r="K27" s="349"/>
-      <c r="L27" s="349"/>
-      <c r="M27" s="349"/>
-      <c r="N27" s="349"/>
-      <c r="O27" s="349"/>
-      <c r="P27" s="349"/>
-      <c r="Q27" s="349"/>
-      <c r="R27" s="349"/>
-      <c r="S27" s="349"/>
-      <c r="T27" s="349"/>
+      <c r="I27" s="350"/>
+      <c r="J27" s="350"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="350"/>
+      <c r="M27" s="350"/>
+      <c r="N27" s="350"/>
+      <c r="O27" s="350"/>
+      <c r="P27" s="350"/>
+      <c r="Q27" s="350"/>
+      <c r="R27" s="350"/>
+      <c r="S27" s="350"/>
+      <c r="T27" s="350"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -16882,21 +16882,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="350" t="s">
+      <c r="F37" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="350"/>
-      <c r="H37" s="350"/>
-      <c r="I37" s="350"/>
-      <c r="J37" s="350"/>
-      <c r="K37" s="350"/>
-      <c r="L37" s="350"/>
-      <c r="M37" s="350"/>
-      <c r="N37" s="350"/>
-      <c r="O37" s="350"/>
-      <c r="P37" s="350"/>
-      <c r="Q37" s="350"/>
-      <c r="R37" s="350"/>
+      <c r="G37" s="351"/>
+      <c r="H37" s="351"/>
+      <c r="I37" s="351"/>
+      <c r="J37" s="351"/>
+      <c r="K37" s="351"/>
+      <c r="L37" s="351"/>
+      <c r="M37" s="351"/>
+      <c r="N37" s="351"/>
+      <c r="O37" s="351"/>
+      <c r="P37" s="351"/>
+      <c r="Q37" s="351"/>
+      <c r="R37" s="351"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17212,21 +17212,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="349" t="s">
+      <c r="F48" s="350" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="349"/>
-      <c r="H48" s="349"/>
-      <c r="I48" s="349"/>
-      <c r="J48" s="349"/>
-      <c r="K48" s="349"/>
-      <c r="L48" s="349"/>
-      <c r="M48" s="349"/>
-      <c r="N48" s="349"/>
-      <c r="O48" s="349"/>
-      <c r="P48" s="349"/>
-      <c r="Q48" s="349"/>
-      <c r="R48" s="349"/>
+      <c r="G48" s="350"/>
+      <c r="H48" s="350"/>
+      <c r="I48" s="350"/>
+      <c r="J48" s="350"/>
+      <c r="K48" s="350"/>
+      <c r="L48" s="350"/>
+      <c r="M48" s="350"/>
+      <c r="N48" s="350"/>
+      <c r="O48" s="350"/>
+      <c r="P48" s="350"/>
+      <c r="Q48" s="350"/>
+      <c r="R48" s="350"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -17538,12 +17538,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -17552,6 +17546,12 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21226,7 +21226,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25773,7 +25773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CD302-ECA7-4CE9-B89D-A357A53FDBE8}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J25" sqref="J25"/>
     </sheetView>
@@ -31905,7 +31905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE6A138-E000-4F43-8051-048875C71ACF}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -32003,6 +32003,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -32219,15 +32228,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
@@ -32246,6 +32246,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B484070-5C48-4F32-AF92-870650EA512F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32262,12 +32270,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82E045-A637-F44A-8191-383AB41C5E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA7B5A8-DFA2-4A40-8274-0014CBBA29B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" firstSheet="1" activeTab="13" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" activeTab="2" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="375">
   <si>
     <t>Corporate Taxes</t>
   </si>
@@ -2150,7 +2150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -2162,6 +2162,7 @@
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2922,7 +2923,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3487,6 +3488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="33" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4124,10 +4126,10 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4149,10 +4151,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="317" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="316"/>
+      <c r="B1" s="317"/>
       <c r="C1" s="279"/>
       <c r="D1" s="279"/>
       <c r="E1" s="35"/>
@@ -4162,76 +4164,76 @@
       <c r="AC1" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" s="318" t="s">
+      <c r="AD1" s="319" t="s">
         <v>247</v>
       </c>
-      <c r="AE1" s="318"/>
-      <c r="AF1" s="318"/>
+      <c r="AE1" s="319"/>
+      <c r="AF1" s="319"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="319" t="s">
+      <c r="AI1" s="320" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="319"/>
-      <c r="AK1" s="319"/>
-      <c r="AL1" s="319"/>
-      <c r="AM1" s="317" t="s">
+      <c r="AJ1" s="320"/>
+      <c r="AK1" s="320"/>
+      <c r="AL1" s="320"/>
+      <c r="AM1" s="318" t="s">
         <v>279</v>
       </c>
-      <c r="AN1" s="317"/>
-      <c r="AO1" s="317"/>
-      <c r="AP1" s="317"/>
+      <c r="AN1" s="318"/>
+      <c r="AO1" s="318"/>
+      <c r="AP1" s="318"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="F2" s="315" t="s">
+      <c r="F2" s="316" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315" t="s">
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315" t="s">
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315" t="s">
+      <c r="O2" s="316"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
-      <c r="V2" s="315" t="s">
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="315"/>
-      <c r="X2" s="315"/>
-      <c r="Y2" s="315"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
       <c r="Z2" s="229"/>
       <c r="AA2" s="296"/>
       <c r="AB2" s="229"/>
       <c r="AC2" s="156"/>
-      <c r="AD2" s="315" t="s">
+      <c r="AD2" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="315"/>
-      <c r="AF2" s="315"/>
+      <c r="AE2" s="316"/>
+      <c r="AF2" s="316"/>
       <c r="AG2" s="156"/>
       <c r="AH2" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="315" t="s">
+      <c r="AI2" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="315"/>
-      <c r="AK2" s="315"/>
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="316"/>
       <c r="AL2" s="230"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -4339,10 +4341,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="314" t="s">
+      <c r="A4" s="315" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="314"/>
+      <c r="B4" s="315"/>
       <c r="C4" s="279"/>
       <c r="D4" s="279"/>
       <c r="F4" s="199"/>
@@ -12204,8 +12206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87327C4-CC87-4828-867B-1480BE7C2A8D}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12231,50 +12233,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="329" t="s">
+      <c r="A5" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="330"/>
-      <c r="Q5" s="330"/>
-      <c r="R5" s="330"/>
-      <c r="S5" s="330"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="331" t="s">
+      <c r="A6" s="332" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="331"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="331"/>
-      <c r="K6" s="331"/>
-      <c r="L6" s="331"/>
-      <c r="M6" s="331"/>
-      <c r="N6" s="331"/>
-      <c r="O6" s="331"/>
-      <c r="P6" s="331"/>
-      <c r="Q6" s="331"/>
-      <c r="R6" s="331"/>
-      <c r="S6" s="331"/>
+      <c r="B6" s="332"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="332"/>
+      <c r="M6" s="332"/>
+      <c r="N6" s="332"/>
+      <c r="O6" s="332"/>
+      <c r="P6" s="332"/>
+      <c r="Q6" s="332"/>
+      <c r="R6" s="332"/>
+      <c r="S6" s="332"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -12315,8 +12317,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="332"/>
-      <c r="S8" s="333"/>
+      <c r="R8" s="333"/>
+      <c r="S8" s="334"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="130"/>
@@ -12581,10 +12583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="317" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="316"/>
+      <c r="B1" s="317"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -12592,18 +12594,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="334" t="s">
+      <c r="Z1" s="335" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="334"/>
-      <c r="AB1" s="334"/>
-      <c r="AC1" s="315"/>
-      <c r="AD1" s="315"/>
-      <c r="AE1" s="315"/>
-      <c r="AF1" s="315"/>
+      <c r="AA1" s="335"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="316"/>
+      <c r="AD1" s="316"/>
+      <c r="AE1" s="316"/>
+      <c r="AF1" s="316"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="336" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="107"/>
@@ -12612,45 +12614,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="335"/>
+      <c r="A3" s="336"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="335"/>
+      <c r="A4" s="336"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="335"/>
+      <c r="A5" s="336"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="325" t="s">
+      <c r="C7" s="326" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="326"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="325" t="s">
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="326" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="325" t="s">
+      <c r="H7" s="327"/>
+      <c r="I7" s="327"/>
+      <c r="J7" s="328"/>
+      <c r="K7" s="326" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="326"/>
-      <c r="M7" s="326"/>
-      <c r="N7" s="327"/>
+      <c r="L7" s="327"/>
+      <c r="M7" s="327"/>
+      <c r="N7" s="328"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -14512,10 +14514,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="B14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14531,88 +14533,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="342" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="342" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="342"/>
-      <c r="B4" s="342"/>
-      <c r="C4" s="342"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="347" t="s">
+      <c r="A4" s="343"/>
+      <c r="B4" s="343"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="343"/>
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="343"/>
+      <c r="K4" s="348" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="347"/>
-      <c r="M4" s="347"/>
-      <c r="N4" s="347"/>
+      <c r="L4" s="348"/>
+      <c r="M4" s="348"/>
+      <c r="N4" s="348"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="343" t="s">
+      <c r="C5" s="344" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="346"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="346" t="s">
+      <c r="L5" s="347" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="337">
+      <c r="C6" s="338">
         <v>2020</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="339"/>
+      <c r="H6" s="339"/>
+      <c r="I6" s="339"/>
+      <c r="J6" s="340"/>
       <c r="K6" s="78" t="s">
         <v>135</v>
       </c>
@@ -14909,7 +14911,7 @@
         <v>589</v>
       </c>
       <c r="O17" s="80">
-        <f t="shared" si="3"/>
+        <f>4*O37</f>
         <v>188</v>
       </c>
       <c r="P17" s="80">
@@ -14966,7 +14968,7 @@
         <v>186</v>
       </c>
       <c r="O18" s="80">
-        <f t="shared" si="5"/>
+        <f>4*O38</f>
         <v>87</v>
       </c>
       <c r="P18" s="80">
@@ -15050,24 +15052,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="315" t="s">
+      <c r="K22" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="315"/>
-      <c r="M22" s="315"/>
-      <c r="N22" s="315"/>
-      <c r="O22" s="315" t="s">
+      <c r="L22" s="316"/>
+      <c r="M22" s="316"/>
+      <c r="N22" s="316"/>
+      <c r="O22" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="315"/>
-      <c r="Q22" s="315"/>
-      <c r="R22" s="315"/>
-      <c r="S22" s="315" t="s">
+      <c r="P22" s="316"/>
+      <c r="Q22" s="316"/>
+      <c r="R22" s="316"/>
+      <c r="S22" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="315"/>
-      <c r="U22" s="315"/>
-      <c r="V22" s="315"/>
+      <c r="T22" s="316"/>
+      <c r="U22" s="316"/>
+      <c r="V22" s="316"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="67"/>
@@ -15084,12 +15086,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="340" t="s">
+      <c r="K23" s="341" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="340"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="340"/>
+      <c r="L23" s="341"/>
+      <c r="M23" s="341"/>
+      <c r="N23" s="341"/>
       <c r="O23" s="35" t="s">
         <v>146</v>
       </c>
@@ -15258,7 +15260,11 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="336" t="s">
+      <c r="G28" s="72">
+        <f>G29+G24</f>
+        <v>213.8</v>
+      </c>
+      <c r="I28" s="337" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15308,7 +15314,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="336"/>
+      <c r="I29" s="337"/>
       <c r="J29" s="82" t="s">
         <v>143</v>
       </c>
@@ -15356,7 +15362,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="336"/>
+      <c r="I30" s="337"/>
       <c r="J30" s="82" t="s">
         <v>142</v>
       </c>
@@ -15404,7 +15410,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="336"/>
+      <c r="I31" s="337"/>
       <c r="J31" s="35" t="s">
         <v>140</v>
       </c>
@@ -15466,7 +15472,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="336" t="s">
+      <c r="I33" s="337" t="s">
         <v>141</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -15485,7 +15491,7 @@
         <v>32</v>
       </c>
       <c r="P33" s="72">
-        <f t="shared" si="9"/>
+        <f>SUM(P28:P31)</f>
         <v>26</v>
       </c>
       <c r="Q33" s="72">
@@ -15514,7 +15520,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="336"/>
+      <c r="I34" s="337"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15571,6 +15577,16 @@
       <c r="C36" t="s">
         <v>269</v>
       </c>
+      <c r="G36" s="72">
+        <f>SUM(O37:R37) + SUM(O38:R38)</f>
+        <v>178.75</v>
+      </c>
+      <c r="H36" s="72">
+        <f>SUM(S37:V37) + SUM(S38:V38)</f>
+        <v>44</v>
+      </c>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
@@ -15645,7 +15661,7 @@
         <v>46.5</v>
       </c>
       <c r="O38" s="72">
-        <f t="shared" ref="O38" si="14">O26-O37</f>
+        <f>O26-O37</f>
         <v>21.75</v>
       </c>
       <c r="P38" s="72">
@@ -15674,11 +15690,96 @@
       </c>
     </row>
     <row r="40" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="O40" s="72"/>
+      <c r="M40">
+        <v>0.31</v>
+      </c>
+      <c r="N40">
+        <v>0.42</v>
+      </c>
+      <c r="O40" s="72">
+        <v>0.27</v>
+      </c>
       <c r="P40" s="72"/>
       <c r="Q40" s="72"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <f>15/48</f>
+        <v>0.3125</v>
+      </c>
+      <c r="N41">
+        <f>20/48</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O41">
+        <f>13/48</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" s="84">
+        <v>15</v>
+      </c>
+      <c r="N42" s="35">
+        <v>20</v>
+      </c>
+      <c r="O42" s="35">
+        <v>13</v>
+      </c>
+      <c r="P42" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="M43" s="314">
+        <f>10 / 14</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N43" s="35">
+        <f>N44/14</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O43" s="35">
+        <v>0</v>
+      </c>
+      <c r="P43" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>143</v>
+      </c>
+      <c r="M44" s="84">
+        <v>10</v>
+      </c>
+      <c r="N44" s="35">
+        <v>4</v>
+      </c>
+      <c r="O44" s="35">
+        <v>0</v>
+      </c>
+      <c r="P44" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15801,30 +15902,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="349" t="s">
+      <c r="E6" s="350" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="349"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="349"/>
-      <c r="I6" s="349"/>
-      <c r="J6" s="349"/>
-      <c r="K6" s="349"/>
-      <c r="L6" s="349"/>
-      <c r="M6" s="349"/>
-      <c r="N6" s="349"/>
-      <c r="O6" s="349"/>
-      <c r="P6" s="349"/>
-      <c r="Q6" s="349"/>
-      <c r="R6" s="349"/>
+      <c r="F6" s="350"/>
+      <c r="G6" s="350"/>
+      <c r="H6" s="350"/>
+      <c r="I6" s="350"/>
+      <c r="J6" s="350"/>
+      <c r="K6" s="350"/>
+      <c r="L6" s="350"/>
+      <c r="M6" s="350"/>
+      <c r="N6" s="350"/>
+      <c r="O6" s="350"/>
+      <c r="P6" s="350"/>
+      <c r="Q6" s="350"/>
+      <c r="R6" s="350"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="348" t="s">
+      <c r="A7" s="349" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="348"/>
-      <c r="C7" s="348"/>
-      <c r="D7" s="348"/>
+      <c r="B7" s="349"/>
+      <c r="C7" s="349"/>
+      <c r="D7" s="349"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -15842,11 +15943,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
-      <c r="B8" s="348" t="s">
+      <c r="B8" s="349" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="348"/>
-      <c r="D8" s="348"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="349"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -15892,11 +15993,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="349" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="348"/>
-      <c r="D9" s="348"/>
+      <c r="C9" s="349"/>
+      <c r="D9" s="349"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -15942,11 +16043,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
-      <c r="B10" s="348" t="s">
+      <c r="B10" s="349" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="348"/>
-      <c r="D10" s="348"/>
+      <c r="C10" s="349"/>
+      <c r="D10" s="349"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -15992,11 +16093,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
-      <c r="B11" s="348" t="s">
+      <c r="B11" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="348"/>
-      <c r="D11" s="348"/>
+      <c r="C11" s="349"/>
+      <c r="D11" s="349"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16091,10 +16192,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="348" t="s">
+      <c r="C13" s="349" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="348"/>
+      <c r="D13" s="349"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16245,11 +16346,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
-      <c r="B19" s="348" t="s">
+      <c r="B19" s="349" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="348"/>
-      <c r="D19" s="348"/>
+      <c r="C19" s="349"/>
+      <c r="D19" s="349"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -16308,11 +16409,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
-      <c r="B20" s="348" t="s">
+      <c r="B20" s="349" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="348"/>
-      <c r="D20" s="348"/>
+      <c r="C20" s="349"/>
+      <c r="D20" s="349"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16372,11 +16473,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
-      <c r="B21" s="348" t="s">
+      <c r="B21" s="349" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="348"/>
-      <c r="D21" s="348"/>
+      <c r="C21" s="349"/>
+      <c r="D21" s="349"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -16435,11 +16536,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
-      <c r="B22" s="348" t="s">
+      <c r="B22" s="349" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="348"/>
-      <c r="D22" s="348"/>
+      <c r="C22" s="349"/>
+      <c r="D22" s="349"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -16552,21 +16653,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="350" t="s">
+      <c r="H27" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
-      <c r="K27" s="350"/>
-      <c r="L27" s="350"/>
-      <c r="M27" s="350"/>
-      <c r="N27" s="350"/>
-      <c r="O27" s="350"/>
-      <c r="P27" s="350"/>
-      <c r="Q27" s="350"/>
-      <c r="R27" s="350"/>
-      <c r="S27" s="350"/>
-      <c r="T27" s="350"/>
+      <c r="I27" s="351"/>
+      <c r="J27" s="351"/>
+      <c r="K27" s="351"/>
+      <c r="L27" s="351"/>
+      <c r="M27" s="351"/>
+      <c r="N27" s="351"/>
+      <c r="O27" s="351"/>
+      <c r="P27" s="351"/>
+      <c r="Q27" s="351"/>
+      <c r="R27" s="351"/>
+      <c r="S27" s="351"/>
+      <c r="T27" s="351"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
@@ -16882,21 +16983,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="351" t="s">
+      <c r="F37" s="352" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="351"/>
-      <c r="H37" s="351"/>
-      <c r="I37" s="351"/>
-      <c r="J37" s="351"/>
-      <c r="K37" s="351"/>
-      <c r="L37" s="351"/>
-      <c r="M37" s="351"/>
-      <c r="N37" s="351"/>
-      <c r="O37" s="351"/>
-      <c r="P37" s="351"/>
-      <c r="Q37" s="351"/>
-      <c r="R37" s="351"/>
+      <c r="G37" s="352"/>
+      <c r="H37" s="352"/>
+      <c r="I37" s="352"/>
+      <c r="J37" s="352"/>
+      <c r="K37" s="352"/>
+      <c r="L37" s="352"/>
+      <c r="M37" s="352"/>
+      <c r="N37" s="352"/>
+      <c r="O37" s="352"/>
+      <c r="P37" s="352"/>
+      <c r="Q37" s="352"/>
+      <c r="R37" s="352"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
@@ -17212,21 +17313,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="350" t="s">
+      <c r="F48" s="351" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="350"/>
-      <c r="H48" s="350"/>
-      <c r="I48" s="350"/>
-      <c r="J48" s="350"/>
-      <c r="K48" s="350"/>
-      <c r="L48" s="350"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350"/>
-      <c r="P48" s="350"/>
-      <c r="Q48" s="350"/>
-      <c r="R48" s="350"/>
+      <c r="G48" s="351"/>
+      <c r="H48" s="351"/>
+      <c r="I48" s="351"/>
+      <c r="J48" s="351"/>
+      <c r="K48" s="351"/>
+      <c r="L48" s="351"/>
+      <c r="M48" s="351"/>
+      <c r="N48" s="351"/>
+      <c r="O48" s="351"/>
+      <c r="P48" s="351"/>
+      <c r="Q48" s="351"/>
+      <c r="R48" s="351"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
@@ -17564,7 +17665,7 @@
     <sheetView topLeftCell="A6" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17590,50 +17691,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="329" t="s">
+      <c r="A5" s="330" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
-      <c r="M5" s="330"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="330"/>
-      <c r="Q5" s="330"/>
-      <c r="R5" s="330"/>
-      <c r="S5" s="330"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="331" t="s">
+      <c r="A6" s="332" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="331"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="331"/>
-      <c r="K6" s="331"/>
-      <c r="L6" s="331"/>
-      <c r="M6" s="331"/>
-      <c r="N6" s="331"/>
-      <c r="O6" s="331"/>
-      <c r="P6" s="331"/>
-      <c r="Q6" s="331"/>
-      <c r="R6" s="331"/>
-      <c r="S6" s="331"/>
+      <c r="B6" s="332"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="332"/>
+      <c r="M6" s="332"/>
+      <c r="N6" s="332"/>
+      <c r="O6" s="332"/>
+      <c r="P6" s="332"/>
+      <c r="Q6" s="332"/>
+      <c r="R6" s="332"/>
+      <c r="S6" s="332"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -17673,10 +17774,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="332" t="s">
+      <c r="R8" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="333"/>
+      <c r="S8" s="334"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
@@ -20547,10 +20648,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="352" t="s">
+      <c r="D75" s="353" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="353"/>
+      <c r="E75" s="354"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -21497,11 +21598,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F6A688-71E8-4308-9AE6-7C668128D989}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21520,23 +21621,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="321" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="321"/>
+      <c r="B1" s="322"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="328" t="s">
+      <c r="J1" s="329" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="315"/>
-      <c r="W1" s="315"/>
-      <c r="X1" s="315"/>
-      <c r="Y1" s="315"/>
+      <c r="V1" s="316"/>
+      <c r="W1" s="316"/>
+      <c r="X1" s="316"/>
+      <c r="Y1" s="316"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="323" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -21544,68 +21645,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="251"/>
-      <c r="J2" s="328"/>
+      <c r="J2" s="329"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="323"/>
+      <c r="A3" s="324"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="251"/>
-      <c r="J3" s="328"/>
+      <c r="J3" s="329"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="323"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="324"/>
+      <c r="A5" s="325"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="325" t="s">
+      <c r="C7" s="326" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="326"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="325" t="s">
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="326" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="325" t="s">
+      <c r="H7" s="327"/>
+      <c r="I7" s="327"/>
+      <c r="J7" s="328"/>
+      <c r="K7" s="326" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="326"/>
-      <c r="M7" s="326"/>
-      <c r="N7" s="326"/>
-      <c r="O7" s="325" t="s">
+      <c r="L7" s="327"/>
+      <c r="M7" s="327"/>
+      <c r="N7" s="327"/>
+      <c r="O7" s="326" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="326"/>
-      <c r="Q7" s="326"/>
-      <c r="R7" s="326"/>
-      <c r="S7" s="325" t="s">
+      <c r="P7" s="327"/>
+      <c r="Q7" s="327"/>
+      <c r="R7" s="327"/>
+      <c r="S7" s="326" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="326"/>
-      <c r="U7" s="326"/>
-      <c r="V7" s="326"/>
-      <c r="W7" s="325" t="s">
+      <c r="T7" s="327"/>
+      <c r="U7" s="327"/>
+      <c r="V7" s="327"/>
+      <c r="W7" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
+      <c r="X7" s="327"/>
+      <c r="Y7" s="327"/>
+      <c r="Z7" s="327"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>
@@ -25774,8 +25875,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J25" sqref="J25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27009,7 +27110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C37CCB5-9AFD-AA42-ADF6-76E6C38F7458}">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -27020,36 +27121,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="315" t="s">
+      <c r="D1" s="316" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315" t="s">
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315" t="s">
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315" t="s">
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="315"/>
-      <c r="S1" s="315"/>
-      <c r="T1" s="315" t="s">
+      <c r="Q1" s="316"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="316"/>
+      <c r="T1" s="316" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="315"/>
-      <c r="V1" s="315"/>
-      <c r="W1" s="315"/>
+      <c r="U1" s="316"/>
+      <c r="V1" s="316"/>
+      <c r="W1" s="316"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="199" t="s">
@@ -27443,7 +27544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E925F6-0F0F-EB4D-B82F-595726581F1A}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView topLeftCell="X1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -27459,22 +27560,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="321" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="321"/>
+      <c r="B1" s="322"/>
       <c r="C1" s="35"/>
       <c r="I1" s="250"/>
-      <c r="J1" s="328" t="s">
+      <c r="J1" s="329" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="315"/>
-      <c r="W1" s="315"/>
-      <c r="X1" s="315"/>
-      <c r="Y1" s="315"/>
+      <c r="V1" s="316"/>
+      <c r="W1" s="316"/>
+      <c r="X1" s="316"/>
+      <c r="Y1" s="316"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="323" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="126"/>
@@ -27483,20 +27584,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="251"/>
-      <c r="J2" s="328"/>
+      <c r="J2" s="329"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="323"/>
+      <c r="A3" s="324"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="251"/>
-      <c r="J3" s="328"/>
+      <c r="J3" s="329"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="323"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -27506,7 +27607,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="324"/>
+      <c r="A5" s="325"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -27521,42 +27622,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="325" t="s">
+      <c r="C7" s="326" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="326"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="325" t="s">
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="326" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="325" t="s">
+      <c r="H7" s="327"/>
+      <c r="I7" s="327"/>
+      <c r="J7" s="328"/>
+      <c r="K7" s="326" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="326"/>
-      <c r="M7" s="326"/>
-      <c r="N7" s="326"/>
-      <c r="O7" s="325" t="s">
+      <c r="L7" s="327"/>
+      <c r="M7" s="327"/>
+      <c r="N7" s="327"/>
+      <c r="O7" s="326" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="326"/>
-      <c r="Q7" s="326"/>
-      <c r="R7" s="326"/>
-      <c r="S7" s="325" t="s">
+      <c r="P7" s="327"/>
+      <c r="Q7" s="327"/>
+      <c r="R7" s="327"/>
+      <c r="S7" s="326" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="326"/>
-      <c r="U7" s="326"/>
-      <c r="V7" s="326"/>
-      <c r="W7" s="325" t="s">
+      <c r="T7" s="327"/>
+      <c r="U7" s="327"/>
+      <c r="V7" s="327"/>
+      <c r="W7" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
+      <c r="X7" s="327"/>
+      <c r="Y7" s="327"/>
+      <c r="Z7" s="327"/>
       <c r="AA7" s="231" t="s">
         <v>278</v>
       </c>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09362959-39DB-834D-B1B8-47D43D3136AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A8545B-8524-F246-968D-2B85B97ADAB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" firstSheet="1" activeTab="13" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19620" firstSheet="6" activeTab="13" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -3444,7 +3444,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="16" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3610,6 +3609,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="16" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4144,10 +4144,10 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4169,10 +4169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="303" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="304"/>
+      <c r="B1" s="303"/>
       <c r="C1" s="264"/>
       <c r="D1" s="264"/>
       <c r="E1" s="34"/>
@@ -4182,76 +4182,76 @@
       <c r="AC1" s="167" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" s="306" t="s">
+      <c r="AD1" s="305" t="s">
         <v>247</v>
       </c>
-      <c r="AE1" s="306"/>
-      <c r="AF1" s="306"/>
+      <c r="AE1" s="305"/>
+      <c r="AF1" s="305"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="307" t="s">
+      <c r="AI1" s="306" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="307"/>
-      <c r="AK1" s="307"/>
-      <c r="AL1" s="307"/>
-      <c r="AM1" s="305" t="s">
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="306"/>
+      <c r="AL1" s="306"/>
+      <c r="AM1" s="304" t="s">
         <v>279</v>
       </c>
-      <c r="AN1" s="305"/>
-      <c r="AO1" s="305"/>
-      <c r="AP1" s="305"/>
+      <c r="AN1" s="304"/>
+      <c r="AO1" s="304"/>
+      <c r="AP1" s="304"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303" t="s">
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303" t="s">
+      <c r="K2" s="302"/>
+      <c r="L2" s="302"/>
+      <c r="M2" s="302"/>
+      <c r="N2" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="303"/>
-      <c r="R2" s="303" t="s">
+      <c r="O2" s="302"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="302"/>
+      <c r="R2" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="303"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303" t="s">
+      <c r="S2" s="302"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="302"/>
+      <c r="V2" s="302" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
+      <c r="W2" s="302"/>
+      <c r="X2" s="302"/>
+      <c r="Y2" s="302"/>
       <c r="Z2" s="214"/>
       <c r="AA2" s="281"/>
       <c r="AB2" s="214"/>
       <c r="AC2" s="144"/>
-      <c r="AD2" s="303" t="s">
+      <c r="AD2" s="302" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="303"/>
-      <c r="AF2" s="303"/>
+      <c r="AE2" s="302"/>
+      <c r="AF2" s="302"/>
       <c r="AG2" s="144"/>
       <c r="AH2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="303" t="s">
+      <c r="AI2" s="302" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="303"/>
-      <c r="AK2" s="303"/>
+      <c r="AJ2" s="302"/>
+      <c r="AK2" s="302"/>
       <c r="AL2" s="215"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -4359,10 +4359,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="301" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="302"/>
+      <c r="B4" s="301"/>
       <c r="C4" s="264"/>
       <c r="D4" s="264"/>
       <c r="F4" s="185"/>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="M38" s="185">
         <f>M39+M40</f>
-        <v>738200</v>
+        <v>795306.66666666663</v>
       </c>
       <c r="N38" s="75">
         <f>SUM(N39:N41)</f>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="M39" s="185">
         <f>1000*'figuring out UI'!N17</f>
-        <v>632000</v>
+        <v>689106.66666666663</v>
       </c>
       <c r="N39" s="75">
         <f>1000*'figuring out UI'!O17</f>
@@ -6704,7 +6704,7 @@
       <c r="AC39" s="2"/>
       <c r="AD39" s="44">
         <f>AVERAGE(J39:M39)/1000</f>
-        <v>366.73333333333329</v>
+        <v>381.01</v>
       </c>
       <c r="AE39" s="44">
         <f t="shared" si="21"/>
@@ -8110,23 +8110,23 @@
       </c>
       <c r="N64" s="104">
         <f>N66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>309757.71088176518</v>
+        <v>323480.84840811515</v>
       </c>
       <c r="O64" s="104">
         <f>O66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>310526.0282281565</v>
+        <v>324304.24611962738</v>
       </c>
       <c r="P64" s="104">
         <f>P66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>311407.70387155632</v>
+        <v>325249.12873939541</v>
       </c>
       <c r="Q64" s="104">
         <f>Q66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>312440.5239109674</v>
+        <v>326355.99123683787</v>
       </c>
       <c r="R64" s="104">
         <f>R66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>313930.32822359644</v>
+        <v>327952.59902837273</v>
       </c>
       <c r="S64" s="43"/>
       <c r="T64" s="43"/>
@@ -8219,61 +8219,61 @@
         <f>L65-L67</f>
         <v>192250</v>
       </c>
-      <c r="M66" s="282">
-        <f>L66*(1+M82)</f>
-        <v>189980.38194444444</v>
+      <c r="M66" s="190">
+        <f>M65-M67</f>
+        <v>203600</v>
       </c>
       <c r="N66" s="104">
         <f>M66*(1+N82)</f>
-        <v>191424.37754843186</v>
+        <v>205147.51507478184</v>
       </c>
       <c r="O66" s="104">
         <f t="shared" ref="O66:R66" si="34">N66*(1+O82)</f>
-        <v>192192.69489482319</v>
+        <v>205970.91278629407</v>
       </c>
       <c r="P66" s="104">
         <f t="shared" si="34"/>
-        <v>193074.37053822298</v>
+        <v>206915.7954060621</v>
       </c>
       <c r="Q66" s="104">
         <f t="shared" si="34"/>
-        <v>194107.19057763406</v>
+        <v>208022.65790350453</v>
       </c>
       <c r="R66" s="104">
         <f t="shared" si="34"/>
-        <v>195596.9948902631</v>
+        <v>209619.26569503942</v>
       </c>
       <c r="S66" s="104">
         <f t="shared" ref="S66" si="35">R66*(1+S82)</f>
-        <v>197293.87850499584</v>
+        <v>211437.79822152213</v>
       </c>
       <c r="T66" s="104">
         <f t="shared" ref="T66" si="36">S66*(1+T82)</f>
-        <v>199012.10563686007</v>
+        <v>213279.20437339449</v>
       </c>
       <c r="U66" s="104">
         <f t="shared" ref="U66" si="37">T66*(1+U82)</f>
-        <v>200920.8485534183</v>
+        <v>215324.78431082665</v>
       </c>
       <c r="V66" s="104">
         <f t="shared" ref="V66:X66" si="38">U66*(1+V82)</f>
-        <v>202676.99647715053</v>
+        <v>217206.82978106075</v>
       </c>
       <c r="W66" s="104">
         <f t="shared" si="38"/>
-        <v>204627.50241134351</v>
+        <v>219297.16671025913</v>
       </c>
       <c r="X66" s="104">
         <f t="shared" si="38"/>
-        <v>206417.08729938377</v>
+        <v>221215.04622747973</v>
       </c>
       <c r="Y66" s="104">
         <f t="shared" ref="Y66" si="39">X66*(1+Y82)</f>
-        <v>208402.85391171087</v>
+        <v>223343.17165880994</v>
       </c>
       <c r="Z66" s="104">
         <f t="shared" ref="Z66" si="40">Y66*(1+Z82)</f>
-        <v>210411.47948991408</v>
+        <v>225495.7948061924</v>
       </c>
       <c r="AA66" s="43"/>
       <c r="AB66" s="43"/>
@@ -8962,61 +8962,61 @@
         <f>L66+L68</f>
         <v>279250</v>
       </c>
-      <c r="M78" s="185">
-        <f t="shared" ref="M78:Z78" si="43">M66+M68</f>
-        <v>286980.38194444444</v>
+      <c r="M78" s="343">
+        <f>M66+M68</f>
+        <v>300600</v>
       </c>
       <c r="N78" s="132">
-        <f t="shared" si="43"/>
-        <v>298424.37754843186</v>
+        <f t="shared" ref="M78:Z78" si="43">N66+N68</f>
+        <v>312147.51507478184</v>
       </c>
       <c r="O78" s="132">
         <f t="shared" si="43"/>
-        <v>341192.69489482319</v>
+        <v>354970.91278629407</v>
       </c>
       <c r="P78" s="132">
         <f t="shared" si="43"/>
-        <v>314074.37053822295</v>
+        <v>327915.7954060621</v>
       </c>
       <c r="Q78" s="132">
         <f t="shared" si="43"/>
-        <v>315107.19057763403</v>
+        <v>329022.65790350456</v>
       </c>
       <c r="R78" s="132">
         <f t="shared" si="43"/>
-        <v>310596.99489026307</v>
+        <v>324619.26569503942</v>
       </c>
       <c r="S78" s="132">
         <f t="shared" si="43"/>
-        <v>306293.87850499584</v>
+        <v>320437.79822152213</v>
       </c>
       <c r="T78" s="132">
         <f t="shared" si="43"/>
-        <v>308012.10563686007</v>
+        <v>322279.20437339449</v>
       </c>
       <c r="U78" s="132">
         <f t="shared" si="43"/>
-        <v>309920.8485534183</v>
+        <v>324324.78431082668</v>
       </c>
       <c r="V78" s="132">
         <f t="shared" si="43"/>
-        <v>311676.99647715053</v>
+        <v>326206.82978106075</v>
       </c>
       <c r="W78" s="132">
         <f t="shared" si="43"/>
-        <v>313627.50241134351</v>
+        <v>328297.16671025916</v>
       </c>
       <c r="X78" s="132">
         <f t="shared" si="43"/>
-        <v>265417.08729938377</v>
+        <v>280215.0462274797</v>
       </c>
       <c r="Y78" s="132">
         <f t="shared" si="43"/>
-        <v>267402.8539117109</v>
+        <v>282343.17165880994</v>
       </c>
       <c r="Z78" s="132">
         <f t="shared" si="43"/>
-        <v>269411.47948991408</v>
+        <v>284495.7948061924</v>
       </c>
       <c r="AA78" s="43"/>
       <c r="AB78" s="43"/>
@@ -9324,19 +9324,19 @@
       <c r="AL83" s="177"/>
       <c r="AM83" s="232"/>
     </row>
-    <row r="84" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="284" t="s">
+    <row r="84" spans="1:39" s="284" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="283" t="s">
         <v>355</v>
       </c>
-      <c r="F84" s="286"/>
-      <c r="G84" s="286"/>
-      <c r="H84" s="286"/>
-      <c r="I84" s="286"/>
-      <c r="J84" s="286"/>
-      <c r="K84" s="286"/>
-      <c r="L84" s="286"/>
-      <c r="M84" s="287"/>
-      <c r="N84" s="288"/>
+      <c r="F84" s="285"/>
+      <c r="G84" s="285"/>
+      <c r="H84" s="285"/>
+      <c r="I84" s="285"/>
+      <c r="J84" s="285"/>
+      <c r="K84" s="285"/>
+      <c r="L84" s="285"/>
+      <c r="M84" s="286"/>
+      <c r="N84" s="287"/>
       <c r="O84" s="277">
         <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
         <v>30799.999999999996</v>
@@ -9353,38 +9353,38 @@
         <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
         <v>13200</v>
       </c>
-      <c r="S84" s="288"/>
-      <c r="T84" s="288"/>
-      <c r="U84" s="288"/>
-      <c r="V84" s="288"/>
-      <c r="W84" s="288"/>
-      <c r="X84" s="288"/>
-      <c r="Y84" s="288"/>
-      <c r="Z84" s="288"/>
-      <c r="AA84" s="288"/>
-      <c r="AB84" s="288"/>
-      <c r="AE84" s="289"/>
-      <c r="AF84" s="289"/>
-      <c r="AG84" s="289"/>
-      <c r="AI84" s="289"/>
-      <c r="AJ84" s="289"/>
-      <c r="AK84" s="289"/>
-      <c r="AL84" s="289"/>
-      <c r="AM84" s="290"/>
-    </row>
-    <row r="85" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="284" t="s">
+      <c r="S84" s="287"/>
+      <c r="T84" s="287"/>
+      <c r="U84" s="287"/>
+      <c r="V84" s="287"/>
+      <c r="W84" s="287"/>
+      <c r="X84" s="287"/>
+      <c r="Y84" s="287"/>
+      <c r="Z84" s="287"/>
+      <c r="AA84" s="287"/>
+      <c r="AB84" s="287"/>
+      <c r="AE84" s="288"/>
+      <c r="AF84" s="288"/>
+      <c r="AG84" s="288"/>
+      <c r="AI84" s="288"/>
+      <c r="AJ84" s="288"/>
+      <c r="AK84" s="288"/>
+      <c r="AL84" s="288"/>
+      <c r="AM84" s="289"/>
+    </row>
+    <row r="85" spans="1:39" s="284" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="283" t="s">
         <v>356</v>
       </c>
-      <c r="F85" s="286"/>
-      <c r="G85" s="286"/>
-      <c r="H85" s="286"/>
-      <c r="I85" s="286"/>
-      <c r="J85" s="286"/>
-      <c r="K85" s="286"/>
-      <c r="L85" s="286"/>
-      <c r="M85" s="287"/>
-      <c r="N85" s="288"/>
+      <c r="F85" s="285"/>
+      <c r="G85" s="285"/>
+      <c r="H85" s="285"/>
+      <c r="I85" s="285"/>
+      <c r="J85" s="285"/>
+      <c r="K85" s="285"/>
+      <c r="L85" s="285"/>
+      <c r="M85" s="286"/>
+      <c r="N85" s="287"/>
       <c r="O85" s="277">
         <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
         <v>28000</v>
@@ -9401,38 +9401,38 @@
         <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
         <v>12000</v>
       </c>
-      <c r="S85" s="288"/>
-      <c r="T85" s="288"/>
-      <c r="U85" s="288"/>
-      <c r="V85" s="288"/>
-      <c r="W85" s="288"/>
-      <c r="X85" s="288"/>
-      <c r="Y85" s="288"/>
-      <c r="Z85" s="288"/>
-      <c r="AA85" s="288"/>
-      <c r="AB85" s="288"/>
-      <c r="AE85" s="289"/>
-      <c r="AF85" s="289"/>
-      <c r="AG85" s="289"/>
-      <c r="AI85" s="289"/>
-      <c r="AJ85" s="289"/>
-      <c r="AK85" s="289"/>
-      <c r="AL85" s="289"/>
-      <c r="AM85" s="290"/>
-    </row>
-    <row r="86" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="284" t="s">
+      <c r="S85" s="287"/>
+      <c r="T85" s="287"/>
+      <c r="U85" s="287"/>
+      <c r="V85" s="287"/>
+      <c r="W85" s="287"/>
+      <c r="X85" s="287"/>
+      <c r="Y85" s="287"/>
+      <c r="Z85" s="287"/>
+      <c r="AA85" s="287"/>
+      <c r="AB85" s="287"/>
+      <c r="AE85" s="288"/>
+      <c r="AF85" s="288"/>
+      <c r="AG85" s="288"/>
+      <c r="AI85" s="288"/>
+      <c r="AJ85" s="288"/>
+      <c r="AK85" s="288"/>
+      <c r="AL85" s="288"/>
+      <c r="AM85" s="289"/>
+    </row>
+    <row r="86" spans="1:39" s="284" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="283" t="s">
         <v>357</v>
       </c>
-      <c r="F86" s="286"/>
-      <c r="G86" s="286"/>
-      <c r="H86" s="286"/>
-      <c r="I86" s="286"/>
-      <c r="J86" s="286"/>
-      <c r="K86" s="286"/>
-      <c r="L86" s="286"/>
-      <c r="M86" s="287"/>
-      <c r="N86" s="288"/>
+      <c r="F86" s="285"/>
+      <c r="G86" s="285"/>
+      <c r="H86" s="285"/>
+      <c r="I86" s="285"/>
+      <c r="J86" s="285"/>
+      <c r="K86" s="285"/>
+      <c r="L86" s="285"/>
+      <c r="M86" s="286"/>
+      <c r="N86" s="287"/>
       <c r="O86" s="277">
         <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
         <v>12600</v>
@@ -9449,24 +9449,24 @@
         <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
         <v>5400</v>
       </c>
-      <c r="S86" s="288"/>
-      <c r="T86" s="288"/>
-      <c r="U86" s="288"/>
-      <c r="V86" s="288"/>
-      <c r="W86" s="288"/>
-      <c r="X86" s="288"/>
-      <c r="Y86" s="288"/>
-      <c r="Z86" s="288"/>
-      <c r="AA86" s="288"/>
-      <c r="AB86" s="288"/>
-      <c r="AE86" s="289"/>
-      <c r="AF86" s="289"/>
-      <c r="AG86" s="289"/>
-      <c r="AI86" s="289"/>
-      <c r="AJ86" s="289"/>
-      <c r="AK86" s="289"/>
-      <c r="AL86" s="289"/>
-      <c r="AM86" s="290"/>
+      <c r="S86" s="287"/>
+      <c r="T86" s="287"/>
+      <c r="U86" s="287"/>
+      <c r="V86" s="287"/>
+      <c r="W86" s="287"/>
+      <c r="X86" s="287"/>
+      <c r="Y86" s="287"/>
+      <c r="Z86" s="287"/>
+      <c r="AA86" s="287"/>
+      <c r="AB86" s="287"/>
+      <c r="AE86" s="288"/>
+      <c r="AF86" s="288"/>
+      <c r="AG86" s="288"/>
+      <c r="AI86" s="288"/>
+      <c r="AJ86" s="288"/>
+      <c r="AK86" s="288"/>
+      <c r="AL86" s="288"/>
+      <c r="AM86" s="289"/>
     </row>
     <row r="87" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="M88" s="185">
         <f t="shared" si="50"/>
-        <v>2509001</v>
+        <v>2566107.6666666665</v>
       </c>
       <c r="N88" s="130">
         <f>N46+N43+N32+N38+N33+N34</f>
@@ -12251,50 +12251,50 @@
     <row r="3" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="317" t="s">
+      <c r="A5" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="318"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="318"/>
-      <c r="I5" s="318"/>
-      <c r="J5" s="318"/>
-      <c r="K5" s="318"/>
-      <c r="L5" s="318"/>
-      <c r="M5" s="318"/>
-      <c r="N5" s="318"/>
-      <c r="O5" s="318"/>
-      <c r="P5" s="318"/>
-      <c r="Q5" s="318"/>
-      <c r="R5" s="318"/>
-      <c r="S5" s="318"/>
+      <c r="B5" s="317"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="317"/>
+      <c r="S5" s="317"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="319" t="s">
+      <c r="A6" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="319"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="319"/>
-      <c r="S6" s="319"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="318"/>
+      <c r="D6" s="318"/>
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="318"/>
+      <c r="L6" s="318"/>
+      <c r="M6" s="318"/>
+      <c r="N6" s="318"/>
+      <c r="O6" s="318"/>
+      <c r="P6" s="318"/>
+      <c r="Q6" s="318"/>
+      <c r="R6" s="318"/>
+      <c r="S6" s="318"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
@@ -12335,8 +12335,8 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="119"/>
-      <c r="R8" s="320"/>
-      <c r="S8" s="321"/>
+      <c r="R8" s="319"/>
+      <c r="S8" s="320"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="118"/>
@@ -12601,10 +12601,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="303" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="304"/>
+      <c r="B1" s="303"/>
       <c r="C1" s="34"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -12612,18 +12612,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="322" t="s">
+      <c r="Z1" s="321" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="322"/>
-      <c r="AB1" s="322"/>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="303"/>
-      <c r="AE1" s="303"/>
-      <c r="AF1" s="303"/>
+      <c r="AA1" s="321"/>
+      <c r="AB1" s="321"/>
+      <c r="AC1" s="302"/>
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="302"/>
+      <c r="AF1" s="302"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="322" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="95"/>
@@ -12632,45 +12632,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="323"/>
+      <c r="A3" s="322"/>
       <c r="B3" s="96"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="323"/>
+      <c r="A4" s="322"/>
       <c r="B4" s="97"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="323"/>
+      <c r="A5" s="322"/>
       <c r="B5" s="86"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="312" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="313" t="s">
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="312" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="314"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="313" t="s">
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="312" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="315"/>
+      <c r="L7" s="313"/>
+      <c r="M7" s="313"/>
+      <c r="N7" s="314"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -14534,8 +14534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14551,89 +14551,89 @@
       <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="323" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="300"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="323"/>
+      <c r="H2" s="323"/>
+      <c r="I2" s="323"/>
+      <c r="J2" s="323"/>
+      <c r="K2" s="299"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="323" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="324"/>
-      <c r="G3" s="324"/>
-      <c r="H3" s="324"/>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
-      <c r="K3" s="300"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="299"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="325"/>
-      <c r="B4" s="325"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="324" t="s">
+      <c r="A4" s="324"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="324"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="323" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="324"/>
-      <c r="M4" s="324"/>
-      <c r="N4" s="324"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
+      <c r="N4" s="323"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="326" t="s">
+      <c r="C5" s="325" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="327"/>
-      <c r="H5" s="327"/>
-      <c r="I5" s="327"/>
-      <c r="J5" s="328"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="329" t="s">
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="327"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="328" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
+      <c r="M5" s="302"/>
+      <c r="N5" s="302"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="298" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="331">
+      <c r="C6" s="330">
         <v>2020</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
-      <c r="J6" s="333"/>
-      <c r="K6" s="299" t="s">
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="298" t="s">
         <v>135</v>
       </c>
       <c r="L6" t="s">
@@ -14686,7 +14686,7 @@
       <c r="J7" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="299"/>
+      <c r="K7" s="298"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="N8" s="65">
         <f>4*N26</f>
-        <v>772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="N17" s="71">
         <f t="shared" ref="N17:W18" si="3">4*N37</f>
-        <v>632</v>
+        <v>689.10666666666668</v>
       </c>
       <c r="O17" s="71">
         <f t="shared" si="3"/>
@@ -15025,10 +15025,10 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="340">
+      <c r="F19" s="339">
         <v>2020</v>
       </c>
-      <c r="G19" s="340">
+      <c r="G19" s="339">
         <v>2021</v>
       </c>
       <c r="H19">
@@ -15039,27 +15039,27 @@
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="341"/>
-      <c r="G20" s="341"/>
+      <c r="F20" s="340"/>
+      <c r="G20" s="340"/>
       <c r="N20" s="72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C21" s="301" t="s">
+      <c r="C21" s="300" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
       <c r="F21" s="25"/>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C22" s="301"/>
-      <c r="D22" s="301" t="s">
+      <c r="C22" s="300"/>
+      <c r="D22" s="300" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="301"/>
+      <c r="E22" s="300"/>
       <c r="F22" s="25">
         <v>285.56</v>
       </c>
@@ -15069,28 +15069,28 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="303" t="s">
+      <c r="K22" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="303"/>
-      <c r="M22" s="303"/>
-      <c r="N22" s="303"/>
-      <c r="O22" s="303" t="s">
+      <c r="L22" s="302"/>
+      <c r="M22" s="302"/>
+      <c r="N22" s="302"/>
+      <c r="O22" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="303"/>
-      <c r="Q22" s="303"/>
-      <c r="R22" s="303"/>
-      <c r="S22" s="303" t="s">
+      <c r="P22" s="302"/>
+      <c r="Q22" s="302"/>
+      <c r="R22" s="302"/>
+      <c r="S22" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="303"/>
-      <c r="U22" s="303"/>
-      <c r="V22" s="303"/>
+      <c r="T22" s="302"/>
+      <c r="U22" s="302"/>
+      <c r="V22" s="302"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="23"/>
-      <c r="D23" s="301" t="s">
+      <c r="D23" s="300" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="23"/>
@@ -15103,19 +15103,19 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="303" t="s">
+      <c r="K23" s="302" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="303"/>
-      <c r="M23" s="303"/>
-      <c r="N23" s="303"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="302"/>
       <c r="O23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="23"/>
-      <c r="D24" s="301" t="s">
+      <c r="D24" s="300" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="23"/>
@@ -15167,7 +15167,7 @@
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="23"/>
-      <c r="D25" s="301" t="s">
+      <c r="D25" s="300" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="23"/>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="23"/>
-      <c r="D26" s="301"/>
+      <c r="D26" s="300"/>
       <c r="E26" s="23"/>
       <c r="F26" s="25" t="s">
         <v>97</v>
@@ -15203,10 +15203,7 @@
         <f>M8/4</f>
         <v>278.13333333333333</v>
       </c>
-      <c r="N26" s="65">
-        <f>N37+N38</f>
-        <v>193</v>
-      </c>
+      <c r="N26" s="65"/>
       <c r="O26" s="64">
         <f>O33+O34</f>
         <v>57</v>
@@ -15242,8 +15239,8 @@
     </row>
     <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="23"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="342" t="s">
+      <c r="D27" s="300"/>
+      <c r="E27" s="341" t="s">
         <v>125</v>
       </c>
       <c r="F27" s="25">
@@ -15263,7 +15260,7 @@
       <c r="S27" s="64"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="330" t="s">
+      <c r="I28" s="329" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="63" t="s">
@@ -15314,7 +15311,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="330"/>
+      <c r="I29" s="329"/>
       <c r="J29" s="63" t="s">
         <v>143</v>
       </c>
@@ -15363,7 +15360,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="330"/>
+      <c r="I30" s="329"/>
       <c r="J30" s="63" t="s">
         <v>142</v>
       </c>
@@ -15412,7 +15409,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="330"/>
+      <c r="I31" s="329"/>
       <c r="J31" t="s">
         <v>140</v>
       </c>
@@ -15472,10 +15469,10 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="I33" s="330" t="s">
+      <c r="I33" s="329" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="343" t="s">
+      <c r="J33" s="342" t="s">
         <v>259</v>
       </c>
       <c r="M33" s="64">
@@ -15520,7 +15517,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="330"/>
+      <c r="I34" s="329"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15538,7 +15535,7 @@
       </c>
       <c r="N34" s="64">
         <f>N26-N33</f>
-        <v>30.076666666666654</v>
+        <v>-162.92333333333335</v>
       </c>
       <c r="O34" s="64">
         <v>25</v>
@@ -15568,7 +15565,7 @@
     <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N35" s="64">
         <f>SUM(K34:N34)</f>
-        <v>119.04333333333334</v>
+        <v>-73.956666666666663</v>
       </c>
       <c r="R35" s="64"/>
     </row>
@@ -15602,7 +15599,8 @@
         <v>208.73333333333332</v>
       </c>
       <c r="N37" s="64">
-        <v>158</v>
+        <f>N33+N28</f>
+        <v>172.27666666666667</v>
       </c>
       <c r="O37" s="64">
         <f>O33+O28</f>
@@ -15819,30 +15817,30 @@
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
-      <c r="E6" s="337" t="s">
+      <c r="E6" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="337"/>
-      <c r="P6" s="337"/>
-      <c r="Q6" s="337"/>
-      <c r="R6" s="337"/>
+      <c r="F6" s="336"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
+      <c r="K6" s="336"/>
+      <c r="L6" s="336"/>
+      <c r="M6" s="336"/>
+      <c r="N6" s="336"/>
+      <c r="O6" s="336"/>
+      <c r="P6" s="336"/>
+      <c r="Q6" s="336"/>
+      <c r="R6" s="336"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="334" t="s">
+      <c r="A7" s="333" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="334"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
+      <c r="B7" s="333"/>
+      <c r="C7" s="333"/>
+      <c r="D7" s="333"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -15860,11 +15858,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
-      <c r="B8" s="334" t="s">
+      <c r="B8" s="333" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="334"/>
-      <c r="D8" s="334"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="333"/>
       <c r="E8" s="41">
         <v>1717.857</v>
       </c>
@@ -15910,11 +15908,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
-      <c r="B9" s="334" t="s">
+      <c r="B9" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="334"/>
-      <c r="D9" s="334"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="333"/>
       <c r="E9" s="41">
         <v>1243.3720000000001</v>
       </c>
@@ -15960,11 +15958,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
-      <c r="B10" s="334" t="s">
+      <c r="B10" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
       <c r="E10" s="41">
         <v>230.245</v>
       </c>
@@ -16010,11 +16008,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
-      <c r="B11" s="334" t="s">
+      <c r="B11" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="334"/>
-      <c r="D11" s="334"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="333"/>
       <c r="E11" s="41">
         <v>271.327</v>
       </c>
@@ -16109,10 +16107,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="334" t="s">
+      <c r="C13" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="334"/>
+      <c r="D13" s="333"/>
       <c r="E13" s="41">
         <v>3462.8009999999999</v>
       </c>
@@ -16263,11 +16261,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="333" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="334"/>
-      <c r="D19" s="334"/>
+      <c r="C19" s="333"/>
+      <c r="D19" s="333"/>
       <c r="E19" s="41">
         <v>1717.857</v>
       </c>
@@ -16326,11 +16324,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
-      <c r="B20" s="334" t="s">
+      <c r="B20" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
+      <c r="C20" s="333"/>
+      <c r="D20" s="333"/>
       <c r="E20" s="41">
         <v>1243.3720000000001</v>
       </c>
@@ -16390,11 +16388,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
-      <c r="B21" s="334" t="s">
+      <c r="B21" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="334"/>
-      <c r="D21" s="334"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="333"/>
       <c r="E21" s="41">
         <v>230.245</v>
       </c>
@@ -16453,11 +16451,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
-      <c r="B22" s="334" t="s">
+      <c r="B22" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="334"/>
-      <c r="D22" s="334"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="333"/>
       <c r="E22" s="41">
         <v>271.327</v>
       </c>
@@ -16570,21 +16568,21 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="335" t="s">
+      <c r="H27" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="335"/>
-      <c r="J27" s="335"/>
-      <c r="K27" s="335"/>
-      <c r="L27" s="335"/>
-      <c r="M27" s="335"/>
-      <c r="N27" s="335"/>
-      <c r="O27" s="335"/>
-      <c r="P27" s="335"/>
-      <c r="Q27" s="335"/>
-      <c r="R27" s="335"/>
-      <c r="S27" s="335"/>
-      <c r="T27" s="335"/>
+      <c r="I27" s="334"/>
+      <c r="J27" s="334"/>
+      <c r="K27" s="334"/>
+      <c r="L27" s="334"/>
+      <c r="M27" s="334"/>
+      <c r="N27" s="334"/>
+      <c r="O27" s="334"/>
+      <c r="P27" s="334"/>
+      <c r="Q27" s="334"/>
+      <c r="R27" s="334"/>
+      <c r="S27" s="334"/>
+      <c r="T27" s="334"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
@@ -16900,21 +16898,21 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="336" t="s">
+      <c r="F37" s="335" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="336"/>
-      <c r="H37" s="336"/>
-      <c r="I37" s="336"/>
-      <c r="J37" s="336"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="336"/>
-      <c r="M37" s="336"/>
-      <c r="N37" s="336"/>
-      <c r="O37" s="336"/>
-      <c r="P37" s="336"/>
-      <c r="Q37" s="336"/>
-      <c r="R37" s="336"/>
+      <c r="G37" s="335"/>
+      <c r="H37" s="335"/>
+      <c r="I37" s="335"/>
+      <c r="J37" s="335"/>
+      <c r="K37" s="335"/>
+      <c r="L37" s="335"/>
+      <c r="M37" s="335"/>
+      <c r="N37" s="335"/>
+      <c r="O37" s="335"/>
+      <c r="P37" s="335"/>
+      <c r="Q37" s="335"/>
+      <c r="R37" s="335"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
@@ -17230,21 +17228,21 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="335" t="s">
+      <c r="F48" s="334" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="335"/>
-      <c r="H48" s="335"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
-      <c r="K48" s="335"/>
-      <c r="L48" s="335"/>
-      <c r="M48" s="335"/>
-      <c r="N48" s="335"/>
-      <c r="O48" s="335"/>
-      <c r="P48" s="335"/>
-      <c r="Q48" s="335"/>
-      <c r="R48" s="335"/>
+      <c r="G48" s="334"/>
+      <c r="H48" s="334"/>
+      <c r="I48" s="334"/>
+      <c r="J48" s="334"/>
+      <c r="K48" s="334"/>
+      <c r="L48" s="334"/>
+      <c r="M48" s="334"/>
+      <c r="N48" s="334"/>
+      <c r="O48" s="334"/>
+      <c r="P48" s="334"/>
+      <c r="Q48" s="334"/>
+      <c r="R48" s="334"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
@@ -17608,50 +17606,50 @@
     <row r="3" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="317" t="s">
+      <c r="A5" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="318"/>
-      <c r="C5" s="318"/>
-      <c r="D5" s="318"/>
-      <c r="E5" s="318"/>
-      <c r="F5" s="318"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="318"/>
-      <c r="I5" s="318"/>
-      <c r="J5" s="318"/>
-      <c r="K5" s="318"/>
-      <c r="L5" s="318"/>
-      <c r="M5" s="318"/>
-      <c r="N5" s="318"/>
-      <c r="O5" s="318"/>
-      <c r="P5" s="318"/>
-      <c r="Q5" s="318"/>
-      <c r="R5" s="318"/>
-      <c r="S5" s="318"/>
+      <c r="B5" s="317"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="317"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="317"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
+      <c r="M5" s="317"/>
+      <c r="N5" s="317"/>
+      <c r="O5" s="317"/>
+      <c r="P5" s="317"/>
+      <c r="Q5" s="317"/>
+      <c r="R5" s="317"/>
+      <c r="S5" s="317"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="319" t="s">
+      <c r="A6" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="319"/>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="319"/>
-      <c r="J6" s="319"/>
-      <c r="K6" s="319"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="319"/>
-      <c r="N6" s="319"/>
-      <c r="O6" s="319"/>
-      <c r="P6" s="319"/>
-      <c r="Q6" s="319"/>
-      <c r="R6" s="319"/>
-      <c r="S6" s="319"/>
+      <c r="B6" s="318"/>
+      <c r="C6" s="318"/>
+      <c r="D6" s="318"/>
+      <c r="E6" s="318"/>
+      <c r="F6" s="318"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="318"/>
+      <c r="I6" s="318"/>
+      <c r="J6" s="318"/>
+      <c r="K6" s="318"/>
+      <c r="L6" s="318"/>
+      <c r="M6" s="318"/>
+      <c r="N6" s="318"/>
+      <c r="O6" s="318"/>
+      <c r="P6" s="318"/>
+      <c r="Q6" s="318"/>
+      <c r="R6" s="318"/>
+      <c r="S6" s="318"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
@@ -17691,10 +17689,10 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="320" t="s">
+      <c r="R8" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="321"/>
+      <c r="S8" s="320"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
@@ -20565,10 +20563,10 @@
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="338" t="s">
+      <c r="D75" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="339"/>
+      <c r="E75" s="338"/>
       <c r="F75" s="24">
         <v>-75.135000000000005</v>
       </c>
@@ -21266,73 +21264,73 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="290" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="291">
+      <c r="B2" s="290">
         <v>325</v>
       </c>
-      <c r="C2" s="292">
+      <c r="C2" s="291">
         <f>B2*1000</f>
         <v>325000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="290" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="291">
+      <c r="B3" s="290">
         <v>120</v>
       </c>
-      <c r="C3" s="292">
+      <c r="C3" s="291">
         <f t="shared" ref="C3:C20" si="0">B3*1000</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="291" t="s">
+      <c r="A4" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="291">
+      <c r="B4" s="290">
         <v>166</v>
       </c>
-      <c r="C4" s="292">
+      <c r="C4" s="291">
         <f t="shared" si="0"/>
         <v>166000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="291" t="s">
+      <c r="A5" s="290" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="291">
+      <c r="B5" s="290">
         <v>82</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="291">
         <f t="shared" si="0"/>
         <v>82000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="291" t="s">
+      <c r="A6" s="290" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="291">
+      <c r="B6" s="290">
         <v>63</v>
       </c>
-      <c r="C6" s="292">
+      <c r="C6" s="291">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="293" t="s">
+      <c r="A7" s="292" t="s">
         <v>355</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
-      <c r="C7" s="292">
+      <c r="C7" s="291">
         <f>B7*1000</f>
         <v>22000</v>
       </c>
@@ -21344,7 +21342,7 @@
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="292">
+      <c r="C8" s="291">
         <f>B8*1000</f>
         <v>20000</v>
       </c>
@@ -21356,148 +21354,148 @@
       <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="292">
+      <c r="C9" s="291">
         <f>B9*1000</f>
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="293" t="s">
+      <c r="A10" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="291">
+      <c r="B10" s="290">
         <f>B6-SUM(B7:B9)</f>
         <v>12</v>
       </c>
-      <c r="C10" s="292">
+      <c r="C10" s="291">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="294" t="s">
+      <c r="A11" s="293" t="s">
         <v>366</v>
       </c>
-      <c r="B11" s="291">
+      <c r="B11" s="290">
         <v>45</v>
       </c>
-      <c r="C11" s="292">
+      <c r="C11" s="291">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="293" t="s">
+      <c r="A12" s="292" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="291">
+      <c r="B12" s="290">
         <v>16</v>
       </c>
-      <c r="C12" s="292">
+      <c r="C12" s="291">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="293" t="s">
+      <c r="A13" s="292" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="291">
+      <c r="B13" s="290">
         <f>B11-B12</f>
         <v>29</v>
       </c>
-      <c r="C13" s="292">
+      <c r="C13" s="291">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="294" t="s">
+      <c r="A14" s="293" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="291">
+      <c r="B14" s="290">
         <v>80</v>
       </c>
-      <c r="C14" s="292">
+      <c r="C14" s="291">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="292" t="s">
         <v>349</v>
       </c>
-      <c r="B15" s="291">
+      <c r="B15" s="290">
         <v>26</v>
       </c>
-      <c r="C15" s="292">
+      <c r="C15" s="291">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="293" t="s">
+      <c r="A16" s="292" t="s">
         <v>58</v>
       </c>
       <c r="B16">
         <f>B14-B15</f>
         <v>54</v>
       </c>
-      <c r="C16" s="292">
+      <c r="C16" s="291">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="294" t="s">
+      <c r="A17" s="293" t="s">
         <v>369</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="292">
+      <c r="C17" s="291">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="293" t="s">
+      <c r="A18" s="292" t="s">
         <v>370</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" s="292">
+      <c r="C18" s="291">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="293" t="s">
+      <c r="A19" s="292" t="s">
         <v>371</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="292">
+      <c r="C19" s="291">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="295" t="s">
+      <c r="A20" s="294" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="296">
+      <c r="B20" s="295">
         <v>5</v>
       </c>
-      <c r="C20" s="297">
+      <c r="C20" s="296">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="294" t="s">
+      <c r="A21" s="293" t="s">
         <v>34</v>
       </c>
       <c r="B21">
@@ -21516,10 +21514,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21538,23 +21536,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="307" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="309"/>
+      <c r="B1" s="308"/>
       <c r="C1" s="34"/>
       <c r="H1"/>
       <c r="I1" s="235"/>
-      <c r="J1" s="316" t="s">
+      <c r="J1" s="315" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
+      <c r="V1" s="302"/>
+      <c r="W1" s="302"/>
+      <c r="X1" s="302"/>
+      <c r="Y1" s="302"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="309" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="114"/>
@@ -21562,68 +21560,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="236"/>
-      <c r="J2" s="316"/>
+      <c r="J2" s="315"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="311"/>
+      <c r="A3" s="310"/>
       <c r="B3" s="115"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="236"/>
-      <c r="J3" s="316"/>
+      <c r="J3" s="315"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="311"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="116"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="312"/>
+      <c r="A5" s="311"/>
       <c r="B5" s="117"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="312" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="313" t="s">
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="312" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="314"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="313" t="s">
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="312" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="313" t="s">
+      <c r="L7" s="313"/>
+      <c r="M7" s="313"/>
+      <c r="N7" s="313"/>
+      <c r="O7" s="312" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="314"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="313" t="s">
+      <c r="P7" s="313"/>
+      <c r="Q7" s="313"/>
+      <c r="R7" s="313"/>
+      <c r="S7" s="312" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="313" t="s">
+      <c r="T7" s="313"/>
+      <c r="U7" s="313"/>
+      <c r="V7" s="313"/>
+      <c r="W7" s="312" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
+      <c r="X7" s="313"/>
+      <c r="Y7" s="313"/>
+      <c r="Z7" s="313"/>
       <c r="AA7" s="216" t="s">
         <v>278</v>
       </c>
@@ -24482,7 +24480,7 @@
       </c>
       <c r="F57" s="92">
         <f>main!M88/1000</f>
-        <v>2509.0010000000002</v>
+        <v>2566.1076666666663</v>
       </c>
       <c r="G57" s="137">
         <f>main!N88/1000</f>
@@ -24758,7 +24756,7 @@
       <c r="E60" s="210"/>
       <c r="F60" s="210">
         <f t="shared" ref="F60" si="93">F57-F58</f>
-        <v>-144.26599999999962</v>
+        <v>-87.159333333333507</v>
       </c>
       <c r="G60" s="138">
         <f t="shared" ref="G60" si="94">G57-G58</f>
@@ -25389,47 +25387,47 @@
       </c>
       <c r="F71" s="211">
         <f>main!M78/1000</f>
-        <v>286.98038194444445</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="G71" s="139">
         <f>main!N78/1000</f>
-        <v>298.42437754843183</v>
+        <v>312.14751507478184</v>
       </c>
       <c r="H71" s="211">
         <f>main!O78/1000</f>
-        <v>341.19269489482321</v>
+        <v>354.97091278629409</v>
       </c>
       <c r="I71" s="211">
         <f>main!P78/1000</f>
-        <v>314.07437053822298</v>
+        <v>327.9157954060621</v>
       </c>
       <c r="J71" s="211">
         <f>main!Q78/1000</f>
-        <v>315.10719057763401</v>
+        <v>329.02265790350458</v>
       </c>
       <c r="K71" s="139">
         <f>main!R78/1000</f>
-        <v>310.59699489026309</v>
+        <v>324.61926569503942</v>
       </c>
       <c r="L71" s="211">
         <f>main!S78/1000</f>
-        <v>306.29387850499586</v>
+        <v>320.43779822152214</v>
       </c>
       <c r="M71" s="211">
         <f>main!T78/1000</f>
-        <v>308.01210563686004</v>
+        <v>322.27920437339446</v>
       </c>
       <c r="N71" s="211">
         <f>main!U78/1000</f>
-        <v>309.9208485534183</v>
+        <v>324.32478431082666</v>
       </c>
       <c r="O71" s="139">
         <f>main!V78/1000</f>
-        <v>311.67699647715051</v>
+        <v>326.20682978106072</v>
       </c>
       <c r="P71" s="243">
         <f>main!W78/1000</f>
-        <v>313.62750241134353</v>
+        <v>328.29716671025915</v>
       </c>
       <c r="Q71" s="243">
         <v>330.50545802602733</v>
@@ -25647,47 +25645,47 @@
       <c r="E74" s="210"/>
       <c r="F74" s="210">
         <f>F71-F72</f>
-        <v>44.85238194444446</v>
+        <v>58.472000000000037</v>
       </c>
       <c r="G74" s="138">
         <f t="shared" ref="G74:K74" si="118">G71-G72</f>
-        <v>69.293656609261546</v>
+        <v>83.016794135611548</v>
       </c>
       <c r="H74" s="210">
         <f t="shared" si="118"/>
-        <v>127.66634709591</v>
+        <v>141.44456498738089</v>
       </c>
       <c r="I74" s="210">
         <f t="shared" si="118"/>
-        <v>115.71788019966229</v>
+        <v>129.55930506750141</v>
       </c>
       <c r="J74" s="210">
         <f t="shared" si="118"/>
-        <v>131.34120345955321</v>
+        <v>145.25667078542378</v>
       </c>
       <c r="K74" s="138">
         <f t="shared" si="118"/>
-        <v>115.54367465655329</v>
+        <v>129.56594546132962</v>
       </c>
       <c r="L74" s="210">
         <f t="shared" ref="L74:N74" si="119">L71-L72</f>
-        <v>99.159465844497163</v>
+        <v>113.30338556102345</v>
       </c>
       <c r="M74" s="210">
         <f t="shared" si="119"/>
-        <v>88.714788339062352</v>
+        <v>102.98188707559677</v>
       </c>
       <c r="N74" s="210">
         <f t="shared" si="119"/>
-        <v>77.730357216756403</v>
+        <v>92.134292974164765</v>
       </c>
       <c r="O74" s="138">
         <f t="shared" ref="O74:AA74" si="120">O71-O72</f>
-        <v>67.23297832179702</v>
+        <v>81.762811625707229</v>
       </c>
       <c r="P74" s="245">
         <f t="shared" si="120"/>
-        <v>56.184960332640401</v>
+        <v>70.854624631556021</v>
       </c>
       <c r="Q74" s="245">
         <f t="shared" si="120"/>
@@ -25793,7 +25791,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J25" sqref="J25"/>
+      <selection pane="topRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25933,7 +25931,7 @@
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>-144.26599999999962</v>
+        <v>-87.159333333333507</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
@@ -25941,18 +25939,18 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>44.85238194444446</v>
+        <v>58.472000000000037</v>
       </c>
       <c r="J3" s="90">
         <f>'add-ons calculations'!F71</f>
-        <v>286.98038194444445</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="K3" s="90" cm="1">
         <f t="array" ref="K3:K12">TRANSPOSE(main!M36:V36)/1000</f>
         <v>881.35400000000004</v>
       </c>
       <c r="L3">
-        <v>738.2</v>
+        <v>795.30666666666662</v>
       </c>
       <c r="M3">
         <v>140</v>
@@ -25993,7 +25991,7 @@
         <v>-833.94013103694624</v>
       </c>
       <c r="I4">
-        <v>69.293656609261546</v>
+        <v>83.016794135611548</v>
       </c>
       <c r="J4" s="90">
         <v>0</v>
@@ -26043,7 +26041,7 @@
         <v>-426.91177522010059</v>
       </c>
       <c r="I5">
-        <v>127.66634709591</v>
+        <v>141.44456498738089</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -26063,7 +26061,7 @@
       <c r="O5">
         <v>71.400000000000006</v>
       </c>
-      <c r="P5" s="298">
+      <c r="P5" s="297">
         <f>664000/1000</f>
         <v>664</v>
       </c>
@@ -26094,7 +26092,7 @@
         <v>-431.32456398056468</v>
       </c>
       <c r="I6">
-        <v>115.71788019966229</v>
+        <v>129.55930506750141</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -26144,7 +26142,7 @@
         <v>-1086.0898722425786</v>
       </c>
       <c r="I7">
-        <v>131.34120345955321</v>
+        <v>145.25667078542378</v>
       </c>
       <c r="J7" s="90">
         <v>0</v>
@@ -26194,7 +26192,7 @@
         <v>-1112.559918312772</v>
       </c>
       <c r="I8">
-        <v>115.54367465655329</v>
+        <v>129.56594546132962</v>
       </c>
       <c r="J8" s="90">
         <v>0</v>
@@ -26244,7 +26242,7 @@
         <v>-1163.3117757737041</v>
       </c>
       <c r="I9">
-        <v>99.159465844497163</v>
+        <v>113.30338556102345</v>
       </c>
       <c r="J9" s="90">
         <v>0</v>
@@ -26294,7 +26292,7 @@
         <v>-1168.3939307885266</v>
       </c>
       <c r="I10">
-        <v>88.714788339062352</v>
+        <v>102.98188707559677</v>
       </c>
       <c r="J10" s="90">
         <v>0</v>
@@ -26344,7 +26342,7 @@
         <v>-1173.5410146130612</v>
       </c>
       <c r="I11">
-        <v>77.730357216756403</v>
+        <v>92.134292974164765</v>
       </c>
       <c r="J11" s="90">
         <v>0</v>
@@ -26394,7 +26392,7 @@
         <v>-1178.7530272473091</v>
       </c>
       <c r="I12">
-        <v>67.23297832179702</v>
+        <v>81.762811625707229</v>
       </c>
       <c r="J12" s="90">
         <v>0</v>
@@ -26444,7 +26442,7 @@
         <v>-1184.0417739294007</v>
       </c>
       <c r="I13">
-        <v>56.184960332640401</v>
+        <v>70.854624631556021</v>
       </c>
       <c r="J13" s="90">
         <v>0</v>
@@ -27038,36 +27036,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="303" t="s">
+      <c r="D1" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303" t="s">
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303" t="s">
+      <c r="I1" s="302"/>
+      <c r="J1" s="302"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
-      <c r="P1" s="303" t="s">
+      <c r="M1" s="302"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="302"/>
+      <c r="P1" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="303"/>
-      <c r="S1" s="303"/>
-      <c r="T1" s="303" t="s">
+      <c r="Q1" s="302"/>
+      <c r="R1" s="302"/>
+      <c r="S1" s="302"/>
+      <c r="T1" s="302" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
+      <c r="U1" s="302"/>
+      <c r="V1" s="302"/>
+      <c r="W1" s="302"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="185" t="s">
@@ -27477,22 +27475,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="307" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="309"/>
+      <c r="B1" s="308"/>
       <c r="C1" s="34"/>
       <c r="I1" s="235"/>
-      <c r="J1" s="316" t="s">
+      <c r="J1" s="315" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
+      <c r="V1" s="302"/>
+      <c r="W1" s="302"/>
+      <c r="X1" s="302"/>
+      <c r="Y1" s="302"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="309" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="114"/>
@@ -27501,20 +27499,20 @@
       </c>
       <c r="H2" s="83"/>
       <c r="I2" s="236"/>
-      <c r="J2" s="316"/>
+      <c r="J2" s="315"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="311"/>
+      <c r="A3" s="310"/>
       <c r="B3" s="115"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="83"/>
       <c r="I3" s="236"/>
-      <c r="J3" s="316"/>
+      <c r="J3" s="315"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="311"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="116"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -27524,7 +27522,7 @@
       <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="312"/>
+      <c r="A5" s="311"/>
       <c r="B5" s="117"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -27539,42 +27537,42 @@
       <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="313" t="s">
+      <c r="C7" s="312" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="314"/>
-      <c r="E7" s="314"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="313" t="s">
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="314"/>
+      <c r="G7" s="312" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="314"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="313" t="s">
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="314"/>
+      <c r="K7" s="312" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="314"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="313" t="s">
+      <c r="L7" s="313"/>
+      <c r="M7" s="313"/>
+      <c r="N7" s="313"/>
+      <c r="O7" s="312" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="314"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="313" t="s">
+      <c r="P7" s="313"/>
+      <c r="Q7" s="313"/>
+      <c r="R7" s="313"/>
+      <c r="S7" s="312" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="313" t="s">
+      <c r="T7" s="313"/>
+      <c r="U7" s="313"/>
+      <c r="V7" s="313"/>
+      <c r="W7" s="312" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
+      <c r="X7" s="313"/>
+      <c r="Y7" s="313"/>
+      <c r="Z7" s="313"/>
       <c r="AA7" s="216" t="s">
         <v>278</v>
       </c>
@@ -30463,7 +30461,7 @@
       </c>
       <c r="I2" s="255">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>44.85238194444446</v>
+        <v>58.472000000000037</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -30492,7 +30490,7 @@
         <v>-833.94013103694624</v>
       </c>
       <c r="I3" s="255">
-        <v>69.293656609261546</v>
+        <v>83.016794135611548</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -30521,7 +30519,7 @@
         <v>-426.91177522010059</v>
       </c>
       <c r="I4" s="255">
-        <v>127.66634709591</v>
+        <v>141.44456498738089</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -30550,7 +30548,7 @@
         <v>-431.32456398056468</v>
       </c>
       <c r="I5" s="255">
-        <v>115.71788019966229</v>
+        <v>129.55930506750141</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -30579,7 +30577,7 @@
         <v>-1086.0898722425786</v>
       </c>
       <c r="I6" s="255">
-        <v>131.34120345955321</v>
+        <v>145.25667078542378</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -30608,7 +30606,7 @@
         <v>-1112.559918312772</v>
       </c>
       <c r="I7" s="255">
-        <v>115.54367465655329</v>
+        <v>129.56594546132962</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -30637,7 +30635,7 @@
         <v>-1163.3117757737041</v>
       </c>
       <c r="I8" s="255">
-        <v>99.159465844497163</v>
+        <v>113.30338556102345</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -30666,7 +30664,7 @@
         <v>-1168.3939307885266</v>
       </c>
       <c r="I9" s="255">
-        <v>88.714788339062352</v>
+        <v>102.98188707559677</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -30695,7 +30693,7 @@
         <v>-1173.5410146130612</v>
       </c>
       <c r="I10" s="255">
-        <v>77.730357216756403</v>
+        <v>92.134292974164765</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -30724,7 +30722,7 @@
         <v>-1178.7530272473091</v>
       </c>
       <c r="I11" s="255">
-        <v>67.23297832179702</v>
+        <v>81.762811625707229</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -30753,7 +30751,7 @@
         <v>-1184.0417739294007</v>
       </c>
       <c r="I12" s="255">
-        <v>56.184960332640401</v>
+        <v>70.854624631556021</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -31090,32 +31088,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="283" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="283" t="s">
+    <row r="1" spans="1:9" s="282" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="282" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="282" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="283" t="s">
+      <c r="D1" s="282" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="283" t="s">
+      <c r="E1" s="282" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="283" t="s">
+      <c r="F1" s="282" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="283" t="s">
+      <c r="G1" s="282" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="283" t="s">
+      <c r="H1" s="282" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="283" t="s">
+      <c r="I1" s="282" t="s">
         <v>332</v>
       </c>
     </row>

--- a/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
+++ b/documentation/COVID-19 Changes/September/LSFIM_KY_v6_round2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/documentation/COVID-19 Changes/September/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A8545B-8524-F246-968D-2B85B97ADAB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09362959-39DB-834D-B1B8-47D43D3136AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19620" firstSheet="6" activeTab="13" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18840" firstSheet="1" activeTab="13" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -2188,7 +2188,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.000%"/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -3444,6 +3444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="16" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3609,7 +3610,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="16" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4144,10 +4144,10 @@
   <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4169,10 +4169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="304" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="303"/>
+      <c r="B1" s="304"/>
       <c r="C1" s="264"/>
       <c r="D1" s="264"/>
       <c r="E1" s="34"/>
@@ -4182,76 +4182,76 @@
       <c r="AC1" s="167" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" s="305" t="s">
+      <c r="AD1" s="306" t="s">
         <v>247</v>
       </c>
-      <c r="AE1" s="305"/>
-      <c r="AF1" s="305"/>
+      <c r="AE1" s="306"/>
+      <c r="AF1" s="306"/>
       <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="306" t="s">
+      <c r="AI1" s="307" t="s">
         <v>281</v>
       </c>
-      <c r="AJ1" s="306"/>
-      <c r="AK1" s="306"/>
-      <c r="AL1" s="306"/>
-      <c r="AM1" s="304" t="s">
+      <c r="AJ1" s="307"/>
+      <c r="AK1" s="307"/>
+      <c r="AL1" s="307"/>
+      <c r="AM1" s="305" t="s">
         <v>279</v>
       </c>
-      <c r="AN1" s="304"/>
-      <c r="AO1" s="304"/>
-      <c r="AP1" s="304"/>
+      <c r="AN1" s="305"/>
+      <c r="AO1" s="305"/>
+      <c r="AP1" s="305"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="F2" s="302" t="s">
+      <c r="F2" s="303" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302" t="s">
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
-      <c r="N2" s="302" t="s">
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="302"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="302"/>
-      <c r="R2" s="302" t="s">
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
+      <c r="Q2" s="303"/>
+      <c r="R2" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="302"/>
-      <c r="T2" s="302"/>
-      <c r="U2" s="302"/>
-      <c r="V2" s="302" t="s">
+      <c r="S2" s="303"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303" t="s">
         <v>268</v>
       </c>
-      <c r="W2" s="302"/>
-      <c r="X2" s="302"/>
-      <c r="Y2" s="302"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
       <c r="Z2" s="214"/>
       <c r="AA2" s="281"/>
       <c r="AB2" s="214"/>
       <c r="AC2" s="144"/>
-      <c r="AD2" s="302" t="s">
+      <c r="AD2" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="302"/>
-      <c r="AF2" s="302"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="303"/>
       <c r="AG2" s="144"/>
       <c r="AH2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="302" t="s">
+      <c r="AI2" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="302"/>
-      <c r="AK2" s="302"/>
+      <c r="AJ2" s="303"/>
+      <c r="AK2" s="303"/>
       <c r="AL2" s="215"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -4359,10 +4359,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="302" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="301"/>
+      <c r="B4" s="302"/>
       <c r="C4" s="264"/>
       <c r="D4" s="264"/>
       <c r="F4" s="185"/>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="M38" s="185">
         <f>M39+M40</f>
-        <v>795306.66666666663</v>
+        <v>738200</v>
       </c>
       <c r="N38" s="75">
         <f>SUM(N39:N41)</f>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="M39" s="185">
         <f>1000*'figuring out UI'!N17</f>
-        <v>689106.66666666663</v>
+        <v>632000</v>
       </c>
       <c r="N39" s="75">
         <f>1000*'figuring out UI'!O17</f>
@@ -6704,7 +6704,7 @@
       <c r="AC39" s="2"/>
       <c r="AD39" s="44">
         <f>AVERAGE(J39:M39)/1000</f>
-        <v>381.01</v>
+        <v>366.73333333333329</v>
       </c>
       <c r="AE39" s="44">
         <f t="shared" si="21"/>
@@ -8110,23 +8110,23 @@
       </c>
       <c r="N64" s="104">
         <f>N66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>323480.84840811515</v>
+        <v>309757.71088176518</v>
       </c>
       <c r="O64" s="104">
         <f>O66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>324304.24611962738</v>
+        <v>310526.0282281565</v>
       </c>
       <c r="P64" s="104">
         <f>P66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>325249.12873939541</v>
+        <v>311407.70387155632</v>
       </c>
       <c r="Q64" s="104">
         <f>Q66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>326355.99123683787</v>
+        <v>312440.5239109674</v>
       </c>
       <c r="R64" s="104">
         <f>R66+(SUM($M$68:$R$68))/4/6*4</f>
-        <v>327952.59902837273</v>
+        <v>313930.32822359644</v>
       </c>
       <c r="S64" s="43"/>
       <c r="T64" s="43"/>
@@ -8219,61 +8219,61 @@
         <f>L65-L67</f>
         <v>192250</v>
       </c>
-      <c r="M66" s="190">
-        <f>M65-M67</f>
-        <v>203600</v>
+      <c r="M66" s="282">
+        <f>L66*(1+M82)</f>
+        <v>189980.38194444444</v>
       </c>
       <c r="N66" s="104">
         <f>M66*(1+N82)</f>
-        <v>205147.51507478184</v>
+        <v>191424.37754843186</v>
       </c>
       <c r="O66" s="104">
         <f t="shared" ref="O66:R66" si="34">N66*(1+O82)</f>
-        <v>205970.91278629407</v>
+        <v>192192.69489482319</v>
       </c>
       <c r="P66" s="104">
         <f t="shared" si="34"/>
-        <v>206915.7954060621</v>
+        <v>193074.37053822298</v>
       </c>
       <c r="Q66" s="104">
         <f t="shared" si="34"/>
-        <v>208022.65790350453</v>
+        <v>194107.19057763406</v>
       </c>
       <c r="R66" s="104">
         <f t="shared" si="34"/>
-        <v>209619.26569503942</v>
+        <v>195596.9948902631</v>
       </c>
       <c r="S66" s="104">
         <f t="shared" ref="S66" si="35">R66*(1+S82)</f>
-        <v>211437.79822152213</v>
+        <v>197293.87850499584</v>
       </c>
       <c r="T66" s="104">
         <f t="shared" ref="T66" si="36">S66*(1+T82)</f>
-        <v>213279.20437339449</v>
+        <v>199012.10563686007</v>
       </c>
       <c r="U66" s="104">
         <f t="shared" ref="U66" si="37">T66*(1+U82)</f>
-        <v>215324.78431082665</v>
+        <v>200920.8485534183</v>
       </c>
       <c r="V66" s="104">
         <f t="shared" ref="V66:X66" si="38">U66*(1+V82)</f>
-        <v>217206.82978106075</v>
+        <v>202676.99647715053</v>
       </c>
       <c r="W66" s="104">
         <f t="shared" si="38"/>
-        <v>219297.16671025913</v>
+        <v>204627.50241134351</v>
       </c>
       <c r="X66" s="104">
         <f t="shared" si="38"/>
-        <v>221215.04622747973</v>
+        <v>206417.08729938377</v>
       </c>
       <c r="Y66" s="104">
         <f t="shared" ref="Y66" si="39">X66*(1+Y82)</f>
-        <v>223343.17165880994</v>
+        <v>208402.85391171087</v>
       </c>
       <c r="Z66" s="104">
         <f t="shared" ref="Z66" si="40">Y66*(1+Z82)</f>
-        <v>225495.7948061924</v>
+        <v>210411.47948991408</v>
       </c>
       <c r="AA66" s="43"/>
       <c r="AB66" s="43"/>
@@ -8962,61 +8962,61 @@
         <f>L66+L68</f>
         <v>279250</v>
       </c>
-      <c r="M78" s="343">
-        <f>M66+M68</f>
-        <v>300600</v>
+      <c r="M78" s="185">
+        <f t="shared" ref="M78:Z78" si="43">M66+M68</f>
+        <v>286980.38194444444</v>
       </c>
       <c r="N78" s="132">
-        <f t="shared" ref="M78:Z78" si="43">N66+N68</f>
-        <v>312147.51507478184</v>
+        <f t="shared" si="43"/>
+        <v>298424.37754843186</v>
       </c>
       <c r="O78" s="132">
         <f t="shared" si="43"/>
-        <v>354970.91278629407</v>
+        <v>341192.69489482319</v>
       </c>
       <c r="P78" s="132">
         <f t="shared" si="43"/>
-        <v>327915.7954060621</v>
+        <v>314074.37053822295</v>
       </c>
       <c r="Q78" s="132">
         <f t="shared" si="43"/>
-        <v>329022.65790350456</v>
+        <v>315107.19057763403</v>
       </c>
       <c r="R78" s="132">
         <f t="shared" si="43"/>
-        <v>324619.26569503942</v>
+        <v>310596.99489026307</v>
       </c>
       <c r="S78" s="132">
         <f t="shared" si="43"/>
-        <v>320437.79822152213</v>
+        <v>306293.87850499584</v>
       </c>
       <c r="T78" s="132">
         <f t="shared" si="43"/>
-        <v>322279.20437339449</v>
+        <v>308012.10563686007</v>
       </c>
       <c r="U78" s="132">
         <f t="shared" si="43"/>
-        <v>324324.78431082668</v>
+        <v>309920.8485534183</v>
       </c>
       <c r="V78" s="132">
         <f t="shared" si="43"/>
-        <v>326206.82978106075</v>
+        <v>311676.99647715053</v>
       </c>
       <c r="W78" s="132">
         <f t="shared" si="43"/>
-        <v>328297.16671025916</v>
+        <v>313627.50241134351</v>
       </c>
       <c r="X78" s="132">
         <f t="shared" si="43"/>
-        <v>280215.0462274797</v>
+        <v>265417.08729938377</v>
       </c>
       <c r="Y78" s="132">
         <f t="shared" si="43"/>
-        <v>282343.17165880994</v>
+        <v>267402.8539117109</v>
       </c>
       <c r="Z78" s="132">
         <f t="shared" si="43"/>
-        <v>284495.7948061924</v>
+        <v>269411.47948991408</v>
       </c>
       <c r="AA78" s="43"/>
       <c r="AB78" s="43"/>
@@ -9324,19 +9324,19 @@
       <c r="AL83" s="177"/>
       <c r="AM83" s="232"/>
     </row>
-    <row r="84" spans="1:39" s="284" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="283" t="s">
+    <row r="84" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="284" t="s">
         <v>355</v>
       </c>
-      <c r="F84" s="285"/>
-      <c r="G84" s="285"/>
-      <c r="H84" s="285"/>
-      <c r="I84" s="285"/>
-      <c r="J84" s="285"/>
-      <c r="K84" s="285"/>
-      <c r="L84" s="285"/>
-      <c r="M84" s="286"/>
-      <c r="N84" s="287"/>
+      <c r="F84" s="286"/>
+      <c r="G84" s="286"/>
+      <c r="H84" s="286"/>
+      <c r="I84" s="286"/>
+      <c r="J84" s="286"/>
+      <c r="K84" s="286"/>
+      <c r="L84" s="286"/>
+      <c r="M84" s="287"/>
+      <c r="N84" s="288"/>
       <c r="O84" s="277">
         <f>('Stimulus Round 2'!$C7*0.7*4)/2</f>
         <v>30799.999999999996</v>
@@ -9353,38 +9353,38 @@
         <f>('Stimulus Round 2'!$C7*0.3*4)/2</f>
         <v>13200</v>
       </c>
-      <c r="S84" s="287"/>
-      <c r="T84" s="287"/>
-      <c r="U84" s="287"/>
-      <c r="V84" s="287"/>
-      <c r="W84" s="287"/>
-      <c r="X84" s="287"/>
-      <c r="Y84" s="287"/>
-      <c r="Z84" s="287"/>
-      <c r="AA84" s="287"/>
-      <c r="AB84" s="287"/>
-      <c r="AE84" s="288"/>
-      <c r="AF84" s="288"/>
-      <c r="AG84" s="288"/>
-      <c r="AI84" s="288"/>
-      <c r="AJ84" s="288"/>
-      <c r="AK84" s="288"/>
-      <c r="AL84" s="288"/>
-      <c r="AM84" s="289"/>
-    </row>
-    <row r="85" spans="1:39" s="284" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="283" t="s">
+      <c r="S84" s="288"/>
+      <c r="T84" s="288"/>
+      <c r="U84" s="288"/>
+      <c r="V84" s="288"/>
+      <c r="W84" s="288"/>
+      <c r="X84" s="288"/>
+      <c r="Y84" s="288"/>
+      <c r="Z84" s="288"/>
+      <c r="AA84" s="288"/>
+      <c r="AB84" s="288"/>
+      <c r="AE84" s="289"/>
+      <c r="AF84" s="289"/>
+      <c r="AG84" s="289"/>
+      <c r="AI84" s="289"/>
+      <c r="AJ84" s="289"/>
+      <c r="AK84" s="289"/>
+      <c r="AL84" s="289"/>
+      <c r="AM84" s="290"/>
+    </row>
+    <row r="85" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="284" t="s">
         <v>356</v>
       </c>
-      <c r="F85" s="285"/>
-      <c r="G85" s="285"/>
-      <c r="H85" s="285"/>
-      <c r="I85" s="285"/>
-      <c r="J85" s="285"/>
-      <c r="K85" s="285"/>
-      <c r="L85" s="285"/>
-      <c r="M85" s="286"/>
-      <c r="N85" s="287"/>
+      <c r="F85" s="286"/>
+      <c r="G85" s="286"/>
+      <c r="H85" s="286"/>
+      <c r="I85" s="286"/>
+      <c r="J85" s="286"/>
+      <c r="K85" s="286"/>
+      <c r="L85" s="286"/>
+      <c r="M85" s="287"/>
+      <c r="N85" s="288"/>
       <c r="O85" s="277">
         <f>('Stimulus Round 2'!$C8*0.7*4)/2</f>
         <v>28000</v>
@@ -9401,38 +9401,38 @@
         <f>('Stimulus Round 2'!$C8*0.3*4)/2</f>
         <v>12000</v>
       </c>
-      <c r="S85" s="287"/>
-      <c r="T85" s="287"/>
-      <c r="U85" s="287"/>
-      <c r="V85" s="287"/>
-      <c r="W85" s="287"/>
-      <c r="X85" s="287"/>
-      <c r="Y85" s="287"/>
-      <c r="Z85" s="287"/>
-      <c r="AA85" s="287"/>
-      <c r="AB85" s="287"/>
-      <c r="AE85" s="288"/>
-      <c r="AF85" s="288"/>
-      <c r="AG85" s="288"/>
-      <c r="AI85" s="288"/>
-      <c r="AJ85" s="288"/>
-      <c r="AK85" s="288"/>
-      <c r="AL85" s="288"/>
-      <c r="AM85" s="289"/>
-    </row>
-    <row r="86" spans="1:39" s="284" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="283" t="s">
+      <c r="S85" s="288"/>
+      <c r="T85" s="288"/>
+      <c r="U85" s="288"/>
+      <c r="V85" s="288"/>
+      <c r="W85" s="288"/>
+      <c r="X85" s="288"/>
+      <c r="Y85" s="288"/>
+      <c r="Z85" s="288"/>
+      <c r="AA85" s="288"/>
+      <c r="AB85" s="288"/>
+      <c r="AE85" s="289"/>
+      <c r="AF85" s="289"/>
+      <c r="AG85" s="289"/>
+      <c r="AI85" s="289"/>
+      <c r="AJ85" s="289"/>
+      <c r="AK85" s="289"/>
+      <c r="AL85" s="289"/>
+      <c r="AM85" s="290"/>
+    </row>
+    <row r="86" spans="1:39" s="285" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="284" t="s">
         <v>357</v>
       </c>
-      <c r="F86" s="285"/>
-      <c r="G86" s="285"/>
-      <c r="H86" s="285"/>
-      <c r="I86" s="285"/>
-      <c r="J86" s="285"/>
-      <c r="K86" s="285"/>
-      <c r="L86" s="285"/>
-      <c r="M86" s="286"/>
-      <c r="N86" s="287"/>
+      <c r="F86" s="286"/>
+      <c r="G86" s="286"/>
+      <c r="H86" s="286"/>
+      <c r="I86" s="286"/>
+      <c r="J86" s="286"/>
+      <c r="K86" s="286"/>
+      <c r="L86" s="286"/>
+      <c r="M86" s="287"/>
+      <c r="N86" s="288"/>
       <c r="O86" s="277">
         <f>('Stimulus Round 2'!$C9*0.7*4)/2</f>
         <v>12600</v>
@@ -9449,24 +9449,24 @@
         <f>('Stimulus Round 2'!$C9*0.3*4)/2</f>
         <v>5400</v>
       </c>
-      <c r="S86" s="287"/>
-      <c r="T86" s="287"/>
-      <c r="U86" s="287"/>
-      <c r="V86" s="287"/>
-      <c r="W86" s="287"/>
-      <c r="X86" s="287"/>
-      <c r="Y86" s="287"/>
-      <c r="Z86" s="287"/>
-      <c r="AA86" s="287"/>
-      <c r="AB86" s="287"/>
-      <c r="AE86" s="288"/>
-      <c r="AF86" s="288"/>
-      <c r="AG86" s="288"/>
-      <c r="AI86" s="288"/>
-      <c r="AJ86" s="288"/>
-      <c r="AK86" s="288"/>
-      <c r="AL86" s="288"/>
-      <c r="AM86" s="289"/>
+      <c r="S86" s="288"/>
+      <c r="T86" s="288"/>
+      <c r="U86" s="288"/>
+      <c r="V86" s="288"/>
+      <c r="W86" s="288"/>
+      <c r="X86" s="288"/>
+      <c r="Y86" s="288"/>
+      <c r="Z86" s="288"/>
+      <c r="AA86" s="288"/>
+      <c r="AB86" s="288"/>
+      <c r="AE86" s="289"/>
+      <c r="AF86" s="289"/>
+      <c r="AG86" s="289"/>
+      <c r="AI86" s="289"/>
+      <c r="AJ86" s="289"/>
+      <c r="AK86" s="289"/>
+      <c r="AL86" s="289"/>
+      <c r="AM86" s="290"/>
     </row>
     <row r="87" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="M88" s="185">
         <f t="shared" si="50"/>
-        <v>2566107.6666666665</v>
+        <v>2509001</v>
       </c>
       <c r="N88" s="130">
         <f>N46+N43+N32+N38+N33+N34</f>
@@ -12251,50 +12251,50 @@
     <row r="3" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="316" t="s">
+      <c r="A5" s="317" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="317"/>
-      <c r="N5" s="317"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="317"/>
-      <c r="Q5" s="317"/>
-      <c r="R5" s="317"/>
-      <c r="S5" s="317"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="318"/>
+      <c r="K5" s="318"/>
+      <c r="L5" s="318"/>
+      <c r="M5" s="318"/>
+      <c r="N5" s="318"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="318"/>
+      <c r="Q5" s="318"/>
+      <c r="R5" s="318"/>
+      <c r="S5" s="318"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="318"/>
-      <c r="C6" s="318"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="318"/>
-      <c r="O6" s="318"/>
-      <c r="P6" s="318"/>
-      <c r="Q6" s="318"/>
-      <c r="R6" s="318"/>
-      <c r="S6" s="318"/>
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
+      <c r="R6" s="319"/>
+      <c r="S6" s="319"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
@@ -12335,8 +12335,8 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="119"/>
-      <c r="R8" s="319"/>
-      <c r="S8" s="320"/>
+      <c r="R8" s="320"/>
+      <c r="S8" s="321"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="118"/>
@@ -12601,10 +12601,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="304" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="303"/>
+      <c r="B1" s="304"/>
       <c r="C1" s="34"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -12612,18 +12612,18 @@
       <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="321" t="s">
+      <c r="Z1" s="322" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="321"/>
-      <c r="AB1" s="321"/>
-      <c r="AC1" s="302"/>
-      <c r="AD1" s="302"/>
-      <c r="AE1" s="302"/>
-      <c r="AF1" s="302"/>
+      <c r="AA1" s="322"/>
+      <c r="AB1" s="322"/>
+      <c r="AC1" s="303"/>
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="303"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="323" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="95"/>
@@ -12632,45 +12632,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="322"/>
+      <c r="A3" s="323"/>
       <c r="B3" s="96"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="322"/>
+      <c r="A4" s="323"/>
       <c r="B4" s="97"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="322"/>
+      <c r="A5" s="323"/>
       <c r="B5" s="86"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="312" t="s">
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="312" t="s">
+      <c r="H7" s="314"/>
+      <c r="I7" s="314"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="313"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="314"/>
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="315"/>
     </row>
     <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -14534,8 +14534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF29D8-3B4C-4287-8349-C362C52DEB32}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14551,89 +14551,89 @@
       <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="324" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="299"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="300"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="324" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="323"/>
-      <c r="K3" s="299"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="300"/>
     </row>
     <row r="4" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="324"/>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
-      <c r="J4" s="324"/>
-      <c r="K4" s="323" t="s">
+      <c r="A4" s="325"/>
+      <c r="B4" s="325"/>
+      <c r="C4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="325"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="324" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="323"/>
-      <c r="M4" s="323"/>
-      <c r="N4" s="323"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="324"/>
+      <c r="N4" s="324"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="325" t="s">
+      <c r="C5" s="326" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="327"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="328" t="s">
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="327"/>
+      <c r="I5" s="327"/>
+      <c r="J5" s="328"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="329" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
+      <c r="M5" s="303"/>
+      <c r="N5" s="303"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="298" t="s">
+      <c r="A6" s="299" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="48"/>
-      <c r="C6" s="330">
+      <c r="C6" s="331">
         <v>2020</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="331"/>
-      <c r="H6" s="331"/>
-      <c r="I6" s="331"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="298" t="s">
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="333"/>
+      <c r="K6" s="299" t="s">
         <v>135</v>
       </c>
       <c r="L6" t="s">
@@ -14686,7 +14686,7 @@
       <c r="J7" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="298"/>
+      <c r="K7" s="299"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="N8" s="65">
         <f>4*N26</f>
-        <v>0</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="N17" s="71">
         <f t="shared" ref="N17:W18" si="3">4*N37</f>
-        <v>689.10666666666668</v>
+        <v>632</v>
       </c>
       <c r="O17" s="71">
         <f t="shared" si="3"/>
@@ -15025,10 +15025,10 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="339">
+      <c r="F19" s="340">
         <v>2020</v>
       </c>
-      <c r="G19" s="339">
+      <c r="G19" s="340">
         <v>2021</v>
       </c>
       <c r="H19">
@@ -15039,27 +15039,27 @@
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="340"/>
-      <c r="G20" s="340"/>
+      <c r="F20" s="341"/>
+      <c r="G20" s="341"/>
       <c r="N20" s="72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C21" s="300" t="s">
+      <c r="C21" s="301" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
       <c r="F21" s="25"/>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C22" s="300"/>
-      <c r="D22" s="300" t="s">
+      <c r="C22" s="301"/>
+      <c r="D22" s="301" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="300"/>
+      <c r="E22" s="301"/>
       <c r="F22" s="25">
         <v>285.56</v>
       </c>
@@ -15069,28 +15069,28 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="302" t="s">
+      <c r="K22" s="303" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="302"/>
-      <c r="M22" s="302"/>
-      <c r="N22" s="302"/>
-      <c r="O22" s="302" t="s">
+      <c r="L22" s="303"/>
+      <c r="M22" s="303"/>
+      <c r="N22" s="303"/>
+      <c r="O22" s="303" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="302"/>
-      <c r="Q22" s="302"/>
-      <c r="R22" s="302"/>
-      <c r="S22" s="302" t="s">
+      <c r="P22" s="303"/>
+      <c r="Q22" s="303"/>
+      <c r="R22" s="303"/>
+      <c r="S22" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="302"/>
-      <c r="U22" s="302"/>
-      <c r="V22" s="302"/>
+      <c r="T22" s="303"/>
+      <c r="U22" s="303"/>
+      <c r="V22" s="303"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="23"/>
-      <c r="D23" s="300" t="s">
+      <c r="D23" s="301" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="23"/>
@@ -15103,19 +15103,19 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="302" t="s">
+      <c r="K23" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="L23" s="302"/>
-      <c r="M23" s="302"/>
-      <c r="N23" s="302"/>
+      <c r="L23" s="303"/>
+      <c r="M23" s="303"/>
+      <c r="N23" s="303"/>
       <c r="O23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="23"/>
-      <c r="D24" s="300" t="s">
+      <c r="D24" s="301" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="23"/>
@@ -15167,7 +15167,7 @@
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="23"/>
-      <c r="D25" s="300" t="s">
+      <c r="D25" s="301" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="23"/>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="23"/>
-      <c r="D26" s="300"/>
+      <c r="D26" s="301"/>
       <c r="E26" s="23"/>
       <c r="F26" s="25" t="s">
         <v>97</v>
@@ -15203,7 +15203,10 @@
         <f>M8/4</f>
         <v>278.13333333333333</v>
       </c>
-      <c r="N26" s="65"/>
+      <c r="N26" s="65">
+        <f>N37+N38</f>
+        <v>193</v>
+      </c>
       <c r="O26" s="64">
         <f>O33+O34</f>
         <v>57</v>
@@ -15239,8 +15242,8 @@
     </row>
     <row r="27" spans="3:23" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="23"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="341" t="s">
+      <c r="D27" s="301"/>
+      <c r="E27" s="342" t="s">
         <v>125</v>
       </c>
       <c r="F27" s="25">
@@ -15260,7 +15263,7 @@
       <c r="S27" s="64"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I28" s="329" t="s">
+      <c r="I28" s="330" t="s">
         <v>259</v>
       </c>
       <c r="J28" s="63" t="s">
@@ -15311,7 +15314,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="329"/>
+      <c r="I29" s="330"/>
       <c r="J29" s="63" t="s">
         <v>143</v>
       </c>
@@ -15360,7 +15363,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="329"/>
+      <c r="I30" s="330"/>
       <c r="J30" s="63" t="s">
         <v>142</v>
       </c>
@@ -15409,7 +15412,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="329"/>
+      <c r="I31" s="330"/>
       <c r="J31" t="s">
         <v>140</v>
       </c>
@@ -15469,10 +15472,10 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="I33" s="329" t="s">
+      <c r="I33" s="330" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="342" t="s">
+      <c r="J33" s="343" t="s">
         <v>259</v>
       </c>
       <c r="M33" s="64">
@@ -15517,7 +15520,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="I34" s="329"/>
+      <c r="I34" s="330"/>
       <c r="J34" t="s">
         <v>260</v>
       </c>
@@ -15535,7 +15538,7 @@
       </c>
       <c r="N34" s="64">
         <f>N26-N33</f>
-        <v>-162.92333333333335</v>
+        <v>30.076666666666654</v>
       </c>
       <c r="O34" s="64">
         <v>25</v>
@@ -15565,7 +15568,7 @@
     <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="N35" s="64">
         <f>SUM(K34:N34)</f>
-        <v>-73.956666666666663</v>
+        <v>119.04333333333334</v>
       </c>
       <c r="R35" s="64"/>
     </row>
@@ -15599,8 +15602,7 @@
         <v>208.73333333333332</v>
       </c>
       <c r="N37" s="64">
-        <f>N33+N28</f>
-        <v>172.27666666666667</v>
+        <v>158</v>
       </c>
       <c r="O37" s="64">
         <f>O33+O28</f>
@@ -15817,30 +15819,30 @@
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
-      <c r="E6" s="336" t="s">
+      <c r="E6" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="336"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="336"/>
-      <c r="M6" s="336"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="336"/>
-      <c r="P6" s="336"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="336"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="337"/>
+      <c r="K6" s="337"/>
+      <c r="L6" s="337"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="337"/>
+      <c r="P6" s="337"/>
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="333" t="s">
+      <c r="A7" s="334" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="333"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
+      <c r="B7" s="334"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="334"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -15858,11 +15860,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
-      <c r="B8" s="333" t="s">
+      <c r="B8" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="333"/>
-      <c r="D8" s="333"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="334"/>
       <c r="E8" s="41">
         <v>1717.857</v>
       </c>
@@ -15908,11 +15910,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
-      <c r="B9" s="333" t="s">
+      <c r="B9" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="333"/>
-      <c r="D9" s="333"/>
+      <c r="C9" s="334"/>
+      <c r="D9" s="334"/>
       <c r="E9" s="41">
         <v>1243.3720000000001</v>
       </c>
@@ -15958,11 +15960,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
-      <c r="B10" s="333" t="s">
+      <c r="B10" s="334" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="333"/>
-      <c r="D10" s="333"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
       <c r="E10" s="41">
         <v>230.245</v>
       </c>
@@ -16008,11 +16010,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
-      <c r="B11" s="333" t="s">
+      <c r="B11" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="333"/>
-      <c r="D11" s="333"/>
+      <c r="C11" s="334"/>
+      <c r="D11" s="334"/>
       <c r="E11" s="41">
         <v>271.327</v>
       </c>
@@ -16107,10 +16109,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="333" t="s">
+      <c r="C13" s="334" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="333"/>
+      <c r="D13" s="334"/>
       <c r="E13" s="41">
         <v>3462.8009999999999</v>
       </c>
@@ -16261,11 +16263,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
-      <c r="B19" s="333" t="s">
+      <c r="B19" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="333"/>
-      <c r="D19" s="333"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="334"/>
       <c r="E19" s="41">
         <v>1717.857</v>
       </c>
@@ -16324,11 +16326,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="333"/>
-      <c r="D20" s="333"/>
+      <c r="C20" s="334"/>
+      <c r="D20" s="334"/>
       <c r="E20" s="41">
         <v>1243.3720000000001</v>
       </c>
@@ -16388,11 +16390,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
-      <c r="B21" s="333" t="s">
+      <c r="B21" s="334" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="333"/>
-      <c r="D21" s="333"/>
+      <c r="C21" s="334"/>
+      <c r="D21" s="334"/>
       <c r="E21" s="41">
         <v>230.245</v>
       </c>
@@ -16451,11 +16453,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
-      <c r="B22" s="333" t="s">
+      <c r="B22" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="333"/>
-      <c r="D22" s="333"/>
+      <c r="C22" s="334"/>
+      <c r="D22" s="334"/>
       <c r="E22" s="41">
         <v>271.327</v>
       </c>
@@ -16568,21 +16570,21 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="334" t="s">
+      <c r="H27" s="335" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="334"/>
-      <c r="J27" s="334"/>
-      <c r="K27" s="334"/>
-      <c r="L27" s="334"/>
-      <c r="M27" s="334"/>
-      <c r="N27" s="334"/>
-      <c r="O27" s="334"/>
-      <c r="P27" s="334"/>
-      <c r="Q27" s="334"/>
-      <c r="R27" s="334"/>
-      <c r="S27" s="334"/>
-      <c r="T27" s="334"/>
+      <c r="I27" s="335"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="335"/>
+      <c r="L27" s="335"/>
+      <c r="M27" s="335"/>
+      <c r="N27" s="335"/>
+      <c r="O27" s="335"/>
+      <c r="P27" s="335"/>
+      <c r="Q27" s="335"/>
+      <c r="R27" s="335"/>
+      <c r="S27" s="335"/>
+      <c r="T27" s="335"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
@@ -16898,21 +16900,21 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="335" t="s">
+      <c r="F37" s="336" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="335"/>
-      <c r="H37" s="335"/>
-      <c r="I37" s="335"/>
-      <c r="J37" s="335"/>
-      <c r="K37" s="335"/>
-      <c r="L37" s="335"/>
-      <c r="M37" s="335"/>
-      <c r="N37" s="335"/>
-      <c r="O37" s="335"/>
-      <c r="P37" s="335"/>
-      <c r="Q37" s="335"/>
-      <c r="R37" s="335"/>
+      <c r="G37" s="336"/>
+      <c r="H37" s="336"/>
+      <c r="I37" s="336"/>
+      <c r="J37" s="336"/>
+      <c r="K37" s="336"/>
+      <c r="L37" s="336"/>
+      <c r="M37" s="336"/>
+      <c r="N37" s="336"/>
+      <c r="O37" s="336"/>
+      <c r="P37" s="336"/>
+      <c r="Q37" s="336"/>
+      <c r="R37" s="336"/>
     </row>
     <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
@@ -17228,21 +17230,21 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="334" t="s">
+      <c r="F48" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="334"/>
-      <c r="H48" s="334"/>
-      <c r="I48" s="334"/>
-      <c r="J48" s="334"/>
-      <c r="K48" s="334"/>
-      <c r="L48" s="334"/>
-      <c r="M48" s="334"/>
-      <c r="N48" s="334"/>
-      <c r="O48" s="334"/>
-      <c r="P48" s="334"/>
-      <c r="Q48" s="334"/>
-      <c r="R48" s="334"/>
+      <c r="G48" s="335"/>
+      <c r="H48" s="335"/>
+      <c r="I48" s="335"/>
+      <c r="J48" s="335"/>
+      <c r="K48" s="335"/>
+      <c r="L48" s="335"/>
+      <c r="M48" s="335"/>
+      <c r="N48" s="335"/>
+      <c r="O48" s="335"/>
+      <c r="P48" s="335"/>
+      <c r="Q48" s="335"/>
+      <c r="R48" s="335"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
@@ -17606,50 +17608,50 @@
     <row r="3" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="316" t="s">
+      <c r="A5" s="317" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="317"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="317"/>
-      <c r="N5" s="317"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="317"/>
-      <c r="Q5" s="317"/>
-      <c r="R5" s="317"/>
-      <c r="S5" s="317"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="318"/>
+      <c r="K5" s="318"/>
+      <c r="L5" s="318"/>
+      <c r="M5" s="318"/>
+      <c r="N5" s="318"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="318"/>
+      <c r="Q5" s="318"/>
+      <c r="R5" s="318"/>
+      <c r="S5" s="318"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="318" t="s">
+      <c r="A6" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="318"/>
-      <c r="C6" s="318"/>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="318"/>
-      <c r="M6" s="318"/>
-      <c r="N6" s="318"/>
-      <c r="O6" s="318"/>
-      <c r="P6" s="318"/>
-      <c r="Q6" s="318"/>
-      <c r="R6" s="318"/>
-      <c r="S6" s="318"/>
+      <c r="B6" s="319"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+      <c r="K6" s="319"/>
+      <c r="L6" s="319"/>
+      <c r="M6" s="319"/>
+      <c r="N6" s="319"/>
+      <c r="O6" s="319"/>
+      <c r="P6" s="319"/>
+      <c r="Q6" s="319"/>
+      <c r="R6" s="319"/>
+      <c r="S6" s="319"/>
     </row>
     <row r="7" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
@@ -17689,10 +17691,10 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="12"/>
-      <c r="R8" s="319" t="s">
+      <c r="R8" s="320" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="320"/>
+      <c r="S8" s="321"/>
     </row>
     <row r="9" spans="1:19" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
@@ -20563,10 +20565,10 @@
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="337" t="s">
+      <c r="D75" s="338" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="338"/>
+      <c r="E75" s="339"/>
       <c r="F75" s="24">
         <v>-75.135000000000005</v>
       </c>
@@ -21264,73 +21266,73 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="291" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="290">
+      <c r="B2" s="291">
         <v>325</v>
       </c>
-      <c r="C2" s="291">
+      <c r="C2" s="292">
         <f>B2*1000</f>
         <v>325000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="290">
+      <c r="B3" s="291">
         <v>120</v>
       </c>
-      <c r="C3" s="291">
+      <c r="C3" s="292">
         <f t="shared" ref="C3:C20" si="0">B3*1000</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="290">
+      <c r="B4" s="291">
         <v>166</v>
       </c>
-      <c r="C4" s="291">
+      <c r="C4" s="292">
         <f t="shared" si="0"/>
         <v>166000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="290" t="s">
+      <c r="A5" s="291" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="290">
+      <c r="B5" s="291">
         <v>82</v>
       </c>
-      <c r="C5" s="291">
+      <c r="C5" s="292">
         <f t="shared" si="0"/>
         <v>82000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="290" t="s">
+      <c r="A6" s="291" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="290">
+      <c r="B6" s="291">
         <v>63</v>
       </c>
-      <c r="C6" s="291">
+      <c r="C6" s="292">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="293" t="s">
         <v>355</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
-      <c r="C7" s="291">
+      <c r="C7" s="292">
         <f>B7*1000</f>
         <v>22000</v>
       </c>
@@ -21342,7 +21344,7 @@
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="291">
+      <c r="C8" s="292">
         <f>B8*1000</f>
         <v>20000</v>
       </c>
@@ -21354,148 +21356,148 @@
       <c r="B9">
         <v>9</v>
       </c>
-      <c r="C9" s="291">
+      <c r="C9" s="292">
         <f>B9*1000</f>
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="290">
+      <c r="B10" s="291">
         <f>B6-SUM(B7:B9)</f>
         <v>12</v>
       </c>
-      <c r="C10" s="291">
+      <c r="C10" s="292">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="293" t="s">
+      <c r="A11" s="294" t="s">
         <v>366</v>
       </c>
-      <c r="B11" s="290">
+      <c r="B11" s="291">
         <v>45</v>
       </c>
-      <c r="C11" s="291">
+      <c r="C11" s="292">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="292" t="s">
+      <c r="A12" s="293" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="290">
+      <c r="B12" s="291">
         <v>16</v>
       </c>
-      <c r="C12" s="291">
+      <c r="C12" s="292">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="292" t="s">
+      <c r="A13" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="290">
+      <c r="B13" s="291">
         <f>B11-B12</f>
         <v>29</v>
       </c>
-      <c r="C13" s="291">
+      <c r="C13" s="292">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="293" t="s">
+      <c r="A14" s="294" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="290">
+      <c r="B14" s="291">
         <v>80</v>
       </c>
-      <c r="C14" s="291">
+      <c r="C14" s="292">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="292" t="s">
+      <c r="A15" s="293" t="s">
         <v>349</v>
       </c>
-      <c r="B15" s="290">
+      <c r="B15" s="291">
         <v>26</v>
       </c>
-      <c r="C15" s="291">
+      <c r="C15" s="292">
         <f t="shared" si="0"/>
         <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="292" t="s">
+      <c r="A16" s="293" t="s">
         <v>58</v>
       </c>
       <c r="B16">
         <f>B14-B15</f>
         <v>54</v>
       </c>
-      <c r="C16" s="291">
+      <c r="C16" s="292">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="293" t="s">
+      <c r="A17" s="294" t="s">
         <v>369</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="291">
+      <c r="C17" s="292">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="292" t="s">
+      <c r="A18" s="293" t="s">
         <v>370</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
-      <c r="C18" s="291">
+      <c r="C18" s="292">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="292" t="s">
+      <c r="A19" s="293" t="s">
         <v>371</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="291">
+      <c r="C19" s="292">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="294" t="s">
+      <c r="A20" s="295" t="s">
         <v>372</v>
       </c>
-      <c r="B20" s="295">
+      <c r="B20" s="296">
         <v>5</v>
       </c>
-      <c r="C20" s="296">
+      <c r="C20" s="297">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="293" t="s">
+      <c r="A21" s="294" t="s">
         <v>34</v>
       </c>
       <c r="B21">
@@ -21514,10 +21516,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21536,23 +21538,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="308" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="308"/>
+      <c r="B1" s="309"/>
       <c r="C1" s="34"/>
       <c r="H1"/>
       <c r="I1" s="235"/>
-      <c r="J1" s="315" t="s">
+      <c r="J1" s="316" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="302"/>
-      <c r="W1" s="302"/>
-      <c r="X1" s="302"/>
-      <c r="Y1" s="302"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="310" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="114"/>
@@ -21560,68 +21562,68 @@
         <v>193</v>
       </c>
       <c r="I2" s="236"/>
-      <c r="J2" s="315"/>
+      <c r="J2" s="316"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="310"/>
+      <c r="A3" s="311"/>
       <c r="B3" s="115"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="I3" s="236"/>
-      <c r="J3" s="315"/>
+      <c r="J3" s="316"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="310"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="116"/>
       <c r="C4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="311"/>
+      <c r="A5" s="312"/>
       <c r="B5" s="117"/>
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="312" t="s">
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="312" t="s">
+      <c r="H7" s="314"/>
+      <c r="I7" s="314"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="313"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="313"/>
-      <c r="O7" s="312" t="s">
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="313" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="313"/>
-      <c r="Q7" s="313"/>
-      <c r="R7" s="313"/>
-      <c r="S7" s="312" t="s">
+      <c r="P7" s="314"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="313"/>
-      <c r="U7" s="313"/>
-      <c r="V7" s="313"/>
-      <c r="W7" s="312" t="s">
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="313"/>
-      <c r="Y7" s="313"/>
-      <c r="Z7" s="313"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
       <c r="AA7" s="216" t="s">
         <v>278</v>
       </c>
@@ -24480,7 +24482,7 @@
       </c>
       <c r="F57" s="92">
         <f>main!M88/1000</f>
-        <v>2566.1076666666663</v>
+        <v>2509.0010000000002</v>
       </c>
       <c r="G57" s="137">
         <f>main!N88/1000</f>
@@ -24756,7 +24758,7 @@
       <c r="E60" s="210"/>
       <c r="F60" s="210">
         <f t="shared" ref="F60" si="93">F57-F58</f>
-        <v>-87.159333333333507</v>
+        <v>-144.26599999999962</v>
       </c>
       <c r="G60" s="138">
         <f t="shared" ref="G60" si="94">G57-G58</f>
@@ -25387,47 +25389,47 @@
       </c>
       <c r="F71" s="211">
         <f>main!M78/1000</f>
-        <v>300.60000000000002</v>
+        <v>286.98038194444445</v>
       </c>
       <c r="G71" s="139">
         <f>main!N78/1000</f>
-        <v>312.14751507478184</v>
+        <v>298.42437754843183</v>
       </c>
       <c r="H71" s="211">
         <f>main!O78/1000</f>
-        <v>354.97091278629409</v>
+        <v>341.19269489482321</v>
       </c>
       <c r="I71" s="211">
         <f>main!P78/1000</f>
-        <v>327.9157954060621</v>
+        <v>314.07437053822298</v>
       </c>
       <c r="J71" s="211">
         <f>main!Q78/1000</f>
-        <v>329.02265790350458</v>
+        <v>315.10719057763401</v>
       </c>
       <c r="K71" s="139">
         <f>main!R78/1000</f>
-        <v>324.61926569503942</v>
+        <v>310.59699489026309</v>
       </c>
       <c r="L71" s="211">
         <f>main!S78/1000</f>
-        <v>320.43779822152214</v>
+        <v>306.29387850499586</v>
       </c>
       <c r="M71" s="211">
         <f>main!T78/1000</f>
-        <v>322.27920437339446</v>
+        <v>308.01210563686004</v>
       </c>
       <c r="N71" s="211">
         <f>main!U78/1000</f>
-        <v>324.32478431082666</v>
+        <v>309.9208485534183</v>
       </c>
       <c r="O71" s="139">
         <f>main!V78/1000</f>
-        <v>326.20682978106072</v>
+        <v>311.67699647715051</v>
       </c>
       <c r="P71" s="243">
         <f>main!W78/1000</f>
-        <v>328.29716671025915</v>
+        <v>313.62750241134353</v>
       </c>
       <c r="Q71" s="243">
         <v>330.50545802602733</v>
@@ -25645,47 +25647,47 @@
       <c r="E74" s="210"/>
       <c r="F74" s="210">
         <f>F71-F72</f>
-        <v>58.472000000000037</v>
+        <v>44.85238194444446</v>
       </c>
       <c r="G74" s="138">
         <f t="shared" ref="G74:K74" si="118">G71-G72</f>
-        <v>83.016794135611548</v>
+        <v>69.293656609261546</v>
       </c>
       <c r="H74" s="210">
         <f t="shared" si="118"/>
-        <v>141.44456498738089</v>
+        <v>127.66634709591</v>
       </c>
       <c r="I74" s="210">
         <f t="shared" si="118"/>
-        <v>129.55930506750141</v>
+        <v>115.71788019966229</v>
       </c>
       <c r="J74" s="210">
         <f t="shared" si="118"/>
-        <v>145.25667078542378</v>
+        <v>131.34120345955321</v>
       </c>
       <c r="K74" s="138">
         <f t="shared" si="118"/>
-        <v>129.56594546132962</v>
+        <v>115.54367465655329</v>
       </c>
       <c r="L74" s="210">
         <f t="shared" ref="L74:N74" si="119">L71-L72</f>
-        <v>113.30338556102345</v>
+        <v>99.159465844497163</v>
       </c>
       <c r="M74" s="210">
         <f t="shared" si="119"/>
-        <v>102.98188707559677</v>
+        <v>88.714788339062352</v>
       </c>
       <c r="N74" s="210">
         <f t="shared" si="119"/>
-        <v>92.134292974164765</v>
+        <v>77.730357216756403</v>
       </c>
       <c r="O74" s="138">
         <f t="shared" ref="O74:AA74" si="120">O71-O72</f>
-        <v>81.762811625707229</v>
+        <v>67.23297832179702</v>
       </c>
       <c r="P74" s="245">
         <f t="shared" si="120"/>
-        <v>70.854624631556021</v>
+        <v>56.184960332640401</v>
       </c>
       <c r="Q74" s="245">
         <f t="shared" si="120"/>
@@ -25791,7 +25793,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K32" sqref="K32"/>
+      <selection pane="topRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25931,7 +25933,7 @@
       </c>
       <c r="G3">
         <f t="array" ref="G3:G24">TRANSPOSE('add-ons calculations'!F60:AA60)</f>
-        <v>-87.159333333333507</v>
+        <v>-144.26599999999962</v>
       </c>
       <c r="H3">
         <f t="array" ref="H3:H24">TRANSPOSE('add-ons calculations'!F67:AA67)</f>
@@ -25939,18 +25941,18 @@
       </c>
       <c r="I3">
         <f t="array" ref="I3:I24">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>58.472000000000037</v>
+        <v>44.85238194444446</v>
       </c>
       <c r="J3" s="90">
         <f>'add-ons calculations'!F71</f>
-        <v>300.60000000000002</v>
+        <v>286.98038194444445</v>
       </c>
       <c r="K3" s="90" cm="1">
         <f t="array" ref="K3:K12">TRANSPOSE(main!M36:V36)/1000</f>
         <v>881.35400000000004</v>
       </c>
       <c r="L3">
-        <v>795.30666666666662</v>
+        <v>738.2</v>
       </c>
       <c r="M3">
         <v>140</v>
@@ -25991,7 +25993,7 @@
         <v>-833.94013103694624</v>
       </c>
       <c r="I4">
-        <v>83.016794135611548</v>
+        <v>69.293656609261546</v>
       </c>
       <c r="J4" s="90">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>-426.91177522010059</v>
       </c>
       <c r="I5">
-        <v>141.44456498738089</v>
+        <v>127.66634709591</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -26061,7 +26063,7 @@
       <c r="O5">
         <v>71.400000000000006</v>
       </c>
-      <c r="P5" s="297">
+      <c r="P5" s="298">
         <f>664000/1000</f>
         <v>664</v>
       </c>
@@ -26092,7 +26094,7 @@
         <v>-431.32456398056468</v>
       </c>
       <c r="I6">
-        <v>129.55930506750141</v>
+        <v>115.71788019966229</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -26142,7 +26144,7 @@
         <v>-1086.0898722425786</v>
       </c>
       <c r="I7">
-        <v>145.25667078542378</v>
+        <v>131.34120345955321</v>
       </c>
       <c r="J7" s="90">
         <v>0</v>
@@ -26192,7 +26194,7 @@
         <v>-1112.559918312772</v>
       </c>
       <c r="I8">
-        <v>129.56594546132962</v>
+        <v>115.54367465655329</v>
       </c>
       <c r="J8" s="90">
         <v>0</v>
@@ -26242,7 +26244,7 @@
         <v>-1163.3117757737041</v>
       </c>
       <c r="I9">
-        <v>113.30338556102345</v>
+        <v>99.159465844497163</v>
       </c>
       <c r="J9" s="90">
         <v>0</v>
@@ -26292,7 +26294,7 @@
         <v>-1168.3939307885266</v>
       </c>
       <c r="I10">
-        <v>102.98188707559677</v>
+        <v>88.714788339062352</v>
       </c>
       <c r="J10" s="90">
         <v>0</v>
@@ -26342,7 +26344,7 @@
         <v>-1173.5410146130612</v>
       </c>
       <c r="I11">
-        <v>92.134292974164765</v>
+        <v>77.730357216756403</v>
       </c>
       <c r="J11" s="90">
         <v>0</v>
@@ -26392,7 +26394,7 @@
         <v>-1178.7530272473091</v>
       </c>
       <c r="I12">
-        <v>81.762811625707229</v>
+        <v>67.23297832179702</v>
       </c>
       <c r="J12" s="90">
         <v>0</v>
@@ -26442,7 +26444,7 @@
         <v>-1184.0417739294007</v>
       </c>
       <c r="I13">
-        <v>70.854624631556021</v>
+        <v>56.184960332640401</v>
       </c>
       <c r="J13" s="90">
         <v>0</v>
@@ -27036,36 +27038,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="D1" s="302" t="s">
+      <c r="D1" s="303" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302" t="s">
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302" t="s">
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
-      <c r="O1" s="302"/>
-      <c r="P1" s="302" t="s">
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="302"/>
-      <c r="R1" s="302"/>
-      <c r="S1" s="302"/>
-      <c r="T1" s="302" t="s">
+      <c r="Q1" s="303"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303" t="s">
         <v>268</v>
       </c>
-      <c r="U1" s="302"/>
-      <c r="V1" s="302"/>
-      <c r="W1" s="302"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="D2" s="185" t="s">
@@ -27475,22 +27477,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="308" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="308"/>
+      <c r="B1" s="309"/>
       <c r="C1" s="34"/>
       <c r="I1" s="235"/>
-      <c r="J1" s="315" t="s">
+      <c r="J1" s="316" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="302"/>
-      <c r="W1" s="302"/>
-      <c r="X1" s="302"/>
-      <c r="Y1" s="302"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="310" t="s">
         <v>192</v>
       </c>
       <c r="B2" s="114"/>
@@ -27499,20 +27501,20 @@
       </c>
       <c r="H2" s="83"/>
       <c r="I2" s="236"/>
-      <c r="J2" s="315"/>
+      <c r="J2" s="316"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="310"/>
+      <c r="A3" s="311"/>
       <c r="B3" s="115"/>
       <c r="C3" t="s">
         <v>194</v>
       </c>
       <c r="H3" s="83"/>
       <c r="I3" s="236"/>
-      <c r="J3" s="315"/>
+      <c r="J3" s="316"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="310"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="116"/>
       <c r="C4" t="s">
         <v>195</v>
@@ -27522,7 +27524,7 @@
       <c r="J4" s="83"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="311"/>
+      <c r="A5" s="312"/>
       <c r="B5" s="117"/>
       <c r="C5" t="s">
         <v>182</v>
@@ -27537,42 +27539,42 @@
       <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="313" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="313"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="314"/>
-      <c r="G7" s="312" t="s">
+      <c r="D7" s="314"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="313" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="314"/>
-      <c r="K7" s="312" t="s">
+      <c r="H7" s="314"/>
+      <c r="I7" s="314"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="313"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="313"/>
-      <c r="O7" s="312" t="s">
+      <c r="L7" s="314"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="313" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="313"/>
-      <c r="Q7" s="313"/>
-      <c r="R7" s="313"/>
-      <c r="S7" s="312" t="s">
+      <c r="P7" s="314"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="313" t="s">
         <v>276</v>
       </c>
-      <c r="T7" s="313"/>
-      <c r="U7" s="313"/>
-      <c r="V7" s="313"/>
-      <c r="W7" s="312" t="s">
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="313" t="s">
         <v>277</v>
       </c>
-      <c r="X7" s="313"/>
-      <c r="Y7" s="313"/>
-      <c r="Z7" s="313"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
       <c r="AA7" s="216" t="s">
         <v>278</v>
       </c>
@@ -30461,7 +30463,7 @@
       </c>
       <c r="I2" s="255">
         <f t="array" ref="I2:I23">TRANSPOSE('add-ons calculations'!F74:AA74)</f>
-        <v>58.472000000000037</v>
+        <v>44.85238194444446</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -30490,7 +30492,7 @@
         <v>-833.94013103694624</v>
       </c>
       <c r="I3" s="255">
-        <v>83.016794135611548</v>
+        <v>69.293656609261546</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -30519,7 +30521,7 @@
         <v>-426.91177522010059</v>
       </c>
       <c r="I4" s="255">
-        <v>141.44456498738089</v>
+        <v>127.66634709591</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -30548,7 +30550,7 @@
         <v>-431.32456398056468</v>
       </c>
       <c r="I5" s="255">
-        <v>129.55930506750141</v>
+        <v>115.71788019966229</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -30577,7 +30579,7 @@
         <v>-1086.0898722425786</v>
       </c>
       <c r="I6" s="255">
-        <v>145.25667078542378</v>
+        <v>131.34120345955321</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -30606,7 +30608,7 @@
         <v>-1112.559918312772</v>
       </c>
       <c r="I7" s="255">
-        <v>129.56594546132962</v>
+        <v>115.54367465655329</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -30635,7 +30637,7 @@
         <v>-1163.3117757737041</v>
       </c>
       <c r="I8" s="255">
-        <v>113.30338556102345</v>
+        <v>99.159465844497163</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -30664,7 +30666,7 @@
         <v>-1168.3939307885266</v>
       </c>
       <c r="I9" s="255">
-        <v>102.98188707559677</v>
+        <v>88.714788339062352</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -30693,7 +30695,7 @@
         <v>-1173.5410146130612</v>
       </c>
       <c r="I10" s="255">
-        <v>92.134292974164765</v>
+        <v>77.730357216756403</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -30722,7 +30724,7 @@
         <v>-1178.7530272473091</v>
       </c>
       <c r="I11" s="255">
-        <v>81.762811625707229</v>
+        <v>67.23297832179702</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -30751,7 +30753,7 @@
         <v>-1184.0417739294007</v>
       </c>
       <c r="I12" s="255">
-        <v>70.854624631556021</v>
+        <v>56.184960332640401</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -31088,32 +31090,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="282" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:9" s="283" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="283" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="283" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="282" t="s">
+      <c r="C1" s="283" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="282" t="s">
+      <c r="D1" s="283" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="282" t="s">
+      <c r="E1" s="283" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="282" t="s">
+      <c r="F1" s="283" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="282" t="s">
+      <c r="G1" s="283" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="282" t="s">
+      <c r="H1" s="283" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="282" t="s">
+      <c r="I1" s="283" t="s">
         <v>332</v>
       </c>
     </row>
